--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/flask_app/backend/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{638BDA98-DFCE-4B16-B0C2-7A466A0BE0EF}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED5083D7-1483-47C2-9BBB-56841CBC7A42}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="422">
   <si>
     <t>Col 1</t>
   </si>
@@ -1286,6 +1286,9 @@
   </si>
   <si>
     <t>SE AGREGA 2154160034, 28 OCT</t>
+  </si>
+  <si>
+    <t>testing</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1724,7 @@
   <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3331,13 +3334,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B144" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED5083D7-1483-47C2-9BBB-56841CBC7A42}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C577F2B3-4165-4F67-A892-AEC95D43AC1E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="424">
   <si>
     <t>Col 1</t>
   </si>
@@ -1289,6 +1289,12 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>FA11</t>
+  </si>
+  <si>
+    <t>LA OL</t>
   </si>
 </sst>
 </file>
@@ -1723,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B146" sqref="B146"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3353,9 +3359,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CV11"/>
+  <dimension ref="A1:CV12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -4468,6 +4476,20 @@
       </c>
       <c r="T11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4477,9 +4499,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5093,6 +5117,9 @@
       <c r="B10" t="s">
         <v>405</v>
       </c>
+      <c r="C10" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
@@ -5100,6 +5127,14 @@
       </c>
       <c r="B11" t="s">
         <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C577F2B3-4165-4F67-A892-AEC95D43AC1E}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B05738C-8069-4199-9484-80527D1CAF76}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="422">
   <si>
     <t>Col 1</t>
   </si>
@@ -1289,12 +1289,6 @@
   </si>
   <si>
     <t>testing</t>
-  </si>
-  <si>
-    <t>FA11</t>
-  </si>
-  <si>
-    <t>LA OL</t>
   </si>
 </sst>
 </file>
@@ -1729,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F145"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3338,17 +3332,6 @@
         <v>220</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>421</v>
-      </c>
-      <c r="B144" t="s">
-        <v>421</v>
-      </c>
-      <c r="C144" t="s">
-        <v>421</v>
-      </c>
-    </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
     </row>
@@ -3359,10 +3342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CV12"/>
+  <dimension ref="A1:CV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4478,20 +4461,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>422</v>
-      </c>
-      <c r="B12" t="s">
-        <v>423</v>
-      </c>
-      <c r="C12" t="s">
-        <v>421</v>
-      </c>
-      <c r="D12" t="s">
-        <v>421</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4499,10 +4468,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ12"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5127,14 +5096,6 @@
       </c>
       <c r="B11" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>422</v>
-      </c>
-      <c r="B12" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B05738C-8069-4199-9484-80527D1CAF76}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD70F6F-C35F-41EA-93FD-865C66325EDE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="423">
   <si>
     <t>Col 1</t>
   </si>
@@ -1289,6 +1289,9 @@
   </si>
   <si>
     <t>testing</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -1314,6 +1317,7 @@
       <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1721,13 +1725,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:C144"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -3332,8 +3344,432 @@
         <v>220</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>2098700432</v>
+      </c>
+      <c r="B144" t="s">
+        <v>422</v>
+      </c>
+      <c r="C144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2098700436</v>
+      </c>
       <c r="B145" s="5"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2098706076</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2098706072</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>2098700405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>2098700404</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2098700434</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>2098700108</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>2154140335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>2098700437</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>2098700256</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>2099700057</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>2099700059</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>2099700058</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>2154160036</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2099700009</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2098700433</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2099700010</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2099700041</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2099700049</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2099706005</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>2154140162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>2154140292</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>2154150497</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>2154150501</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>2098700025</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>2154150509</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2154150557</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>2154150301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>2154150351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>2154155149</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>2154150350</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2154150525</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2154150349</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>2154150455</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>2154150677</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2154150769</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>2154150343</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>2154140596</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>2154150788</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>2154150765</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>2154155150</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>2154150648</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>2154140069</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>2154150370</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>2154140207</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>2154150767</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>2154150526</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>2154150366</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>2154150560</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>2098700379</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>2154150357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>2154150358</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>2154140291</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>2154150653</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>2098700380</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>2154150534</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>2154150347</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>2154150627</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>2154150448</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>2154150622</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>2154150591</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>2154140285</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>2154140345</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>2098706075</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>2098706072</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>2154150893</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>2154150841</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>2154150839</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>2154150719</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>2154150876</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>2154150581</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>2154150731</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>2154150840</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>2154150814</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>2154150921</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>2154150646</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>2154150918</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>2154150822</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>2154150597</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>2154150813</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>2154150922</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>2098700246</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>2099700056</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3345,7 +3781,7 @@
   <dimension ref="A1:CV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4397,6 +4833,12 @@
       </c>
       <c r="U10" t="s">
         <v>154</v>
+      </c>
+      <c r="V10" t="s">
+        <v>422</v>
+      </c>
+      <c r="W10" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.35">
@@ -4470,11 +4912,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="13.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
@@ -5057,6 +5502,9 @@
       </c>
       <c r="K8" t="s">
         <v>187</v>
+      </c>
+      <c r="L8">
+        <v>2098700432</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD70F6F-C35F-41EA-93FD-865C66325EDE}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD2756E-D4FC-4F8A-ACBB-6B61D14120FC}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3781,7 +3781,7 @@
   <dimension ref="A1:CV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4913,11 +4913,12 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5503,9 +5504,6 @@
       <c r="K8" t="s">
         <v>187</v>
       </c>
-      <c r="L8">
-        <v>2098700432</v>
-      </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -5525,6 +5523,9 @@
       </c>
       <c r="F9" t="s">
         <v>219</v>
+      </c>
+      <c r="G9">
+        <v>2098700432</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AFD2756E-D4FC-4F8A-ACBB-6B61D14120FC}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDBDF1B1-97BA-4C1D-9757-7DF7E6470694}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="423">
   <si>
     <t>Col 1</t>
   </si>
@@ -4913,11 +4913,12 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.90625" customWidth="1"/>
   </cols>
@@ -5524,16 +5525,13 @@
       <c r="F9" t="s">
         <v>219</v>
       </c>
-      <c r="G9">
-        <v>2098700432</v>
-      </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>379</v>
       </c>
-      <c r="B10" t="s">
-        <v>405</v>
+      <c r="B10">
+        <v>2098700432</v>
       </c>
       <c r="C10" t="s">
         <v>421</v>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAE3A3A7-1C9A-429F-8020-BBEB9653DEB8}"/>
+  <xr:revisionPtr revIDLastSave="257" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1528CC7D-B3AD-40E4-9619-09C7B7699067}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="396">
   <si>
     <t>Col 1</t>
   </si>
@@ -1158,6 +1158,72 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>AMZ005-000-F</t>
+  </si>
+  <si>
+    <t>59Z153-000-F</t>
+  </si>
+  <si>
+    <t>59Z153-000-C</t>
+  </si>
+  <si>
+    <t>AMZ025-000-A</t>
+  </si>
+  <si>
+    <t>59Z231-C00-C</t>
+  </si>
+  <si>
+    <t>59Z153-C00-C</t>
+  </si>
+  <si>
+    <t>59Z231-C01-A</t>
+  </si>
+  <si>
+    <t>59Z231-001-A</t>
+  </si>
+  <si>
+    <t>59Z153-C00-A</t>
+  </si>
+  <si>
+    <t>59Z231-C01-C</t>
+  </si>
+  <si>
+    <t>59Z231-001-M</t>
+  </si>
+  <si>
+    <t>AMZW25-000-E</t>
+  </si>
+  <si>
+    <t>59Z153-C00-F</t>
+  </si>
+  <si>
+    <t>59Z155-000-K</t>
+  </si>
+  <si>
+    <t>AMS18A-1M4Z5</t>
+  </si>
+  <si>
+    <t>AMS11A-1M4Z5</t>
+  </si>
+  <si>
+    <t>59Z231-C00-A</t>
+  </si>
+  <si>
+    <t>AMS11A-102Z5</t>
+  </si>
+  <si>
+    <t>AMK18A-102Z5</t>
+  </si>
+  <si>
+    <t>59Z231-C01-I</t>
+  </si>
+  <si>
+    <t>AMZW25-001-B</t>
+  </si>
+  <si>
+    <t>AMZW25-001-A</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1277,8 +1343,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1288,6 +1352,23 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1317,23 +1398,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -1348,12 +1412,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:F227" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="2" tableBorderDxfId="3">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F227">
-    <sortCondition ref="A115:A227"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:F226" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F226">
+    <sortCondition ref="A114:A226"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{45F9BB40-479B-43A5-863C-7DF090960010}" name="Col 2"/>
     <tableColumn id="3" xr3:uid="{35AC3272-E32E-4533-B684-783CFFC3D97D}" name="Col 3"/>
     <tableColumn id="4" xr3:uid="{009711B2-C3BC-4C66-A5C8-5E23732ACEC7}" name="Col 4"/>
@@ -1681,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F230"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A229" sqref="A229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1698,27 +1762,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>2088701244</v>
       </c>
       <c r="B2" t="s">
@@ -1729,7 +1793,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>2088701390</v>
       </c>
       <c r="B3" t="s">
@@ -1740,7 +1804,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
+      <c r="A4" s="6">
         <v>2088701610</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -1751,7 +1815,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+      <c r="A5">
         <v>2088701746</v>
       </c>
       <c r="B5" t="s">
@@ -1759,7 +1823,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6">
         <v>2088702198</v>
       </c>
       <c r="B6" t="s">
@@ -1770,7 +1834,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7">
         <v>2088702199</v>
       </c>
       <c r="B7" t="s">
@@ -1781,7 +1845,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8">
         <v>2088702200</v>
       </c>
       <c r="B8" t="s">
@@ -1792,7 +1856,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9">
         <v>2088702201</v>
       </c>
       <c r="B9" t="s">
@@ -1806,7 +1870,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10">
         <v>2088702202</v>
       </c>
       <c r="B10" t="s">
@@ -1817,7 +1881,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11">
         <v>2088702203</v>
       </c>
       <c r="B11" t="s">
@@ -1828,7 +1892,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12">
         <v>2088702204</v>
       </c>
       <c r="B12" t="s">
@@ -1839,7 +1903,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13">
         <v>2088702205</v>
       </c>
       <c r="B13" t="s">
@@ -1850,7 +1914,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14">
         <v>2088702206</v>
       </c>
       <c r="B14" t="s">
@@ -1861,7 +1925,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15">
         <v>2088702207</v>
       </c>
       <c r="B15" t="s">
@@ -1872,7 +1936,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="A16">
         <v>2088702221</v>
       </c>
       <c r="B16" t="s">
@@ -1883,7 +1947,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="A17">
         <v>2088707042</v>
       </c>
       <c r="B17" t="s">
@@ -1894,7 +1958,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="A18">
         <v>2098700024</v>
       </c>
       <c r="B18" t="s">
@@ -1905,12 +1969,18 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
+      <c r="A19" s="7">
         <v>2098700025</v>
       </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="A20">
         <v>2098700026</v>
       </c>
       <c r="B20" t="s">
@@ -1921,7 +1991,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="A21">
         <v>2098700033</v>
       </c>
       <c r="B21" t="s">
@@ -1932,7 +2002,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="A22">
         <v>2098700046</v>
       </c>
       <c r="B22" t="s">
@@ -1943,7 +2013,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+      <c r="A23">
         <v>2098700056</v>
       </c>
       <c r="B23" t="s">
@@ -1954,7 +2024,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="A24">
         <v>2098700058</v>
       </c>
       <c r="B24" t="s">
@@ -1965,7 +2035,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+      <c r="A25">
         <v>2098700076</v>
       </c>
       <c r="B25" t="s">
@@ -1976,7 +2046,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="A26">
         <v>2098700083</v>
       </c>
       <c r="B26" t="s">
@@ -1987,12 +2057,18 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="9">
+      <c r="A27" s="7">
         <v>2098700108</v>
       </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
+      <c r="A28">
         <v>2098700143</v>
       </c>
       <c r="B28" t="s">
@@ -2003,7 +2079,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
+      <c r="A29">
         <v>2098700154</v>
       </c>
       <c r="B29" t="s">
@@ -2014,7 +2090,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+      <c r="A30">
         <v>2098700177</v>
       </c>
       <c r="B30" t="s">
@@ -2025,7 +2101,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
+      <c r="A31">
         <v>2098700189</v>
       </c>
       <c r="B31" t="s">
@@ -2036,7 +2112,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
+      <c r="A32">
         <v>2098700245</v>
       </c>
       <c r="B32" t="s">
@@ -2047,17 +2123,29 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="9">
+      <c r="A33" s="7">
         <v>2098700246</v>
       </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="9">
+      <c r="A34" s="7">
         <v>2098700256</v>
       </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
+      <c r="A35">
         <v>2098700289</v>
       </c>
       <c r="B35" t="s">
@@ -2068,7 +2156,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
+      <c r="A36">
         <v>2098700290</v>
       </c>
       <c r="B36" t="s">
@@ -2079,7 +2167,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
+      <c r="A37">
         <v>2098700293</v>
       </c>
       <c r="B37" t="s">
@@ -2090,7 +2178,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+      <c r="A38">
         <v>2098700296</v>
       </c>
       <c r="B38" t="s">
@@ -2104,7 +2192,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+      <c r="A39">
         <v>2098700301</v>
       </c>
       <c r="B39" t="s">
@@ -2115,7 +2203,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+      <c r="A40">
         <v>2098700302</v>
       </c>
       <c r="B40" t="s">
@@ -2126,7 +2214,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
+      <c r="A41">
         <v>2098700304</v>
       </c>
       <c r="B41" t="s">
@@ -2137,7 +2225,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+      <c r="A42">
         <v>2098700305</v>
       </c>
       <c r="B42" t="s">
@@ -2148,7 +2236,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
+      <c r="A43">
         <v>2098700306</v>
       </c>
       <c r="B43" t="s">
@@ -2159,7 +2247,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
+      <c r="A44">
         <v>2098700307</v>
       </c>
       <c r="B44" t="s">
@@ -2170,7 +2258,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
+      <c r="A45">
         <v>2098700309</v>
       </c>
       <c r="B45" t="s">
@@ -2181,7 +2269,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
+      <c r="A46">
         <v>2098700315</v>
       </c>
       <c r="B46" t="s">
@@ -2192,7 +2280,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
+      <c r="A47">
         <v>2098700316</v>
       </c>
       <c r="B47" t="s">
@@ -2203,7 +2291,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
+      <c r="A48">
         <v>2098700320</v>
       </c>
       <c r="B48" t="s">
@@ -2214,7 +2302,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
+      <c r="A49">
         <v>2098700322</v>
       </c>
       <c r="B49" t="s">
@@ -2225,7 +2313,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
+      <c r="A50">
         <v>2098700353</v>
       </c>
       <c r="B50" t="s">
@@ -2236,7 +2324,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
+      <c r="A51">
         <v>2098700355</v>
       </c>
       <c r="B51" t="s">
@@ -2247,7 +2335,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
+      <c r="A52">
         <v>2098700356</v>
       </c>
       <c r="B52" t="s">
@@ -2258,7 +2346,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
+      <c r="A53">
         <v>2098700357</v>
       </c>
       <c r="B53" t="s">
@@ -2269,7 +2357,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
+      <c r="A54">
         <v>2098700358</v>
       </c>
       <c r="B54" t="s">
@@ -2280,7 +2368,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
+      <c r="A55">
         <v>2098700366</v>
       </c>
       <c r="B55" t="s">
@@ -2291,7 +2379,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
+      <c r="A56">
         <v>2098700371</v>
       </c>
       <c r="B56" t="s">
@@ -2302,7 +2390,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
+      <c r="A57">
         <v>2098700372</v>
       </c>
       <c r="B57" t="s">
@@ -2313,7 +2401,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="7">
+      <c r="A58">
         <v>2098700373</v>
       </c>
       <c r="B58" t="s">
@@ -2324,7 +2412,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="7">
+      <c r="A59">
         <v>2098700374</v>
       </c>
       <c r="B59" t="s">
@@ -2335,7 +2423,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="7">
+      <c r="A60">
         <v>2098700375</v>
       </c>
       <c r="B60" t="s">
@@ -2346,7 +2434,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="7">
+      <c r="A61">
         <v>2098700376</v>
       </c>
       <c r="B61" t="s">
@@ -2357,7 +2445,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="7">
+      <c r="A62">
         <v>2098700378</v>
       </c>
       <c r="B62" t="s">
@@ -2368,27 +2456,51 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="9">
+      <c r="A63" s="7">
         <v>2098700379</v>
       </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="9">
+      <c r="A64" s="7">
         <v>2098700380</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="9">
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="7">
         <v>2098700404</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="9">
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="7">
         <v>2098700405</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="7">
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67">
         <v>2098700429</v>
       </c>
       <c r="B67" t="s">
@@ -2398,34 +2510,66 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="9">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
         <v>2098700432</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="9">
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="7">
         <v>2098700433</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="9">
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="7">
         <v>2098700434</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="9">
+      <c r="B70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C70" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="7">
         <v>2098700436</v>
       </c>
-      <c r="B71" s="5"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="9">
+      <c r="B71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
         <v>2098700437</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" t="s">
+        <v>102</v>
+      </c>
+      <c r="D72" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73">
         <v>2098701682</v>
       </c>
       <c r="B73" t="s">
@@ -2435,8 +2579,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="7">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>2098706005</v>
       </c>
       <c r="B74" t="s">
@@ -2446,8 +2590,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="7">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75">
         <v>2098706008</v>
       </c>
       <c r="B75" t="s">
@@ -2457,8 +2601,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="7">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76">
         <v>2098706009</v>
       </c>
       <c r="B76" t="s">
@@ -2468,8 +2612,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="7">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77">
         <v>2098706010</v>
       </c>
       <c r="B77" t="s">
@@ -2479,8 +2623,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="7">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78">
         <v>2098706011</v>
       </c>
       <c r="B78" t="s">
@@ -2490,8 +2634,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="7">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79">
         <v>2098706013</v>
       </c>
       <c r="B79" t="s">
@@ -2501,8 +2645,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="7">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80">
         <v>2098706018</v>
       </c>
       <c r="B80" t="s">
@@ -2513,7 +2657,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="7">
+      <c r="A81">
         <v>2098706021</v>
       </c>
       <c r="B81" t="s">
@@ -2524,7 +2668,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="7">
+      <c r="A82">
         <v>2098706023</v>
       </c>
       <c r="B82" t="s">
@@ -2535,7 +2679,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="7">
+      <c r="A83">
         <v>2098706024</v>
       </c>
       <c r="B83" t="s">
@@ -2546,7 +2690,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
+      <c r="A84">
         <v>2098706025</v>
       </c>
       <c r="B84" t="s">
@@ -2557,7 +2701,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="7">
+      <c r="A85">
         <v>2098706026</v>
       </c>
       <c r="B85" t="s">
@@ -2568,7 +2712,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="7">
+      <c r="A86">
         <v>2098706028</v>
       </c>
       <c r="B86" t="s">
@@ -2579,7 +2723,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="7">
+      <c r="A87">
         <v>2098706031</v>
       </c>
       <c r="B87" t="s">
@@ -2590,7 +2734,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="7">
+      <c r="A88">
         <v>2098706032</v>
       </c>
       <c r="B88" t="s">
@@ -2601,7 +2745,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="7">
+      <c r="A89">
         <v>2098706040</v>
       </c>
       <c r="B89" t="s">
@@ -2612,7 +2756,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="7">
+      <c r="A90">
         <v>2098706041</v>
       </c>
       <c r="B90" t="s">
@@ -2623,7 +2767,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="7">
+      <c r="A91">
         <v>2098706044</v>
       </c>
       <c r="B91" t="s">
@@ -2634,63 +2778,102 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="9">
+      <c r="A92" s="7">
         <v>2098706072</v>
       </c>
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="9">
-        <v>2098706072</v>
+      <c r="A93" s="7">
+        <v>2098706075</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="9">
-        <v>2098706075</v>
+      <c r="A94" s="7">
+        <v>2098706076</v>
+      </c>
+      <c r="B94" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="9">
-        <v>2098706076</v>
+      <c r="A95">
+        <v>2098706083</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="7">
-        <v>2098706083</v>
+      <c r="A96">
+        <v>2098706084</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
-        <v>2098706084</v>
+        <v>2099700009</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="9">
-        <v>2099700009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="7">
         <v>2099700010</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="7">
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>2099700025</v>
       </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2099700030</v>
+      </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s">
         <v>10</v>
@@ -2698,170 +2881,254 @@
       <c r="D100" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E100" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
-        <v>2099700030</v>
+        <v>2099700041</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2099700048</v>
+      </c>
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="7">
+        <v>2099700049</v>
+      </c>
+      <c r="B103" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="7">
+        <v>2099700056</v>
+      </c>
+      <c r="B104" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="7">
+        <v>2099700057</v>
+      </c>
+      <c r="B105" t="s">
+        <v>377</v>
+      </c>
+      <c r="C105" t="s">
+        <v>375</v>
+      </c>
+      <c r="D105" t="s">
         <v>10</v>
       </c>
-      <c r="D101" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" t="s">
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="7">
+        <v>2099700058</v>
+      </c>
+      <c r="B106" t="s">
+        <v>377</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="9">
-        <v>2099700041</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="7">
-        <v>2099700048</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="E106" t="s">
+        <v>52</v>
+      </c>
+      <c r="F106" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="7">
+        <v>2099700059</v>
+      </c>
+      <c r="B107" t="s">
+        <v>377</v>
+      </c>
+      <c r="C107" t="s">
+        <v>375</v>
+      </c>
+      <c r="D107" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="7">
+        <v>2099706005</v>
+      </c>
+      <c r="B108" t="s">
         <v>45</v>
       </c>
-      <c r="C103" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="9">
-        <v>2099700049</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="9">
-        <v>2099700056</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="9">
-        <v>2099700057</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="9">
-        <v>2099700058</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="9">
-        <v>2099700059</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="9">
-        <v>2099706005</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="9">
+      <c r="C108" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="7">
         <v>2154140069</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="9">
+      <c r="B109" t="s">
+        <v>378</v>
+      </c>
+      <c r="C109" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="7">
         <v>2154140162</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="9">
+      <c r="B110" t="s">
+        <v>379</v>
+      </c>
+      <c r="C110" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="7">
         <v>2154140207</v>
       </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2154140222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="7">
-        <v>2154140222</v>
+      <c r="A113">
+        <v>2154140224</v>
       </c>
       <c r="B113" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C113" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="7">
-        <v>2154140224</v>
+      <c r="A114">
+        <v>2154140225</v>
       </c>
       <c r="B114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="7">
-        <v>2154140225</v>
+      <c r="A115">
+        <v>2154140229</v>
       </c>
       <c r="B115" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C115" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="7">
-        <v>2154140229</v>
+      <c r="A116">
+        <v>2154140243</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="7">
-        <v>2154140243</v>
+      <c r="A117">
+        <v>2154140283</v>
       </c>
       <c r="B117" t="s">
         <v>31</v>
       </c>
       <c r="C117" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="7">
-        <v>2154140283</v>
+      <c r="A118">
+        <v>2154140284</v>
       </c>
       <c r="B118" t="s">
         <v>31</v>
       </c>
       <c r="C118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
-        <v>2154140284</v>
+        <v>2154140285</v>
       </c>
       <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2154140287</v>
+      </c>
+      <c r="B120" t="s">
         <v>31</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="9">
-        <v>2154140285</v>
-      </c>
-    </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="7">
-        <v>2154140287</v>
+      <c r="A121">
+        <v>2154140289</v>
       </c>
       <c r="B121" t="s">
         <v>31</v>
@@ -2871,8 +3138,8 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="7">
-        <v>2154140289</v>
+      <c r="A122">
+        <v>2154140290</v>
       </c>
       <c r="B122" t="s">
         <v>31</v>
@@ -2883,39 +3150,51 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
-        <v>2154140290</v>
+        <v>2154140291</v>
       </c>
       <c r="B123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" s="7">
+        <v>2154140292</v>
+      </c>
+      <c r="B124" t="s">
+        <v>379</v>
+      </c>
+      <c r="C124" t="s">
         <v>31</v>
       </c>
-      <c r="C123" t="s">
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2154140293</v>
+      </c>
+      <c r="B125" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2154140294</v>
+      </c>
+      <c r="B126" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="9">
-        <v>2154140291</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="9">
-        <v>2154140292</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="7">
-        <v>2154140293</v>
-      </c>
-      <c r="B126" t="s">
-        <v>31</v>
-      </c>
-      <c r="C126" t="s">
-        <v>107</v>
-      </c>
-    </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="7">
-        <v>2154140294</v>
+      <c r="A127">
+        <v>2154140295</v>
       </c>
       <c r="B127" t="s">
         <v>113</v>
@@ -2925,493 +3204,721 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="7">
-        <v>2154140295</v>
+      <c r="A128">
+        <v>2154140318</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C128" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" s="7">
-        <v>2154140318</v>
+      <c r="A129">
+        <v>2154140319</v>
       </c>
       <c r="B129" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" t="s">
         <v>115</v>
-      </c>
-      <c r="C129" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
-        <v>2154140319</v>
+        <v>2154140335</v>
       </c>
       <c r="B130" t="s">
         <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" s="9">
-        <v>2154140335</v>
+      <c r="A131">
+        <v>2154140336</v>
+      </c>
+      <c r="B131" t="s">
+        <v>31</v>
+      </c>
+      <c r="C131" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
-        <v>2154140336</v>
+        <v>2154140345</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="C132" t="s">
-        <v>106</v>
+        <v>381</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" s="9">
-        <v>2154140345</v>
+      <c r="A133">
+        <v>2154140349</v>
+      </c>
+      <c r="B133" t="s">
+        <v>118</v>
+      </c>
+      <c r="C133" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
-        <v>2154140349</v>
+        <v>2154140596</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="C134" t="s">
-        <v>119</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" s="9">
-        <v>2154140596</v>
+      <c r="A135">
+        <v>2154150035</v>
+      </c>
+      <c r="B135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C135" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" s="7">
-        <v>2154150035</v>
+      <c r="A136">
+        <v>2154150089</v>
       </c>
       <c r="B136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>2154150163</v>
+      </c>
+      <c r="B137" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>2154150172</v>
+      </c>
+      <c r="B138" t="s">
+        <v>124</v>
+      </c>
+      <c r="C138" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>2154150197</v>
+      </c>
+      <c r="B139" t="s">
+        <v>121</v>
+      </c>
+      <c r="C139" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>2154150214</v>
+      </c>
+      <c r="B140" t="s">
         <v>31</v>
       </c>
-      <c r="C136" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" s="7">
-        <v>2154150089</v>
-      </c>
-      <c r="B137" t="s">
-        <v>123</v>
-      </c>
-      <c r="C137" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" s="7">
-        <v>2154150163</v>
-      </c>
-      <c r="B138" t="s">
-        <v>125</v>
-      </c>
-      <c r="C138" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" s="7">
-        <v>2154150172</v>
-      </c>
-      <c r="B139" t="s">
-        <v>124</v>
-      </c>
-      <c r="C139" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" s="7">
-        <v>2154150197</v>
-      </c>
-      <c r="B140" t="s">
-        <v>121</v>
-      </c>
       <c r="C140" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>2154150215</v>
+      </c>
+      <c r="B141" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" s="7">
-        <v>2154150214</v>
-      </c>
-      <c r="B141" t="s">
-        <v>31</v>
-      </c>
-      <c r="C141" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" s="7">
-        <v>2154150215</v>
+      <c r="A142">
+        <v>2154150247</v>
       </c>
       <c r="B142" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C142" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" s="7">
-        <v>2154150247</v>
+      <c r="A143">
+        <v>2154150250</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C143" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
-        <v>2154150250</v>
+        <v>2154150301</v>
       </c>
       <c r="B144" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C144" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" s="9">
-        <v>2154150301</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" s="7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>2154150337</v>
       </c>
+      <c r="B145" t="s">
+        <v>127</v>
+      </c>
+      <c r="C145" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2154150341</v>
+      </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C146" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" s="7">
-        <v>2154150341</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>2154150342</v>
       </c>
       <c r="B147" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="C147" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
-        <v>2154150342</v>
+        <v>2154150343</v>
       </c>
       <c r="B148" t="s">
         <v>124</v>
       </c>
       <c r="C148" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="7">
+        <v>2154150347</v>
+      </c>
+      <c r="B149" t="s">
+        <v>124</v>
+      </c>
+      <c r="C149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2154150348</v>
+      </c>
+      <c r="B150" t="s">
+        <v>127</v>
+      </c>
+      <c r="C150" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="7">
+        <v>2154150349</v>
+      </c>
+      <c r="B151" t="s">
+        <v>124</v>
+      </c>
+      <c r="C151" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="7">
+        <v>2154150350</v>
+      </c>
+      <c r="B152" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" s="9">
-        <v>2154150343</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" s="9">
-        <v>2154150347</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" s="7">
-        <v>2154150348</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="C152" t="s">
+        <v>124</v>
+      </c>
+      <c r="D152" t="s">
         <v>127</v>
       </c>
-      <c r="C151" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" s="9">
-        <v>2154150349</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" s="9">
-        <v>2154150350</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" s="9">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="7">
         <v>2154150351</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" s="9">
+      <c r="B153" t="s">
+        <v>124</v>
+      </c>
+      <c r="C153" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="7">
         <v>2154150357</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" s="9">
+      <c r="B154" t="s">
+        <v>123</v>
+      </c>
+      <c r="C154" t="s">
+        <v>383</v>
+      </c>
+      <c r="D154" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="7">
         <v>2154150358</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" s="9">
+      <c r="B155" t="s">
+        <v>123</v>
+      </c>
+      <c r="C155" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="7">
         <v>2154150366</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" s="9">
+      <c r="B156" t="s">
+        <v>123</v>
+      </c>
+      <c r="C156" t="s">
+        <v>380</v>
+      </c>
+      <c r="D156" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="7">
         <v>2154150370</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" s="7">
+      <c r="B157" t="s">
+        <v>123</v>
+      </c>
+      <c r="C157" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158">
         <v>2154150380</v>
       </c>
+      <c r="B158" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>2154150391</v>
+      </c>
       <c r="B159" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C159" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" s="7">
-        <v>2154150391</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>2154150420</v>
       </c>
       <c r="B160" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C160" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" s="7">
-        <v>2154150420</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>2154150447</v>
       </c>
       <c r="B161" t="s">
         <v>140</v>
       </c>
       <c r="C161" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="7">
+        <v>2154150448</v>
+      </c>
+      <c r="B162" t="s">
+        <v>385</v>
+      </c>
+      <c r="C162" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="7">
+        <v>2154150455</v>
+      </c>
+      <c r="B163" t="s">
+        <v>123</v>
+      </c>
+      <c r="C163" t="s">
+        <v>337</v>
+      </c>
+      <c r="D163" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>2154150461</v>
+      </c>
+      <c r="B164" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="7">
+        <v>2154150497</v>
+      </c>
+      <c r="B165" t="s">
+        <v>140</v>
+      </c>
+      <c r="C165" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" s="7">
-        <v>2154150447</v>
-      </c>
-      <c r="B162" t="s">
-        <v>140</v>
-      </c>
-      <c r="C162" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" s="9">
-        <v>2154150448</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" s="9">
-        <v>2154150455</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" s="7">
-        <v>2154150461</v>
-      </c>
-      <c r="B165" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="7">
+        <v>2154150501</v>
+      </c>
+      <c r="B166" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="7">
+        <v>2154150509</v>
+      </c>
+      <c r="B167" t="s">
+        <v>124</v>
+      </c>
+      <c r="C167" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="7">
+        <v>2154150525</v>
+      </c>
+      <c r="B168" t="s">
+        <v>337</v>
+      </c>
+      <c r="C168" t="s">
+        <v>169</v>
+      </c>
+      <c r="D168" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="7">
+        <v>2154150526</v>
+      </c>
+      <c r="B169" t="s">
+        <v>130</v>
+      </c>
+      <c r="C169" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="7">
+        <v>2154150534</v>
+      </c>
+      <c r="B170" t="s">
+        <v>124</v>
+      </c>
+      <c r="C170" t="s">
+        <v>31</v>
+      </c>
+      <c r="D170" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>2154150554</v>
+      </c>
+      <c r="B171" t="s">
+        <v>131</v>
+      </c>
+      <c r="C171" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="7">
+        <v>2154150557</v>
+      </c>
+      <c r="B172" t="s">
+        <v>123</v>
+      </c>
+      <c r="C172" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="7">
+        <v>2154150560</v>
+      </c>
+      <c r="B173" t="s">
+        <v>124</v>
+      </c>
+      <c r="C173" t="s">
+        <v>31</v>
+      </c>
+      <c r="D173" t="s">
+        <v>387</v>
+      </c>
+      <c r="E173" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>2154150563</v>
+      </c>
+      <c r="B174" t="s">
+        <v>135</v>
+      </c>
+      <c r="C174" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="7">
+        <v>2154150581</v>
+      </c>
+      <c r="B175" t="s">
+        <v>124</v>
+      </c>
+      <c r="C175" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>2154150582</v>
+      </c>
+      <c r="B176" t="s">
+        <v>124</v>
+      </c>
+      <c r="C176" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>2154150588</v>
+      </c>
+      <c r="B177" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="7">
+        <v>2154150591</v>
+      </c>
+      <c r="B178" t="s">
+        <v>387</v>
+      </c>
+      <c r="C178" t="s">
+        <v>380</v>
+      </c>
+      <c r="D178" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="7">
+        <v>2154150597</v>
+      </c>
+      <c r="B179" t="s">
+        <v>127</v>
+      </c>
+      <c r="C179" t="s">
+        <v>127</v>
+      </c>
+      <c r="D179" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>2154150603</v>
+      </c>
+      <c r="B180" t="s">
+        <v>126</v>
+      </c>
+      <c r="C180" t="s">
         <v>125</v>
       </c>
-      <c r="C165" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" s="9">
-        <v>2154150497</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" s="9">
-        <v>2154150501</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" s="9">
-        <v>2154150509</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" s="9">
-        <v>2154150525</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" s="9">
-        <v>2154150526</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A171" s="9">
-        <v>2154150534</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A172" s="7">
-        <v>2154150554</v>
-      </c>
-      <c r="B172" t="s">
-        <v>131</v>
-      </c>
-      <c r="C172" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A173" s="9">
-        <v>2154150557</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A174" s="9">
-        <v>2154150560</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A175" s="7">
-        <v>2154150563</v>
-      </c>
-      <c r="B175" t="s">
-        <v>135</v>
-      </c>
-      <c r="C175" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A176" s="9">
-        <v>2154150581</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A177" s="7">
-        <v>2154150582</v>
-      </c>
-      <c r="B177" t="s">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>2154150605</v>
+      </c>
+      <c r="B181" t="s">
+        <v>106</v>
+      </c>
+      <c r="C181" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="7">
+        <v>2154150622</v>
+      </c>
+      <c r="B182" t="s">
+        <v>388</v>
+      </c>
+      <c r="C182" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="7">
+        <v>2154150627</v>
+      </c>
+      <c r="B183" t="s">
+        <v>337</v>
+      </c>
+      <c r="C183" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>2154150633</v>
+      </c>
+      <c r="B184" t="s">
         <v>124</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C184" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A178" s="7">
-        <v>2154150588</v>
-      </c>
-      <c r="B178" t="s">
-        <v>31</v>
-      </c>
-      <c r="C178" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A179" s="9">
-        <v>2154150591</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A180" s="9">
-        <v>2154150597</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A181" s="7">
-        <v>2154150603</v>
-      </c>
-      <c r="B181" t="s">
-        <v>126</v>
-      </c>
-      <c r="C181" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A182" s="7">
-        <v>2154150605</v>
-      </c>
-      <c r="B182" t="s">
-        <v>106</v>
-      </c>
-      <c r="C182" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A183" s="9">
-        <v>2154150622</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A184" s="9">
-        <v>2154150627</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
-        <v>2154150633</v>
+        <v>2154150646</v>
       </c>
       <c r="B185" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C185" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A186" s="9">
-        <v>2154150646</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A187" s="9">
+      <c r="D185" t="s">
+        <v>124</v>
+      </c>
+      <c r="E185" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="7">
         <v>2154150648</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A188" s="9">
+      <c r="B186" t="s">
+        <v>336</v>
+      </c>
+      <c r="C186" t="s">
+        <v>390</v>
+      </c>
+      <c r="D186" t="s">
+        <v>391</v>
+      </c>
+      <c r="E186" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="7">
         <v>2154150653</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A189" s="7">
+      <c r="B187" t="s">
+        <v>126</v>
+      </c>
+      <c r="C187" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188">
         <v>2154150669</v>
+      </c>
+      <c r="B188" t="s">
+        <v>124</v>
+      </c>
+      <c r="C188" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>2154150672</v>
       </c>
       <c r="B189" t="s">
         <v>124</v>
@@ -3420,25 +3927,34 @@
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
-        <v>2154150672</v>
+        <v>2154150677</v>
       </c>
       <c r="B190" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C190" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A191" s="9">
-        <v>2154150677</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A192" s="7">
+        <v>388</v>
+      </c>
+      <c r="D190" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>2154150706</v>
+      </c>
+      <c r="B191" t="s">
+        <v>113</v>
+      </c>
+      <c r="C191" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>2154150707</v>
       </c>
       <c r="B192" t="s">
         <v>113</v>
@@ -3447,159 +3963,303 @@
         <v>106</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A193" s="7">
-        <v>2154150707</v>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>2154150715</v>
       </c>
       <c r="B193" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C193" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
-        <v>2154150715</v>
+        <v>2154150719</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
+        <v>382</v>
       </c>
       <c r="C194" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A195" s="9">
-        <v>2154150719</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A196" s="9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="7">
         <v>2154150731</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A197" s="9">
+      <c r="B195" t="s">
+        <v>130</v>
+      </c>
+      <c r="C195" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="7">
         <v>2154150765</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A198" s="9">
+      <c r="B196" t="s">
+        <v>130</v>
+      </c>
+      <c r="C196" t="s">
+        <v>337</v>
+      </c>
+      <c r="D196" t="s">
+        <v>375</v>
+      </c>
+      <c r="E196" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="7">
         <v>2154150767</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A199" s="9">
+      <c r="B197" t="s">
+        <v>130</v>
+      </c>
+      <c r="C197" t="s">
+        <v>337</v>
+      </c>
+      <c r="D197" t="s">
+        <v>156</v>
+      </c>
+      <c r="E197" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="7">
         <v>2154150769</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A200" s="9">
+      <c r="B198" t="s">
+        <v>127</v>
+      </c>
+      <c r="C198" t="s">
+        <v>124</v>
+      </c>
+      <c r="D198" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="7">
         <v>2154150788</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A201" s="9">
+      <c r="B199" t="s">
+        <v>130</v>
+      </c>
+      <c r="C199" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="7">
         <v>2154150813</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A202" s="9">
+      <c r="B200" t="s">
+        <v>127</v>
+      </c>
+      <c r="C200" t="s">
+        <v>127</v>
+      </c>
+      <c r="D200" t="s">
+        <v>124</v>
+      </c>
+      <c r="E200" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="7">
         <v>2154150814</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A203" s="9">
+      <c r="B201" t="s">
+        <v>127</v>
+      </c>
+      <c r="C201" t="s">
+        <v>124</v>
+      </c>
+      <c r="D201" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" s="7">
         <v>2154150822</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A204" s="9">
+      <c r="B202" t="s">
+        <v>130</v>
+      </c>
+      <c r="C202" t="s">
+        <v>337</v>
+      </c>
+      <c r="D202" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="7">
         <v>2154150839</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A205" s="9">
+      <c r="B203" t="s">
+        <v>127</v>
+      </c>
+      <c r="C203" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="7">
         <v>2154150840</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A206" s="9">
+      <c r="B204" t="s">
+        <v>382</v>
+      </c>
+      <c r="C204" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" s="7">
         <v>2154150841</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A207" s="9">
+      <c r="B205" t="s">
+        <v>393</v>
+      </c>
+      <c r="C205" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="7">
         <v>2154150876</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A208" s="9">
+      <c r="B206" t="s">
+        <v>382</v>
+      </c>
+      <c r="C206" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" s="7">
         <v>2154150893</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A209" s="9">
+      <c r="B207" t="s">
+        <v>394</v>
+      </c>
+      <c r="C207" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" s="7">
         <v>2154150918</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A210" s="9">
+      <c r="B208" t="s">
+        <v>127</v>
+      </c>
+      <c r="C208" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A209" s="7">
         <v>2154150921</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A211" s="9">
+      <c r="B209" t="s">
+        <v>123</v>
+      </c>
+      <c r="C209" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A210" s="7">
         <v>2154150922</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A212" s="7">
+      <c r="B210" t="s">
+        <v>130</v>
+      </c>
+      <c r="C210" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A211">
         <v>2154150943</v>
       </c>
+      <c r="B211" t="s">
+        <v>140</v>
+      </c>
+      <c r="C211" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>2154155136</v>
+      </c>
       <c r="B212" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C212" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="7">
-        <v>2154155136</v>
+        <v>2154155149</v>
       </c>
       <c r="B213" t="s">
         <v>124</v>
       </c>
       <c r="C213" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A214" s="9">
-        <v>2154155149</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A215" s="9">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A214" s="7">
         <v>2154155150</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A216" s="7">
+      <c r="B214" t="s">
+        <v>385</v>
+      </c>
+      <c r="C214" t="s">
+        <v>124</v>
+      </c>
+      <c r="D214" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A215">
         <v>2154160029</v>
+      </c>
+      <c r="B215" t="s">
+        <v>153</v>
+      </c>
+      <c r="C215" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>2154160030</v>
       </c>
       <c r="B216" t="s">
         <v>153</v>
       </c>
       <c r="C216" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A217" s="7">
-        <v>2154160030</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>2154160031</v>
       </c>
       <c r="B217" t="s">
         <v>153</v>
@@ -3608,20 +4268,20 @@
         <v>156</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A218" s="7">
-        <v>2154160031</v>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>2154160032</v>
       </c>
       <c r="B218" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C218" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A219" s="7">
-        <v>2154160032</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>2154160033</v>
       </c>
       <c r="B219" t="s">
         <v>159</v>
@@ -3630,106 +4290,98 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A220" s="7">
-        <v>2154160033</v>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>2154160034</v>
       </c>
       <c r="B220" t="s">
+        <v>162</v>
+      </c>
+      <c r="C220" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>2154160035</v>
+      </c>
+      <c r="B221" t="s">
+        <v>153</v>
+      </c>
+      <c r="C221" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A222" s="7">
+        <v>2154160036</v>
+      </c>
+      <c r="B222" t="s">
         <v>159</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C222" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A221" s="7">
-        <v>2154160034</v>
-      </c>
-      <c r="B221" t="s">
-        <v>162</v>
-      </c>
-      <c r="C221" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A222" s="7">
-        <v>2154160035</v>
-      </c>
-      <c r="B222" t="s">
-        <v>153</v>
-      </c>
-      <c r="C222" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A223" s="9">
-        <v>2154160036</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A224" s="7">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A223">
         <v>2154160037</v>
       </c>
+      <c r="B223" t="s">
+        <v>159</v>
+      </c>
+      <c r="C223" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>2154170049</v>
+      </c>
       <c r="B224" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C224" t="s">
-        <v>31</v>
+        <v>167</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" s="7">
-        <v>2154170049</v>
+      <c r="A225">
+        <v>2154170050</v>
       </c>
       <c r="B225" t="s">
         <v>124</v>
       </c>
       <c r="C225" t="s">
+        <v>127</v>
+      </c>
+      <c r="D225" t="s">
         <v>167</v>
       </c>
+      <c r="E225" t="s">
+        <v>169</v>
+      </c>
+      <c r="F225" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" s="7">
-        <v>2154170050</v>
+      <c r="A226">
+        <v>2154170052</v>
       </c>
       <c r="B226" t="s">
         <v>124</v>
       </c>
       <c r="C226" t="s">
-        <v>127</v>
-      </c>
-      <c r="D226" t="s">
-        <v>167</v>
-      </c>
-      <c r="E226" t="s">
-        <v>169</v>
-      </c>
-      <c r="F226" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" s="7">
-        <v>2154170052</v>
-      </c>
-      <c r="B227" t="s">
-        <v>124</v>
-      </c>
-      <c r="C227" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" s="9">
-        <f>SUM(A2:A227)</f>
-        <v>480701460849</v>
-      </c>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A229" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F227">
-    <sortCondition ref="A2:A227"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F226">
+    <sortCondition ref="A2:A226"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="257" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1528CC7D-B3AD-40E4-9619-09C7B7699067}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E372666-B49D-4E58-8709-139280870ADB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="393">
   <si>
     <t>Col 1</t>
   </si>
@@ -989,12 +989,6 @@
     <t>Percha3</t>
   </si>
   <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
     <t>FA3</t>
   </si>
   <si>
@@ -1155,9 +1149,6 @@
   </si>
   <si>
     <t>SE AGREGA 2154160034, 28 OCT</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
   <si>
     <t>AMZ005-000-F</t>
@@ -1351,7 +1342,50 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -1412,17 +1446,126 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:F226" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:F226" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F226">
     <sortCondition ref="A114:A226"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{45F9BB40-479B-43A5-863C-7DF090960010}" name="Col 2"/>
     <tableColumn id="3" xr3:uid="{35AC3272-E32E-4533-B684-783CFFC3D97D}" name="Col 3"/>
     <tableColumn id="4" xr3:uid="{009711B2-C3BC-4C66-A5C8-5E23732ACEC7}" name="Col 4"/>
     <tableColumn id="5" xr3:uid="{DBF11C8B-3BA2-4B93-8B9D-B2B98230B63B}" name="Col 5"/>
     <tableColumn id="6" xr3:uid="{CC41153B-24E7-4D38-B346-9455226D8193}" name="Col 6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CV11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:CV11" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}"/>
+  <tableColumns count="100">
+    <tableColumn id="1" xr3:uid="{515ED9AD-2115-402D-A669-A7974119647C}" name="Col 1"/>
+    <tableColumn id="2" xr3:uid="{4DD548BB-E585-4E18-BEB7-EC341F80577A}" name="Col 2"/>
+    <tableColumn id="3" xr3:uid="{7D0A8B13-FDE9-43BD-B3DD-86603D1467E1}" name="Col 3"/>
+    <tableColumn id="4" xr3:uid="{E6CD9477-D3FD-4183-B5C5-BA5552768D31}" name="Col 4"/>
+    <tableColumn id="5" xr3:uid="{777800CA-01CA-4618-9E1F-B70C83DAEB01}" name="Col 5"/>
+    <tableColumn id="6" xr3:uid="{E1C1DB5D-C27D-4C23-81E5-A9DF13A78A10}" name="Col 6"/>
+    <tableColumn id="7" xr3:uid="{47605FA4-FEAF-4F2B-B1E3-14688AA5FE34}" name="Col 7"/>
+    <tableColumn id="8" xr3:uid="{7FDAAA4E-ACAA-47E2-89B0-2A9A7E833B2E}" name="Col 8"/>
+    <tableColumn id="9" xr3:uid="{E85CCC77-207F-4C47-B0CB-63A4D776409B}" name="Col 9"/>
+    <tableColumn id="10" xr3:uid="{D9D92095-084F-4C5D-AF7C-C0C0A97EF0F3}" name="Col 10"/>
+    <tableColumn id="11" xr3:uid="{A887ACE6-719B-47C5-ADC9-25C62650ADAD}" name="Col 11"/>
+    <tableColumn id="12" xr3:uid="{30EEE989-5F4F-491A-B3DF-CCA8797CB49A}" name="Col 12"/>
+    <tableColumn id="13" xr3:uid="{C9FCE6BD-5206-4F1D-8C10-D352EDF4BEC0}" name="Col 13"/>
+    <tableColumn id="14" xr3:uid="{8E498461-0417-42FB-9E0F-D7DA3B1EA813}" name="Col 14"/>
+    <tableColumn id="15" xr3:uid="{08EDDC5C-A7C3-4E14-A3D9-A2F9DB0F3BB1}" name="Col 15"/>
+    <tableColumn id="16" xr3:uid="{AD9AE0D2-238B-424D-9B24-07BE7442E04F}" name="Col 16"/>
+    <tableColumn id="17" xr3:uid="{2630B814-8919-4868-8DCE-1F2573BBC5B0}" name="Col 17"/>
+    <tableColumn id="18" xr3:uid="{03CEE4E1-31A2-4724-A645-465CD2E045B9}" name="Col 18"/>
+    <tableColumn id="19" xr3:uid="{36A35601-EAB7-4AB7-A614-7F8935936E6A}" name="Col 19"/>
+    <tableColumn id="20" xr3:uid="{B07CF123-370C-4A46-A187-E8C3ECA28E61}" name="Col 20"/>
+    <tableColumn id="21" xr3:uid="{3304A7B5-755F-4660-9241-F6EF4764F80B}" name="Col 21"/>
+    <tableColumn id="22" xr3:uid="{4D5DD45C-EB23-4740-B7A8-ECA40874A151}" name="Col 22"/>
+    <tableColumn id="23" xr3:uid="{76D5E9A0-768E-4FE8-83FA-EFEA599A0D33}" name="Col 23"/>
+    <tableColumn id="24" xr3:uid="{02CD437C-7E42-4463-9013-107702C2B97F}" name="Col 24"/>
+    <tableColumn id="25" xr3:uid="{DA504FA1-64F2-4573-B961-EE7FF96F946F}" name="Col 25"/>
+    <tableColumn id="26" xr3:uid="{080C36A3-1279-43B3-9886-9F422C5195C2}" name="Col 26"/>
+    <tableColumn id="27" xr3:uid="{F8545C41-9CAC-4EF7-BC34-973BAA53030F}" name="Col 27"/>
+    <tableColumn id="28" xr3:uid="{75A7CF96-CABF-47B4-AB82-4FA4E53D81FB}" name="Col 28"/>
+    <tableColumn id="29" xr3:uid="{8172C106-C018-4748-AA79-930FD33FB140}" name="Col 29"/>
+    <tableColumn id="30" xr3:uid="{033ADE97-F3E4-4DA3-A83E-6147BDDBF1DF}" name="Col 30"/>
+    <tableColumn id="31" xr3:uid="{F0C16803-0361-4D9C-9477-8426659282FD}" name="Col 31"/>
+    <tableColumn id="32" xr3:uid="{910E3D06-6155-47EA-AF66-C13FA37B096F}" name="Col 32"/>
+    <tableColumn id="33" xr3:uid="{BCA777C5-ED01-42A4-B051-4D833909B50A}" name="Col 33"/>
+    <tableColumn id="34" xr3:uid="{7E1688F6-81EC-4DB2-816D-DCA58D556069}" name="Col 34"/>
+    <tableColumn id="35" xr3:uid="{A7E1220E-D975-406D-948D-AD5ED3987172}" name="Col 35"/>
+    <tableColumn id="36" xr3:uid="{CF7860C2-B04E-4553-8766-8D2252498B7D}" name="Col 36"/>
+    <tableColumn id="37" xr3:uid="{FD24E187-D4BD-42A0-BC83-FCE2168C419B}" name="Col 37"/>
+    <tableColumn id="38" xr3:uid="{78753972-0217-42B3-BB8C-339E763C03E9}" name="Col 38"/>
+    <tableColumn id="39" xr3:uid="{49D7CC7C-78D2-499D-BF5B-204884E5C2CF}" name="Col 39"/>
+    <tableColumn id="40" xr3:uid="{1664C61D-9B35-444D-856A-B5569FE7963E}" name="Col 40"/>
+    <tableColumn id="41" xr3:uid="{1B7B38E0-6D44-4574-B87F-DB9CB0430C27}" name="Col 41"/>
+    <tableColumn id="42" xr3:uid="{BE1E50E5-6C10-40D3-8355-68B05DE1AE9E}" name="Col 42"/>
+    <tableColumn id="43" xr3:uid="{F25328DB-7EF2-4D70-B37F-946281B2D9BE}" name="Col 43"/>
+    <tableColumn id="44" xr3:uid="{E46135CD-3747-49F8-A2C5-A9F3FA2A2F15}" name="Col 44"/>
+    <tableColumn id="45" xr3:uid="{57F610BB-9B06-403D-A345-30B797486F2A}" name="Col 45"/>
+    <tableColumn id="46" xr3:uid="{C35D3A15-1050-4B13-A99B-A8A95FD132F0}" name="Col 46"/>
+    <tableColumn id="47" xr3:uid="{AE1CABF3-800E-4D52-B471-5594A79A1178}" name="Col 47"/>
+    <tableColumn id="48" xr3:uid="{33E1DF5E-0C16-42C2-82D8-059D81FB61EF}" name="Col 48"/>
+    <tableColumn id="49" xr3:uid="{110C8421-8763-4958-BCAB-586759DB96CF}" name="Col 49"/>
+    <tableColumn id="50" xr3:uid="{EDE7C4F3-B0A2-4507-A2E3-7B8927DB17FF}" name="Col 50"/>
+    <tableColumn id="51" xr3:uid="{03EA894E-E948-49F6-AC7B-1339E04F49F8}" name="Col 51"/>
+    <tableColumn id="52" xr3:uid="{D95496CB-D58F-450B-B253-10F8B3315214}" name="Col 52"/>
+    <tableColumn id="53" xr3:uid="{88D88FC3-D469-4679-AEED-690D6BDD1563}" name="Col 53"/>
+    <tableColumn id="54" xr3:uid="{C9F66062-BDC8-403F-9A8B-3F6CB3D9346C}" name="Col 54"/>
+    <tableColumn id="55" xr3:uid="{FED3AF10-DE5D-4DF5-A902-80BDE81919E0}" name="Col 55"/>
+    <tableColumn id="56" xr3:uid="{2690A48E-9EA1-41A9-9B2B-3FDF4AFAD223}" name="Col 56"/>
+    <tableColumn id="57" xr3:uid="{D2B40034-FF19-4BF8-B181-D750E9D1A041}" name="Col 57"/>
+    <tableColumn id="58" xr3:uid="{1404B02A-959B-456B-98DA-FC7EDEC52138}" name="Col 58"/>
+    <tableColumn id="59" xr3:uid="{43716E72-7E67-43AB-801F-D9C41994E8E6}" name="Col 59"/>
+    <tableColumn id="60" xr3:uid="{528A42A9-5816-468C-B2A7-1081692BFFB7}" name="Col 60"/>
+    <tableColumn id="61" xr3:uid="{C22372D4-C12E-4487-B962-F7E4F9836534}" name="Col 61"/>
+    <tableColumn id="62" xr3:uid="{28D784EB-BF9D-429D-A5E8-D4329D65201A}" name="Col 62"/>
+    <tableColumn id="63" xr3:uid="{8FA59AD3-BDFE-41ED-B471-076755538EAC}" name="Col 63"/>
+    <tableColumn id="64" xr3:uid="{AF2A2D6D-4529-48ED-A9D9-25E566D21C68}" name="Col 64"/>
+    <tableColumn id="65" xr3:uid="{83FBFC62-D5D2-4A46-9149-ED1B85FCBC17}" name="Col 65"/>
+    <tableColumn id="66" xr3:uid="{02788A26-6698-4416-BC3D-C7DEF6B5B6B4}" name="Col 66"/>
+    <tableColumn id="67" xr3:uid="{41235750-E626-4FED-9EA1-42BD8F578D29}" name="Col 67"/>
+    <tableColumn id="68" xr3:uid="{2DF4E672-C2E5-49F4-8FE8-8F563C2E74A0}" name="Col 68"/>
+    <tableColumn id="69" xr3:uid="{45CBB860-0CF4-430A-9D41-DEDC6D4435AD}" name="Col 69"/>
+    <tableColumn id="70" xr3:uid="{FA638996-E077-437A-AEC9-761FB83B74A8}" name="Col 70"/>
+    <tableColumn id="71" xr3:uid="{EC0D9C98-7817-4D2F-BBF6-93E2737118F4}" name="Col 71"/>
+    <tableColumn id="72" xr3:uid="{DA4E9A3B-364C-4787-922E-47CFDD1D23B8}" name="Col 72"/>
+    <tableColumn id="73" xr3:uid="{6686A209-D8A9-4E28-B764-82A2AD26DD72}" name="Col 73"/>
+    <tableColumn id="74" xr3:uid="{A97309D3-1AEB-4303-9733-6B03D92DC450}" name="Col 74"/>
+    <tableColumn id="75" xr3:uid="{BC424F0B-0CBC-46CA-9D43-49C5D4D12084}" name="Col 75"/>
+    <tableColumn id="76" xr3:uid="{40FFB765-2CF6-4F36-8FB4-144ABFB67BD2}" name="Col 76"/>
+    <tableColumn id="77" xr3:uid="{4739DE29-84E8-475D-818B-7049D885DC76}" name="Col 77"/>
+    <tableColumn id="78" xr3:uid="{7F3F3930-1E9D-45AE-ACAD-B8835C519E36}" name="Col 78"/>
+    <tableColumn id="79" xr3:uid="{C5F83322-36B9-471A-BCD8-8CCE63CE4CC9}" name="Col 79"/>
+    <tableColumn id="80" xr3:uid="{0AE29E9F-22FE-4103-85D1-3ED27F1C21B0}" name="Col 80"/>
+    <tableColumn id="81" xr3:uid="{B86D5E9E-38C1-40FD-A0A0-65F8B0627EFC}" name="Col 81"/>
+    <tableColumn id="82" xr3:uid="{DCB2BC17-B8D5-4EE9-8D35-E9333DA85146}" name="Col 82"/>
+    <tableColumn id="83" xr3:uid="{CE75F411-AF0C-4F05-8569-EC5890BBE475}" name="Col 83"/>
+    <tableColumn id="84" xr3:uid="{5C42F387-A9E2-4DC0-BE8D-DC5C590D89D3}" name="Col 84"/>
+    <tableColumn id="85" xr3:uid="{29C9A99E-A5B0-40A4-AE16-4E91D03A520F}" name="Col 85"/>
+    <tableColumn id="86" xr3:uid="{DD1E90CC-744B-40C6-AF6B-C27D715B7028}" name="Col 86"/>
+    <tableColumn id="87" xr3:uid="{B3FCB1DB-E744-4C30-A492-F70B45EB645F}" name="Col 87"/>
+    <tableColumn id="88" xr3:uid="{86C3CE83-2701-497E-BAAB-BD6E5BE9D25F}" name="Col 88"/>
+    <tableColumn id="89" xr3:uid="{54E1ABF7-C9B0-4DF3-936F-B06C61F4D1AF}" name="Col 89"/>
+    <tableColumn id="90" xr3:uid="{2F8BC889-9706-413E-8B0A-8CB66FA56EE6}" name="Col 90"/>
+    <tableColumn id="91" xr3:uid="{744DB11E-AB2C-41E5-846F-71432CBD81E7}" name="Col 91"/>
+    <tableColumn id="92" xr3:uid="{E9F7DAA5-0516-44B3-A6A4-DA2211281BE1}" name="Col 92"/>
+    <tableColumn id="93" xr3:uid="{9889A6EF-A74B-423D-BDF9-A39020570EAB}" name="Col 93"/>
+    <tableColumn id="94" xr3:uid="{540A74DA-B0E2-44FE-AE26-A7CFE9D5167A}" name="Col 94"/>
+    <tableColumn id="95" xr3:uid="{64B11637-83D7-4E06-A33A-59DA71A9C1B1}" name="Col 95"/>
+    <tableColumn id="96" xr3:uid="{6A83FE22-16AD-4DB7-84DC-DB55D967851C}" name="Col 96"/>
+    <tableColumn id="97" xr3:uid="{C3E53C3E-EF93-4DF5-89F3-4B5535A4B63F}" name="Col 97"/>
+    <tableColumn id="98" xr3:uid="{DB7106AA-4F3A-492C-B1E6-6605F7A5AFFA}" name="Col 98"/>
+    <tableColumn id="99" xr3:uid="{092A0299-48D1-4BF5-8176-E19BBB43288F}" name="Col 99"/>
+    <tableColumn id="100" xr3:uid="{A85ACC83-4078-4DD2-812A-10CF55A6E678}" name="Col 100"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1747,8 +1890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229"/>
+    <sheetView topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1976,7 +2119,7 @@
         <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -2518,7 +2661,7 @@
         <v>38</v>
       </c>
       <c r="C68" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
@@ -2540,7 +2683,7 @@
         <v>38</v>
       </c>
       <c r="C70" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
@@ -2551,7 +2694,7 @@
         <v>49</v>
       </c>
       <c r="C71" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
@@ -2565,7 +2708,7 @@
         <v>102</v>
       </c>
       <c r="D72" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
@@ -2934,10 +3077,10 @@
         <v>2099700057</v>
       </c>
       <c r="B105" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C105" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
@@ -2948,7 +3091,7 @@
         <v>2099700058</v>
       </c>
       <c r="B106" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -2960,7 +3103,7 @@
         <v>52</v>
       </c>
       <c r="F106" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
@@ -2968,10 +3111,10 @@
         <v>2099700059</v>
       </c>
       <c r="B107" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C107" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -2999,7 +3142,7 @@
         <v>2154140069</v>
       </c>
       <c r="B109" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C109" t="s">
         <v>303</v>
@@ -3010,7 +3153,7 @@
         <v>2154140162</v>
       </c>
       <c r="B110" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -3024,7 +3167,7 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
@@ -3112,7 +3255,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
@@ -3156,7 +3299,7 @@
         <v>119</v>
       </c>
       <c r="C123" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -3164,7 +3307,7 @@
         <v>2154140292</v>
       </c>
       <c r="B124" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C124" t="s">
         <v>31</v>
@@ -3255,7 +3398,7 @@
         <v>119</v>
       </c>
       <c r="C132" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -3274,10 +3417,10 @@
         <v>2154140596</v>
       </c>
       <c r="B134" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C134" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.35">
@@ -3500,10 +3643,10 @@
         <v>123</v>
       </c>
       <c r="C154" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D154" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.35">
@@ -3514,7 +3657,7 @@
         <v>123</v>
       </c>
       <c r="C155" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.35">
@@ -3525,10 +3668,10 @@
         <v>123</v>
       </c>
       <c r="C156" t="s">
+        <v>377</v>
+      </c>
+      <c r="D156" t="s">
         <v>380</v>
-      </c>
-      <c r="D156" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.35">
@@ -3539,7 +3682,7 @@
         <v>123</v>
       </c>
       <c r="C157" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.35">
@@ -3591,7 +3734,7 @@
         <v>2154150448</v>
       </c>
       <c r="B162" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C162" t="s">
         <v>124</v>
@@ -3605,7 +3748,7 @@
         <v>123</v>
       </c>
       <c r="C163" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D163" t="s">
         <v>156</v>
@@ -3660,7 +3803,7 @@
         <v>2154150525</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C168" t="s">
         <v>169</v>
@@ -3677,7 +3820,7 @@
         <v>130</v>
       </c>
       <c r="C169" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
@@ -3727,10 +3870,10 @@
         <v>31</v>
       </c>
       <c r="D173" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E173" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
@@ -3782,10 +3925,10 @@
         <v>2154150591</v>
       </c>
       <c r="B178" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C178" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D178" t="s">
         <v>145</v>
@@ -3802,7 +3945,7 @@
         <v>127</v>
       </c>
       <c r="D179" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
@@ -3832,10 +3975,10 @@
         <v>2154150622</v>
       </c>
       <c r="B182" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C182" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
@@ -3843,10 +3986,10 @@
         <v>2154150627</v>
       </c>
       <c r="B183" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C183" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
@@ -3874,7 +4017,7 @@
         <v>124</v>
       </c>
       <c r="E185" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
@@ -3882,16 +4025,16 @@
         <v>2154150648</v>
       </c>
       <c r="B186" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D186" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E186" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
@@ -3935,10 +4078,10 @@
         <v>123</v>
       </c>
       <c r="C190" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D190" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
@@ -3979,7 +4122,7 @@
         <v>2154150719</v>
       </c>
       <c r="B194" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C194" t="s">
         <v>137</v>
@@ -4004,10 +4147,10 @@
         <v>130</v>
       </c>
       <c r="C196" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D196" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E196" t="s">
         <v>156</v>
@@ -4021,7 +4164,7 @@
         <v>130</v>
       </c>
       <c r="C197" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D197" t="s">
         <v>156</v>
@@ -4052,7 +4195,7 @@
         <v>130</v>
       </c>
       <c r="C199" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
@@ -4069,7 +4212,7 @@
         <v>124</v>
       </c>
       <c r="E200" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
@@ -4094,7 +4237,7 @@
         <v>130</v>
       </c>
       <c r="C202" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D202" t="s">
         <v>156</v>
@@ -4108,7 +4251,7 @@
         <v>127</v>
       </c>
       <c r="C203" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
@@ -4116,7 +4259,7 @@
         <v>2154150840</v>
       </c>
       <c r="B204" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C204" t="s">
         <v>128</v>
@@ -4127,7 +4270,7 @@
         <v>2154150841</v>
       </c>
       <c r="B205" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C205" t="s">
         <v>126</v>
@@ -4138,7 +4281,7 @@
         <v>2154150876</v>
       </c>
       <c r="B206" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C206" t="s">
         <v>128</v>
@@ -4149,7 +4292,7 @@
         <v>2154150893</v>
       </c>
       <c r="B207" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C207" t="s">
         <v>140</v>
@@ -4163,7 +4306,7 @@
         <v>127</v>
       </c>
       <c r="C208" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.35">
@@ -4174,7 +4317,7 @@
         <v>123</v>
       </c>
       <c r="C209" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.35">
@@ -4185,7 +4328,7 @@
         <v>130</v>
       </c>
       <c r="C210" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.35">
@@ -4218,7 +4361,7 @@
         <v>124</v>
       </c>
       <c r="C213" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.35">
@@ -4226,13 +4369,13 @@
         <v>2154155150</v>
       </c>
       <c r="B214" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C214" t="s">
         <v>124</v>
       </c>
       <c r="D214" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.35">
@@ -4394,311 +4537,388 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="59" max="60" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="12" bestFit="1" customWidth="1"/>
+    <col min="65" max="66" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="12" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="77" max="78" width="12" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="12" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="87" max="88" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="89" max="90" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="91" max="92" width="12" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="12" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="12.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="AR1" s="4" t="s">
+      <c r="AR1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="AS1" s="4" t="s">
+      <c r="AS1" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="AT1" s="4" t="s">
+      <c r="AT1" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AU1" s="4" t="s">
+      <c r="AU1" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="AX1" s="4" t="s">
+      <c r="AX1" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="AY1" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="BA1" s="4" t="s">
+      <c r="BA1" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BB1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BC1" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="BE1" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BF1" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BG1" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="BH1" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="BI1" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="BJ1" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="BK1" s="4" t="s">
+      <c r="BK1" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="BL1" s="4" t="s">
+      <c r="BL1" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="BM1" s="4" t="s">
+      <c r="BM1" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="BN1" s="4" t="s">
+      <c r="BN1" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="BO1" s="4" t="s">
+      <c r="BO1" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="BP1" s="4" t="s">
+      <c r="BP1" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="BQ1" s="4" t="s">
+      <c r="BQ1" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="BR1" s="4" t="s">
+      <c r="BR1" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="BS1" s="4" t="s">
+      <c r="BS1" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="BT1" s="4" t="s">
+      <c r="BT1" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="BU1" s="4" t="s">
+      <c r="BU1" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="BV1" s="4" t="s">
+      <c r="BV1" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="BX1" s="4" t="s">
+      <c r="BX1" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="BY1" s="4" t="s">
+      <c r="BY1" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="BZ1" s="4" t="s">
+      <c r="BZ1" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="CA1" s="4" t="s">
+      <c r="CA1" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="CB1" s="4" t="s">
+      <c r="CB1" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="CC1" s="4" t="s">
+      <c r="CC1" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="CD1" s="4" t="s">
+      <c r="CD1" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="CE1" s="4" t="s">
+      <c r="CE1" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="CF1" s="4" t="s">
+      <c r="CF1" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="CG1" s="4" t="s">
+      <c r="CG1" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="CH1" s="4" t="s">
+      <c r="CH1" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="CI1" s="4" t="s">
+      <c r="CI1" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="CJ1" s="4" t="s">
+      <c r="CJ1" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="CK1" s="4" t="s">
+      <c r="CK1" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="CL1" s="4" t="s">
+      <c r="CL1" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="CM1" s="4" t="s">
+      <c r="CM1" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="CN1" s="4" t="s">
+      <c r="CN1" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="CO1" s="4" t="s">
+      <c r="CO1" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="CP1" s="4" t="s">
+      <c r="CP1" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="CQ1" s="4" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="CR1" s="4" t="s">
+      <c r="CR1" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="CS1" s="4" t="s">
+      <c r="CS1" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="CT1" s="4" t="s">
+      <c r="CT1" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CU1" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="CV1" s="4" t="s">
+      <c r="CV1" s="8" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5035,19 +5255,13 @@
       <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
-        <v>317</v>
-      </c>
-      <c r="L3" t="s">
-        <v>318</v>
-      </c>
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -5085,10 +5299,10 @@
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
         <v>140</v>
@@ -5183,10 +5397,10 @@
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C6" t="s">
         <v>64</v>
@@ -5251,10 +5465,10 @@
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -5292,10 +5506,10 @@
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
@@ -5339,10 +5553,10 @@
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C9" t="s">
         <v>52</v>
@@ -5386,10 +5600,10 @@
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C10" t="s">
         <v>31</v>
@@ -5398,16 +5612,16 @@
         <v>169</v>
       </c>
       <c r="E10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G10" t="s">
         <v>333</v>
       </c>
-      <c r="F10" t="s">
-        <v>334</v>
-      </c>
-      <c r="G10" t="s">
-        <v>335</v>
-      </c>
       <c r="H10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I10" t="s">
         <v>156</v>
@@ -5416,10 +5630,10 @@
         <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="L10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M10" t="s">
         <v>127</v>
@@ -5437,7 +5651,7 @@
         <v>303</v>
       </c>
       <c r="R10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="S10" t="s">
         <v>126</v>
@@ -5448,19 +5662,13 @@
       <c r="U10" t="s">
         <v>123</v>
       </c>
-      <c r="V10" t="s">
-        <v>373</v>
-      </c>
-      <c r="W10" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C11" t="s">
         <v>132</v>
@@ -5475,10 +5683,10 @@
         <v>303</v>
       </c>
       <c r="G11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I11" t="s">
         <v>64</v>
@@ -5511,7 +5719,7 @@
         <v>52</v>
       </c>
       <c r="S11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="T11" t="s">
         <v>7</v>
@@ -5519,6 +5727,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5652,10 +5863,10 @@
         <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -5664,7 +5875,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -5679,16 +5890,16 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L2" t="s">
+        <v>345</v>
+      </c>
+      <c r="M2" t="s">
         <v>346</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>347</v>
-      </c>
-      <c r="M2" t="s">
-        <v>348</v>
-      </c>
-      <c r="N2" t="s">
-        <v>349</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -5744,10 +5955,10 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -5842,18 +6053,18 @@
         <v>149</v>
       </c>
       <c r="P4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" t="s">
         <v>350</v>
-      </c>
-      <c r="C5" t="s">
-        <v>352</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -5865,7 +6076,7 @@
         <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H5" t="s">
         <v>151</v>
@@ -5889,7 +6100,7 @@
         <v>164</v>
       </c>
       <c r="O5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="P5" t="s">
         <v>165</v>
@@ -5924,10 +6135,10 @@
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
         <v>94</v>
@@ -6034,10 +6245,10 @@
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
@@ -6087,7 +6298,7 @@
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -6122,7 +6333,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -6142,15 +6353,15 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6173,98 +6384,98 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E372666-B49D-4E58-8709-139280870ADB}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7F072E-CE2A-498B-A62C-4DDB82FD5EE3}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="394">
   <si>
     <t>Col 1</t>
   </si>
@@ -1215,13 +1215,16 @@
   </si>
   <si>
     <t>AMZW25-001-A</t>
+  </si>
+  <si>
+    <t>V1.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1246,6 +1249,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1344,6 +1353,20 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1370,20 +1393,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1446,12 +1455,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:F226" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:G226" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G226">
     <sortCondition ref="A114:A226"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{CF499674-C182-4560-8B41-0E78F331A415}" name="Col 12"/>
     <tableColumn id="2" xr3:uid="{45F9BB40-479B-43A5-863C-7DF090960010}" name="Col 2"/>
     <tableColumn id="3" xr3:uid="{35AC3272-E32E-4533-B684-783CFFC3D97D}" name="Col 3"/>
     <tableColumn id="4" xr3:uid="{009711B2-C3BC-4C66-A5C8-5E23732ACEC7}" name="Col 4"/>
@@ -1463,7 +1473,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CV11" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CV11" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:CV11" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}"/>
   <tableColumns count="100">
     <tableColumn id="1" xr3:uid="{515ED9AD-2115-402D-A669-A7974119647C}" name="Col 1"/>
@@ -1888,2644 +1898,3325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2088701244</v>
       </c>
       <c r="B2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2088701390</v>
       </c>
       <c r="B3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2088701610</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2088701746</v>
       </c>
       <c r="B5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2088702198</v>
       </c>
       <c r="B6" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2088702199</v>
       </c>
       <c r="B7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2088702200</v>
       </c>
       <c r="B8" t="s">
+        <v>393</v>
+      </c>
+      <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2088702201</v>
       </c>
       <c r="B9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2088702202</v>
       </c>
       <c r="B10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2088702203</v>
       </c>
       <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2088702204</v>
       </c>
       <c r="B12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2088702205</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2088702206</v>
       </c>
       <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2088702207</v>
       </c>
       <c r="B15" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2088702221</v>
       </c>
       <c r="B16" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2088707042</v>
       </c>
       <c r="B17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2098700024</v>
       </c>
       <c r="B18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2098700025</v>
       </c>
       <c r="B19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2098700026</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>393</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2098700033</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2098700046</v>
       </c>
       <c r="B22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2098700056</v>
       </c>
       <c r="B23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2098700058</v>
       </c>
       <c r="B24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2098700076</v>
       </c>
       <c r="B25" t="s">
+        <v>393</v>
+      </c>
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2098700083</v>
       </c>
       <c r="B26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
         <v>2098700108</v>
       </c>
       <c r="B27" t="s">
+        <v>393</v>
+      </c>
+      <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2098700143</v>
       </c>
       <c r="B28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2098700154</v>
       </c>
       <c r="B29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2098700177</v>
       </c>
       <c r="B30" t="s">
+        <v>393</v>
+      </c>
+      <c r="C30" t="s">
         <v>22</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2098700189</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>393</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2098700245</v>
       </c>
       <c r="B32" t="s">
+        <v>393</v>
+      </c>
+      <c r="C32" t="s">
         <v>45</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
         <v>2098700246</v>
       </c>
       <c r="B33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" t="s">
         <v>46</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
         <v>2098700256</v>
       </c>
       <c r="B34" t="s">
+        <v>393</v>
+      </c>
+      <c r="C34" t="s">
         <v>126</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2098700289</v>
       </c>
       <c r="B35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" t="s">
         <v>48</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2098700290</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>393</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2098700293</v>
       </c>
       <c r="B37" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2098700296</v>
       </c>
       <c r="B38" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>54</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2098700301</v>
       </c>
       <c r="B39" t="s">
+        <v>393</v>
+      </c>
+      <c r="C39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2098700302</v>
       </c>
       <c r="B40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2098700304</v>
       </c>
       <c r="B41" t="s">
+        <v>393</v>
+      </c>
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2098700305</v>
       </c>
       <c r="B42" t="s">
+        <v>393</v>
+      </c>
+      <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2098700306</v>
       </c>
       <c r="B43" t="s">
+        <v>393</v>
+      </c>
+      <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2098700307</v>
       </c>
       <c r="B44" t="s">
+        <v>393</v>
+      </c>
+      <c r="C44" t="s">
         <v>43</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2098700309</v>
       </c>
       <c r="B45" t="s">
+        <v>393</v>
+      </c>
+      <c r="C45" t="s">
         <v>64</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2098700315</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>393</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2098700316</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>393</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2098700320</v>
       </c>
       <c r="B48" t="s">
+        <v>393</v>
+      </c>
+      <c r="C48" t="s">
         <v>57</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2098700322</v>
       </c>
       <c r="B49" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" t="s">
         <v>43</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2098700353</v>
       </c>
       <c r="B50" t="s">
+        <v>393</v>
+      </c>
+      <c r="C50" t="s">
         <v>64</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2098700355</v>
       </c>
       <c r="B51" t="s">
+        <v>393</v>
+      </c>
+      <c r="C51" t="s">
         <v>35</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2098700356</v>
       </c>
       <c r="B52" t="s">
+        <v>393</v>
+      </c>
+      <c r="C52" t="s">
         <v>35</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2098700357</v>
       </c>
       <c r="B53" t="s">
+        <v>393</v>
+      </c>
+      <c r="C53" t="s">
         <v>48</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2098700358</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>393</v>
       </c>
       <c r="C54" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2098700366</v>
       </c>
       <c r="B55" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" t="s">
         <v>43</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2098700371</v>
       </c>
       <c r="B56" t="s">
+        <v>393</v>
+      </c>
+      <c r="C56" t="s">
         <v>46</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2098700372</v>
       </c>
       <c r="B57" t="s">
+        <v>393</v>
+      </c>
+      <c r="C57" t="s">
         <v>52</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2098700373</v>
       </c>
       <c r="B58" t="s">
+        <v>393</v>
+      </c>
+      <c r="C58" t="s">
         <v>46</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2098700374</v>
       </c>
       <c r="B59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" t="s">
         <v>52</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2098700375</v>
       </c>
       <c r="B60" t="s">
+        <v>393</v>
+      </c>
+      <c r="C60" t="s">
         <v>32</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2098700376</v>
       </c>
       <c r="B61" t="s">
+        <v>393</v>
+      </c>
+      <c r="C61" t="s">
         <v>32</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2098700378</v>
       </c>
       <c r="B62" t="s">
+        <v>393</v>
+      </c>
+      <c r="C62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
         <v>2098700379</v>
       </c>
       <c r="B63" t="s">
+        <v>393</v>
+      </c>
+      <c r="C63" t="s">
         <v>162</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
         <v>2098700380</v>
       </c>
       <c r="B64" t="s">
+        <v>393</v>
+      </c>
+      <c r="C64" t="s">
         <v>162</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
         <v>2098700404</v>
       </c>
       <c r="B65" t="s">
+        <v>393</v>
+      </c>
+      <c r="C65" t="s">
         <v>8</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
         <v>2098700405</v>
       </c>
       <c r="B66" t="s">
+        <v>393</v>
+      </c>
+      <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>2098700429</v>
       </c>
       <c r="B67" t="s">
+        <v>393</v>
+      </c>
+      <c r="C67" t="s">
         <v>48</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="7">
         <v>2098700432</v>
       </c>
       <c r="B68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C68" t="s">
         <v>38</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
         <v>2098700433</v>
       </c>
       <c r="B69" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" t="s">
         <v>38</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
         <v>2098700434</v>
       </c>
       <c r="B70" t="s">
+        <v>393</v>
+      </c>
+      <c r="C70" t="s">
         <v>38</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
         <v>2098700436</v>
       </c>
       <c r="B71" t="s">
+        <v>393</v>
+      </c>
+      <c r="C71" t="s">
         <v>49</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
         <v>2098700437</v>
       </c>
       <c r="B72" t="s">
+        <v>393</v>
+      </c>
+      <c r="C72" t="s">
         <v>53</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>102</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2098701682</v>
       </c>
       <c r="B73" t="s">
+        <v>393</v>
+      </c>
+      <c r="C73" t="s">
         <v>71</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2098706005</v>
       </c>
       <c r="B74" t="s">
+        <v>393</v>
+      </c>
+      <c r="C74" t="s">
         <v>7</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2098706008</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2098706009</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2098706010</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2098706011</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2098706013</v>
       </c>
       <c r="B79" t="s">
-        <v>57</v>
+        <v>393</v>
       </c>
       <c r="C79" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2098706018</v>
       </c>
       <c r="B80" t="s">
+        <v>393</v>
+      </c>
+      <c r="C80" t="s">
         <v>8</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2098706021</v>
       </c>
       <c r="B81" t="s">
+        <v>393</v>
+      </c>
+      <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2098706023</v>
       </c>
       <c r="B82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" t="s">
         <v>52</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2098706024</v>
       </c>
       <c r="B83" t="s">
+        <v>393</v>
+      </c>
+      <c r="C83" t="s">
         <v>52</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2098706025</v>
       </c>
       <c r="B84" t="s">
+        <v>393</v>
+      </c>
+      <c r="C84" t="s">
         <v>38</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2098706026</v>
       </c>
       <c r="B85" t="s">
+        <v>393</v>
+      </c>
+      <c r="C85" t="s">
         <v>49</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2098706028</v>
       </c>
       <c r="B86" t="s">
+        <v>393</v>
+      </c>
+      <c r="C86" t="s">
         <v>7</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2098706031</v>
       </c>
       <c r="B87" t="s">
+        <v>393</v>
+      </c>
+      <c r="C87" t="s">
         <v>54</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2098706032</v>
       </c>
       <c r="B88" t="s">
+        <v>393</v>
+      </c>
+      <c r="C88" t="s">
         <v>49</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2098706040</v>
       </c>
       <c r="B89" t="s">
+        <v>393</v>
+      </c>
+      <c r="C89" t="s">
         <v>38</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2098706041</v>
       </c>
       <c r="B90" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90" t="s">
         <v>8</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2098706044</v>
       </c>
       <c r="B91" t="s">
+        <v>393</v>
+      </c>
+      <c r="C91" t="s">
         <v>38</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="7">
         <v>2098706072</v>
       </c>
       <c r="B92" t="s">
+        <v>393</v>
+      </c>
+      <c r="C92" t="s">
         <v>46</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
         <v>2098706075</v>
       </c>
       <c r="B93" t="s">
+        <v>393</v>
+      </c>
+      <c r="C93" t="s">
         <v>43</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
         <v>2098706076</v>
       </c>
       <c r="B94" t="s">
+        <v>393</v>
+      </c>
+      <c r="C94" t="s">
         <v>46</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>2098706083</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>393</v>
       </c>
       <c r="C95" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2098706084</v>
       </c>
       <c r="B96" t="s">
+        <v>393</v>
+      </c>
+      <c r="C96" t="s">
         <v>52</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="7">
         <v>2099700009</v>
       </c>
       <c r="B97" t="s">
+        <v>393</v>
+      </c>
+      <c r="C97" t="s">
         <v>12</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
         <v>2099700010</v>
       </c>
       <c r="B98" t="s">
+        <v>393</v>
+      </c>
+      <c r="C98" t="s">
         <v>12</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2099700025</v>
       </c>
       <c r="B99" t="s">
+        <v>393</v>
+      </c>
+      <c r="C99" t="s">
         <v>103</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>10</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2099700030</v>
       </c>
       <c r="B100" t="s">
+        <v>393</v>
+      </c>
+      <c r="C100" t="s">
         <v>104</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>10</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>14</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="7">
         <v>2099700041</v>
       </c>
       <c r="B101" t="s">
+        <v>393</v>
+      </c>
+      <c r="C101" t="s">
         <v>12</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2099700048</v>
       </c>
       <c r="B102" t="s">
+        <v>393</v>
+      </c>
+      <c r="C102" t="s">
         <v>45</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="7">
         <v>2099700049</v>
       </c>
       <c r="B103" t="s">
+        <v>393</v>
+      </c>
+      <c r="C103" t="s">
         <v>46</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
         <v>2099700056</v>
       </c>
       <c r="B104" t="s">
+        <v>393</v>
+      </c>
+      <c r="C104" t="s">
         <v>46</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
         <v>2099700057</v>
       </c>
       <c r="B105" t="s">
+        <v>393</v>
+      </c>
+      <c r="C105" t="s">
         <v>374</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>372</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
         <v>2099700058</v>
       </c>
       <c r="B106" t="s">
+        <v>393</v>
+      </c>
+      <c r="C106" t="s">
         <v>374</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>10</v>
-      </c>
-      <c r="D106" t="s">
-        <v>52</v>
       </c>
       <c r="E106" t="s">
         <v>52</v>
       </c>
       <c r="F106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G106" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
         <v>2099700059</v>
       </c>
       <c r="B107" t="s">
+        <v>393</v>
+      </c>
+      <c r="C107" t="s">
         <v>374</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>372</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>10</v>
-      </c>
-      <c r="E107" t="s">
-        <v>52</v>
       </c>
       <c r="F107" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G107" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
         <v>2099706005</v>
       </c>
       <c r="B108" t="s">
+        <v>393</v>
+      </c>
+      <c r="C108" t="s">
         <v>45</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
         <v>2154140069</v>
       </c>
       <c r="B109" t="s">
+        <v>393</v>
+      </c>
+      <c r="C109" t="s">
         <v>375</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
         <v>2154140162</v>
       </c>
       <c r="B110" t="s">
+        <v>393</v>
+      </c>
+      <c r="C110" t="s">
         <v>376</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
         <v>2154140207</v>
       </c>
       <c r="B111" t="s">
+        <v>393</v>
+      </c>
+      <c r="C111" t="s">
         <v>7</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>2154140222</v>
       </c>
       <c r="B112" t="s">
+        <v>393</v>
+      </c>
+      <c r="C112" t="s">
         <v>106</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2154140224</v>
       </c>
       <c r="B113" t="s">
+        <v>393</v>
+      </c>
+      <c r="C113" t="s">
         <v>107</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2154140225</v>
       </c>
       <c r="B114" t="s">
+        <v>393</v>
+      </c>
+      <c r="C114" t="s">
         <v>106</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2154140229</v>
       </c>
       <c r="B115" t="s">
+        <v>393</v>
+      </c>
+      <c r="C115" t="s">
         <v>107</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2154140243</v>
       </c>
       <c r="B116" t="s">
+        <v>393</v>
+      </c>
+      <c r="C116" t="s">
         <v>31</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2154140283</v>
       </c>
       <c r="B117" t="s">
+        <v>393</v>
+      </c>
+      <c r="C117" t="s">
         <v>31</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2154140284</v>
       </c>
       <c r="B118" t="s">
+        <v>393</v>
+      </c>
+      <c r="C118" t="s">
         <v>31</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="7">
         <v>2154140285</v>
       </c>
       <c r="B119" t="s">
+        <v>393</v>
+      </c>
+      <c r="C119" t="s">
         <v>119</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2154140287</v>
       </c>
       <c r="B120" t="s">
+        <v>393</v>
+      </c>
+      <c r="C120" t="s">
         <v>31</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2154140289</v>
       </c>
       <c r="B121" t="s">
+        <v>393</v>
+      </c>
+      <c r="C121" t="s">
         <v>31</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2154140290</v>
       </c>
       <c r="B122" t="s">
+        <v>393</v>
+      </c>
+      <c r="C122" t="s">
         <v>31</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="7">
         <v>2154140291</v>
       </c>
       <c r="B123" t="s">
+        <v>393</v>
+      </c>
+      <c r="C123" t="s">
         <v>119</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
         <v>2154140292</v>
       </c>
       <c r="B124" t="s">
+        <v>393</v>
+      </c>
+      <c r="C124" t="s">
         <v>376</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>2154140293</v>
       </c>
       <c r="B125" t="s">
+        <v>393</v>
+      </c>
+      <c r="C125" t="s">
         <v>31</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2154140294</v>
       </c>
       <c r="B126" t="s">
+        <v>393</v>
+      </c>
+      <c r="C126" t="s">
         <v>113</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2154140295</v>
       </c>
       <c r="B127" t="s">
+        <v>393</v>
+      </c>
+      <c r="C127" t="s">
         <v>113</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2154140318</v>
       </c>
       <c r="B128" t="s">
+        <v>393</v>
+      </c>
+      <c r="C128" t="s">
         <v>115</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2154140319</v>
       </c>
       <c r="B129" t="s">
+        <v>393</v>
+      </c>
+      <c r="C129" t="s">
         <v>31</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="7">
         <v>2154140335</v>
       </c>
       <c r="B130" t="s">
+        <v>393</v>
+      </c>
+      <c r="C130" t="s">
         <v>31</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>2154140336</v>
       </c>
       <c r="B131" t="s">
+        <v>393</v>
+      </c>
+      <c r="C131" t="s">
         <v>31</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="7">
         <v>2154140345</v>
       </c>
       <c r="B132" t="s">
+        <v>393</v>
+      </c>
+      <c r="C132" t="s">
         <v>119</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>2154140349</v>
       </c>
       <c r="B133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" t="s">
         <v>118</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="7">
         <v>2154140596</v>
       </c>
       <c r="B134" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="C134" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D134" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>2154150035</v>
       </c>
       <c r="B135" t="s">
+        <v>393</v>
+      </c>
+      <c r="C135" t="s">
         <v>31</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2154150089</v>
       </c>
       <c r="B136" t="s">
+        <v>393</v>
+      </c>
+      <c r="C136" t="s">
         <v>123</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2154150163</v>
       </c>
       <c r="B137" t="s">
+        <v>393</v>
+      </c>
+      <c r="C137" t="s">
         <v>125</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2154150172</v>
       </c>
       <c r="B138" t="s">
+        <v>393</v>
+      </c>
+      <c r="C138" t="s">
         <v>124</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2154150197</v>
       </c>
       <c r="B139" t="s">
+        <v>393</v>
+      </c>
+      <c r="C139" t="s">
         <v>121</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2154150214</v>
       </c>
       <c r="B140" t="s">
+        <v>393</v>
+      </c>
+      <c r="C140" t="s">
         <v>31</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2154150215</v>
       </c>
       <c r="B141" t="s">
+        <v>393</v>
+      </c>
+      <c r="C141" t="s">
         <v>130</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2154150247</v>
       </c>
       <c r="B142" t="s">
+        <v>393</v>
+      </c>
+      <c r="C142" t="s">
         <v>131</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2154150250</v>
       </c>
       <c r="B143" t="s">
+        <v>393</v>
+      </c>
+      <c r="C143" t="s">
         <v>134</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="7">
         <v>2154150301</v>
       </c>
       <c r="B144" t="s">
+        <v>393</v>
+      </c>
+      <c r="C144" t="s">
         <v>124</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>2154150337</v>
       </c>
       <c r="B145" t="s">
+        <v>393</v>
+      </c>
+      <c r="C145" t="s">
         <v>127</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2154150341</v>
       </c>
       <c r="B146" t="s">
-        <v>138</v>
+        <v>393</v>
       </c>
       <c r="C146" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D146" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2154150342</v>
       </c>
       <c r="B147" t="s">
+        <v>393</v>
+      </c>
+      <c r="C147" t="s">
         <v>124</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="7">
         <v>2154150343</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>393</v>
       </c>
       <c r="C148" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D148" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
         <v>2154150347</v>
       </c>
       <c r="B149" t="s">
-        <v>124</v>
+        <v>393</v>
       </c>
       <c r="C149" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D149" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>2154150348</v>
       </c>
       <c r="B150" t="s">
+        <v>393</v>
+      </c>
+      <c r="C150" t="s">
         <v>127</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="7">
         <v>2154150349</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>393</v>
       </c>
       <c r="C151" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D151" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="7">
         <v>2154150350</v>
       </c>
       <c r="B152" t="s">
+        <v>393</v>
+      </c>
+      <c r="C152" t="s">
         <v>130</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>124</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="7">
         <v>2154150351</v>
       </c>
       <c r="B153" t="s">
-        <v>124</v>
+        <v>393</v>
       </c>
       <c r="C153" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
         <v>2154150357</v>
       </c>
       <c r="B154" t="s">
+        <v>393</v>
+      </c>
+      <c r="C154" t="s">
         <v>123</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>380</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
         <v>2154150358</v>
       </c>
       <c r="B155" t="s">
+        <v>393</v>
+      </c>
+      <c r="C155" t="s">
         <v>123</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
         <v>2154150366</v>
       </c>
       <c r="B156" t="s">
+        <v>393</v>
+      </c>
+      <c r="C156" t="s">
         <v>123</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>377</v>
       </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
         <v>2154150370</v>
       </c>
       <c r="B157" t="s">
+        <v>393</v>
+      </c>
+      <c r="C157" t="s">
         <v>123</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>2154150380</v>
       </c>
       <c r="B158" t="s">
+        <v>393</v>
+      </c>
+      <c r="C158" t="s">
         <v>125</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2154150391</v>
       </c>
       <c r="B159" t="s">
+        <v>393</v>
+      </c>
+      <c r="C159" t="s">
         <v>123</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2154150420</v>
       </c>
       <c r="B160" t="s">
+        <v>393</v>
+      </c>
+      <c r="C160" t="s">
         <v>140</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2154150447</v>
       </c>
       <c r="B161" t="s">
+        <v>393</v>
+      </c>
+      <c r="C161" t="s">
         <v>140</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="7">
         <v>2154150448</v>
       </c>
       <c r="B162" t="s">
+        <v>393</v>
+      </c>
+      <c r="C162" t="s">
         <v>382</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
         <v>2154150455</v>
       </c>
       <c r="B163" t="s">
+        <v>393</v>
+      </c>
+      <c r="C163" t="s">
         <v>123</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>335</v>
       </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>2154150461</v>
       </c>
       <c r="B164" t="s">
+        <v>393</v>
+      </c>
+      <c r="C164" t="s">
         <v>125</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="7">
         <v>2154150497</v>
       </c>
       <c r="B165" t="s">
+        <v>393</v>
+      </c>
+      <c r="C165" t="s">
         <v>140</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
         <v>2154150501</v>
       </c>
       <c r="B166" t="s">
+        <v>393</v>
+      </c>
+      <c r="C166" t="s">
         <v>121</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
         <v>2154150509</v>
       </c>
       <c r="B167" t="s">
+        <v>393</v>
+      </c>
+      <c r="C167" t="s">
         <v>124</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
         <v>2154150525</v>
       </c>
       <c r="B168" t="s">
+        <v>393</v>
+      </c>
+      <c r="C168" t="s">
         <v>335</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>169</v>
       </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
         <v>2154150526</v>
       </c>
       <c r="B169" t="s">
+        <v>393</v>
+      </c>
+      <c r="C169" t="s">
         <v>130</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
         <v>2154150534</v>
       </c>
       <c r="B170" t="s">
+        <v>393</v>
+      </c>
+      <c r="C170" t="s">
         <v>124</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>31</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>2154150554</v>
       </c>
       <c r="B171" t="s">
+        <v>393</v>
+      </c>
+      <c r="C171" t="s">
         <v>131</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="7">
         <v>2154150557</v>
       </c>
       <c r="B172" t="s">
+        <v>393</v>
+      </c>
+      <c r="C172" t="s">
         <v>123</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
         <v>2154150560</v>
       </c>
       <c r="B173" t="s">
+        <v>393</v>
+      </c>
+      <c r="C173" t="s">
         <v>124</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>31</v>
       </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
         <v>384</v>
       </c>
-      <c r="E173" t="s">
+      <c r="F173" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>2154150563</v>
       </c>
       <c r="B174" t="s">
+        <v>393</v>
+      </c>
+      <c r="C174" t="s">
         <v>135</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="7">
         <v>2154150581</v>
       </c>
       <c r="B175" t="s">
+        <v>393</v>
+      </c>
+      <c r="C175" t="s">
         <v>124</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>2154150582</v>
       </c>
       <c r="B176" t="s">
+        <v>393</v>
+      </c>
+      <c r="C176" t="s">
         <v>124</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2154150588</v>
       </c>
       <c r="B177" t="s">
+        <v>393</v>
+      </c>
+      <c r="C177" t="s">
         <v>31</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="7">
         <v>2154150591</v>
       </c>
       <c r="B178" t="s">
+        <v>393</v>
+      </c>
+      <c r="C178" t="s">
         <v>384</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>377</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
         <v>2154150597</v>
       </c>
       <c r="B179" t="s">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="C179" t="s">
         <v>127</v>
       </c>
       <c r="D179" t="s">
+        <v>127</v>
+      </c>
+      <c r="E179" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>2154150603</v>
       </c>
       <c r="B180" t="s">
+        <v>393</v>
+      </c>
+      <c r="C180" t="s">
         <v>126</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2154150605</v>
       </c>
       <c r="B181" t="s">
+        <v>393</v>
+      </c>
+      <c r="C181" t="s">
         <v>106</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="7">
         <v>2154150622</v>
       </c>
       <c r="B182" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="C182" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D182" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
         <v>2154150627</v>
       </c>
       <c r="B183" t="s">
+        <v>393</v>
+      </c>
+      <c r="C183" t="s">
         <v>335</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>2154150633</v>
       </c>
       <c r="B184" t="s">
+        <v>393</v>
+      </c>
+      <c r="C184" t="s">
         <v>124</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="7">
         <v>2154150646</v>
       </c>
       <c r="B185" t="s">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="C185" t="s">
         <v>127</v>
       </c>
       <c r="D185" t="s">
+        <v>127</v>
+      </c>
+      <c r="E185" t="s">
         <v>124</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
         <v>2154150648</v>
       </c>
       <c r="B186" t="s">
+        <v>393</v>
+      </c>
+      <c r="C186" t="s">
         <v>334</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>387</v>
-      </c>
-      <c r="D186" t="s">
-        <v>388</v>
       </c>
       <c r="E186" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F186" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
         <v>2154150653</v>
       </c>
       <c r="B187" t="s">
+        <v>393</v>
+      </c>
+      <c r="C187" t="s">
         <v>126</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>2154150669</v>
       </c>
       <c r="B188" t="s">
+        <v>393</v>
+      </c>
+      <c r="C188" t="s">
         <v>124</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2154150672</v>
       </c>
       <c r="B189" t="s">
+        <v>393</v>
+      </c>
+      <c r="C189" t="s">
         <v>124</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="7">
         <v>2154150677</v>
       </c>
       <c r="B190" t="s">
+        <v>393</v>
+      </c>
+      <c r="C190" t="s">
         <v>123</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>385</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>2154150706</v>
       </c>
       <c r="B191" t="s">
+        <v>393</v>
+      </c>
+      <c r="C191" t="s">
         <v>113</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2154150707</v>
       </c>
       <c r="B192" t="s">
+        <v>393</v>
+      </c>
+      <c r="C192" t="s">
         <v>113</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2154150715</v>
       </c>
       <c r="B193" t="s">
+        <v>393</v>
+      </c>
+      <c r="C193" t="s">
         <v>31</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="7">
         <v>2154150719</v>
       </c>
       <c r="B194" t="s">
+        <v>393</v>
+      </c>
+      <c r="C194" t="s">
         <v>379</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
         <v>2154150731</v>
       </c>
       <c r="B195" t="s">
+        <v>393</v>
+      </c>
+      <c r="C195" t="s">
         <v>130</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
         <v>2154150765</v>
       </c>
       <c r="B196" t="s">
+        <v>393</v>
+      </c>
+      <c r="C196" t="s">
         <v>130</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>335</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>372</v>
       </c>
-      <c r="E196" t="s">
+      <c r="F196" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
         <v>2154150767</v>
       </c>
       <c r="B197" t="s">
+        <v>393</v>
+      </c>
+      <c r="C197" t="s">
         <v>130</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>335</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>156</v>
       </c>
-      <c r="E197" t="s">
+      <c r="F197" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
         <v>2154150769</v>
       </c>
       <c r="B198" t="s">
+        <v>393</v>
+      </c>
+      <c r="C198" t="s">
         <v>127</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>124</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
         <v>2154150788</v>
       </c>
       <c r="B199" t="s">
+        <v>393</v>
+      </c>
+      <c r="C199" t="s">
         <v>130</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
         <v>2154150813</v>
       </c>
       <c r="B200" t="s">
-        <v>127</v>
+        <v>393</v>
       </c>
       <c r="C200" t="s">
         <v>127</v>
       </c>
       <c r="D200" t="s">
+        <v>127</v>
+      </c>
+      <c r="E200" t="s">
         <v>124</v>
       </c>
-      <c r="E200" t="s">
+      <c r="F200" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
         <v>2154150814</v>
       </c>
       <c r="B201" t="s">
+        <v>393</v>
+      </c>
+      <c r="C201" t="s">
         <v>127</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" t="s">
         <v>124</v>
       </c>
-      <c r="D201" t="s">
+      <c r="E201" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
         <v>2154150822</v>
       </c>
       <c r="B202" t="s">
+        <v>393</v>
+      </c>
+      <c r="C202" t="s">
         <v>130</v>
       </c>
-      <c r="C202" t="s">
+      <c r="D202" t="s">
         <v>335</v>
       </c>
-      <c r="D202" t="s">
+      <c r="E202" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
         <v>2154150839</v>
       </c>
       <c r="B203" t="s">
+        <v>393</v>
+      </c>
+      <c r="C203" t="s">
         <v>127</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
         <v>2154150840</v>
       </c>
       <c r="B204" t="s">
+        <v>393</v>
+      </c>
+      <c r="C204" t="s">
         <v>379</v>
       </c>
-      <c r="C204" t="s">
+      <c r="D204" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
         <v>2154150841</v>
       </c>
       <c r="B205" t="s">
+        <v>393</v>
+      </c>
+      <c r="C205" t="s">
         <v>390</v>
       </c>
-      <c r="C205" t="s">
+      <c r="D205" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
         <v>2154150876</v>
       </c>
       <c r="B206" t="s">
+        <v>393</v>
+      </c>
+      <c r="C206" t="s">
         <v>379</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
         <v>2154150893</v>
       </c>
       <c r="B207" t="s">
+        <v>393</v>
+      </c>
+      <c r="C207" t="s">
         <v>391</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
         <v>2154150918</v>
       </c>
       <c r="B208" t="s">
+        <v>393</v>
+      </c>
+      <c r="C208" t="s">
         <v>127</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
         <v>2154150921</v>
       </c>
       <c r="B209" t="s">
+        <v>393</v>
+      </c>
+      <c r="C209" t="s">
         <v>123</v>
       </c>
-      <c r="C209" t="s">
+      <c r="D209" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="7">
         <v>2154150922</v>
       </c>
       <c r="B210" t="s">
+        <v>393</v>
+      </c>
+      <c r="C210" t="s">
         <v>130</v>
       </c>
-      <c r="C210" t="s">
+      <c r="D210" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>2154150943</v>
       </c>
       <c r="B211" t="s">
+        <v>393</v>
+      </c>
+      <c r="C211" t="s">
         <v>140</v>
       </c>
-      <c r="C211" t="s">
+      <c r="D211" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2154155136</v>
       </c>
       <c r="B212" t="s">
+        <v>393</v>
+      </c>
+      <c r="C212" t="s">
         <v>124</v>
       </c>
-      <c r="C212" t="s">
+      <c r="D212" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="7">
         <v>2154155149</v>
       </c>
       <c r="B213" t="s">
+        <v>393</v>
+      </c>
+      <c r="C213" t="s">
         <v>124</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="7">
         <v>2154155150</v>
       </c>
       <c r="B214" t="s">
+        <v>393</v>
+      </c>
+      <c r="C214" t="s">
         <v>382</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>124</v>
       </c>
-      <c r="D214" t="s">
+      <c r="E214" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>2154160029</v>
       </c>
       <c r="B215" t="s">
+        <v>393</v>
+      </c>
+      <c r="C215" t="s">
         <v>153</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2154160030</v>
       </c>
       <c r="B216" t="s">
+        <v>393</v>
+      </c>
+      <c r="C216" t="s">
         <v>153</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2154160031</v>
       </c>
       <c r="B217" t="s">
+        <v>393</v>
+      </c>
+      <c r="C217" t="s">
         <v>153</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2154160032</v>
       </c>
       <c r="B218" t="s">
+        <v>393</v>
+      </c>
+      <c r="C218" t="s">
         <v>159</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2154160033</v>
       </c>
       <c r="B219" t="s">
+        <v>393</v>
+      </c>
+      <c r="C219" t="s">
         <v>159</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2154160034</v>
       </c>
       <c r="B220" t="s">
+        <v>393</v>
+      </c>
+      <c r="C220" t="s">
         <v>162</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2154160035</v>
       </c>
       <c r="B221" t="s">
+        <v>393</v>
+      </c>
+      <c r="C221" t="s">
         <v>153</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="7">
         <v>2154160036</v>
       </c>
       <c r="B222" t="s">
+        <v>393</v>
+      </c>
+      <c r="C222" t="s">
         <v>159</v>
       </c>
-      <c r="C222" t="s">
+      <c r="D222" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>2154160037</v>
       </c>
       <c r="B223" t="s">
+        <v>393</v>
+      </c>
+      <c r="C223" t="s">
         <v>159</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2154170049</v>
       </c>
       <c r="B224" t="s">
+        <v>393</v>
+      </c>
+      <c r="C224" t="s">
         <v>124</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2154170050</v>
       </c>
       <c r="B225" t="s">
+        <v>393</v>
+      </c>
+      <c r="C225" t="s">
         <v>124</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>127</v>
       </c>
-      <c r="D225" t="s">
+      <c r="E225" t="s">
         <v>167</v>
       </c>
-      <c r="E225" t="s">
+      <c r="F225" t="s">
         <v>169</v>
       </c>
-      <c r="F225" t="s">
+      <c r="G225" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2154170052</v>
       </c>
       <c r="B226" t="s">
+        <v>393</v>
+      </c>
+      <c r="C226" t="s">
         <v>124</v>
       </c>
-      <c r="C226" t="s">
+      <c r="D226" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="7"/>
+      <c r="B229" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F226">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G226">
     <sortCondition ref="A2:A226"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4537,7 +5228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moiser2\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_559F0A383023EABFC8B63BC4B9A9C28E5CC06E25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC7F072E-CE2A-498B-A62C-4DDB82FD5EE3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="396">
   <si>
     <t>Col 1</t>
   </si>
@@ -1218,6 +1218,12 @@
   </si>
   <si>
     <t>V1.1</t>
+  </si>
+  <si>
+    <t>V1.3</t>
+  </si>
+  <si>
+    <t>V1.2</t>
   </si>
 </sst>
 </file>
@@ -1900,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2576,7 +2582,7 @@
         <v>2098700316</v>
       </c>
       <c r="B47" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C47" t="s">
         <v>35</v>
@@ -4439,7 +4445,7 @@
         <v>2154150582</v>
       </c>
       <c r="B176" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C176" t="s">
         <v>124</v>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moiser2\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE2FC1B1-182E-42FE-89CF-EE6F1E95EF5B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="anotaciones" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="433">
   <si>
     <t>Col 1</t>
   </si>
@@ -1031,9 +1033,6 @@
     <t>EOL3</t>
   </si>
   <si>
-    <t>3FA1-NASJ-C0E5</t>
-  </si>
-  <si>
     <t>C903-821J-51S</t>
   </si>
   <si>
@@ -1052,15 +1051,6 @@
     <t>FA10</t>
   </si>
   <si>
-    <t>EOLx</t>
-  </si>
-  <si>
-    <t>AMZW25-000-V</t>
-  </si>
-  <si>
-    <t>59Z118-C01-L</t>
-  </si>
-  <si>
     <t>2003020570</t>
   </si>
   <si>
@@ -1224,13 +1214,136 @@
   </si>
   <si>
     <t>V1.2</t>
+  </si>
+  <si>
+    <t>LINEA 1</t>
+  </si>
+  <si>
+    <t>LINEA 2</t>
+  </si>
+  <si>
+    <t>LINEA 3</t>
+  </si>
+  <si>
+    <t>LINEA 4</t>
+  </si>
+  <si>
+    <t>LINEA 5</t>
+  </si>
+  <si>
+    <t>LINEA 6</t>
+  </si>
+  <si>
+    <t>LINEA 7</t>
+  </si>
+  <si>
+    <t>LINEA 8</t>
+  </si>
+  <si>
+    <t>LINEA 9</t>
+  </si>
+  <si>
+    <t>EOL 1</t>
+  </si>
+  <si>
+    <t>PERCHA 3</t>
+  </si>
+  <si>
+    <t>PERCHA 2</t>
+  </si>
+  <si>
+    <t>EOL 5</t>
+  </si>
+  <si>
+    <t>EOL 2</t>
+  </si>
+  <si>
+    <t>EOL 4</t>
+  </si>
+  <si>
+    <t>EOL 6</t>
+  </si>
+  <si>
+    <t>EOL 7</t>
+  </si>
+  <si>
+    <t>EOL 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59Z176-C01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">59Z163-003 </t>
+  </si>
+  <si>
+    <t>2291859-2</t>
+  </si>
+  <si>
+    <t>59Z118-C00</t>
+  </si>
+  <si>
+    <t>59Z113-000</t>
+  </si>
+  <si>
+    <t>59Z114-000</t>
+  </si>
+  <si>
+    <t>59Z113-000-1</t>
+  </si>
+  <si>
+    <t>59Z163-003-1</t>
+  </si>
+  <si>
+    <t>AMZ040-C00-D/E</t>
+  </si>
+  <si>
+    <t>59Z113-000N</t>
+  </si>
+  <si>
+    <t>AMZ010-C00-B+151-00785</t>
+  </si>
+  <si>
+    <t>3FA1-NASJ-C01E6</t>
+  </si>
+  <si>
+    <t>59Z153-000-L</t>
+  </si>
+  <si>
+    <t>C903-847J-51S</t>
+  </si>
+  <si>
+    <t>C903-847P-51S</t>
+  </si>
+  <si>
+    <t>59Z178-000</t>
+  </si>
+  <si>
+    <t>AMZ040-C00-D&amp;E</t>
+  </si>
+  <si>
+    <t>59Z153-C00-C+153216012</t>
+  </si>
+  <si>
+    <t>AMZ010-C00-B CLIP</t>
+  </si>
+  <si>
+    <t>59Z231-000-M</t>
+  </si>
+  <si>
+    <t>Col 101</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>59Z153-000-D, se retira modulo 27-jun</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1265,8 +1378,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,8 +1406,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF83CCEB"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1333,11 +1484,218 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1353,11 +1711,454 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -1461,12 +2262,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:G226" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G226">
-    <sortCondition ref="A114:A226"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:G227" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G227">
+    <sortCondition ref="A115:A227"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{CF499674-C182-4560-8B41-0E78F331A415}" name="Col 12"/>
     <tableColumn id="2" xr3:uid="{45F9BB40-479B-43A5-863C-7DF090960010}" name="Col 2"/>
     <tableColumn id="3" xr3:uid="{35AC3272-E32E-4533-B684-783CFFC3D97D}" name="Col 3"/>
@@ -1479,9 +2280,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CV11" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:CV11" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}"/>
-  <tableColumns count="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CW10" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13">
+  <autoFilter ref="A1:CW10" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}"/>
+  <tableColumns count="101">
     <tableColumn id="1" xr3:uid="{515ED9AD-2115-402D-A669-A7974119647C}" name="Col 1"/>
     <tableColumn id="2" xr3:uid="{4DD548BB-E585-4E18-BEB7-EC341F80577A}" name="Col 2"/>
     <tableColumn id="3" xr3:uid="{7D0A8B13-FDE9-43BD-B3DD-86603D1467E1}" name="Col 3"/>
@@ -1582,6 +2383,25 @@
     <tableColumn id="98" xr3:uid="{DB7106AA-4F3A-492C-B1E6-6605F7A5AFFA}" name="Col 98"/>
     <tableColumn id="99" xr3:uid="{092A0299-48D1-4BF5-8176-E19BBB43288F}" name="Col 99"/>
     <tableColumn id="100" xr3:uid="{A85ACC83-4078-4DD2-812A-10CF55A6E678}" name="Col 100"/>
+    <tableColumn id="101" xr3:uid="{9DF18404-F344-4718-98A8-ED34BE772269}" name="Col 101"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}" name="Tabla3" displayName="Tabla3" ref="A1:I101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A1:I101" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{5E4BDA70-F076-450B-A73E-034DF187DDD0}" name="FA1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{728A5178-5E49-485C-811A-814C878280BD}" name="FA2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{6512D9A4-ABA5-4A7F-B552-9FA02CBFBA15}" name="FA3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{E3480F72-1A04-4419-A55B-8A371BCB83BB}" name="FA4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{C5057181-6E4D-42CD-A672-89666A3A590F}" name="FA5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{9E111813-83ED-4BC3-A5C2-2B23EDCBE045}" name="FA6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{E3B443D2-6ABB-4DA9-85A3-23615366D11A}" name="FA7" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{9AD5DAC3-1F8A-44BE-8C81-D4E0724B6EED}" name="FA8" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{81F25ED4-3EA1-4016-930B-258B361297C7}" name="FA9" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1904,10 +2724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G229"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="B176" sqref="B176"/>
+    <sheetView topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1949,7 +2769,7 @@
         <v>2088701244</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1963,7 +2783,7 @@
         <v>2088701390</v>
       </c>
       <c r="B3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1977,7 +2797,7 @@
         <v>2088701610</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
@@ -1991,7 +2811,7 @@
         <v>2088701746</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2002,7 +2822,7 @@
         <v>2088702198</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2016,7 +2836,7 @@
         <v>2088702199</v>
       </c>
       <c r="B7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -2030,7 +2850,7 @@
         <v>2088702200</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2044,7 +2864,7 @@
         <v>2088702201</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2061,7 +2881,7 @@
         <v>2088702202</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2075,7 +2895,7 @@
         <v>2088702203</v>
       </c>
       <c r="B11" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2089,7 +2909,7 @@
         <v>2088702204</v>
       </c>
       <c r="B12" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2103,7 +2923,7 @@
         <v>2088702205</v>
       </c>
       <c r="B13" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2117,7 +2937,7 @@
         <v>2088702206</v>
       </c>
       <c r="B14" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -2131,7 +2951,7 @@
         <v>2088702207</v>
       </c>
       <c r="B15" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2145,7 +2965,7 @@
         <v>2088702221</v>
       </c>
       <c r="B16" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2156,279 +2976,279 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
-        <v>2088707042</v>
+        <v>2088702318</v>
       </c>
       <c r="B17" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
+        <v>2088707042</v>
+      </c>
+      <c r="B18" t="s">
+        <v>389</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2098700024</v>
       </c>
-      <c r="B18" t="s">
-        <v>393</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>389</v>
+      </c>
+      <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
         <v>2098700025</v>
       </c>
-      <c r="B19" t="s">
-        <v>393</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2098700026</v>
-      </c>
-      <c r="B20" t="s">
-        <v>393</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
+      <c r="D20" s="5" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>2098700033</v>
+        <v>2098700026</v>
       </c>
       <c r="B21" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>2098700046</v>
+        <v>2098700033</v>
       </c>
       <c r="B22" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
-        <v>2098700056</v>
+        <v>2098700046</v>
       </c>
       <c r="B23" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>2098700058</v>
+        <v>2098700056</v>
       </c>
       <c r="B24" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>2098700076</v>
+        <v>2098700058</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
+        <v>2098700076</v>
+      </c>
+      <c r="B26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>2098700083</v>
       </c>
-      <c r="B26" t="s">
-        <v>393</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
+        <v>389</v>
+      </c>
+      <c r="C27" t="s">
         <v>35</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
         <v>2098700108</v>
       </c>
-      <c r="B27" t="s">
-        <v>393</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" t="s">
         <v>7</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2098700143</v>
-      </c>
-      <c r="B28" t="s">
-        <v>393</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>2098700154</v>
+        <v>2098700143</v>
       </c>
       <c r="B29" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
-        <v>2098700177</v>
+        <v>2098700154</v>
       </c>
       <c r="B30" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>2098700189</v>
+        <v>2098700177</v>
       </c>
       <c r="B31" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
+        <v>2098700189</v>
+      </c>
+      <c r="B32" t="s">
+        <v>389</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>2098700245</v>
       </c>
-      <c r="B32" t="s">
-        <v>393</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" t="s">
         <v>45</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
-        <v>2098700246</v>
-      </c>
-      <c r="B33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
+        <v>2098700246</v>
+      </c>
+      <c r="B34" t="s">
+        <v>389</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
         <v>2098700256</v>
       </c>
-      <c r="B34" t="s">
-        <v>393</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C35" t="s">
         <v>126</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2098700289</v>
-      </c>
-      <c r="B35" t="s">
-        <v>393</v>
-      </c>
-      <c r="C35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>2098700290</v>
+        <v>2098700289</v>
       </c>
       <c r="B36" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
         <v>49</v>
@@ -2436,223 +3256,223 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>2098700293</v>
+        <v>2098700290</v>
       </c>
       <c r="B37" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>2098700296</v>
+        <v>2098700293</v>
       </c>
       <c r="B38" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E38" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>2098700301</v>
+        <v>2098700296</v>
       </c>
       <c r="B39" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>2098700302</v>
+        <v>2098700301</v>
       </c>
       <c r="B40" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>2098700304</v>
+        <v>2098700302</v>
       </c>
       <c r="B41" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>2098700305</v>
+        <v>2098700304</v>
       </c>
       <c r="B42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D42" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>2098700306</v>
+        <v>2098700305</v>
       </c>
       <c r="B43" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>2098700307</v>
+        <v>2098700306</v>
       </c>
       <c r="B44" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
-        <v>2098700309</v>
+        <v>2098700307</v>
       </c>
       <c r="B45" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
-        <v>2098700315</v>
+        <v>2098700309</v>
       </c>
       <c r="B46" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
-        <v>2098700316</v>
+        <v>2098700315</v>
       </c>
       <c r="B47" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
-        <v>2098700320</v>
+        <v>2098700316</v>
       </c>
       <c r="B48" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
-        <v>2098700322</v>
+        <v>2098700320</v>
       </c>
       <c r="B49" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
-        <v>2098700353</v>
+        <v>2098700322</v>
       </c>
       <c r="B50" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
-        <v>2098700355</v>
+        <v>2098700353</v>
       </c>
       <c r="B51" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
-        <v>2098700356</v>
+        <v>2098700355</v>
       </c>
       <c r="B52" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -2663,122 +3483,122 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
-        <v>2098700357</v>
+        <v>2098700356</v>
       </c>
       <c r="B53" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
-        <v>2098700358</v>
+        <v>2098700357</v>
       </c>
       <c r="B54" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
-        <v>2098700366</v>
+        <v>2098700358</v>
       </c>
       <c r="B55" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
-        <v>2098700371</v>
+        <v>2098700366</v>
       </c>
       <c r="B56" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
-        <v>2098700372</v>
+        <v>2098700371</v>
       </c>
       <c r="B57" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C57" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" t="s">
         <v>52</v>
-      </c>
-      <c r="D57" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
-        <v>2098700373</v>
+        <v>2098700372</v>
       </c>
       <c r="B58" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
-        <v>2098700374</v>
+        <v>2098700373</v>
       </c>
       <c r="B59" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" t="s">
         <v>52</v>
-      </c>
-      <c r="D59" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
-        <v>2098700375</v>
+        <v>2098700374</v>
       </c>
       <c r="B60" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D60" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
-        <v>2098700376</v>
+        <v>2098700375</v>
       </c>
       <c r="B61" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C61" t="s">
         <v>32</v>
@@ -2789,38 +3609,38 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
+        <v>2098700376</v>
+      </c>
+      <c r="B62" t="s">
+        <v>389</v>
+      </c>
+      <c r="C62" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>2098700378</v>
       </c>
-      <c r="B62" t="s">
-        <v>393</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>389</v>
+      </c>
+      <c r="C63" t="s">
         <v>71</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A63" s="7">
-        <v>2098700379</v>
-      </c>
-      <c r="B63" t="s">
-        <v>393</v>
-      </c>
-      <c r="C63" t="s">
-        <v>162</v>
-      </c>
-      <c r="D63" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
-        <v>2098700380</v>
+        <v>2098700379</v>
       </c>
       <c r="B64" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C64" t="s">
         <v>162</v>
@@ -2831,24 +3651,24 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
-        <v>2098700404</v>
+        <v>2098700380</v>
       </c>
       <c r="B65" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
-        <v>2098700405</v>
+        <v>2098700404</v>
       </c>
       <c r="B66" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -2858,140 +3678,140 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A67">
+      <c r="A67" s="7">
+        <v>2098700405</v>
+      </c>
+      <c r="B67" t="s">
+        <v>389</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68">
         <v>2098700429</v>
       </c>
-      <c r="B67" t="s">
-        <v>393</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>389</v>
+      </c>
+      <c r="C68" t="s">
         <v>48</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
-        <v>2098700432</v>
-      </c>
-      <c r="B68" t="s">
-        <v>393</v>
-      </c>
-      <c r="C68" t="s">
-        <v>38</v>
-      </c>
-      <c r="D68" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
-        <v>2098700433</v>
+        <v>2098700432</v>
       </c>
       <c r="B69" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>126</v>
+        <v>368</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
-        <v>2098700434</v>
+        <v>2098700433</v>
       </c>
       <c r="B70" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>372</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
-        <v>2098700436</v>
+        <v>2098700434</v>
       </c>
       <c r="B71" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
+        <v>2098700436</v>
+      </c>
+      <c r="B72" t="s">
+        <v>389</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
         <v>2098700437</v>
       </c>
-      <c r="B72" t="s">
-        <v>393</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>389</v>
+      </c>
+      <c r="C73" t="s">
         <v>53</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>102</v>
       </c>
-      <c r="E72" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>2098701682</v>
-      </c>
-      <c r="B73" t="s">
-        <v>393</v>
-      </c>
-      <c r="C73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D73" t="s">
-        <v>35</v>
+      <c r="E73" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
-        <v>2098706005</v>
+        <v>2098701682</v>
       </c>
       <c r="B74" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
-        <v>2098706008</v>
+        <v>2098706005</v>
       </c>
       <c r="B75" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
-        <v>2098706009</v>
+        <v>2098706008</v>
       </c>
       <c r="B76" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -3002,10 +3822,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>2098706010</v>
+        <v>2098706009</v>
       </c>
       <c r="B77" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -3016,10 +3836,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>2098706011</v>
+        <v>2098706010</v>
       </c>
       <c r="B78" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -3030,27 +3850,27 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>2098706013</v>
+        <v>2098706011</v>
       </c>
       <c r="B79" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>2098706018</v>
+        <v>2098706013</v>
       </c>
       <c r="B80" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="D80" t="s">
         <v>57</v>
@@ -3058,69 +3878,69 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>2098706021</v>
+        <v>2098706018</v>
       </c>
       <c r="B81" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>2098706023</v>
+        <v>2098706021</v>
       </c>
       <c r="B82" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
         <v>52</v>
-      </c>
-      <c r="D82" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>2098706024</v>
+        <v>2098706023</v>
       </c>
       <c r="B83" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C83" t="s">
         <v>52</v>
       </c>
       <c r="D83" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>2098706025</v>
+        <v>2098706024</v>
       </c>
       <c r="B84" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>2098706026</v>
+        <v>2098706025</v>
       </c>
       <c r="B85" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C85" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D85" t="s">
         <v>14</v>
@@ -3128,27 +3948,27 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>2098706028</v>
+        <v>2098706026</v>
       </c>
       <c r="B86" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
-        <v>2098706031</v>
+        <v>2098706028</v>
       </c>
       <c r="B87" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C87" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
         <v>52</v>
@@ -3156,27 +3976,27 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
-        <v>2098706032</v>
+        <v>2098706031</v>
       </c>
       <c r="B88" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C88" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
-        <v>2098706040</v>
+        <v>2098706032</v>
       </c>
       <c r="B89" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
         <v>14</v>
@@ -3184,55 +4004,55 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
-        <v>2098706041</v>
+        <v>2098706040</v>
       </c>
       <c r="B90" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
+        <v>2098706041</v>
+      </c>
+      <c r="B91" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>2098706044</v>
       </c>
-      <c r="B91" t="s">
-        <v>393</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>389</v>
+      </c>
+      <c r="C92" t="s">
         <v>38</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="7">
-        <v>2098706072</v>
-      </c>
-      <c r="B92" t="s">
-        <v>393</v>
-      </c>
-      <c r="C92" t="s">
-        <v>46</v>
-      </c>
-      <c r="D92" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="7">
-        <v>2098706075</v>
+        <v>2098706072</v>
       </c>
       <c r="B93" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D93" t="s">
         <v>52</v>
@@ -3240,66 +4060,66 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="7">
-        <v>2098706076</v>
+        <v>2098706075</v>
       </c>
       <c r="B94" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>2098706083</v>
+      <c r="A95" s="7">
+        <v>2098706076</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
+        <v>2098706083</v>
+      </c>
+      <c r="B96" t="s">
+        <v>389</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>2098706084</v>
       </c>
-      <c r="B96" t="s">
-        <v>393</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>389</v>
+      </c>
+      <c r="C97" t="s">
         <v>52</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="7">
-        <v>2099700009</v>
-      </c>
-      <c r="B97" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="7">
-        <v>2099700010</v>
+        <v>2099700009</v>
       </c>
       <c r="B98" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -3309,31 +4129,28 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>2099700025</v>
+      <c r="A99" s="7">
+        <v>2099700010</v>
       </c>
       <c r="B99" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
-      </c>
-      <c r="E99" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
-        <v>2099700030</v>
+        <v>2099700025</v>
       </c>
       <c r="B100" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -3341,58 +4158,61 @@
       <c r="E100" t="s">
         <v>14</v>
       </c>
-      <c r="F100" t="s">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2099700030</v>
+      </c>
+      <c r="B101" t="s">
+        <v>389</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="7">
         <v>2099700041</v>
       </c>
-      <c r="B101" t="s">
-        <v>393</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>389</v>
+      </c>
+      <c r="C102" t="s">
         <v>12</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>2099700048</v>
       </c>
-      <c r="B102" t="s">
-        <v>393</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>389</v>
+      </c>
+      <c r="C103" t="s">
         <v>45</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="7">
-        <v>2099700049</v>
-      </c>
-      <c r="B103" t="s">
-        <v>393</v>
-      </c>
-      <c r="C103" t="s">
-        <v>46</v>
-      </c>
-      <c r="D103" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="7">
-        <v>2099700056</v>
+        <v>2099700049</v>
       </c>
       <c r="B104" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -3403,146 +4223,146 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="7">
-        <v>2099700057</v>
+        <v>2099700056</v>
       </c>
       <c r="B105" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C105" t="s">
-        <v>374</v>
+        <v>46</v>
       </c>
       <c r="D105" t="s">
-        <v>372</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="7">
-        <v>2099700058</v>
+        <v>2099700057</v>
       </c>
       <c r="B106" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C106" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D106" t="s">
+        <v>368</v>
+      </c>
+      <c r="E106" t="s">
         <v>10</v>
-      </c>
-      <c r="E106" t="s">
-        <v>52</v>
-      </c>
-      <c r="F106" t="s">
-        <v>52</v>
-      </c>
-      <c r="G106" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="7">
-        <v>2099700059</v>
+        <v>2099700058</v>
       </c>
       <c r="B107" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D107" t="s">
-        <v>372</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F107" t="s">
         <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>52</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="7">
-        <v>2099706005</v>
+        <v>2099700059</v>
       </c>
       <c r="B108" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C108" t="s">
-        <v>45</v>
+        <v>370</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>368</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>52</v>
+      </c>
+      <c r="G108" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
-        <v>2154140069</v>
+        <v>2099706005</v>
       </c>
       <c r="B109" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C109" t="s">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="D109" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
-        <v>2154140162</v>
+        <v>2154140069</v>
       </c>
       <c r="B110" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C110" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="7">
+        <v>2154140162</v>
+      </c>
+      <c r="B111" t="s">
+        <v>389</v>
+      </c>
+      <c r="C111" t="s">
+        <v>372</v>
+      </c>
+      <c r="D111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="7">
         <v>2154140207</v>
       </c>
-      <c r="B111" t="s">
-        <v>393</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>389</v>
+      </c>
+      <c r="C112" t="s">
         <v>7</v>
       </c>
-      <c r="D111" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>2154140222</v>
-      </c>
-      <c r="B112" t="s">
-        <v>393</v>
-      </c>
-      <c r="C112" t="s">
-        <v>106</v>
-      </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
-        <v>2154140224</v>
+        <v>2154140222</v>
       </c>
       <c r="B113" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D113" t="s">
         <v>31</v>
@@ -3550,13 +4370,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>2154140225</v>
+        <v>2154140224</v>
       </c>
       <c r="B114" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C114" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
@@ -3564,13 +4384,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>2154140229</v>
+        <v>2154140225</v>
       </c>
       <c r="B115" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C115" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -3578,80 +4398,80 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>2154140243</v>
+        <v>2154140229</v>
       </c>
       <c r="B116" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C116" t="s">
+        <v>107</v>
+      </c>
+      <c r="D116" t="s">
         <v>31</v>
-      </c>
-      <c r="D116" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>2154140283</v>
+        <v>2154140243</v>
       </c>
       <c r="B117" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
       </c>
       <c r="D117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>2154140284</v>
+        <v>2154140283</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
       </c>
       <c r="D118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2154140284</v>
+      </c>
+      <c r="B119" t="s">
+        <v>389</v>
+      </c>
+      <c r="C119" t="s">
+        <v>31</v>
+      </c>
+      <c r="D119" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="7">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="7">
         <v>2154140285</v>
       </c>
-      <c r="B119" t="s">
-        <v>393</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>389</v>
+      </c>
+      <c r="C120" t="s">
         <v>119</v>
       </c>
-      <c r="D119" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>2154140287</v>
-      </c>
-      <c r="B120" t="s">
-        <v>393</v>
-      </c>
-      <c r="C120" t="s">
-        <v>31</v>
-      </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
-        <v>2154140289</v>
+        <v>2154140287</v>
       </c>
       <c r="B121" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -3662,10 +4482,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>2154140290</v>
+        <v>2154140289</v>
       </c>
       <c r="B122" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C122" t="s">
         <v>31</v>
@@ -3675,67 +4495,67 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="7">
-        <v>2154140291</v>
+      <c r="A123">
+        <v>2154140290</v>
       </c>
       <c r="B123" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C123" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>378</v>
+        <v>106</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="7">
+        <v>2154140291</v>
+      </c>
+      <c r="B124" t="s">
+        <v>389</v>
+      </c>
+      <c r="C124" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="7">
         <v>2154140292</v>
       </c>
-      <c r="B124" t="s">
-        <v>393</v>
-      </c>
-      <c r="C124" t="s">
-        <v>376</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="B125" t="s">
+        <v>389</v>
+      </c>
+      <c r="C125" t="s">
+        <v>372</v>
+      </c>
+      <c r="D125" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>2154140293</v>
-      </c>
-      <c r="B125" t="s">
-        <v>393</v>
-      </c>
-      <c r="C125" t="s">
-        <v>31</v>
-      </c>
-      <c r="D125" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
-        <v>2154140294</v>
+        <v>2154140293</v>
       </c>
       <c r="B126" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C126" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>2154140295</v>
+        <v>2154140294</v>
       </c>
       <c r="B127" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C127" t="s">
         <v>113</v>
@@ -3746,251 +4566,251 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>2154140318</v>
+        <v>2154140295</v>
       </c>
       <c r="B128" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C128" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D128" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
+        <v>2154140318</v>
+      </c>
+      <c r="B129" t="s">
+        <v>389</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130">
         <v>2154140319</v>
       </c>
-      <c r="B129" t="s">
-        <v>393</v>
-      </c>
-      <c r="C129" t="s">
-        <v>31</v>
-      </c>
-      <c r="D129" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A130" s="7">
-        <v>2154140335</v>
-      </c>
       <c r="B130" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
       </c>
       <c r="D130" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>2154140336</v>
+      <c r="A131" s="7">
+        <v>2154140335</v>
       </c>
       <c r="B131" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
       </c>
       <c r="D131" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2154140336</v>
+      </c>
+      <c r="B132" t="s">
+        <v>389</v>
+      </c>
+      <c r="C132" t="s">
+        <v>31</v>
+      </c>
+      <c r="D132" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="7">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="7">
         <v>2154140345</v>
       </c>
-      <c r="B132" t="s">
-        <v>393</v>
-      </c>
-      <c r="C132" t="s">
+      <c r="B133" t="s">
+        <v>389</v>
+      </c>
+      <c r="C133" t="s">
         <v>119</v>
       </c>
-      <c r="D132" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133">
+      <c r="D133" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134">
         <v>2154140349</v>
       </c>
-      <c r="B133" t="s">
-        <v>393</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>389</v>
+      </c>
+      <c r="C134" t="s">
         <v>118</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="7">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="7">
         <v>2154140596</v>
       </c>
-      <c r="B134" t="s">
-        <v>393</v>
-      </c>
-      <c r="C134" t="s">
-        <v>379</v>
-      </c>
-      <c r="D134" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>2154150035</v>
-      </c>
       <c r="B135" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>375</v>
       </c>
       <c r="D135" t="s">
-        <v>121</v>
+        <v>375</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
-        <v>2154150089</v>
+        <v>2154150035</v>
       </c>
       <c r="B136" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C136" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="D136" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>2154150163</v>
+        <v>2154150089</v>
       </c>
       <c r="B137" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C137" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D137" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>2154150172</v>
+        <v>2154150163</v>
       </c>
       <c r="B138" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C138" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D138" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>2154150197</v>
+        <v>2154150172</v>
       </c>
       <c r="B139" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C139" t="s">
+        <v>124</v>
+      </c>
+      <c r="D139" t="s">
         <v>121</v>
-      </c>
-      <c r="D139" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>2154150214</v>
+        <v>2154150197</v>
       </c>
       <c r="B140" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D140" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>2154150215</v>
+        <v>2154150214</v>
       </c>
       <c r="B141" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C141" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D141" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>2154150247</v>
+        <v>2154150215</v>
       </c>
       <c r="B142" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C142" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D142" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
+        <v>2154150247</v>
+      </c>
+      <c r="B143" t="s">
+        <v>389</v>
+      </c>
+      <c r="C143" t="s">
+        <v>131</v>
+      </c>
+      <c r="D143" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144">
         <v>2154150250</v>
       </c>
-      <c r="B143" t="s">
-        <v>393</v>
-      </c>
-      <c r="C143" t="s">
+      <c r="B144" t="s">
+        <v>389</v>
+      </c>
+      <c r="C144" t="s">
         <v>134</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D144" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A144" s="7">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="7">
         <v>2154150301</v>
       </c>
-      <c r="B144" t="s">
-        <v>393</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="B145" t="s">
+        <v>389</v>
+      </c>
+      <c r="C145" t="s">
         <v>124</v>
-      </c>
-      <c r="D144" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145">
-        <v>2154150337</v>
-      </c>
-      <c r="B145" t="s">
-        <v>393</v>
-      </c>
-      <c r="C145" t="s">
-        <v>127</v>
       </c>
       <c r="D145" t="s">
         <v>137</v>
@@ -3998,52 +4818,52 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
-        <v>2154150341</v>
+        <v>2154150337</v>
       </c>
       <c r="B146" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C146" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D146" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
+        <v>2154150341</v>
+      </c>
+      <c r="B147" t="s">
+        <v>389</v>
+      </c>
+      <c r="C147" t="s">
+        <v>138</v>
+      </c>
+      <c r="D147" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>2154150342</v>
       </c>
-      <c r="B147" t="s">
-        <v>393</v>
-      </c>
-      <c r="C147" t="s">
-        <v>124</v>
-      </c>
-      <c r="D147" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" s="7">
-        <v>2154150343</v>
-      </c>
       <c r="B148" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C148" t="s">
         <v>124</v>
       </c>
       <c r="D148" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="7">
-        <v>2154150347</v>
+        <v>2154150343</v>
       </c>
       <c r="B149" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C149" t="s">
         <v>124</v>
@@ -4053,250 +4873,250 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150">
+      <c r="A150" s="7">
+        <v>2154150347</v>
+      </c>
+      <c r="B150" t="s">
+        <v>389</v>
+      </c>
+      <c r="C150" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>2154150348</v>
       </c>
-      <c r="B150" t="s">
-        <v>393</v>
-      </c>
-      <c r="C150" t="s">
+      <c r="B151" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" t="s">
         <v>127</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="7">
-        <v>2154150349</v>
-      </c>
-      <c r="B151" t="s">
-        <v>393</v>
-      </c>
-      <c r="C151" t="s">
-        <v>124</v>
-      </c>
-      <c r="D151" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="7">
-        <v>2154150350</v>
+        <v>2154150349</v>
       </c>
       <c r="B152" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C152" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D152" t="s">
         <v>124</v>
       </c>
-      <c r="E152" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="7">
-        <v>2154150351</v>
+        <v>2154150350</v>
       </c>
       <c r="B153" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C153" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D153" t="s">
         <v>124</v>
       </c>
+      <c r="E153" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="7">
-        <v>2154150357</v>
+        <v>2154150351</v>
       </c>
       <c r="B154" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C154" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D154" t="s">
-        <v>380</v>
-      </c>
-      <c r="E154" t="s">
-        <v>381</v>
+        <v>124</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="7">
-        <v>2154150358</v>
+        <v>2154150357</v>
       </c>
       <c r="B155" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C155" t="s">
         <v>123</v>
       </c>
       <c r="D155" t="s">
+        <v>376</v>
+      </c>
+      <c r="E155" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="7">
-        <v>2154150366</v>
+        <v>2154150358</v>
       </c>
       <c r="B156" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C156" t="s">
         <v>123</v>
       </c>
       <c r="D156" t="s">
-        <v>377</v>
-      </c>
-      <c r="E156" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="7">
-        <v>2154150370</v>
+        <v>2154150366</v>
       </c>
       <c r="B157" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C157" t="s">
         <v>123</v>
       </c>
       <c r="D157" t="s">
-        <v>381</v>
+        <v>373</v>
+      </c>
+      <c r="E157" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158">
-        <v>2154150380</v>
+      <c r="A158" s="7">
+        <v>2154150370</v>
       </c>
       <c r="B158" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C158" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D158" t="s">
-        <v>126</v>
+        <v>377</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
-        <v>2154150391</v>
+        <v>2154150380</v>
       </c>
       <c r="B159" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C159" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D159" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>2154150420</v>
+        <v>2154150391</v>
       </c>
       <c r="B160" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C160" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D160" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>2154150447</v>
+        <v>2154150420</v>
       </c>
       <c r="B161" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C161" t="s">
         <v>140</v>
       </c>
       <c r="D161" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2154150447</v>
+      </c>
+      <c r="B162" t="s">
+        <v>389</v>
+      </c>
+      <c r="C162" t="s">
+        <v>140</v>
+      </c>
+      <c r="D162" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="7">
-        <v>2154150448</v>
-      </c>
-      <c r="B162" t="s">
-        <v>393</v>
-      </c>
-      <c r="C162" t="s">
-        <v>382</v>
-      </c>
-      <c r="D162" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="7">
+        <v>2154150448</v>
+      </c>
+      <c r="B163" t="s">
+        <v>389</v>
+      </c>
+      <c r="C163" t="s">
+        <v>378</v>
+      </c>
+      <c r="D163" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A164" s="7">
         <v>2154150455</v>
       </c>
-      <c r="B163" t="s">
-        <v>393</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B164" t="s">
+        <v>389</v>
+      </c>
+      <c r="C164" t="s">
         <v>123</v>
       </c>
-      <c r="D163" t="s">
-        <v>335</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D164" t="s">
+        <v>334</v>
+      </c>
+      <c r="E164" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>2154150461</v>
       </c>
-      <c r="B164" t="s">
-        <v>393</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
+        <v>389</v>
+      </c>
+      <c r="C165" t="s">
         <v>125</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="7">
-        <v>2154150497</v>
-      </c>
-      <c r="B165" t="s">
-        <v>393</v>
-      </c>
-      <c r="C165" t="s">
-        <v>140</v>
-      </c>
-      <c r="D165" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="7">
-        <v>2154150501</v>
+        <v>2154150497</v>
       </c>
       <c r="B166" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C166" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D166" t="s">
         <v>127</v>
@@ -4304,148 +5124,148 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="7">
-        <v>2154150509</v>
+        <v>2154150501</v>
       </c>
       <c r="B167" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C167" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D167" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="7">
-        <v>2154150525</v>
+        <v>2154150509</v>
       </c>
       <c r="B168" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C168" t="s">
-        <v>335</v>
+        <v>124</v>
       </c>
       <c r="D168" t="s">
-        <v>169</v>
-      </c>
-      <c r="E168" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="7">
-        <v>2154150526</v>
+        <v>2154150525</v>
       </c>
       <c r="B169" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C169" t="s">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="D169" t="s">
-        <v>383</v>
+        <v>169</v>
+      </c>
+      <c r="E169" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="7">
+        <v>2154150526</v>
+      </c>
+      <c r="B170" t="s">
+        <v>389</v>
+      </c>
+      <c r="C170" t="s">
+        <v>130</v>
+      </c>
+      <c r="D170" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A171" s="7">
         <v>2154150534</v>
       </c>
-      <c r="B170" t="s">
-        <v>393</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B171" t="s">
+        <v>389</v>
+      </c>
+      <c r="C171" t="s">
         <v>124</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D171" t="s">
         <v>31</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E171" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>2154150554</v>
       </c>
-      <c r="B171" t="s">
-        <v>393</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B172" t="s">
+        <v>389</v>
+      </c>
+      <c r="C172" t="s">
         <v>131</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D172" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="7">
-        <v>2154150557</v>
-      </c>
-      <c r="B172" t="s">
-        <v>393</v>
-      </c>
-      <c r="C172" t="s">
-        <v>123</v>
-      </c>
-      <c r="D172" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="7">
+        <v>2154150557</v>
+      </c>
+      <c r="B173" t="s">
+        <v>389</v>
+      </c>
+      <c r="C173" t="s">
+        <v>123</v>
+      </c>
+      <c r="D173" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A174" s="7">
         <v>2154150560</v>
       </c>
-      <c r="B173" t="s">
-        <v>393</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B174" t="s">
+        <v>389</v>
+      </c>
+      <c r="C174" t="s">
         <v>124</v>
-      </c>
-      <c r="D173" t="s">
-        <v>31</v>
-      </c>
-      <c r="E173" t="s">
-        <v>384</v>
-      </c>
-      <c r="F173" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174">
-        <v>2154150563</v>
-      </c>
-      <c r="B174" t="s">
-        <v>393</v>
-      </c>
-      <c r="C174" t="s">
-        <v>135</v>
       </c>
       <c r="D174" t="s">
         <v>31</v>
       </c>
+      <c r="E174" t="s">
+        <v>380</v>
+      </c>
+      <c r="F174" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="7">
+      <c r="A175">
+        <v>2154150563</v>
+      </c>
+      <c r="B175" t="s">
+        <v>389</v>
+      </c>
+      <c r="C175" t="s">
+        <v>135</v>
+      </c>
+      <c r="D175" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A176" s="7">
         <v>2154150581</v>
       </c>
-      <c r="B175" t="s">
-        <v>393</v>
-      </c>
-      <c r="C175" t="s">
-        <v>124</v>
-      </c>
-      <c r="D175" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176">
-        <v>2154150582</v>
-      </c>
       <c r="B176" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C176" t="s">
         <v>124</v>
@@ -4456,196 +5276,196 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
+        <v>2154150582</v>
+      </c>
+      <c r="B177" t="s">
+        <v>391</v>
+      </c>
+      <c r="C177" t="s">
+        <v>124</v>
+      </c>
+      <c r="D177" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A178">
         <v>2154150588</v>
       </c>
-      <c r="B177" t="s">
-        <v>393</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B178" t="s">
+        <v>389</v>
+      </c>
+      <c r="C178" t="s">
         <v>31</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="7">
-        <v>2154150591</v>
-      </c>
-      <c r="B178" t="s">
-        <v>393</v>
-      </c>
-      <c r="C178" t="s">
-        <v>384</v>
-      </c>
-      <c r="D178" t="s">
-        <v>377</v>
-      </c>
-      <c r="E178" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="7">
+        <v>2154150591</v>
+      </c>
+      <c r="B179" t="s">
+        <v>389</v>
+      </c>
+      <c r="C179" t="s">
+        <v>380</v>
+      </c>
+      <c r="D179" t="s">
+        <v>373</v>
+      </c>
+      <c r="E179" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180" s="7">
         <v>2154150597</v>
       </c>
-      <c r="B179" t="s">
-        <v>393</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B180" t="s">
+        <v>389</v>
+      </c>
+      <c r="C180" t="s">
         <v>127</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>127</v>
       </c>
-      <c r="E179" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>2154150603</v>
-      </c>
-      <c r="B180" t="s">
-        <v>393</v>
-      </c>
-      <c r="C180" t="s">
-        <v>126</v>
-      </c>
-      <c r="D180" t="s">
-        <v>125</v>
+      <c r="E180" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
+        <v>2154150603</v>
+      </c>
+      <c r="B181" t="s">
+        <v>389</v>
+      </c>
+      <c r="C181" t="s">
+        <v>126</v>
+      </c>
+      <c r="D181" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182">
         <v>2154150605</v>
       </c>
-      <c r="B181" t="s">
-        <v>393</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B182" t="s">
+        <v>389</v>
+      </c>
+      <c r="C182" t="s">
         <v>106</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>145</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="7">
-        <v>2154150622</v>
-      </c>
-      <c r="B182" t="s">
-        <v>393</v>
-      </c>
-      <c r="C182" t="s">
-        <v>385</v>
-      </c>
-      <c r="D182" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="7">
+        <v>2154150622</v>
+      </c>
+      <c r="B183" t="s">
+        <v>389</v>
+      </c>
+      <c r="C183" t="s">
+        <v>381</v>
+      </c>
+      <c r="D183" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184" s="7">
         <v>2154150627</v>
       </c>
-      <c r="B183" t="s">
-        <v>393</v>
-      </c>
-      <c r="C183" t="s">
-        <v>335</v>
-      </c>
-      <c r="D183" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184">
+      <c r="B184" t="s">
+        <v>389</v>
+      </c>
+      <c r="C184" t="s">
+        <v>334</v>
+      </c>
+      <c r="D184" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>2154150633</v>
       </c>
-      <c r="B184" t="s">
-        <v>393</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B185" t="s">
+        <v>389</v>
+      </c>
+      <c r="C185" t="s">
         <v>124</v>
-      </c>
-      <c r="D184" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="7">
-        <v>2154150646</v>
-      </c>
-      <c r="B185" t="s">
-        <v>393</v>
-      </c>
-      <c r="C185" t="s">
-        <v>127</v>
       </c>
       <c r="D185" t="s">
         <v>127</v>
       </c>
-      <c r="E185" t="s">
-        <v>124</v>
-      </c>
-      <c r="F185" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="7">
-        <v>2154150648</v>
+        <v>2154150646</v>
       </c>
       <c r="B186" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C186" t="s">
-        <v>334</v>
+        <v>127</v>
       </c>
       <c r="D186" t="s">
-        <v>387</v>
+        <v>127</v>
       </c>
       <c r="E186" t="s">
-        <v>388</v>
+        <v>124</v>
       </c>
       <c r="F186" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="7">
+        <v>2154150648</v>
+      </c>
+      <c r="B187" t="s">
+        <v>389</v>
+      </c>
+      <c r="C187" t="s">
+        <v>333</v>
+      </c>
+      <c r="D187" t="s">
+        <v>383</v>
+      </c>
+      <c r="E187" t="s">
+        <v>384</v>
+      </c>
+      <c r="F187" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188" s="7">
         <v>2154150653</v>
       </c>
-      <c r="B187" t="s">
-        <v>393</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B188" t="s">
+        <v>389</v>
+      </c>
+      <c r="C188" t="s">
         <v>126</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>2154150669</v>
-      </c>
-      <c r="B188" t="s">
-        <v>393</v>
-      </c>
-      <c r="C188" t="s">
-        <v>124</v>
-      </c>
-      <c r="D188" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
-        <v>2154150672</v>
+        <v>2154150669</v>
       </c>
       <c r="B189" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C189" t="s">
         <v>124</v>
@@ -4655,42 +5475,42 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="7">
+      <c r="A190">
+        <v>2154150672</v>
+      </c>
+      <c r="B190" t="s">
+        <v>389</v>
+      </c>
+      <c r="C190" t="s">
+        <v>124</v>
+      </c>
+      <c r="D190" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="7">
         <v>2154150677</v>
       </c>
-      <c r="B190" t="s">
-        <v>393</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="B191" t="s">
+        <v>389</v>
+      </c>
+      <c r="C191" t="s">
         <v>123</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
+        <v>381</v>
+      </c>
+      <c r="E191" t="s">
         <v>385</v>
-      </c>
-      <c r="E190" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>2154150706</v>
-      </c>
-      <c r="B191" t="s">
-        <v>393</v>
-      </c>
-      <c r="C191" t="s">
-        <v>113</v>
-      </c>
-      <c r="D191" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
-        <v>2154150707</v>
+        <v>2154150706</v>
       </c>
       <c r="B192" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C192" t="s">
         <v>113</v>
@@ -4701,376 +5521,376 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>2154150715</v>
+        <v>2154150707</v>
       </c>
       <c r="B193" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="D193" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="7">
-        <v>2154150719</v>
+      <c r="A194">
+        <v>2154150715</v>
       </c>
       <c r="B194" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C194" t="s">
-        <v>379</v>
+        <v>31</v>
       </c>
       <c r="D194" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="7">
-        <v>2154150731</v>
+        <v>2154150719</v>
       </c>
       <c r="B195" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C195" t="s">
-        <v>130</v>
+        <v>375</v>
       </c>
       <c r="D195" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="7">
-        <v>2154150765</v>
+        <v>2154150731</v>
       </c>
       <c r="B196" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C196" t="s">
         <v>130</v>
       </c>
       <c r="D196" t="s">
-        <v>335</v>
-      </c>
-      <c r="E196" t="s">
-        <v>372</v>
-      </c>
-      <c r="F196" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="7">
-        <v>2154150767</v>
+        <v>2154150765</v>
       </c>
       <c r="B197" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C197" t="s">
         <v>130</v>
       </c>
       <c r="D197" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E197" t="s">
+        <v>368</v>
+      </c>
+      <c r="F197" t="s">
         <v>156</v>
-      </c>
-      <c r="F197" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="7">
-        <v>2154150769</v>
+        <v>2154150767</v>
       </c>
       <c r="B198" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C198" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D198" t="s">
-        <v>124</v>
+        <v>334</v>
       </c>
       <c r="E198" t="s">
-        <v>137</v>
+        <v>156</v>
+      </c>
+      <c r="F198" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="7">
-        <v>2154150788</v>
+        <v>2154150769</v>
       </c>
       <c r="B199" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C199" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D199" t="s">
-        <v>383</v>
+        <v>124</v>
+      </c>
+      <c r="E199" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="7">
-        <v>2154150813</v>
+        <v>2154150788</v>
       </c>
       <c r="B200" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C200" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D200" t="s">
-        <v>127</v>
-      </c>
-      <c r="E200" t="s">
-        <v>124</v>
-      </c>
-      <c r="F200" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="7">
-        <v>2154150814</v>
+        <v>2154150813</v>
       </c>
       <c r="B201" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C201" t="s">
         <v>127</v>
       </c>
       <c r="D201" t="s">
+        <v>127</v>
+      </c>
+      <c r="E201" t="s">
         <v>124</v>
       </c>
-      <c r="E201" t="s">
-        <v>137</v>
+      <c r="F201" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="7">
-        <v>2154150822</v>
+        <v>2154150814</v>
       </c>
       <c r="B202" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C202" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D202" t="s">
-        <v>335</v>
+        <v>124</v>
       </c>
       <c r="E202" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="7">
-        <v>2154150839</v>
+        <v>2154150822</v>
       </c>
       <c r="B203" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C203" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D203" t="s">
-        <v>336</v>
+        <v>334</v>
+      </c>
+      <c r="E203" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="7">
-        <v>2154150840</v>
+        <v>2154150839</v>
       </c>
       <c r="B204" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C204" t="s">
-        <v>379</v>
+        <v>127</v>
       </c>
       <c r="D204" t="s">
-        <v>128</v>
+        <v>335</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="7">
-        <v>2154150841</v>
+        <v>2154150840</v>
       </c>
       <c r="B205" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C205" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D205" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="7">
-        <v>2154150876</v>
+        <v>2154150841</v>
       </c>
       <c r="B206" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C206" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="D206" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="7">
-        <v>2154150893</v>
+        <v>2154150876</v>
       </c>
       <c r="B207" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C207" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D207" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="7">
-        <v>2154150918</v>
+        <v>2154150893</v>
       </c>
       <c r="B208" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C208" t="s">
-        <v>127</v>
+        <v>387</v>
       </c>
       <c r="D208" t="s">
-        <v>374</v>
+        <v>140</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="7">
-        <v>2154150921</v>
+        <v>2154150918</v>
       </c>
       <c r="B209" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C209" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D209" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="7">
+        <v>2154150921</v>
+      </c>
+      <c r="B210" t="s">
+        <v>389</v>
+      </c>
+      <c r="C210" t="s">
+        <v>123</v>
+      </c>
+      <c r="D210" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="7">
         <v>2154150922</v>
       </c>
-      <c r="B210" t="s">
-        <v>393</v>
-      </c>
-      <c r="C210" t="s">
+      <c r="B211" t="s">
+        <v>389</v>
+      </c>
+      <c r="C211" t="s">
         <v>130</v>
       </c>
-      <c r="D210" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A211">
-        <v>2154150943</v>
-      </c>
-      <c r="B211" t="s">
-        <v>393</v>
-      </c>
-      <c r="C211" t="s">
-        <v>140</v>
-      </c>
       <c r="D211" t="s">
-        <v>127</v>
+        <v>387</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212">
-        <v>2154155136</v>
+        <v>2154150943</v>
       </c>
       <c r="B212" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C212" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D212" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A213" s="7">
-        <v>2154155149</v>
+      <c r="A213">
+        <v>2154155136</v>
       </c>
       <c r="B213" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C213" t="s">
         <v>124</v>
       </c>
       <c r="D213" t="s">
-        <v>382</v>
+        <v>127</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="7">
+        <v>2154155149</v>
+      </c>
+      <c r="B214" t="s">
+        <v>389</v>
+      </c>
+      <c r="C214" t="s">
+        <v>124</v>
+      </c>
+      <c r="D214" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" s="7">
         <v>2154155150</v>
       </c>
-      <c r="B214" t="s">
-        <v>393</v>
-      </c>
-      <c r="C214" t="s">
-        <v>382</v>
-      </c>
-      <c r="D214" t="s">
+      <c r="B215" t="s">
+        <v>389</v>
+      </c>
+      <c r="C215" t="s">
+        <v>378</v>
+      </c>
+      <c r="D215" t="s">
         <v>124</v>
       </c>
-      <c r="E214" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A215">
-        <v>2154160029</v>
-      </c>
-      <c r="B215" t="s">
-        <v>393</v>
-      </c>
-      <c r="C215" t="s">
-        <v>153</v>
-      </c>
-      <c r="D215" t="s">
-        <v>154</v>
+      <c r="E215" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216">
-        <v>2154160030</v>
+        <v>2154160029</v>
       </c>
       <c r="B216" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C216" t="s">
         <v>153</v>
       </c>
       <c r="D216" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>2154160031</v>
+        <v>2154160030</v>
       </c>
       <c r="B217" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C217" t="s">
         <v>153</v>
@@ -5081,24 +5901,24 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>2154160032</v>
+        <v>2154160031</v>
       </c>
       <c r="B218" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C218" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D218" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>2154160033</v>
+        <v>2154160032</v>
       </c>
       <c r="B219" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C219" t="s">
         <v>159</v>
@@ -5109,52 +5929,52 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>2154160034</v>
+        <v>2154160033</v>
       </c>
       <c r="B220" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C220" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D220" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
+        <v>2154160034</v>
+      </c>
+      <c r="B221" t="s">
+        <v>389</v>
+      </c>
+      <c r="C221" t="s">
+        <v>162</v>
+      </c>
+      <c r="D221" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222">
         <v>2154160035</v>
       </c>
-      <c r="B221" t="s">
-        <v>393</v>
-      </c>
-      <c r="C221" t="s">
+      <c r="B222" t="s">
+        <v>389</v>
+      </c>
+      <c r="C222" t="s">
         <v>153</v>
       </c>
-      <c r="D221" t="s">
+      <c r="D222" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A222" s="7">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" s="7">
         <v>2154160036</v>
       </c>
-      <c r="B222" t="s">
-        <v>393</v>
-      </c>
-      <c r="C222" t="s">
-        <v>159</v>
-      </c>
-      <c r="D222" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A223">
-        <v>2154160037</v>
-      </c>
       <c r="B223" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C223" t="s">
         <v>159</v>
@@ -5165,62 +5985,76 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224">
-        <v>2154170049</v>
+        <v>2154160037</v>
       </c>
       <c r="B224" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C224" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D224" t="s">
-        <v>167</v>
+        <v>31</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>2154170050</v>
+        <v>2154170049</v>
       </c>
       <c r="B225" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C225" t="s">
         <v>124</v>
       </c>
       <c r="D225" t="s">
-        <v>127</v>
-      </c>
-      <c r="E225" t="s">
         <v>167</v>
-      </c>
-      <c r="F225" t="s">
-        <v>169</v>
-      </c>
-      <c r="G225" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>2154170052</v>
+        <v>2154170050</v>
       </c>
       <c r="B226" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C226" t="s">
         <v>124</v>
       </c>
       <c r="D226" t="s">
+        <v>127</v>
+      </c>
+      <c r="E226" t="s">
+        <v>167</v>
+      </c>
+      <c r="F226" t="s">
+        <v>169</v>
+      </c>
+      <c r="G226" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>2154170052</v>
+      </c>
+      <c r="B227" t="s">
+        <v>389</v>
+      </c>
+      <c r="C227" t="s">
+        <v>124</v>
+      </c>
+      <c r="D227" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" s="7"/>
-      <c r="B229" s="7"/>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" s="7"/>
+      <c r="B230" s="7"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G226">
-    <sortCondition ref="A2:A226"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G227">
+    <sortCondition ref="A2:A227"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5232,10 +6066,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CV11"/>
+  <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:CW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5315,9 +6149,10 @@
     <col min="98" max="98" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="99" max="99" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -5618,8 +6453,11 @@
       <c r="CV1" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
+      <c r="CW1" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -5920,509 +6758,573 @@
       <c r="CV2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
+      <c r="CW2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>316</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="I3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>317</v>
       </c>
       <c r="B4" t="s">
         <v>318</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>319</v>
       </c>
       <c r="B5" t="s">
         <v>320</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="37" t="s">
         <v>159</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="X5" t="s">
+      <c r="X5" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Y5" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AB5" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AC5" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AE5" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AF5" s="37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>321</v>
       </c>
       <c r="B6" t="s">
         <v>322</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="37" t="s">
         <v>38</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="39" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+    </row>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>324</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="H7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="37" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="39" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.35">
+      <c r="N7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>419</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7" s="41" t="s">
+        <v>375</v>
+      </c>
+      <c r="U7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="W7" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="X7" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y7" s="41" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>325</v>
       </c>
       <c r="B8" t="s">
         <v>326</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" s="39" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
+      <c r="P8" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q8" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="R8" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="T8" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="U8" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="V8" s="38" t="s">
+        <v>422</v>
+      </c>
+      <c r="W8" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+    </row>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>328</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="37" t="s">
         <v>172</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="37" t="s">
         <v>169</v>
       </c>
       <c r="O9" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.35">
+      <c r="P9" s="38" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>329</v>
       </c>
       <c r="B10" t="s">
         <v>330</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="E10" t="s">
+      <c r="L10" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="N10" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="37" t="s">
         <v>331</v>
       </c>
-      <c r="F10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G10" t="s">
-        <v>333</v>
-      </c>
-      <c r="H10" t="s">
-        <v>332</v>
-      </c>
-      <c r="I10" t="s">
-        <v>156</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="P10" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="S10" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="T10" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="U10" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="V10" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="W10" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="X10" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z10" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA10" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="K10" t="s">
-        <v>334</v>
-      </c>
-      <c r="L10" t="s">
-        <v>335</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="AB10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC10" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="N10" t="s">
-        <v>125</v>
-      </c>
-      <c r="O10" t="s">
-        <v>119</v>
-      </c>
-      <c r="P10" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>303</v>
-      </c>
-      <c r="R10" t="s">
-        <v>336</v>
-      </c>
-      <c r="S10" t="s">
-        <v>126</v>
-      </c>
-      <c r="T10" t="s">
-        <v>132</v>
-      </c>
-      <c r="U10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B11" t="s">
-        <v>338</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" t="s">
-        <v>339</v>
-      </c>
-      <c r="H11" t="s">
-        <v>332</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L11" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" t="s">
-        <v>38</v>
-      </c>
-      <c r="O11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" t="s">
-        <v>52</v>
-      </c>
-      <c r="S11" t="s">
-        <v>340</v>
-      </c>
-      <c r="T11" t="s">
-        <v>7</v>
+      <c r="AD10" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE10" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF10" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="AG10" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH10" s="37" t="s">
+        <v>428</v>
+      </c>
+      <c r="AI10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ10" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK10" s="37" t="s">
+        <v>429</v>
+      </c>
+      <c r="AL10" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="AM10" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="AN10" s="37" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -6560,10 +7462,10 @@
         <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -6572,7 +7474,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -6587,16 +7489,16 @@
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M2" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -6655,7 +7557,7 @@
         <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
@@ -6750,7 +7652,7 @@
         <v>149</v>
       </c>
       <c r="P4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.35">
@@ -6758,10 +7660,10 @@
         <v>319</v>
       </c>
       <c r="B5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
         <v>42</v>
@@ -6773,7 +7675,7 @@
         <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H5" t="s">
         <v>151</v>
@@ -6797,7 +7699,7 @@
         <v>164</v>
       </c>
       <c r="O5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P5" t="s">
         <v>165</v>
@@ -6835,7 +7737,7 @@
         <v>321</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
         <v>94</v>
@@ -6945,7 +7847,7 @@
         <v>323</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C7" t="s">
         <v>108</v>
@@ -7055,10 +7957,10 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B11" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -7068,10 +7970,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7081,10 +7983,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -7092,7 +7994,7 @@
         <v>328</v>
       </c>
       <c r="B2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -7100,7 +8002,7 @@
         <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -7108,15 +8010,15 @@
         <v>324</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -7124,15 +8026,15 @@
         <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -7140,7 +8042,7 @@
         <v>328</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -7148,7 +8050,7 @@
         <v>322</v>
       </c>
       <c r="B9" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -7156,7 +8058,7 @@
         <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -7164,7 +8066,7 @@
         <v>320</v>
       </c>
       <c r="B11" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -7172,10 +8074,2568 @@
         <v>320</v>
       </c>
       <c r="B12" t="s">
-        <v>370</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>431</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA531276-FCFB-48E9-A31C-F81A22563EEA}">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>398</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>413</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="24"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="23"/>
+      <c r="I17" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="H18" s="23"/>
+      <c r="I18" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="23"/>
+      <c r="I19" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>422</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="21" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="26" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="33" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="21" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="24"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="34"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723D49A2-FE28-4215-9CFB-3356189253E8}">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="I2" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="I6" s="43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="43" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I14" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="43" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="H16" s="45" t="s">
+        <v>368</v>
+      </c>
+      <c r="I16" s="43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="44" t="s">
+        <v>419</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="43" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="43" t="s">
+        <v>280</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
+      <c r="H55" s="43"/>
+      <c r="I55" s="43"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="43" t="s">
+        <v>290</v>
+      </c>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="43" t="s">
+        <v>291</v>
+      </c>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
+      <c r="H59" s="43"/>
+      <c r="I59" s="43"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+      <c r="D60" s="43"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
+      <c r="H63" s="43"/>
+      <c r="I63" s="43"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
+      <c r="D68" s="43"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
+      <c r="D69" s="43"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="43"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="43"/>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="43"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
+      <c r="D75" s="43"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
+      <c r="E76" s="43"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="43"/>
+      <c r="I76" s="43"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="43"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
+      <c r="D78" s="43"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="43"/>
+      <c r="I78" s="43"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
+      <c r="D79" s="43"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
+      <c r="H79" s="43"/>
+      <c r="I79" s="43"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="43"/>
+      <c r="I80" s="43"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
+      <c r="D82" s="43"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
+      <c r="D83" s="43"/>
+      <c r="E83" s="43"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
+      <c r="H83" s="43"/>
+      <c r="I83" s="43"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+      <c r="I84" s="43"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
+      <c r="D85" s="43"/>
+      <c r="E85" s="43"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
+      <c r="D86" s="43"/>
+      <c r="E86" s="43"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+      <c r="H86" s="43"/>
+      <c r="I86" s="43"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
+      <c r="D87" s="43"/>
+      <c r="E87" s="43"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+      <c r="H87" s="43"/>
+      <c r="I87" s="43"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+      <c r="H88" s="43"/>
+      <c r="I88" s="43"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
+      <c r="D89" s="43"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="43"/>
+      <c r="I89" s="43"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="43"/>
+      <c r="I90" s="43"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
+      <c r="D91" s="43"/>
+      <c r="E91" s="43"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+      <c r="H91" s="43"/>
+      <c r="I91" s="43"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" s="43"/>
+      <c r="C92" s="43"/>
+      <c r="D92" s="43"/>
+      <c r="E92" s="43"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+      <c r="H92" s="43"/>
+      <c r="I92" s="43"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="B93" s="43"/>
+      <c r="C93" s="43"/>
+      <c r="D93" s="43"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+      <c r="H93" s="43"/>
+      <c r="I93" s="43"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="B94" s="43"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
+      <c r="E94" s="43"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+      <c r="H94" s="43"/>
+      <c r="I94" s="43"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="43"/>
+      <c r="I95" s="43"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" s="43"/>
+      <c r="C96" s="43"/>
+      <c r="D96" s="43"/>
+      <c r="E96" s="43"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
+      <c r="H96" s="43"/>
+      <c r="I96" s="43"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B97" s="43"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="43"/>
+      <c r="G97" s="43"/>
+      <c r="H97" s="43"/>
+      <c r="I97" s="43"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B98" s="43"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="43"/>
+      <c r="F98" s="43"/>
+      <c r="G98" s="43"/>
+      <c r="H98" s="43"/>
+      <c r="I98" s="43"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B99" s="43"/>
+      <c r="C99" s="43"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="43"/>
+      <c r="G99" s="43"/>
+      <c r="H99" s="43"/>
+      <c r="I99" s="43"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="43"/>
+      <c r="C100" s="43"/>
+      <c r="D100" s="43"/>
+      <c r="E100" s="43"/>
+      <c r="F100" s="43"/>
+      <c r="G100" s="43"/>
+      <c r="H100" s="43"/>
+      <c r="I100" s="43"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE2FC1B1-182E-42FE-89CF-EE6F1E95EF5B}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1368ABC7-5F44-4E38-98F6-515729B3CA97}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1695,7 +1695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1711,7 +1711,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1765,77 +1764,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2144,19 +2081,77 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2390,18 +2385,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}" name="Tabla3" displayName="Tabla3" ref="A1:I101" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}" name="Tabla3" displayName="Tabla3" ref="A1:I101" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
   <autoFilter ref="A1:I101" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5E4BDA70-F076-450B-A73E-034DF187DDD0}" name="FA1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{728A5178-5E49-485C-811A-814C878280BD}" name="FA2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{6512D9A4-ABA5-4A7F-B552-9FA02CBFBA15}" name="FA3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E3480F72-1A04-4419-A55B-8A371BCB83BB}" name="FA4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{C5057181-6E4D-42CD-A672-89666A3A590F}" name="FA5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{9E111813-83ED-4BC3-A5C2-2B23EDCBE045}" name="FA6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{E3B443D2-6ABB-4DA9-85A3-23615366D11A}" name="FA7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{9AD5DAC3-1F8A-44BE-8C81-D4E0724B6EED}" name="FA8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{81F25ED4-3EA1-4016-930B-258B361297C7}" name="FA9" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5E4BDA70-F076-450B-A73E-034DF187DDD0}" name="FA1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{728A5178-5E49-485C-811A-814C878280BD}" name="FA2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6512D9A4-ABA5-4A7F-B552-9FA02CBFBA15}" name="FA3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E3480F72-1A04-4419-A55B-8A371BCB83BB}" name="FA4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C5057181-6E4D-42CD-A672-89666A3A590F}" name="FA5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9E111813-83ED-4BC3-A5C2-2B23EDCBE045}" name="FA6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{E3B443D2-6ABB-4DA9-85A3-23615366D11A}" name="FA7" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{9AD5DAC3-1F8A-44BE-8C81-D4E0724B6EED}" name="FA8" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{81F25ED4-3EA1-4016-930B-258B361297C7}" name="FA9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6068,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:CW10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6769,25 +6764,25 @@
       <c r="B3" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
@@ -6798,37 +6793,37 @@
       <c r="B4" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="K4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="36" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6839,94 +6834,94 @@
       <c r="B5" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>159</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="37" t="s">
+      <c r="W5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="37" t="s">
+      <c r="X5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="37" t="s">
+      <c r="Y5" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="Z5" s="37" t="s">
+      <c r="Z5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AA5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="37" t="s">
+      <c r="AB5" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="AC5" s="37" t="s">
+      <c r="AC5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AD5" s="37" t="s">
+      <c r="AD5" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="37" t="s">
+      <c r="AE5" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="AF5" s="37" t="s">
+      <c r="AF5" s="36" t="s">
         <v>118</v>
       </c>
     </row>
@@ -6937,69 +6932,66 @@
       <c r="B6" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="36" t="s">
         <v>38</v>
       </c>
       <c r="K6" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="37" t="s">
+      <c r="L6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="V6" s="39" t="s">
+      <c r="V6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -7008,73 +7000,73 @@
       <c r="B7" t="s">
         <v>324</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="36" t="s">
         <v>384</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="37" t="s">
+      <c r="L7" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="Q7" s="38" t="s">
         <v>419</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="S7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="41" t="s">
+      <c r="T7" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="U7" s="41" t="s">
+      <c r="U7" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="41" t="s">
+      <c r="V7" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="41" t="s">
+      <c r="W7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="41" t="s">
+      <c r="X7" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="41" t="s">
+      <c r="Y7" s="38" t="s">
         <v>293</v>
       </c>
     </row>
@@ -7085,71 +7077,69 @@
       <c r="B8" t="s">
         <v>326</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="K8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="L8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="40" t="s">
+      <c r="M8" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="P8" s="38" t="s">
+      <c r="P8" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="Q8" s="38" t="s">
+      <c r="Q8" s="37" t="s">
         <v>379</v>
       </c>
-      <c r="R8" s="38" t="s">
+      <c r="R8" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="U8" s="38" t="s">
+      <c r="U8" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="V8" s="38" t="s">
+      <c r="V8" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="W8" s="37" t="s">
         <v>369</v>
       </c>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
@@ -7158,46 +7148,46 @@
       <c r="B9" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="H9" s="37" t="s">
+      <c r="H9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="J9" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="K9" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N9" s="36" t="s">
         <v>169</v>
       </c>
       <c r="O9" t="s">
         <v>137</v>
       </c>
-      <c r="P9" s="38" t="s">
+      <c r="P9" s="37" t="s">
         <v>368</v>
       </c>
     </row>
@@ -7208,118 +7198,118 @@
       <c r="B10" t="s">
         <v>330</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>334</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>332</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="37" t="s">
+      <c r="M10" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="N10" s="37" t="s">
+      <c r="N10" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="O10" s="37" t="s">
+      <c r="O10" s="36" t="s">
         <v>331</v>
       </c>
-      <c r="P10" s="37" t="s">
+      <c r="P10" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="Q10" s="37" t="s">
+      <c r="Q10" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="R10" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="S10" s="36" t="s">
         <v>421</v>
       </c>
-      <c r="T10" s="37" t="s">
+      <c r="T10" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="U10" s="37" t="s">
+      <c r="U10" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="V10" s="37" t="s">
+      <c r="V10" s="36" t="s">
         <v>424</v>
       </c>
-      <c r="W10" s="37" t="s">
+      <c r="W10" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="X10" s="37" t="s">
+      <c r="X10" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="Y10" s="37" t="s">
+      <c r="Y10" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="Z10" s="37" t="s">
+      <c r="Z10" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="AA10" s="37" t="s">
+      <c r="AA10" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="AB10" s="37" t="s">
+      <c r="AB10" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="AC10" s="37" t="s">
+      <c r="AC10" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="AD10" s="37" t="s">
+      <c r="AD10" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="AE10" s="37" t="s">
+      <c r="AE10" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="AF10" s="37" t="s">
+      <c r="AF10" s="36" t="s">
         <v>427</v>
       </c>
-      <c r="AG10" s="37" t="s">
+      <c r="AG10" s="36" t="s">
         <v>375</v>
       </c>
-      <c r="AH10" s="37" t="s">
+      <c r="AH10" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="AI10" s="37" t="s">
+      <c r="AI10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AJ10" s="37" t="s">
+      <c r="AJ10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="AK10" s="37" t="s">
+      <c r="AK10" s="36" t="s">
         <v>429</v>
       </c>
-      <c r="AL10" s="37" t="s">
+      <c r="AL10" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="AM10" s="37" t="s">
+      <c r="AM10" s="36" t="s">
         <v>371</v>
       </c>
-      <c r="AN10" s="37" t="s">
+      <c r="AN10" s="36" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7336,8 +7326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7345,6 +7335,7 @@
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.90625" customWidth="1"/>
+    <col min="32" max="32" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -7550,6 +7541,9 @@
       </c>
       <c r="AE2" t="s">
         <v>100</v>
+      </c>
+      <c r="AF2">
+        <v>2088702318</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">
@@ -8081,7 +8075,7 @@
       <c r="A13" t="s">
         <v>431</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="2" t="s">
         <v>432</v>
       </c>
     </row>
@@ -8111,826 +8105,826 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="21" t="s">
+      <c r="I6" s="20" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="20" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="20" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="F11" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I11" s="21" t="s">
+      <c r="I11" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="24"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="20" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="I12" s="21" t="s">
+      <c r="I12" s="20" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="24"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="20" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="24"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="20" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="H14" s="25" t="s">
+      <c r="H14" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="24"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="20" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="21" t="s">
+      <c r="H15" s="22"/>
+      <c r="I15" s="20" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="20" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="22"/>
+      <c r="I16" s="20" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="24"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="20" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="22"/>
+      <c r="I17" s="20" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="24"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="20" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="22"/>
+      <c r="I18" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="24"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="20" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="21" t="s">
+      <c r="H19" s="22"/>
+      <c r="I19" s="20" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="24"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="20" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>422</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="21" t="s">
+      <c r="H20" s="22"/>
+      <c r="I20" s="20" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="24"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="20" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="25" t="s">
+      <c r="G21" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="26" t="s">
+      <c r="H21" s="22"/>
+      <c r="I21" s="25" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="24"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="20" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="26" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="25" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="24"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="20" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="21" t="s">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="31" t="s">
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="30" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="28"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="27" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="F25" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="33" t="s">
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="32" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="27" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="21" t="s">
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="20" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="27" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E27" s="30" t="s">
+      <c r="E27" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="33" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="32" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="24"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="33" t="s">
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="32" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="24"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="20" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="33" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="32" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="24"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="20" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="21" t="s">
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="20" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="24"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="25" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="21" t="s">
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="20" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="20" t="s">
+      <c r="A32" s="23"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="21" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="20" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="20" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="21" t="s">
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="20" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="33" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="32" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="21" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="21" t="s">
+      <c r="A36" s="23"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="24"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="21" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="20" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="24"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="21" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="20" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="24"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="21" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="20" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="34"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="36" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="35" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8943,7 +8937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723D49A2-FE28-4215-9CFB-3356189253E8}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
@@ -8960,1677 +8954,1677 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="39" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="39" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="39" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="39" t="s">
         <v>321</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="39" t="s">
         <v>323</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="39" t="s">
         <v>325</v>
       </c>
-      <c r="H1" s="42" t="s">
+      <c r="H1" s="39" t="s">
         <v>327</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="39" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="2" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="2" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="G6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="I6" s="43" t="s">
+      <c r="I6" s="2" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="2" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="43" t="s">
+      <c r="H9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="2" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="43" t="s">
+      <c r="G10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="43" t="s">
+      <c r="H10" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="43" t="s">
+      <c r="G11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="43" t="s">
+      <c r="H11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="43" t="s">
+      <c r="I11" s="2" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="43" t="s">
+      <c r="H12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="43" t="s">
+      <c r="H13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="2" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H15" s="43" t="s">
+      <c r="H15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="43" t="s">
+      <c r="I15" s="2" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="22" t="s">
         <v>378</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="22" t="s">
         <v>368</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="2" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="44" t="s">
+      <c r="F17" s="40" t="s">
         <v>419</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="44" t="s">
+      <c r="F18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="43" t="s">
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43" t="s">
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="43" t="s">
+      <c r="E20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="44" t="s">
+      <c r="F20" s="40" t="s">
         <v>375</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="22" t="s">
         <v>383</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="43" t="s">
+      <c r="E21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="44" t="s">
+      <c r="F21" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="43" t="s">
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="44" t="s">
+      <c r="F22" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43" t="s">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43" t="s">
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="40" t="s">
         <v>159</v>
       </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43" t="s">
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="44" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43" t="s">
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="43" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A48" s="43" t="s">
+      <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="43"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="43"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A51" s="43" t="s">
+      <c r="A51" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A52" s="43" t="s">
+      <c r="A52" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A54" s="43" t="s">
+      <c r="A54" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A55" s="43" t="s">
+      <c r="A55" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B55" s="43"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="43"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A56" s="43" t="s">
+      <c r="A56" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="43"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A57" s="43" t="s">
+      <c r="A57" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A59" s="43" t="s">
+      <c r="A59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="43"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="43"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A61" s="43" t="s">
+      <c r="A61" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="43" t="s">
+      <c r="A62" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A66" s="43" t="s">
+      <c r="A66" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A68" s="43" t="s">
+      <c r="A68" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B69" s="43"/>
-      <c r="C69" s="43"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B71" s="43"/>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B72" s="43"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B74" s="43"/>
-      <c r="C74" s="43"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B75" s="43"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B76" s="43"/>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B77" s="43"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B78" s="43"/>
-      <c r="C78" s="43"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="43"/>
-      <c r="F78" s="43"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="43"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="43"/>
-      <c r="F79" s="43"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B80" s="43"/>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A82" s="43" t="s">
+      <c r="A82" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B82" s="43"/>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A83" s="43" t="s">
+      <c r="A83" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B83" s="43"/>
-      <c r="C83" s="43"/>
-      <c r="D83" s="43"/>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
-      <c r="I83" s="43"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A84" s="43" t="s">
+      <c r="A84" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B84" s="43"/>
-      <c r="C84" s="43"/>
-      <c r="D84" s="43"/>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
-      <c r="I84" s="43"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A85" s="43" t="s">
+      <c r="A85" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B85" s="43"/>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A86" s="43" t="s">
+      <c r="A86" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B86" s="43"/>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
-      <c r="I86" s="43"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A87" s="43" t="s">
+      <c r="A87" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="43"/>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="43"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="43"/>
-      <c r="D88" s="43"/>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
-      <c r="I88" s="43"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A89" s="43" t="s">
+      <c r="A89" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A90" s="43" t="s">
+      <c r="A90" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B90" s="43"/>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
-      <c r="I90" s="43"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A91" s="43" t="s">
+      <c r="A91" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B91" s="43"/>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
-      <c r="I91" s="43"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A92" s="43" t="s">
+      <c r="A92" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B92" s="43"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A93" s="43" t="s">
+      <c r="A93" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B93" s="43"/>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="43"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A94" s="43" t="s">
+      <c r="A94" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B94" s="43"/>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="43"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B95" s="43"/>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="43"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B96" s="43"/>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="43"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A97" s="43" t="s">
+      <c r="A97" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A98" s="43" t="s">
+      <c r="A98" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B98" s="43"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="43"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A99" s="43" t="s">
+      <c r="A99" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B99" s="43"/>
-      <c r="C99" s="43"/>
-      <c r="D99" s="43"/>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43"/>
-      <c r="G99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A100" s="43" t="s">
+      <c r="A100" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B100" s="43"/>
-      <c r="C100" s="43"/>
-      <c r="D100" s="43"/>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="43"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A101" s="46" t="s">
+      <c r="A101" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="B101" s="46"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="46"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="46"/>
-      <c r="G101" s="46"/>
-      <c r="H101" s="46"/>
-      <c r="I101" s="46"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="181" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB54B054-1F0D-44AE-8AA2-28F291370CFA}"/>
+  <xr:revisionPtr revIDLastSave="411" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF58B0D-0D68-47C4-A5D5-11FC2B8010B8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="anotaciones" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja4" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja5" sheetId="6" r:id="rId6"/>
+    <sheet name="Datos del heri" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja oficial de busca" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="427">
   <si>
     <t>Col 1</t>
   </si>
@@ -523,9 +523,6 @@
     <t>2154160033</t>
   </si>
   <si>
-    <t>2154160034</t>
-  </si>
-  <si>
     <t>59Z163-003-F</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>2154160037</t>
   </si>
   <si>
-    <t>2154170049</t>
-  </si>
-  <si>
     <t>AMZ040-C00-D</t>
   </si>
   <si>
@@ -1066,12 +1060,6 @@
     <t>2098700073</t>
   </si>
   <si>
-    <t>2198700076</t>
-  </si>
-  <si>
-    <t>2003020640</t>
-  </si>
-  <si>
     <t>2003020696</t>
   </si>
   <si>
@@ -1328,6 +1316,9 @@
   </si>
   <si>
     <t>59Z153-000-D, se retira modulo 27-jun</t>
+  </si>
+  <si>
+    <t>59Z178-000-F</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1366,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1409,13 +1400,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1655,7 +1652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1720,15 +1717,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2671,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2687,25 +2681,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2714,7 +2708,7 @@
         <v>2088701244</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2728,7 +2722,7 @@
         <v>2088701390</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2738,16 +2732,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="37">
+      <c r="A4">
         <v>2088701610</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>386</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2756,7 +2750,7 @@
         <v>2088701746</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2767,7 +2761,7 @@
         <v>2088702198</v>
       </c>
       <c r="B6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2781,7 +2775,7 @@
         <v>2088702199</v>
       </c>
       <c r="B7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -2795,7 +2789,7 @@
         <v>2088702200</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2809,7 +2803,7 @@
         <v>2088702201</v>
       </c>
       <c r="B9" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2826,7 +2820,7 @@
         <v>2088702202</v>
       </c>
       <c r="B10" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2840,7 +2834,7 @@
         <v>2088702203</v>
       </c>
       <c r="B11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2854,7 +2848,7 @@
         <v>2088702204</v>
       </c>
       <c r="B12" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2868,7 +2862,7 @@
         <v>2088702205</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2882,7 +2876,7 @@
         <v>2088702206</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -2896,7 +2890,7 @@
         <v>2088702207</v>
       </c>
       <c r="B15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2910,7 +2904,7 @@
         <v>2088702221</v>
       </c>
       <c r="B16" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2924,13 +2918,13 @@
         <v>2088702318</v>
       </c>
       <c r="B17" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2938,7 +2932,7 @@
         <v>2088707042</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -2952,7 +2946,7 @@
         <v>2098700024</v>
       </c>
       <c r="B19" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2966,13 +2960,13 @@
         <v>2098700025</v>
       </c>
       <c r="B20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2980,7 +2974,7 @@
         <v>2098700026</v>
       </c>
       <c r="B21" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2994,7 +2988,7 @@
         <v>2098700033</v>
       </c>
       <c r="B22" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -3008,7 +3002,7 @@
         <v>2098700046</v>
       </c>
       <c r="B23" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3022,7 +3016,7 @@
         <v>2098700056</v>
       </c>
       <c r="B24" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -3036,7 +3030,7 @@
         <v>2098700058</v>
       </c>
       <c r="B25" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -3050,7 +3044,7 @@
         <v>2098700076</v>
       </c>
       <c r="B26" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -3064,7 +3058,7 @@
         <v>2098700083</v>
       </c>
       <c r="B27" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -3078,7 +3072,7 @@
         <v>2098700108</v>
       </c>
       <c r="B28" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -3092,7 +3086,7 @@
         <v>2098700143</v>
       </c>
       <c r="B29" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -3106,7 +3100,7 @@
         <v>2098700154</v>
       </c>
       <c r="B30" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -3120,7 +3114,7 @@
         <v>2098700177</v>
       </c>
       <c r="B31" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -3134,7 +3128,7 @@
         <v>2098700189</v>
       </c>
       <c r="B32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -3148,7 +3142,7 @@
         <v>2098700245</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -3162,7 +3156,7 @@
         <v>2098700246</v>
       </c>
       <c r="B34" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -3176,7 +3170,7 @@
         <v>2098700256</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C35" t="s">
         <v>126</v>
@@ -3190,7 +3184,7 @@
         <v>2098700289</v>
       </c>
       <c r="B36" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
@@ -3204,7 +3198,7 @@
         <v>2098700290</v>
       </c>
       <c r="B37" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
@@ -3218,7 +3212,7 @@
         <v>2098700293</v>
       </c>
       <c r="B38" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -3232,7 +3226,7 @@
         <v>2098700296</v>
       </c>
       <c r="B39" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -3249,7 +3243,7 @@
         <v>2098700301</v>
       </c>
       <c r="B40" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -3263,7 +3257,7 @@
         <v>2098700302</v>
       </c>
       <c r="B41" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -3277,7 +3271,7 @@
         <v>2098700304</v>
       </c>
       <c r="B42" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -3291,7 +3285,7 @@
         <v>2098700305</v>
       </c>
       <c r="B43" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -3305,7 +3299,7 @@
         <v>2098700306</v>
       </c>
       <c r="B44" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -3319,7 +3313,7 @@
         <v>2098700307</v>
       </c>
       <c r="B45" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
@@ -3333,7 +3327,7 @@
         <v>2098700309</v>
       </c>
       <c r="B46" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -3347,7 +3341,7 @@
         <v>2098700315</v>
       </c>
       <c r="B47" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -3361,7 +3355,7 @@
         <v>2098700316</v>
       </c>
       <c r="B48" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -3375,7 +3369,7 @@
         <v>2098700320</v>
       </c>
       <c r="B49" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -3389,7 +3383,7 @@
         <v>2098700322</v>
       </c>
       <c r="B50" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -3403,7 +3397,7 @@
         <v>2098700353</v>
       </c>
       <c r="B51" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -3417,7 +3411,7 @@
         <v>2098700355</v>
       </c>
       <c r="B52" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -3431,7 +3425,7 @@
         <v>2098700356</v>
       </c>
       <c r="B53" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -3445,7 +3439,7 @@
         <v>2098700357</v>
       </c>
       <c r="B54" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -3459,7 +3453,7 @@
         <v>2098700358</v>
       </c>
       <c r="B55" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
@@ -3473,7 +3467,7 @@
         <v>2098700366</v>
       </c>
       <c r="B56" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3487,7 +3481,7 @@
         <v>2098700371</v>
       </c>
       <c r="B57" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -3501,7 +3495,7 @@
         <v>2098700372</v>
       </c>
       <c r="B58" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C58" t="s">
         <v>52</v>
@@ -3515,7 +3509,7 @@
         <v>2098700373</v>
       </c>
       <c r="B59" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -3529,7 +3523,7 @@
         <v>2098700374</v>
       </c>
       <c r="B60" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C60" t="s">
         <v>52</v>
@@ -3543,7 +3537,7 @@
         <v>2098700375</v>
       </c>
       <c r="B61" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C61" t="s">
         <v>32</v>
@@ -3557,7 +3551,7 @@
         <v>2098700376</v>
       </c>
       <c r="B62" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -3571,7 +3565,7 @@
         <v>2098700378</v>
       </c>
       <c r="B63" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C63" t="s">
         <v>71</v>
@@ -3585,10 +3579,10 @@
         <v>2098700379</v>
       </c>
       <c r="B64" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
@@ -3599,10 +3593,10 @@
         <v>2098700380</v>
       </c>
       <c r="B65" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
@@ -3613,7 +3607,7 @@
         <v>2098700404</v>
       </c>
       <c r="B66" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -3627,7 +3621,7 @@
         <v>2098700405</v>
       </c>
       <c r="B67" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -3641,7 +3635,7 @@
         <v>2098700429</v>
       </c>
       <c r="B68" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C68" t="s">
         <v>48</v>
@@ -3655,13 +3649,13 @@
         <v>2098700432</v>
       </c>
       <c r="B69" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -3669,7 +3663,7 @@
         <v>2098700433</v>
       </c>
       <c r="B70" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
@@ -3683,13 +3677,13 @@
         <v>2098700434</v>
       </c>
       <c r="B71" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -3697,13 +3691,13 @@
         <v>2098700436</v>
       </c>
       <c r="B72" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -3711,7 +3705,7 @@
         <v>2098700437</v>
       </c>
       <c r="B73" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C73" t="s">
         <v>53</v>
@@ -3720,7 +3714,7 @@
         <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -3728,7 +3722,7 @@
         <v>2098701682</v>
       </c>
       <c r="B74" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C74" t="s">
         <v>71</v>
@@ -3742,7 +3736,7 @@
         <v>2098706005</v>
       </c>
       <c r="B75" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -3756,7 +3750,7 @@
         <v>2098706008</v>
       </c>
       <c r="B76" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -3770,7 +3764,7 @@
         <v>2098706009</v>
       </c>
       <c r="B77" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -3784,7 +3778,7 @@
         <v>2098706010</v>
       </c>
       <c r="B78" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -3798,7 +3792,7 @@
         <v>2098706011</v>
       </c>
       <c r="B79" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -3812,7 +3806,7 @@
         <v>2098706013</v>
       </c>
       <c r="B80" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
@@ -3826,7 +3820,7 @@
         <v>2098706018</v>
       </c>
       <c r="B81" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -3840,7 +3834,7 @@
         <v>2098706021</v>
       </c>
       <c r="B82" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3854,7 +3848,7 @@
         <v>2098706023</v>
       </c>
       <c r="B83" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C83" t="s">
         <v>52</v>
@@ -3868,7 +3862,7 @@
         <v>2098706024</v>
       </c>
       <c r="B84" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C84" t="s">
         <v>52</v>
@@ -3882,7 +3876,7 @@
         <v>2098706025</v>
       </c>
       <c r="B85" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
@@ -3896,7 +3890,7 @@
         <v>2098706026</v>
       </c>
       <c r="B86" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C86" t="s">
         <v>49</v>
@@ -3910,7 +3904,7 @@
         <v>2098706028</v>
       </c>
       <c r="B87" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -3924,7 +3918,7 @@
         <v>2098706031</v>
       </c>
       <c r="B88" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
@@ -3938,7 +3932,7 @@
         <v>2098706032</v>
       </c>
       <c r="B89" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C89" t="s">
         <v>49</v>
@@ -3952,7 +3946,7 @@
         <v>2098706040</v>
       </c>
       <c r="B90" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
@@ -3966,7 +3960,7 @@
         <v>2098706041</v>
       </c>
       <c r="B91" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -3980,7 +3974,7 @@
         <v>2098706044</v>
       </c>
       <c r="B92" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
@@ -3994,7 +3988,7 @@
         <v>2098706072</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C93" t="s">
         <v>46</v>
@@ -4008,7 +4002,7 @@
         <v>2098706075</v>
       </c>
       <c r="B94" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
@@ -4022,7 +4016,7 @@
         <v>2098706076</v>
       </c>
       <c r="B95" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C95" t="s">
         <v>46</v>
@@ -4036,7 +4030,7 @@
         <v>2098706083</v>
       </c>
       <c r="B96" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -4050,7 +4044,7 @@
         <v>2098706084</v>
       </c>
       <c r="B97" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C97" t="s">
         <v>52</v>
@@ -4064,7 +4058,7 @@
         <v>2099700009</v>
       </c>
       <c r="B98" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -4078,7 +4072,7 @@
         <v>2099700010</v>
       </c>
       <c r="B99" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -4092,7 +4086,7 @@
         <v>2099700025</v>
       </c>
       <c r="B100" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C100" t="s">
         <v>103</v>
@@ -4109,7 +4103,7 @@
         <v>2099700030</v>
       </c>
       <c r="B101" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C101" t="s">
         <v>104</v>
@@ -4129,7 +4123,7 @@
         <v>2099700041</v>
       </c>
       <c r="B102" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -4143,7 +4137,7 @@
         <v>2099700048</v>
       </c>
       <c r="B103" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C103" t="s">
         <v>45</v>
@@ -4157,7 +4151,7 @@
         <v>2099700049</v>
       </c>
       <c r="B104" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -4171,7 +4165,7 @@
         <v>2099700056</v>
       </c>
       <c r="B105" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C105" t="s">
         <v>46</v>
@@ -4185,13 +4179,13 @@
         <v>2099700057</v>
       </c>
       <c r="B106" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C106" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D106" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
@@ -4202,10 +4196,10 @@
         <v>2099700058</v>
       </c>
       <c r="B107" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C107" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -4217,7 +4211,7 @@
         <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4225,13 +4219,13 @@
         <v>2099700059</v>
       </c>
       <c r="B108" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C108" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D108" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -4248,7 +4242,7 @@
         <v>2099706005</v>
       </c>
       <c r="B109" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C109" t="s">
         <v>45</v>
@@ -4262,13 +4256,13 @@
         <v>2154140069</v>
       </c>
       <c r="B110" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C110" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D110" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4276,10 +4270,10 @@
         <v>2154140162</v>
       </c>
       <c r="B111" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C111" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -4290,13 +4284,13 @@
         <v>2154140207</v>
       </c>
       <c r="B112" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -4304,7 +4298,7 @@
         <v>2154140222</v>
       </c>
       <c r="B113" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C113" t="s">
         <v>106</v>
@@ -4318,7 +4312,7 @@
         <v>2154140224</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C114" t="s">
         <v>107</v>
@@ -4332,7 +4326,7 @@
         <v>2154140225</v>
       </c>
       <c r="B115" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C115" t="s">
         <v>106</v>
@@ -4346,7 +4340,7 @@
         <v>2154140229</v>
       </c>
       <c r="B116" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C116" t="s">
         <v>107</v>
@@ -4360,7 +4354,7 @@
         <v>2154140243</v>
       </c>
       <c r="B117" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -4374,7 +4368,7 @@
         <v>2154140283</v>
       </c>
       <c r="B118" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
@@ -4388,7 +4382,7 @@
         <v>2154140284</v>
       </c>
       <c r="B119" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
@@ -4402,13 +4396,13 @@
         <v>2154140285</v>
       </c>
       <c r="B120" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C120" t="s">
         <v>119</v>
       </c>
       <c r="D120" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4416,7 +4410,7 @@
         <v>2154140287</v>
       </c>
       <c r="B121" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -4430,7 +4424,7 @@
         <v>2154140289</v>
       </c>
       <c r="B122" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C122" t="s">
         <v>31</v>
@@ -4444,7 +4438,7 @@
         <v>2154140290</v>
       </c>
       <c r="B123" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C123" t="s">
         <v>31</v>
@@ -4458,13 +4452,13 @@
         <v>2154140291</v>
       </c>
       <c r="B124" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C124" t="s">
         <v>119</v>
       </c>
       <c r="D124" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4472,10 +4466,10 @@
         <v>2154140292</v>
       </c>
       <c r="B125" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C125" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -4486,7 +4480,7 @@
         <v>2154140293</v>
       </c>
       <c r="B126" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
@@ -4500,7 +4494,7 @@
         <v>2154140294</v>
       </c>
       <c r="B127" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C127" t="s">
         <v>113</v>
@@ -4514,7 +4508,7 @@
         <v>2154140295</v>
       </c>
       <c r="B128" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C128" t="s">
         <v>113</v>
@@ -4528,7 +4522,7 @@
         <v>2154140318</v>
       </c>
       <c r="B129" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C129" t="s">
         <v>115</v>
@@ -4542,7 +4536,7 @@
         <v>2154140319</v>
       </c>
       <c r="B130" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -4556,7 +4550,7 @@
         <v>2154140335</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
@@ -4570,7 +4564,7 @@
         <v>2154140336</v>
       </c>
       <c r="B132" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C132" t="s">
         <v>31</v>
@@ -4584,13 +4578,13 @@
         <v>2154140345</v>
       </c>
       <c r="B133" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C133" t="s">
         <v>119</v>
       </c>
       <c r="D133" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -4598,7 +4592,7 @@
         <v>2154140349</v>
       </c>
       <c r="B134" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C134" t="s">
         <v>118</v>
@@ -4612,13 +4606,13 @@
         <v>2154140596</v>
       </c>
       <c r="B135" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C135" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D135" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -4626,7 +4620,7 @@
         <v>2154150035</v>
       </c>
       <c r="B136" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C136" t="s">
         <v>31</v>
@@ -4640,7 +4634,7 @@
         <v>2154150089</v>
       </c>
       <c r="B137" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C137" t="s">
         <v>123</v>
@@ -4654,7 +4648,7 @@
         <v>2154150163</v>
       </c>
       <c r="B138" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C138" t="s">
         <v>125</v>
@@ -4668,7 +4662,7 @@
         <v>2154150172</v>
       </c>
       <c r="B139" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C139" t="s">
         <v>124</v>
@@ -4682,7 +4676,7 @@
         <v>2154150197</v>
       </c>
       <c r="B140" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C140" t="s">
         <v>121</v>
@@ -4696,7 +4690,7 @@
         <v>2154150214</v>
       </c>
       <c r="B141" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C141" t="s">
         <v>31</v>
@@ -4710,7 +4704,7 @@
         <v>2154150215</v>
       </c>
       <c r="B142" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C142" t="s">
         <v>130</v>
@@ -4724,7 +4718,7 @@
         <v>2154150247</v>
       </c>
       <c r="B143" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C143" t="s">
         <v>131</v>
@@ -4738,7 +4732,7 @@
         <v>2154150250</v>
       </c>
       <c r="B144" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C144" t="s">
         <v>134</v>
@@ -4752,7 +4746,7 @@
         <v>2154150301</v>
       </c>
       <c r="B145" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C145" t="s">
         <v>124</v>
@@ -4766,7 +4760,7 @@
         <v>2154150337</v>
       </c>
       <c r="B146" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C146" t="s">
         <v>127</v>
@@ -4780,7 +4774,7 @@
         <v>2154150341</v>
       </c>
       <c r="B147" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C147" t="s">
         <v>138</v>
@@ -4794,7 +4788,7 @@
         <v>2154150342</v>
       </c>
       <c r="B148" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C148" t="s">
         <v>124</v>
@@ -4808,7 +4802,7 @@
         <v>2154150343</v>
       </c>
       <c r="B149" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C149" t="s">
         <v>124</v>
@@ -4822,7 +4816,7 @@
         <v>2154150347</v>
       </c>
       <c r="B150" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C150" t="s">
         <v>124</v>
@@ -4836,7 +4830,7 @@
         <v>2154150348</v>
       </c>
       <c r="B151" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C151" t="s">
         <v>127</v>
@@ -4850,7 +4844,7 @@
         <v>2154150349</v>
       </c>
       <c r="B152" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C152" t="s">
         <v>124</v>
@@ -4864,7 +4858,7 @@
         <v>2154150350</v>
       </c>
       <c r="B153" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C153" t="s">
         <v>130</v>
@@ -4881,7 +4875,7 @@
         <v>2154150351</v>
       </c>
       <c r="B154" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C154" t="s">
         <v>124</v>
@@ -4895,16 +4889,16 @@
         <v>2154150357</v>
       </c>
       <c r="B155" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C155" t="s">
         <v>123</v>
       </c>
       <c r="D155" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E155" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -4912,13 +4906,13 @@
         <v>2154150358</v>
       </c>
       <c r="B156" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C156" t="s">
         <v>123</v>
       </c>
       <c r="D156" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -4926,16 +4920,16 @@
         <v>2154150366</v>
       </c>
       <c r="B157" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C157" t="s">
         <v>123</v>
       </c>
       <c r="D157" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E157" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -4943,13 +4937,13 @@
         <v>2154150370</v>
       </c>
       <c r="B158" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C158" t="s">
         <v>123</v>
       </c>
       <c r="D158" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -4957,7 +4951,7 @@
         <v>2154150380</v>
       </c>
       <c r="B159" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C159" t="s">
         <v>125</v>
@@ -4971,7 +4965,7 @@
         <v>2154150391</v>
       </c>
       <c r="B160" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C160" t="s">
         <v>123</v>
@@ -4985,7 +4979,7 @@
         <v>2154150420</v>
       </c>
       <c r="B161" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C161" t="s">
         <v>140</v>
@@ -4999,7 +4993,7 @@
         <v>2154150447</v>
       </c>
       <c r="B162" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C162" t="s">
         <v>140</v>
@@ -5013,10 +5007,10 @@
         <v>2154150448</v>
       </c>
       <c r="B163" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C163" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D163" t="s">
         <v>124</v>
@@ -5027,13 +5021,13 @@
         <v>2154150455</v>
       </c>
       <c r="B164" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C164" t="s">
         <v>123</v>
       </c>
       <c r="D164" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E164" t="s">
         <v>156</v>
@@ -5044,7 +5038,7 @@
         <v>2154150461</v>
       </c>
       <c r="B165" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C165" t="s">
         <v>125</v>
@@ -5058,7 +5052,7 @@
         <v>2154150497</v>
       </c>
       <c r="B166" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C166" t="s">
         <v>140</v>
@@ -5072,7 +5066,7 @@
         <v>2154150501</v>
       </c>
       <c r="B167" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C167" t="s">
         <v>121</v>
@@ -5086,7 +5080,7 @@
         <v>2154150509</v>
       </c>
       <c r="B168" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C168" t="s">
         <v>124</v>
@@ -5100,13 +5094,13 @@
         <v>2154150525</v>
       </c>
       <c r="B169" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D169" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E169" t="s">
         <v>127</v>
@@ -5117,13 +5111,13 @@
         <v>2154150526</v>
       </c>
       <c r="B170" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C170" t="s">
         <v>130</v>
       </c>
       <c r="D170" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -5131,7 +5125,7 @@
         <v>2154150534</v>
       </c>
       <c r="B171" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C171" t="s">
         <v>124</v>
@@ -5148,7 +5142,7 @@
         <v>2154150554</v>
       </c>
       <c r="B172" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C172" t="s">
         <v>131</v>
@@ -5162,7 +5156,7 @@
         <v>2154150557</v>
       </c>
       <c r="B173" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C173" t="s">
         <v>123</v>
@@ -5176,7 +5170,7 @@
         <v>2154150560</v>
       </c>
       <c r="B174" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C174" t="s">
         <v>124</v>
@@ -5185,10 +5179,10 @@
         <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F174" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5196,7 +5190,7 @@
         <v>2154150563</v>
       </c>
       <c r="B175" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C175" t="s">
         <v>135</v>
@@ -5210,7 +5204,7 @@
         <v>2154150581</v>
       </c>
       <c r="B176" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C176" t="s">
         <v>124</v>
@@ -5224,7 +5218,7 @@
         <v>2154150582</v>
       </c>
       <c r="B177" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C177" t="s">
         <v>124</v>
@@ -5238,7 +5232,7 @@
         <v>2154150588</v>
       </c>
       <c r="B178" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C178" t="s">
         <v>31</v>
@@ -5252,13 +5246,13 @@
         <v>2154150591</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C179" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D179" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E179" t="s">
         <v>145</v>
@@ -5269,7 +5263,7 @@
         <v>2154150597</v>
       </c>
       <c r="B180" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C180" t="s">
         <v>127</v>
@@ -5278,7 +5272,7 @@
         <v>127</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -5286,7 +5280,7 @@
         <v>2154150603</v>
       </c>
       <c r="B181" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C181" t="s">
         <v>126</v>
@@ -5300,7 +5294,7 @@
         <v>2154150605</v>
       </c>
       <c r="B182" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C182" t="s">
         <v>106</v>
@@ -5314,13 +5308,13 @@
         <v>2154150622</v>
       </c>
       <c r="B183" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C183" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D183" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -5328,13 +5322,13 @@
         <v>2154150627</v>
       </c>
       <c r="B184" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C184" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D184" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -5342,7 +5336,7 @@
         <v>2154150633</v>
       </c>
       <c r="B185" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C185" t="s">
         <v>124</v>
@@ -5356,7 +5350,7 @@
         <v>2154150646</v>
       </c>
       <c r="B186" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C186" t="s">
         <v>127</v>
@@ -5368,7 +5362,7 @@
         <v>124</v>
       </c>
       <c r="F186" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -5376,19 +5370,19 @@
         <v>2154150648</v>
       </c>
       <c r="B187" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C187" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D187" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E187" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F187" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -5396,7 +5390,7 @@
         <v>2154150653</v>
       </c>
       <c r="B188" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C188" t="s">
         <v>126</v>
@@ -5410,7 +5404,7 @@
         <v>2154150669</v>
       </c>
       <c r="B189" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C189" t="s">
         <v>124</v>
@@ -5424,7 +5418,7 @@
         <v>2154150672</v>
       </c>
       <c r="B190" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C190" t="s">
         <v>124</v>
@@ -5438,16 +5432,16 @@
         <v>2154150677</v>
       </c>
       <c r="B191" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C191" t="s">
         <v>123</v>
       </c>
       <c r="D191" t="s">
+        <v>374</v>
+      </c>
+      <c r="E191" t="s">
         <v>378</v>
-      </c>
-      <c r="E191" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -5455,7 +5449,7 @@
         <v>2154150706</v>
       </c>
       <c r="B192" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C192" t="s">
         <v>113</v>
@@ -5469,7 +5463,7 @@
         <v>2154150707</v>
       </c>
       <c r="B193" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C193" t="s">
         <v>113</v>
@@ -5483,7 +5477,7 @@
         <v>2154150715</v>
       </c>
       <c r="B194" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C194" t="s">
         <v>31</v>
@@ -5497,10 +5491,10 @@
         <v>2154150719</v>
       </c>
       <c r="B195" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C195" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D195" t="s">
         <v>137</v>
@@ -5511,7 +5505,7 @@
         <v>2154150731</v>
       </c>
       <c r="B196" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C196" t="s">
         <v>130</v>
@@ -5525,16 +5519,16 @@
         <v>2154150765</v>
       </c>
       <c r="B197" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C197" t="s">
         <v>130</v>
       </c>
       <c r="D197" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F197" t="s">
         <v>156</v>
@@ -5545,13 +5539,13 @@
         <v>2154150767</v>
       </c>
       <c r="B198" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C198" t="s">
         <v>130</v>
       </c>
       <c r="D198" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E198" t="s">
         <v>156</v>
@@ -5565,7 +5559,7 @@
         <v>2154150769</v>
       </c>
       <c r="B199" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C199" t="s">
         <v>127</v>
@@ -5582,13 +5576,13 @@
         <v>2154150788</v>
       </c>
       <c r="B200" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C200" t="s">
         <v>130</v>
       </c>
       <c r="D200" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -5596,7 +5590,7 @@
         <v>2154150813</v>
       </c>
       <c r="B201" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C201" t="s">
         <v>127</v>
@@ -5608,7 +5602,7 @@
         <v>124</v>
       </c>
       <c r="F201" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -5616,7 +5610,7 @@
         <v>2154150814</v>
       </c>
       <c r="B202" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C202" t="s">
         <v>127</v>
@@ -5633,13 +5627,13 @@
         <v>2154150822</v>
       </c>
       <c r="B203" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C203" t="s">
         <v>130</v>
       </c>
       <c r="D203" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E203" t="s">
         <v>156</v>
@@ -5650,13 +5644,13 @@
         <v>2154150839</v>
       </c>
       <c r="B204" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C204" t="s">
         <v>127</v>
       </c>
       <c r="D204" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -5664,10 +5658,10 @@
         <v>2154150840</v>
       </c>
       <c r="B205" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C205" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D205" t="s">
         <v>128</v>
@@ -5678,10 +5672,10 @@
         <v>2154150841</v>
       </c>
       <c r="B206" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C206" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D206" t="s">
         <v>126</v>
@@ -5692,10 +5686,10 @@
         <v>2154150876</v>
       </c>
       <c r="B207" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C207" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D207" t="s">
         <v>128</v>
@@ -5706,10 +5700,10 @@
         <v>2154150893</v>
       </c>
       <c r="B208" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C208" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D208" t="s">
         <v>140</v>
@@ -5720,13 +5714,13 @@
         <v>2154150918</v>
       </c>
       <c r="B209" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C209" t="s">
         <v>127</v>
       </c>
       <c r="D209" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -5734,13 +5728,13 @@
         <v>2154150921</v>
       </c>
       <c r="B210" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C210" t="s">
         <v>123</v>
       </c>
       <c r="D210" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
@@ -5748,13 +5742,13 @@
         <v>2154150922</v>
       </c>
       <c r="B211" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C211" t="s">
         <v>130</v>
       </c>
       <c r="D211" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
@@ -5762,7 +5756,7 @@
         <v>2154150943</v>
       </c>
       <c r="B212" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C212" t="s">
         <v>140</v>
@@ -5776,7 +5770,7 @@
         <v>2154155136</v>
       </c>
       <c r="B213" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C213" t="s">
         <v>124</v>
@@ -5790,13 +5784,13 @@
         <v>2154155149</v>
       </c>
       <c r="B214" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C214" t="s">
         <v>124</v>
       </c>
       <c r="D214" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -5804,16 +5798,16 @@
         <v>2154155150</v>
       </c>
       <c r="B215" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C215" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D215" t="s">
         <v>124</v>
       </c>
       <c r="E215" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -5821,7 +5815,7 @@
         <v>2154160029</v>
       </c>
       <c r="B216" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C216" t="s">
         <v>153</v>
@@ -5835,7 +5829,7 @@
         <v>2154160030</v>
       </c>
       <c r="B217" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C217" t="s">
         <v>153</v>
@@ -5849,7 +5843,7 @@
         <v>2154160031</v>
       </c>
       <c r="B218" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C218" t="s">
         <v>153</v>
@@ -5863,7 +5857,7 @@
         <v>2154160032</v>
       </c>
       <c r="B219" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C219" t="s">
         <v>159</v>
@@ -5877,7 +5871,7 @@
         <v>2154160033</v>
       </c>
       <c r="B220" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C220" t="s">
         <v>159</v>
@@ -5891,13 +5885,13 @@
         <v>2154160034</v>
       </c>
       <c r="B221" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C221" t="s">
+        <v>161</v>
+      </c>
+      <c r="D221" t="s">
         <v>162</v>
-      </c>
-      <c r="D221" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
@@ -5905,7 +5899,7 @@
         <v>2154160035</v>
       </c>
       <c r="B222" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C222" t="s">
         <v>153</v>
@@ -5919,7 +5913,7 @@
         <v>2154160036</v>
       </c>
       <c r="B223" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C223" t="s">
         <v>159</v>
@@ -5933,7 +5927,7 @@
         <v>2154160037</v>
       </c>
       <c r="B224" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C224" t="s">
         <v>159</v>
@@ -5947,13 +5941,13 @@
         <v>2154170049</v>
       </c>
       <c r="B225" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C225" t="s">
         <v>124</v>
       </c>
       <c r="D225" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -5961,7 +5955,7 @@
         <v>2154170050</v>
       </c>
       <c r="B226" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C226" t="s">
         <v>124</v>
@@ -5970,13 +5964,13 @@
         <v>127</v>
       </c>
       <c r="E226" t="s">
+        <v>165</v>
+      </c>
+      <c r="F226" t="s">
         <v>167</v>
       </c>
-      <c r="F226" t="s">
-        <v>169</v>
-      </c>
       <c r="G226" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -5984,13 +5978,13 @@
         <v>2154170052</v>
       </c>
       <c r="B227" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C227" t="s">
         <v>124</v>
       </c>
       <c r="D227" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -6014,42 +6008,41 @@
   <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="M4" sqref="C4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.36328125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.6328125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="31" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.36328125" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="11.90625" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="12.453125" bestFit="1" customWidth="1"/>
@@ -6117,1115 +6110,1123 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BK1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BT1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="CU1" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="CV1" s="6" t="s">
-        <v>266</v>
-      </c>
       <c r="CW1" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="J2" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="L2" t="s">
+      <c r="P2" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="M2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="R2" t="s">
+      <c r="X2" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Y2" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z2" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA2" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="AB2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF2" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG2" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AH2" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AI2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AJ2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AK2" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL2" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="AM2" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AN2" s="36" t="s">
         <v>279</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AO2" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AP2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AR2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS2" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT2" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU2" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW2" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="AB2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AX2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AY2" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="AD2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>278</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>280</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>282</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>283</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AZ2" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="AX2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY2" t="s">
+      <c r="BA2" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BB2" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BC2" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BD2" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BE2" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BF2" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BG2" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="BH2" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="BI2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="BJ2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="BK2" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BL2" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="BM2" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BN2" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="BO2" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="BP2" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="BQ2" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="BR2" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="BS2" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="BT2" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="BU2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BV2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BW2" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BX2" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BY2" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="BZ2" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA2" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="CB2" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="BL2" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM2" t="s">
+      <c r="CC2" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="CD2" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="CE2" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="CF2" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="CG2" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="CH2" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="CI2" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="CJ2" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="CK2" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="BU2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>64</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>293</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>162</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>294</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>295</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>296</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>297</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>298</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>299</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>300</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>301</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>31</v>
-      </c>
-      <c r="CJ2" t="s">
+      <c r="CL2" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CM2" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CN2" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CO2" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CP2" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CQ2" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CR2" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="CQ2" t="s">
+      <c r="CS2" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="CR2" t="s">
+      <c r="CT2" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="CS2" t="s">
+      <c r="CU2" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CV2" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="CU2" t="s">
-        <v>313</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>314</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>382</v>
+      <c r="CW2" s="36" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="36" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
-      </c>
-      <c r="C4" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="F4" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="34" t="s">
+      <c r="L4" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
-      </c>
-      <c r="C5" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="34" t="s">
+      <c r="E5" s="36" t="s">
+        <v>426</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="34" t="s">
+      <c r="H5" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="N5" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="S5" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="T5" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="U5" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="34" t="s">
+      <c r="X5" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="34" t="s">
+      <c r="Y5" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="Z5" s="34" t="s">
+      <c r="Z5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AA5" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="34" t="s">
+      <c r="AB5" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="AC5" s="34" t="s">
+      <c r="AC5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AD5" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="AE5" s="34" t="s">
+      <c r="AE5" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="AF5" s="34" t="s">
+      <c r="AF5" s="36" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="M6" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="34" t="s">
+      <c r="N6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="34" t="s">
+      <c r="O6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="34" t="s">
+      <c r="Q6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="34" t="s">
+      <c r="R6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="S6" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="T6" s="34" t="s">
+      <c r="T6" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="34" t="s">
+      <c r="U6" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="V6" s="34" t="s">
+      <c r="V6" s="36" t="s">
         <v>45</v>
+      </c>
+      <c r="W6" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="X6" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="I7" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="M7" s="34" t="s">
+      <c r="M7" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="38" t="s">
+      <c r="O7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="38" t="s">
+      <c r="P7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="38" t="s">
-        <v>416</v>
-      </c>
-      <c r="R7" s="38" t="s">
+      <c r="Q7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="S7" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="T7" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="U7" s="38" t="s">
+      <c r="T7" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="U7" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="38" t="s">
+      <c r="V7" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="W7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="X7" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="35" t="s">
-        <v>293</v>
+      <c r="Y7" s="37" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C8" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="34" t="s">
+      <c r="N8" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="P8" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q8" s="38" t="s">
+      <c r="P8" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>372</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" s="37" t="s">
         <v>376</v>
       </c>
-      <c r="R8" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="S8" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="T8" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="U8" s="38" t="s">
+      <c r="T8" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="V8" s="38" t="s">
-        <v>419</v>
-      </c>
-      <c r="W8" s="38" t="s">
-        <v>366</v>
+      <c r="U8" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="V8" s="37" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="34" t="s">
+      <c r="I9" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="N9" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="K9" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="L9" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="N9" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="O9" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="P9" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
+      <c r="O9" s="37" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E10" s="34" t="s">
         <v>156</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>125</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>123</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L10" s="34" t="s">
         <v>126</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="N10" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="O10" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="P10" s="39" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q10" s="39" t="s">
+      <c r="O10" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="R10" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="T10" s="39" t="s">
-        <v>420</v>
-      </c>
-      <c r="U10" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="V10" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="W10" s="39" t="s">
+      <c r="R10" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="W10" s="34" t="s">
         <v>130</v>
       </c>
       <c r="X10" s="34" t="s">
         <v>121</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="Z10" s="34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AA10" s="34" t="s">
         <v>124</v>
@@ -7243,13 +7244,13 @@
         <v>127</v>
       </c>
       <c r="AF10" s="34" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="AG10" s="34" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AH10" s="34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AI10" s="34" t="s">
         <v>31</v>
@@ -7258,16 +7259,16 @@
         <v>45</v>
       </c>
       <c r="AK10" s="34" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="AL10" s="34" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="AM10" s="34" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AN10" s="34" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7281,19 +7282,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ10"/>
+  <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="36" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="46" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7313,572 +7314,671 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AI1" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="L2" s="36" t="s">
         <v>338</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="L2" t="s">
-        <v>340</v>
-      </c>
-      <c r="M2" t="s">
-        <v>341</v>
-      </c>
-      <c r="N2" t="s">
-        <v>342</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="N2" s="36">
+        <v>2098700076</v>
+      </c>
+      <c r="O2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="AE2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF2">
+      <c r="AE2" s="36">
         <v>2088702318</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AF2" s="36">
+        <v>2088706010</v>
+      </c>
+      <c r="AG2" s="36">
+        <v>2098700429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="P3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="F3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="36">
+        <v>2154140336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>315</v>
       </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="36">
+        <v>2003020640</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="R4" s="36">
+        <v>2098700305</v>
+      </c>
+      <c r="S4" s="36">
+        <v>2098706018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q5" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" s="36">
+        <v>2154160034</v>
+      </c>
+      <c r="T5" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="36">
+        <v>2098700256</v>
+      </c>
+      <c r="V5" s="36">
+        <v>2098700304</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" s="36">
+        <v>2098700432</v>
+      </c>
+      <c r="Z5" s="36">
+        <v>2098700433</v>
+      </c>
+      <c r="AA5" s="36">
+        <v>2098700434</v>
+      </c>
+      <c r="AB5" s="36">
+        <v>2098700436</v>
+      </c>
+      <c r="AC5" s="36">
+        <v>2154140324</v>
+      </c>
+      <c r="AD5" s="36">
+        <v>2154150497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J6" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="H4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L4" t="s">
-        <v>112</v>
-      </c>
-      <c r="M4" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" t="s">
-        <v>148</v>
-      </c>
-      <c r="O4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" t="s">
-        <v>343</v>
-      </c>
-      <c r="C5" t="s">
-        <v>344</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G5" t="s">
-        <v>345</v>
-      </c>
-      <c r="H5" t="s">
-        <v>151</v>
-      </c>
-      <c r="I5" t="s">
-        <v>152</v>
-      </c>
-      <c r="J5" t="s">
-        <v>155</v>
-      </c>
-      <c r="K5" t="s">
-        <v>157</v>
-      </c>
-      <c r="L5" t="s">
-        <v>158</v>
-      </c>
-      <c r="M5" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" t="s">
-        <v>164</v>
-      </c>
-      <c r="O5" t="s">
-        <v>346</v>
-      </c>
-      <c r="P5" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>166</v>
-      </c>
-      <c r="R5" t="s">
-        <v>168</v>
-      </c>
-      <c r="S5" t="s">
-        <v>171</v>
-      </c>
-      <c r="T5" t="s">
-        <v>136</v>
-      </c>
-      <c r="U5" t="s">
-        <v>89</v>
-      </c>
-      <c r="V5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B6" t="s">
-        <v>347</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" t="s">
-        <v>96</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="N6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="36" t="s">
         <v>59</v>
       </c>
       <c r="S6" t="s">
         <v>6</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="X6" t="s">
+      <c r="X6" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Y6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AA6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AB6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AC6" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AE6" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AF6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AH6" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="36" t="s">
         <v>81</v>
       </c>
       <c r="AJ6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AK6" s="36">
+        <v>2098700379</v>
+      </c>
+      <c r="AL6" s="36">
+        <v>2098700380</v>
+      </c>
+      <c r="AM6" s="36">
+        <v>2098706024</v>
+      </c>
+      <c r="AN6" s="36">
+        <v>2098706072</v>
+      </c>
+      <c r="AO6" s="36">
+        <v>2098706075</v>
+      </c>
+      <c r="AP6" s="36">
+        <v>2098706086</v>
+      </c>
+      <c r="AQ6" s="36">
+        <v>2098706087</v>
+      </c>
+      <c r="AR6" s="36">
+        <v>2098706088</v>
+      </c>
+      <c r="AS6" s="36">
+        <v>2098706089</v>
+      </c>
+      <c r="AT6" s="36">
+        <v>2154140596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="M7" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="36">
+        <v>2154150840</v>
+      </c>
+      <c r="S7" s="36">
+        <v>2154150876</v>
+      </c>
+      <c r="T7" s="36">
+        <v>2154160037</v>
+      </c>
+      <c r="U7" s="36">
+        <v>2088702198</v>
+      </c>
+      <c r="V7" s="36">
+        <v>2088702199</v>
+      </c>
+      <c r="W7" s="36">
+        <v>2088702200</v>
+      </c>
+      <c r="X7" s="36">
+        <v>2088702207</v>
+      </c>
+      <c r="Y7" s="36">
+        <v>2088702221</v>
+      </c>
+      <c r="Z7" s="36">
+        <v>2088702318</v>
+      </c>
+      <c r="AA7" s="36">
+        <v>2088707042</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>323</v>
       </c>
-      <c r="B7" t="s">
-        <v>348</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M7" t="s">
-        <v>149</v>
-      </c>
-      <c r="N7" t="s">
-        <v>150</v>
-      </c>
-      <c r="O7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B8" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="L8" s="36">
+        <v>2154150788</v>
+      </c>
+      <c r="M8" s="36">
+        <v>2154160037</v>
+      </c>
+      <c r="N8" s="36">
+        <v>2098706085</v>
+      </c>
+      <c r="O8" s="36">
+        <v>2098700437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>325</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" t="s">
-        <v>146</v>
-      </c>
-      <c r="J8" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>327</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -7890,15 +7990,15 @@
         <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -7921,106 +8021,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -8050,65 +8150,65 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>404</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>52</v>
@@ -8137,7 +8237,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>106</v>
@@ -8152,7 +8252,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>14</v>
@@ -8161,12 +8261,12 @@
         <v>52</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>7</v>
@@ -8195,7 +8295,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -8216,15 +8316,15 @@
         <v>53</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>113</v>
@@ -8253,7 +8353,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>31</v>
@@ -8274,15 +8374,15 @@
         <v>35</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
@@ -8303,10 +8403,10 @@
         <v>71</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -8324,7 +8424,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>123</v>
@@ -8358,7 +8458,7 @@
         <v>127</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -8368,7 +8468,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>7</v>
@@ -8380,7 +8480,7 @@
         <v>124</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>126</v>
@@ -8408,7 +8508,7 @@
         <v>52</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -8425,10 +8525,10 @@
         <v>14</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>137</v>
@@ -8448,11 +8548,11 @@
         <v>21</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -8473,7 +8573,7 @@
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -8487,14 +8587,14 @@
         <v>54</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="18" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -8511,11 +8611,11 @@
         <v>22</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -8536,7 +8636,7 @@
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="18" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -8550,14 +8650,14 @@
         <v>45</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -8568,17 +8668,17 @@
         <v>138</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -8597,7 +8697,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
       <c r="I22" s="23" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -8624,7 +8724,7 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>145</v>
@@ -8646,15 +8746,15 @@
         <v>102</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="30" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -8665,13 +8765,13 @@
         <v>154</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -8682,7 +8782,7 @@
         <v>156</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -8741,7 +8841,7 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -8763,7 +8863,7 @@
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="18" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -8778,7 +8878,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="18" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -8791,7 +8891,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="30" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -8830,7 +8930,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="18" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -8843,7 +8943,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -8856,7 +8956,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8869,7 +8969,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="33" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -8884,8 +8984,8 @@
   </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8902,60 +9002,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" t="s">
         <v>315</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>317</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>319</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>321</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>323</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>325</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>327</v>
-      </c>
-      <c r="I1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" t="s">
         <v>316</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>318</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>320</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>322</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>324</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>326</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>328</v>
-      </c>
-      <c r="I2" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -8989,7 +9089,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
         <v>106</v>
@@ -9013,7 +9113,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9027,7 +9127,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
@@ -9068,10 +9168,10 @@
         <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -9097,7 +9197,7 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I7" t="s">
         <v>125</v>
@@ -9120,7 +9220,7 @@
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
@@ -9129,12 +9229,12 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -9158,12 +9258,12 @@
         <v>127</v>
       </c>
       <c r="I9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -9181,7 +9281,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I10" t="s">
         <v>123</v>
@@ -9189,7 +9289,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -9210,12 +9310,12 @@
         <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -9247,7 +9347,7 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -9259,10 +9359,10 @@
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -9282,7 +9382,7 @@
         <v>124</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I14" t="s">
         <v>137</v>
@@ -9290,7 +9390,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D15" t="s">
         <v>154</v>
@@ -9308,12 +9408,12 @@
         <v>137</v>
       </c>
       <c r="I15" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D16" t="s">
         <v>156</v>
@@ -9325,18 +9425,18 @@
         <v>13</v>
       </c>
       <c r="G16" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="I16" t="s">
         <v>375</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="I16" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -9345,10 +9445,10 @@
         <v>29</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I17" t="s">
         <v>121</v>
@@ -9356,7 +9456,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D18" t="s">
         <v>137</v>
@@ -9371,7 +9471,7 @@
         <v>102</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -9391,7 +9491,7 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -9405,13 +9505,13 @@
         <v>52</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I20" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -9431,7 +9531,7 @@
         <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -9448,15 +9548,15 @@
         <v>17</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="I22" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -9465,7 +9565,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="I23" t="s">
         <v>130</v>
@@ -9473,7 +9573,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -9487,32 +9587,32 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
         <v>139</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -9534,7 +9634,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -9556,7 +9656,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D31" t="s">
         <v>119</v>
@@ -9567,13 +9667,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
         <v>118</v>
       </c>
       <c r="I32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -9581,7 +9681,7 @@
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -9589,7 +9689,7 @@
         <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -9610,39 +9710,39 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I37" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I38" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I39" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I40" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -9652,7 +9752,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -9682,7 +9782,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
@@ -9692,42 +9792,42 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
@@ -9752,52 +9852,52 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
@@ -9822,52 +9922,52 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
@@ -9877,72 +9977,72 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="411" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF58B0D-0D68-47C4-A5D5-11FC2B8010B8}"/>
+  <xr:revisionPtr revIDLastSave="424" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76ADA728-16D8-4F75-A094-A3C266AB035C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2665,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6007,8 +6007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="C4:M4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7284,8 +7284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8:O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7761,7 +7761,7 @@
       <c r="R6" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="36" t="s">
         <v>6</v>
       </c>
       <c r="T6" s="36" t="s">
@@ -7812,7 +7812,7 @@
       <c r="AI6" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AJ6" s="36" t="s">
         <v>11</v>
       </c>
       <c r="AK6" s="36">
@@ -7980,20 +7980,32 @@
       <c r="A9" t="s">
         <v>325</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="36">
+        <v>2099700057</v>
+      </c>
+      <c r="E9" s="36">
+        <v>2099700058</v>
+      </c>
+      <c r="F9" s="36">
+        <v>2099700059</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" s="36" t="s">
         <v>169</v>
+      </c>
+      <c r="J9" s="36">
+        <v>2154170049</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76ADA728-16D8-4F75-A094-A3C266AB035C}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77BD0E2A-42CF-4866-8A88-75E401B91FCB}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="426">
   <si>
     <t>Col 1</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>2098706013</t>
-  </si>
-  <si>
-    <t>2098706018</t>
   </si>
   <si>
     <t>2098706021</t>
@@ -2685,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>1</v>
@@ -2708,7 +2705,7 @@
         <v>2088701244</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2722,7 +2719,7 @@
         <v>2088701390</v>
       </c>
       <c r="B3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2736,7 +2733,7 @@
         <v>2088701610</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2750,7 +2747,7 @@
         <v>2088701746</v>
       </c>
       <c r="B5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2761,7 +2758,7 @@
         <v>2088702198</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2775,7 +2772,7 @@
         <v>2088702199</v>
       </c>
       <c r="B7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -2789,7 +2786,7 @@
         <v>2088702200</v>
       </c>
       <c r="B8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2803,7 +2800,7 @@
         <v>2088702201</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2820,7 +2817,7 @@
         <v>2088702202</v>
       </c>
       <c r="B10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2834,7 +2831,7 @@
         <v>2088702203</v>
       </c>
       <c r="B11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2848,7 +2845,7 @@
         <v>2088702204</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2862,7 +2859,7 @@
         <v>2088702205</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2876,7 +2873,7 @@
         <v>2088702206</v>
       </c>
       <c r="B14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -2890,7 +2887,7 @@
         <v>2088702207</v>
       </c>
       <c r="B15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2904,7 +2901,7 @@
         <v>2088702221</v>
       </c>
       <c r="B16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2918,13 +2915,13 @@
         <v>2088702318</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2932,7 +2929,7 @@
         <v>2088707042</v>
       </c>
       <c r="B18" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -2946,7 +2943,7 @@
         <v>2098700024</v>
       </c>
       <c r="B19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2960,13 +2957,13 @@
         <v>2098700025</v>
       </c>
       <c r="B20" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2974,7 +2971,7 @@
         <v>2098700026</v>
       </c>
       <c r="B21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2988,7 +2985,7 @@
         <v>2098700033</v>
       </c>
       <c r="B22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -3002,7 +2999,7 @@
         <v>2098700046</v>
       </c>
       <c r="B23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3016,7 +3013,7 @@
         <v>2098700056</v>
       </c>
       <c r="B24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -3030,7 +3027,7 @@
         <v>2098700058</v>
       </c>
       <c r="B25" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -3044,7 +3041,7 @@
         <v>2098700076</v>
       </c>
       <c r="B26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -3058,7 +3055,7 @@
         <v>2098700083</v>
       </c>
       <c r="B27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -3072,7 +3069,7 @@
         <v>2098700108</v>
       </c>
       <c r="B28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -3086,7 +3083,7 @@
         <v>2098700143</v>
       </c>
       <c r="B29" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -3100,7 +3097,7 @@
         <v>2098700154</v>
       </c>
       <c r="B30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -3114,7 +3111,7 @@
         <v>2098700177</v>
       </c>
       <c r="B31" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -3128,7 +3125,7 @@
         <v>2098700189</v>
       </c>
       <c r="B32" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -3142,7 +3139,7 @@
         <v>2098700245</v>
       </c>
       <c r="B33" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -3156,7 +3153,7 @@
         <v>2098700246</v>
       </c>
       <c r="B34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -3170,10 +3167,10 @@
         <v>2098700256</v>
       </c>
       <c r="B35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D35" t="s">
         <v>38</v>
@@ -3184,7 +3181,7 @@
         <v>2098700289</v>
       </c>
       <c r="B36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
@@ -3198,7 +3195,7 @@
         <v>2098700290</v>
       </c>
       <c r="B37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
@@ -3212,7 +3209,7 @@
         <v>2098700293</v>
       </c>
       <c r="B38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -3226,7 +3223,7 @@
         <v>2098700296</v>
       </c>
       <c r="B39" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -3243,7 +3240,7 @@
         <v>2098700301</v>
       </c>
       <c r="B40" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -3257,7 +3254,7 @@
         <v>2098700302</v>
       </c>
       <c r="B41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -3271,7 +3268,7 @@
         <v>2098700304</v>
       </c>
       <c r="B42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -3285,7 +3282,7 @@
         <v>2098700305</v>
       </c>
       <c r="B43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -3299,7 +3296,7 @@
         <v>2098700306</v>
       </c>
       <c r="B44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -3313,7 +3310,7 @@
         <v>2098700307</v>
       </c>
       <c r="B45" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
@@ -3327,7 +3324,7 @@
         <v>2098700309</v>
       </c>
       <c r="B46" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -3341,7 +3338,7 @@
         <v>2098700315</v>
       </c>
       <c r="B47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -3355,7 +3352,7 @@
         <v>2098700316</v>
       </c>
       <c r="B48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -3369,7 +3366,7 @@
         <v>2098700320</v>
       </c>
       <c r="B49" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -3383,7 +3380,7 @@
         <v>2098700322</v>
       </c>
       <c r="B50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -3397,7 +3394,7 @@
         <v>2098700353</v>
       </c>
       <c r="B51" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -3411,7 +3408,7 @@
         <v>2098700355</v>
       </c>
       <c r="B52" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -3425,7 +3422,7 @@
         <v>2098700356</v>
       </c>
       <c r="B53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -3439,7 +3436,7 @@
         <v>2098700357</v>
       </c>
       <c r="B54" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -3453,7 +3450,7 @@
         <v>2098700358</v>
       </c>
       <c r="B55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
@@ -3467,7 +3464,7 @@
         <v>2098700366</v>
       </c>
       <c r="B56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3481,7 +3478,7 @@
         <v>2098700371</v>
       </c>
       <c r="B57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -3495,7 +3492,7 @@
         <v>2098700372</v>
       </c>
       <c r="B58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C58" t="s">
         <v>52</v>
@@ -3509,7 +3506,7 @@
         <v>2098700373</v>
       </c>
       <c r="B59" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -3523,7 +3520,7 @@
         <v>2098700374</v>
       </c>
       <c r="B60" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" t="s">
         <v>52</v>
@@ -3537,7 +3534,7 @@
         <v>2098700375</v>
       </c>
       <c r="B61" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C61" t="s">
         <v>32</v>
@@ -3551,7 +3548,7 @@
         <v>2098700376</v>
       </c>
       <c r="B62" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -3565,7 +3562,7 @@
         <v>2098700378</v>
       </c>
       <c r="B63" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C63" t="s">
         <v>71</v>
@@ -3579,10 +3576,10 @@
         <v>2098700379</v>
       </c>
       <c r="B64" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
@@ -3593,10 +3590,10 @@
         <v>2098700380</v>
       </c>
       <c r="B65" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
@@ -3607,7 +3604,7 @@
         <v>2098700404</v>
       </c>
       <c r="B66" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -3621,7 +3618,7 @@
         <v>2098700405</v>
       </c>
       <c r="B67" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -3635,7 +3632,7 @@
         <v>2098700429</v>
       </c>
       <c r="B68" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C68" t="s">
         <v>48</v>
@@ -3649,13 +3646,13 @@
         <v>2098700432</v>
       </c>
       <c r="B69" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -3663,13 +3660,13 @@
         <v>2098700433</v>
       </c>
       <c r="B70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -3677,13 +3674,13 @@
         <v>2098700434</v>
       </c>
       <c r="B71" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -3691,13 +3688,13 @@
         <v>2098700436</v>
       </c>
       <c r="B72" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -3705,16 +3702,16 @@
         <v>2098700437</v>
       </c>
       <c r="B73" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C73" t="s">
         <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E73" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -3722,7 +3719,7 @@
         <v>2098701682</v>
       </c>
       <c r="B74" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C74" t="s">
         <v>71</v>
@@ -3736,7 +3733,7 @@
         <v>2098706005</v>
       </c>
       <c r="B75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -3750,7 +3747,7 @@
         <v>2098706008</v>
       </c>
       <c r="B76" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -3764,7 +3761,7 @@
         <v>2098706009</v>
       </c>
       <c r="B77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -3778,7 +3775,7 @@
         <v>2098706010</v>
       </c>
       <c r="B78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -3792,7 +3789,7 @@
         <v>2098706011</v>
       </c>
       <c r="B79" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -3806,7 +3803,7 @@
         <v>2098706013</v>
       </c>
       <c r="B80" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
@@ -3820,7 +3817,7 @@
         <v>2098706018</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -3834,7 +3831,7 @@
         <v>2098706021</v>
       </c>
       <c r="B82" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3848,7 +3845,7 @@
         <v>2098706023</v>
       </c>
       <c r="B83" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C83" t="s">
         <v>52</v>
@@ -3862,7 +3859,7 @@
         <v>2098706024</v>
       </c>
       <c r="B84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C84" t="s">
         <v>52</v>
@@ -3876,7 +3873,7 @@
         <v>2098706025</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
@@ -3890,7 +3887,7 @@
         <v>2098706026</v>
       </c>
       <c r="B86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C86" t="s">
         <v>49</v>
@@ -3904,7 +3901,7 @@
         <v>2098706028</v>
       </c>
       <c r="B87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -3918,7 +3915,7 @@
         <v>2098706031</v>
       </c>
       <c r="B88" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
@@ -3932,7 +3929,7 @@
         <v>2098706032</v>
       </c>
       <c r="B89" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C89" t="s">
         <v>49</v>
@@ -3946,7 +3943,7 @@
         <v>2098706040</v>
       </c>
       <c r="B90" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
@@ -3960,7 +3957,7 @@
         <v>2098706041</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -3974,7 +3971,7 @@
         <v>2098706044</v>
       </c>
       <c r="B92" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
@@ -3988,7 +3985,7 @@
         <v>2098706072</v>
       </c>
       <c r="B93" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C93" t="s">
         <v>46</v>
@@ -4002,7 +3999,7 @@
         <v>2098706075</v>
       </c>
       <c r="B94" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
@@ -4016,7 +4013,7 @@
         <v>2098706076</v>
       </c>
       <c r="B95" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C95" t="s">
         <v>46</v>
@@ -4030,7 +4027,7 @@
         <v>2098706083</v>
       </c>
       <c r="B96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -4044,13 +4041,13 @@
         <v>2098706084</v>
       </c>
       <c r="B97" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C97" t="s">
         <v>52</v>
       </c>
       <c r="D97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -4058,7 +4055,7 @@
         <v>2099700009</v>
       </c>
       <c r="B98" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -4072,7 +4069,7 @@
         <v>2099700010</v>
       </c>
       <c r="B99" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -4086,10 +4083,10 @@
         <v>2099700025</v>
       </c>
       <c r="B100" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
@@ -4103,10 +4100,10 @@
         <v>2099700030</v>
       </c>
       <c r="B101" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -4123,7 +4120,7 @@
         <v>2099700041</v>
       </c>
       <c r="B102" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -4137,7 +4134,7 @@
         <v>2099700048</v>
       </c>
       <c r="B103" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C103" t="s">
         <v>45</v>
@@ -4151,7 +4148,7 @@
         <v>2099700049</v>
       </c>
       <c r="B104" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -4165,7 +4162,7 @@
         <v>2099700056</v>
       </c>
       <c r="B105" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C105" t="s">
         <v>46</v>
@@ -4179,13 +4176,13 @@
         <v>2099700057</v>
       </c>
       <c r="B106" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C106" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
@@ -4196,10 +4193,10 @@
         <v>2099700058</v>
       </c>
       <c r="B107" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C107" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -4211,7 +4208,7 @@
         <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4219,13 +4216,13 @@
         <v>2099700059</v>
       </c>
       <c r="B108" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C108" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D108" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -4242,7 +4239,7 @@
         <v>2099706005</v>
       </c>
       <c r="B109" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C109" t="s">
         <v>45</v>
@@ -4256,13 +4253,13 @@
         <v>2154140069</v>
       </c>
       <c r="B110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4270,10 +4267,10 @@
         <v>2154140162</v>
       </c>
       <c r="B111" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C111" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -4284,13 +4281,13 @@
         <v>2154140207</v>
       </c>
       <c r="B112" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -4298,10 +4295,10 @@
         <v>2154140222</v>
       </c>
       <c r="B113" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C113" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" t="s">
         <v>31</v>
@@ -4312,10 +4309,10 @@
         <v>2154140224</v>
       </c>
       <c r="B114" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
@@ -4326,10 +4323,10 @@
         <v>2154140225</v>
       </c>
       <c r="B115" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -4340,10 +4337,10 @@
         <v>2154140229</v>
       </c>
       <c r="B116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -4354,13 +4351,13 @@
         <v>2154140243</v>
       </c>
       <c r="B117" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
       </c>
       <c r="D117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
@@ -4368,13 +4365,13 @@
         <v>2154140283</v>
       </c>
       <c r="B118" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
@@ -4382,13 +4379,13 @@
         <v>2154140284</v>
       </c>
       <c r="B119" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
       </c>
       <c r="D119" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
@@ -4396,13 +4393,13 @@
         <v>2154140285</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C120" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4410,13 +4407,13 @@
         <v>2154140287</v>
       </c>
       <c r="B121" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
@@ -4424,13 +4421,13 @@
         <v>2154140289</v>
       </c>
       <c r="B122" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C122" t="s">
         <v>31</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
@@ -4438,13 +4435,13 @@
         <v>2154140290</v>
       </c>
       <c r="B123" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C123" t="s">
         <v>31</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
@@ -4452,13 +4449,13 @@
         <v>2154140291</v>
       </c>
       <c r="B124" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4466,10 +4463,10 @@
         <v>2154140292</v>
       </c>
       <c r="B125" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C125" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -4480,13 +4477,13 @@
         <v>2154140293</v>
       </c>
       <c r="B126" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
       </c>
       <c r="D126" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
@@ -4494,13 +4491,13 @@
         <v>2154140294</v>
       </c>
       <c r="B127" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C127" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D127" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
@@ -4508,13 +4505,13 @@
         <v>2154140295</v>
       </c>
       <c r="B128" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C128" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D128" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
@@ -4522,10 +4519,10 @@
         <v>2154140318</v>
       </c>
       <c r="B129" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D129" t="s">
         <v>31</v>
@@ -4536,13 +4533,13 @@
         <v>2154140319</v>
       </c>
       <c r="B130" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
       </c>
       <c r="D130" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
@@ -4550,13 +4547,13 @@
         <v>2154140335</v>
       </c>
       <c r="B131" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
       </c>
       <c r="D131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
@@ -4564,13 +4561,13 @@
         <v>2154140336</v>
       </c>
       <c r="B132" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C132" t="s">
         <v>31</v>
       </c>
       <c r="D132" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
@@ -4578,13 +4575,13 @@
         <v>2154140345</v>
       </c>
       <c r="B133" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D133" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -4592,13 +4589,13 @@
         <v>2154140349</v>
       </c>
       <c r="B134" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C134" t="s">
+        <v>117</v>
+      </c>
+      <c r="D134" t="s">
         <v>118</v>
-      </c>
-      <c r="D134" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
@@ -4606,13 +4603,13 @@
         <v>2154140596</v>
       </c>
       <c r="B135" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C135" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D135" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -4620,13 +4617,13 @@
         <v>2154150035</v>
       </c>
       <c r="B136" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C136" t="s">
         <v>31</v>
       </c>
       <c r="D136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
@@ -4634,13 +4631,13 @@
         <v>2154150089</v>
       </c>
       <c r="B137" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C137" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" t="s">
         <v>123</v>
-      </c>
-      <c r="D137" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
@@ -4648,13 +4645,13 @@
         <v>2154150163</v>
       </c>
       <c r="B138" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C138" t="s">
+        <v>124</v>
+      </c>
+      <c r="D138" t="s">
         <v>125</v>
-      </c>
-      <c r="D138" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
@@ -4662,13 +4659,13 @@
         <v>2154150172</v>
       </c>
       <c r="B139" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C139" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
@@ -4676,13 +4673,13 @@
         <v>2154150197</v>
       </c>
       <c r="B140" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
@@ -4690,13 +4687,13 @@
         <v>2154150214</v>
       </c>
       <c r="B141" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C141" t="s">
         <v>31</v>
       </c>
       <c r="D141" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
@@ -4704,13 +4701,13 @@
         <v>2154150215</v>
       </c>
       <c r="B142" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C142" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D142" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
@@ -4718,13 +4715,13 @@
         <v>2154150247</v>
       </c>
       <c r="B143" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143" t="s">
         <v>131</v>
-      </c>
-      <c r="D143" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
@@ -4732,13 +4729,13 @@
         <v>2154150250</v>
       </c>
       <c r="B144" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C144" t="s">
+        <v>133</v>
+      </c>
+      <c r="D144" t="s">
         <v>134</v>
-      </c>
-      <c r="D144" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -4746,13 +4743,13 @@
         <v>2154150301</v>
       </c>
       <c r="B145" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C145" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D145" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -4760,13 +4757,13 @@
         <v>2154150337</v>
       </c>
       <c r="B146" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C146" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D146" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -4774,13 +4771,13 @@
         <v>2154150341</v>
       </c>
       <c r="B147" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D147" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -4788,13 +4785,13 @@
         <v>2154150342</v>
       </c>
       <c r="B148" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C148" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D148" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
@@ -4802,13 +4799,13 @@
         <v>2154150343</v>
       </c>
       <c r="B149" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D149" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
@@ -4816,13 +4813,13 @@
         <v>2154150347</v>
       </c>
       <c r="B150" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D150" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
@@ -4830,13 +4827,13 @@
         <v>2154150348</v>
       </c>
       <c r="B151" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C151" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D151" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -4844,13 +4841,13 @@
         <v>2154150349</v>
       </c>
       <c r="B152" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -4858,16 +4855,16 @@
         <v>2154150350</v>
       </c>
       <c r="B153" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C153" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -4875,13 +4872,13 @@
         <v>2154150351</v>
       </c>
       <c r="B154" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D154" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -4889,16 +4886,16 @@
         <v>2154150357</v>
       </c>
       <c r="B155" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C155" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D155" t="s">
+        <v>368</v>
+      </c>
+      <c r="E155" t="s">
         <v>369</v>
-      </c>
-      <c r="E155" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -4906,13 +4903,13 @@
         <v>2154150358</v>
       </c>
       <c r="B156" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C156" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -4920,16 +4917,16 @@
         <v>2154150366</v>
       </c>
       <c r="B157" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C157" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D157" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E157" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -4937,13 +4934,13 @@
         <v>2154150370</v>
       </c>
       <c r="B158" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C158" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -4951,13 +4948,13 @@
         <v>2154150380</v>
       </c>
       <c r="B159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C159" t="s">
+        <v>124</v>
+      </c>
+      <c r="D159" t="s">
         <v>125</v>
-      </c>
-      <c r="D159" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
@@ -4965,13 +4962,13 @@
         <v>2154150391</v>
       </c>
       <c r="B160" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C160" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D160" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -4979,13 +4976,13 @@
         <v>2154150420</v>
       </c>
       <c r="B161" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D161" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
@@ -4993,13 +4990,13 @@
         <v>2154150447</v>
       </c>
       <c r="B162" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C162" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D162" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -5007,13 +5004,13 @@
         <v>2154150448</v>
       </c>
       <c r="B163" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C163" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D163" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
@@ -5021,16 +5018,16 @@
         <v>2154150455</v>
       </c>
       <c r="B164" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D164" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E164" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -5038,13 +5035,13 @@
         <v>2154150461</v>
       </c>
       <c r="B165" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C165" t="s">
+        <v>124</v>
+      </c>
+      <c r="D165" t="s">
         <v>125</v>
-      </c>
-      <c r="D165" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
@@ -5052,13 +5049,13 @@
         <v>2154150497</v>
       </c>
       <c r="B166" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C166" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D166" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
@@ -5066,13 +5063,13 @@
         <v>2154150501</v>
       </c>
       <c r="B167" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C167" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D167" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
@@ -5080,13 +5077,13 @@
         <v>2154150509</v>
       </c>
       <c r="B168" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C168" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D168" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
@@ -5094,16 +5091,16 @@
         <v>2154150525</v>
       </c>
       <c r="B169" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C169" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D169" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E169" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
@@ -5111,13 +5108,13 @@
         <v>2154150526</v>
       </c>
       <c r="B170" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C170" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D170" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -5125,16 +5122,16 @@
         <v>2154150534</v>
       </c>
       <c r="B171" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C171" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D171" t="s">
         <v>31</v>
       </c>
       <c r="E171" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
@@ -5142,13 +5139,13 @@
         <v>2154150554</v>
       </c>
       <c r="B172" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C172" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D172" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -5156,13 +5153,13 @@
         <v>2154150557</v>
       </c>
       <c r="B173" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C173" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D173" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -5170,19 +5167,19 @@
         <v>2154150560</v>
       </c>
       <c r="B174" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C174" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D174" t="s">
         <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F174" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5190,10 +5187,10 @@
         <v>2154150563</v>
       </c>
       <c r="B175" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C175" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D175" t="s">
         <v>31</v>
@@ -5204,13 +5201,13 @@
         <v>2154150581</v>
       </c>
       <c r="B176" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C176" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D176" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
@@ -5218,13 +5215,13 @@
         <v>2154150582</v>
       </c>
       <c r="B177" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C177" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D177" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
@@ -5232,13 +5229,13 @@
         <v>2154150588</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C178" t="s">
         <v>31</v>
       </c>
       <c r="D178" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
@@ -5246,16 +5243,16 @@
         <v>2154150591</v>
       </c>
       <c r="B179" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C179" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D179" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E179" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -5263,16 +5260,16 @@
         <v>2154150597</v>
       </c>
       <c r="B180" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C180" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D180" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -5280,13 +5277,13 @@
         <v>2154150603</v>
       </c>
       <c r="B181" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C181" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D181" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
@@ -5294,13 +5291,13 @@
         <v>2154150605</v>
       </c>
       <c r="B182" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C182" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D182" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -5308,13 +5305,13 @@
         <v>2154150622</v>
       </c>
       <c r="B183" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D183" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -5322,13 +5319,13 @@
         <v>2154150627</v>
       </c>
       <c r="B184" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C184" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D184" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -5336,13 +5333,13 @@
         <v>2154150633</v>
       </c>
       <c r="B185" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C185" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D185" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
@@ -5350,19 +5347,19 @@
         <v>2154150646</v>
       </c>
       <c r="B186" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C186" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D186" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E186" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F186" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -5370,19 +5367,19 @@
         <v>2154150648</v>
       </c>
       <c r="B187" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C187" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D187" t="s">
+        <v>375</v>
+      </c>
+      <c r="E187" t="s">
         <v>376</v>
       </c>
-      <c r="E187" t="s">
-        <v>377</v>
-      </c>
       <c r="F187" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -5390,13 +5387,13 @@
         <v>2154150653</v>
       </c>
       <c r="B188" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C188" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D188" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
@@ -5404,13 +5401,13 @@
         <v>2154150669</v>
       </c>
       <c r="B189" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C189" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D189" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
@@ -5418,13 +5415,13 @@
         <v>2154150672</v>
       </c>
       <c r="B190" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C190" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D190" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
@@ -5432,16 +5429,16 @@
         <v>2154150677</v>
       </c>
       <c r="B191" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C191" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D191" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E191" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -5449,13 +5446,13 @@
         <v>2154150706</v>
       </c>
       <c r="B192" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C192" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D192" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
@@ -5463,13 +5460,13 @@
         <v>2154150707</v>
       </c>
       <c r="B193" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C193" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D193" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
@@ -5477,13 +5474,13 @@
         <v>2154150715</v>
       </c>
       <c r="B194" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C194" t="s">
         <v>31</v>
       </c>
       <c r="D194" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
@@ -5491,13 +5488,13 @@
         <v>2154150719</v>
       </c>
       <c r="B195" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C195" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D195" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -5505,13 +5502,13 @@
         <v>2154150731</v>
       </c>
       <c r="B196" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C196" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D196" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
@@ -5519,19 +5516,19 @@
         <v>2154150765</v>
       </c>
       <c r="B197" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C197" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D197" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E197" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F197" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -5539,19 +5536,19 @@
         <v>2154150767</v>
       </c>
       <c r="B198" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C198" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D198" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E198" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F198" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -5559,16 +5556,16 @@
         <v>2154150769</v>
       </c>
       <c r="B199" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C199" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D199" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E199" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -5576,13 +5573,13 @@
         <v>2154150788</v>
       </c>
       <c r="B200" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C200" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D200" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -5590,19 +5587,19 @@
         <v>2154150813</v>
       </c>
       <c r="B201" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C201" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D201" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E201" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F201" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -5610,16 +5607,16 @@
         <v>2154150814</v>
       </c>
       <c r="B202" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C202" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D202" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E202" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -5627,16 +5624,16 @@
         <v>2154150822</v>
       </c>
       <c r="B203" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C203" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D203" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -5644,13 +5641,13 @@
         <v>2154150839</v>
       </c>
       <c r="B204" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C204" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D204" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -5658,13 +5655,13 @@
         <v>2154150840</v>
       </c>
       <c r="B205" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C205" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D205" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
@@ -5672,13 +5669,13 @@
         <v>2154150841</v>
       </c>
       <c r="B206" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C206" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D206" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
@@ -5686,13 +5683,13 @@
         <v>2154150876</v>
       </c>
       <c r="B207" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C207" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D207" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
@@ -5700,13 +5697,13 @@
         <v>2154150893</v>
       </c>
       <c r="B208" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C208" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D208" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
@@ -5714,13 +5711,13 @@
         <v>2154150918</v>
       </c>
       <c r="B209" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C209" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D209" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -5728,13 +5725,13 @@
         <v>2154150921</v>
       </c>
       <c r="B210" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C210" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D210" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
@@ -5742,13 +5739,13 @@
         <v>2154150922</v>
       </c>
       <c r="B211" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C211" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D211" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
@@ -5756,13 +5753,13 @@
         <v>2154150943</v>
       </c>
       <c r="B212" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C212" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D212" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
@@ -5770,13 +5767,13 @@
         <v>2154155136</v>
       </c>
       <c r="B213" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C213" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D213" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
@@ -5784,13 +5781,13 @@
         <v>2154155149</v>
       </c>
       <c r="B214" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C214" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D214" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -5798,16 +5795,16 @@
         <v>2154155150</v>
       </c>
       <c r="B215" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C215" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D215" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E215" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -5815,13 +5812,13 @@
         <v>2154160029</v>
       </c>
       <c r="B216" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C216" t="s">
+        <v>152</v>
+      </c>
+      <c r="D216" t="s">
         <v>153</v>
-      </c>
-      <c r="D216" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -5829,13 +5826,13 @@
         <v>2154160030</v>
       </c>
       <c r="B217" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C217" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D217" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -5843,13 +5840,13 @@
         <v>2154160031</v>
       </c>
       <c r="B218" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C218" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D218" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -5857,10 +5854,10 @@
         <v>2154160032</v>
       </c>
       <c r="B219" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C219" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D219" t="s">
         <v>31</v>
@@ -5871,10 +5868,10 @@
         <v>2154160033</v>
       </c>
       <c r="B220" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C220" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D220" t="s">
         <v>31</v>
@@ -5885,13 +5882,13 @@
         <v>2154160034</v>
       </c>
       <c r="B221" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C221" t="s">
+        <v>160</v>
+      </c>
+      <c r="D221" t="s">
         <v>161</v>
-      </c>
-      <c r="D221" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
@@ -5899,13 +5896,13 @@
         <v>2154160035</v>
       </c>
       <c r="B222" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C222" t="s">
+        <v>152</v>
+      </c>
+      <c r="D222" t="s">
         <v>153</v>
-      </c>
-      <c r="D222" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
@@ -5913,10 +5910,10 @@
         <v>2154160036</v>
       </c>
       <c r="B223" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C223" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D223" t="s">
         <v>31</v>
@@ -5927,10 +5924,10 @@
         <v>2154160037</v>
       </c>
       <c r="B224" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C224" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D224" t="s">
         <v>31</v>
@@ -5941,13 +5938,13 @@
         <v>2154170049</v>
       </c>
       <c r="B225" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C225" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D225" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -5955,22 +5952,22 @@
         <v>2154170050</v>
       </c>
       <c r="B226" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C226" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D226" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E226" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F226" t="s">
+        <v>166</v>
+      </c>
+      <c r="G226" t="s">
         <v>167</v>
-      </c>
-      <c r="G226" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -5978,13 +5975,13 @@
         <v>2154170052</v>
       </c>
       <c r="B227" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C227" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D227" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -6007,7 +6004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -6110,303 +6107,303 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BK1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BT1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="CV1" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="CW1" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" t="s">
         <v>265</v>
-      </c>
-      <c r="B2" t="s">
-        <v>266</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>48</v>
@@ -6421,16 +6418,16 @@
         <v>32</v>
       </c>
       <c r="I2" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>270</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>271</v>
       </c>
       <c r="M2" s="36" t="s">
         <v>74</v>
@@ -6439,16 +6436,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
         <v>273</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="R2" s="36" t="s">
         <v>274</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>275</v>
       </c>
       <c r="S2" s="36" t="s">
         <v>49</v>
@@ -6463,34 +6460,34 @@
         <v>14</v>
       </c>
       <c r="W2" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="X2" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>279</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>280</v>
       </c>
       <c r="AB2" s="36" t="s">
         <v>52</v>
       </c>
       <c r="AC2" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AD2" s="36" t="s">
         <v>16</v>
       </c>
       <c r="AE2" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF2" s="36" t="s">
         <v>274</v>
-      </c>
-      <c r="AF2" s="36" t="s">
-        <v>275</v>
       </c>
       <c r="AG2" s="36" t="s">
         <v>49</v>
@@ -6505,25 +6502,25 @@
         <v>14</v>
       </c>
       <c r="AK2" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL2" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AM2" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AN2" s="36" t="s">
         <v>278</v>
       </c>
-      <c r="AN2" s="36" t="s">
+      <c r="AO2" s="36" t="s">
         <v>279</v>
-      </c>
-      <c r="AO2" s="36" t="s">
-        <v>280</v>
       </c>
       <c r="AP2" s="36" t="s">
         <v>52</v>
       </c>
       <c r="AQ2" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AR2" s="36" t="s">
         <v>16</v>
@@ -6541,34 +6538,34 @@
         <v>58</v>
       </c>
       <c r="AW2" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="AX2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY2" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="AX2" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY2" s="36" t="s">
+      <c r="AZ2" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="AZ2" s="36" t="s">
+      <c r="BA2" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="BA2" s="36" t="s">
+      <c r="BB2" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="BB2" s="36" t="s">
+      <c r="BC2" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="BC2" s="36" t="s">
+      <c r="BD2" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="BD2" s="36" t="s">
+      <c r="BE2" s="36" t="s">
         <v>288</v>
       </c>
-      <c r="BE2" s="36" t="s">
+      <c r="BF2" s="36" t="s">
         <v>289</v>
-      </c>
-      <c r="BF2" s="36" t="s">
-        <v>290</v>
       </c>
       <c r="BG2" s="36" t="s">
         <v>8</v>
@@ -6583,34 +6580,34 @@
         <v>64</v>
       </c>
       <c r="BK2" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="BL2" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM2" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="BL2" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="BM2" s="36" t="s">
+      <c r="BN2" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="BN2" s="36" t="s">
+      <c r="BO2" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="BO2" s="36" t="s">
+      <c r="BP2" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="BP2" s="36" t="s">
+      <c r="BQ2" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="BQ2" s="36" t="s">
+      <c r="BR2" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="BR2" s="36" t="s">
+      <c r="BS2" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="BS2" s="36" t="s">
+      <c r="BT2" s="36" t="s">
         <v>298</v>
-      </c>
-      <c r="BT2" s="36" t="s">
-        <v>299</v>
       </c>
       <c r="BU2" s="36" t="s">
         <v>8</v>
@@ -6625,99 +6622,99 @@
         <v>64</v>
       </c>
       <c r="BY2" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="BZ2" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="CA2" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="BZ2" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="CA2" s="36" t="s">
+      <c r="CB2" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="CB2" s="36" t="s">
+      <c r="CC2" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="CC2" s="36" t="s">
+      <c r="CD2" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="CD2" s="36" t="s">
+      <c r="CE2" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="CE2" s="36" t="s">
+      <c r="CF2" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="CF2" s="36" t="s">
+      <c r="CG2" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="CG2" s="36" t="s">
+      <c r="CH2" s="36" t="s">
         <v>298</v>
-      </c>
-      <c r="CH2" s="36" t="s">
-        <v>299</v>
       </c>
       <c r="CI2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="CJ2" s="36" t="s">
+        <v>299</v>
+      </c>
+      <c r="CK2" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="CK2" s="36" t="s">
+      <c r="CL2" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="CL2" s="36" t="s">
+      <c r="CM2" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="CM2" s="36" t="s">
+      <c r="CN2" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="CN2" s="36" t="s">
+      <c r="CO2" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="CO2" s="36" t="s">
+      <c r="CP2" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="CP2" s="36" t="s">
+      <c r="CQ2" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="CQ2" s="36" t="s">
+      <c r="CR2" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="CR2" s="36" t="s">
+      <c r="CS2" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="CS2" s="36" t="s">
+      <c r="CT2" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="CT2" s="36" t="s">
+      <c r="CU2" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="CU2" s="36" t="s">
+      <c r="CV2" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="CV2" s="36" t="s">
-        <v>312</v>
-      </c>
       <c r="CW2" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" t="s">
         <v>313</v>
-      </c>
-      <c r="B3" t="s">
-        <v>314</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>52</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>31</v>
@@ -6731,10 +6728,10 @@
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" t="s">
         <v>315</v>
-      </c>
-      <c r="B4" t="s">
-        <v>316</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>46</v>
@@ -6772,28 +6769,28 @@
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" t="s">
         <v>317</v>
       </c>
-      <c r="B5" t="s">
-        <v>318</v>
-      </c>
       <c r="C5" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>49</v>
@@ -6802,37 +6799,37 @@
         <v>38</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="36" t="s">
         <v>43</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="S5" s="36" t="s">
         <v>43</v>
       </c>
       <c r="T5" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V5" s="36" t="s">
         <v>32</v>
@@ -6844,7 +6841,7 @@
         <v>14</v>
       </c>
       <c r="Y5" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z5" s="36" t="s">
         <v>57</v>
@@ -6853,27 +6850,27 @@
         <v>31</v>
       </c>
       <c r="AB5" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC5" s="36" t="s">
         <v>25</v>
       </c>
       <c r="AD5" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE5" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF5" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" t="s">
         <v>319</v>
-      </c>
-      <c r="B6" t="s">
-        <v>320</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>64</v>
@@ -6936,66 +6933,66 @@
         <v>45</v>
       </c>
       <c r="W6" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X6" s="36" t="s">
         <v>12</v>
       </c>
       <c r="Y6" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Z6" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AA6" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AB6" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AC6" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
         <v>321</v>
-      </c>
-      <c r="B7" t="s">
-        <v>322</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" s="36" t="s">
         <v>31</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N7" s="37" t="s">
         <v>14</v>
@@ -7016,7 +7013,7 @@
         <v>15</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="U7" s="37" t="s">
         <v>23</v>
@@ -7028,27 +7025,27 @@
         <v>20</v>
       </c>
       <c r="X7" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Y7" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B8" t="s">
         <v>323</v>
-      </c>
-      <c r="B8" t="s">
-        <v>324</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>71</v>
@@ -7075,39 +7072,39 @@
         <v>49</v>
       </c>
       <c r="N8" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O8" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" s="37" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q8" s="37" t="s">
         <v>371</v>
       </c>
-      <c r="Q8" s="37" t="s">
-        <v>372</v>
-      </c>
       <c r="R8" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T8" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" t="s">
         <v>325</v>
-      </c>
-      <c r="B9" t="s">
-        <v>326</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>52</v>
@@ -7119,138 +7116,138 @@
         <v>52</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" t="s">
         <v>327</v>
-      </c>
-      <c r="B10" t="s">
-        <v>328</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="L10" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="34" t="s">
-        <v>332</v>
-      </c>
-      <c r="I10" s="34" t="s">
+      <c r="M10" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="N10" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="O10" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="P10" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q10" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="T10" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="U10" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="V10" s="34" t="s">
+        <v>416</v>
+      </c>
+      <c r="W10" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="X10" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA10" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="L10" s="34" t="s">
+      <c r="AB10" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC10" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>130</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y10" s="34" t="s">
+      <c r="AD10" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE10" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF10" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="Z10" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="AA10" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="AB10" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="AC10" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD10" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE10" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF10" s="34" t="s">
+      <c r="AG10" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH10" s="34" t="s">
         <v>420</v>
-      </c>
-      <c r="AG10" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="AH10" s="34" t="s">
-        <v>421</v>
       </c>
       <c r="AI10" s="34" t="s">
         <v>31</v>
@@ -7259,16 +7256,16 @@
         <v>45</v>
       </c>
       <c r="AK10" s="34" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AL10" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="AM10" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="AN10" s="34" t="s">
         <v>375</v>
-      </c>
-      <c r="AM10" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="AN10" s="34" t="s">
-        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -7284,8 +7281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7314,105 +7311,105 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>334</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>335</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>6</v>
@@ -7421,7 +7418,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>26</v>
@@ -7436,13 +7433,13 @@
         <v>33</v>
       </c>
       <c r="K2" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>337</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>338</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>339</v>
       </c>
       <c r="N2" s="36">
         <v>2098700076</v>
@@ -7475,25 +7472,25 @@
         <v>87</v>
       </c>
       <c r="X2" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AB2" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AC2" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="AC2" s="36" t="s">
-        <v>95</v>
-      </c>
       <c r="AD2" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AE2" s="36">
         <v>2088702318</v>
@@ -7507,7 +7504,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>60</v>
@@ -7516,40 +7513,40 @@
         <v>83</v>
       </c>
       <c r="D3" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="F3" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="36" t="s">
-        <v>92</v>
-      </c>
       <c r="G3" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I3" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>109</v>
-      </c>
       <c r="K3" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="L3" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="L3" s="36" t="s">
-        <v>112</v>
-      </c>
       <c r="M3" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N3" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>148</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>149</v>
       </c>
       <c r="P3" s="36">
         <v>2154140336</v>
@@ -7557,7 +7554,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="36">
         <v>2003020640</v>
@@ -7599,13 +7596,13 @@
         <v>80</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P4" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="36" t="s">
         <v>93</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>94</v>
       </c>
       <c r="R4" s="36">
         <v>2098700305</v>
@@ -7616,10 +7613,10 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>42</v>
@@ -7628,93 +7625,90 @@
         <v>88</v>
       </c>
       <c r="E5" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="N5" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="M5" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>164</v>
-      </c>
       <c r="O5" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="R5" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="S5" s="36">
+        <v>93</v>
+      </c>
+      <c r="R5" s="36">
         <v>2154160034</v>
       </c>
-      <c r="T5" s="36" t="s">
-        <v>117</v>
+      <c r="S5" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="T5" s="36">
+        <v>2098700256</v>
       </c>
       <c r="U5" s="36">
-        <v>2098700256</v>
-      </c>
-      <c r="V5" s="36">
         <v>2098700304</v>
       </c>
+      <c r="V5" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="W5" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="X5" s="36" t="s">
         <v>76</v>
       </c>
+      <c r="X5" s="36">
+        <v>2098700432</v>
+      </c>
       <c r="Y5" s="36">
-        <v>2098700432</v>
+        <v>2098700433</v>
       </c>
       <c r="Z5" s="36">
-        <v>2098700433</v>
+        <v>2098700434</v>
       </c>
       <c r="AA5" s="36">
-        <v>2098700434</v>
+        <v>2098700436</v>
       </c>
       <c r="AB5" s="36">
-        <v>2098700436</v>
+        <v>2154140324</v>
       </c>
       <c r="AC5" s="36">
-        <v>2154140324</v>
-      </c>
-      <c r="AD5" s="36">
         <v>2154150497</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>68</v>
@@ -7735,19 +7729,19 @@
         <v>83</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M6" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N6" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O6" s="36" t="s">
         <v>51</v>
@@ -7807,7 +7801,7 @@
         <v>44</v>
       </c>
       <c r="AH6" s="36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI6" s="36" t="s">
         <v>81</v>
@@ -7848,55 +7842,55 @@
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C7" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="E7" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="F7" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="G7" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>112</v>
-      </c>
       <c r="H7" s="36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L7" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="N7" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="N7" s="36" t="s">
-        <v>150</v>
-      </c>
       <c r="O7" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="P7" s="36" t="s">
-        <v>144</v>
-      </c>
       <c r="Q7" s="36" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R7" s="36">
         <v>2154150840</v>
@@ -7931,7 +7925,7 @@
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>34</v>
@@ -7949,19 +7943,19 @@
         <v>72</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>147</v>
-      </c>
       <c r="K8" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L8" s="36">
         <v>2154150788</v>
@@ -7978,7 +7972,7 @@
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -7996,13 +7990,13 @@
         <v>2099700059</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J9" s="36">
         <v>2154170049</v>
@@ -8010,7 +8004,7 @@
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -8033,106 +8027,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" t="s">
         <v>345</v>
-      </c>
-      <c r="B1" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" t="s">
         <v>350</v>
-      </c>
-      <c r="B5" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" t="s">
         <v>353</v>
-      </c>
-      <c r="B7" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -8162,65 +8156,65 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>392</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>401</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>52</v>
@@ -8235,7 +8229,7 @@
         <v>25</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>54</v>
@@ -8249,10 +8243,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>8</v>
@@ -8264,7 +8258,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>14</v>
@@ -8273,12 +8267,12 @@
         <v>52</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>7</v>
@@ -8302,12 +8296,12 @@
         <v>10</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -8328,18 +8322,18 @@
         <v>53</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>10</v>
@@ -8351,21 +8345,21 @@
         <v>10</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>31</v>
@@ -8380,21 +8374,21 @@
         <v>74</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
@@ -8403,27 +8397,27 @@
         <v>49</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>71</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="17" t="s">
@@ -8436,16 +8430,16 @@
         <v>43</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G10" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>124</v>
-      </c>
       <c r="I10" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -8461,16 +8455,16 @@
         <v>64</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -8480,22 +8474,22 @@
         <v>58</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -8511,16 +8505,16 @@
         <v>57</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -8537,13 +8531,13 @@
         <v>14</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -8551,7 +8545,7 @@
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>58</v>
@@ -8560,11 +8554,11 @@
         <v>21</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -8572,7 +8566,7 @@
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
       <c r="D16" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>49</v>
@@ -8581,11 +8575,11 @@
         <v>13</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -8593,20 +8587,20 @@
       <c r="B17" s="20"/>
       <c r="C17" s="20"/>
       <c r="D17" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -8614,7 +8608,7 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>14</v>
@@ -8623,11 +8617,11 @@
         <v>22</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -8635,7 +8629,7 @@
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>52</v>
@@ -8644,11 +8638,11 @@
         <v>15</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -8656,20 +8650,20 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="18" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -8677,20 +8671,20 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -8698,7 +8692,7 @@
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>82</v>
@@ -8709,7 +8703,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
       <c r="I22" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -8717,7 +8711,7 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>12</v>
@@ -8728,7 +8722,7 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -8736,18 +8730,18 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
       <c r="I24" s="28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -8755,18 +8749,18 @@
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
       <c r="D25" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -8774,16 +8768,16 @@
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -8791,16 +8785,16 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
       <c r="H27" s="26"/>
       <c r="I27" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -8808,14 +8802,14 @@
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
       <c r="D28" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -8823,14 +8817,14 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
       <c r="I29" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -8845,7 +8839,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
       <c r="I30" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -8853,14 +8847,14 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
       <c r="I31" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -8868,14 +8862,14 @@
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -8883,14 +8877,14 @@
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
       <c r="D33" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -8903,7 +8897,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -8942,7 +8936,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -8955,7 +8949,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="18" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -8968,7 +8962,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="18" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8981,7 +8975,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="33" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -9014,60 +9008,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -9081,7 +9075,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
@@ -9101,31 +9095,31 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9139,22 +9133,22 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" t="s">
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -9162,28 +9156,28 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
         <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -9203,16 +9197,16 @@
         <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -9226,13 +9220,13 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
@@ -9241,12 +9235,12 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -9261,21 +9255,21 @@
         <v>74</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -9293,62 +9287,62 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
         <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -9359,22 +9353,22 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -9382,7 +9376,7 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -9391,21 +9385,21 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -9414,21 +9408,21 @@
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -9437,18 +9431,18 @@
         <v>13</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -9457,21 +9451,21 @@
         <v>29</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -9480,10 +9474,10 @@
         <v>22</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -9503,7 +9497,7 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -9511,19 +9505,19 @@
         <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -9531,7 +9525,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
@@ -9540,10 +9534,10 @@
         <v>23</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -9560,15 +9554,15 @@
         <v>17</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -9577,60 +9571,60 @@
         <v>20</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
       </c>
       <c r="I27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -9638,21 +9632,21 @@
         <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -9660,32 +9654,32 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -9693,7 +9687,7 @@
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -9701,7 +9695,7 @@
         <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -9722,39 +9716,39 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I37" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I40" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -9764,7 +9758,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -9794,52 +9788,52 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
@@ -9864,52 +9858,52 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
@@ -9934,52 +9928,52 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
@@ -9989,72 +9983,72 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="426" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77BD0E2A-42CF-4866-8A88-75E401B91FCB}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E69670-E248-4454-A31B-1D8EF43CA3BE}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2662,7 +2662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
@@ -6004,8 +6004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6790,7 +6790,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>49</v>
@@ -7281,7 +7281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E69670-E248-4454-A31B-1D8EF43CA3BE}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED4FA472-0BC3-4D11-AC49-9346135E270F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6004,8 +6004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6953,6 +6953,12 @@
       <c r="AC6" s="36" t="s">
         <v>144</v>
       </c>
+      <c r="AD6" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE6" s="36" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -7142,9 +7148,6 @@
       <c r="N9" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="O9" s="37" t="s">
-        <v>360</v>
-      </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -7181,90 +7184,87 @@
         <v>166</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>125</v>
+        <v>330</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>330</v>
+        <v>136</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>374</v>
+        <v>120</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>161</v>
+        <v>413</v>
       </c>
       <c r="S10" s="34" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="T10" s="34" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="U10" s="34" t="s">
         <v>416</v>
       </c>
       <c r="V10" s="34" t="s">
-        <v>416</v>
+        <v>129</v>
       </c>
       <c r="W10" s="34" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>120</v>
+        <v>418</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>418</v>
+        <v>367</v>
       </c>
       <c r="Z10" s="34" t="s">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="AA10" s="34" t="s">
         <v>123</v>
       </c>
       <c r="AB10" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC10" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="AC10" s="34" t="s">
+      <c r="AD10" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="AD10" s="34" t="s">
-        <v>123</v>
-      </c>
       <c r="AE10" s="34" t="s">
-        <v>126</v>
+        <v>364</v>
       </c>
       <c r="AF10" s="34" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
       <c r="AG10" s="34" t="s">
-        <v>367</v>
+        <v>420</v>
       </c>
       <c r="AH10" s="34" t="s">
-        <v>420</v>
+        <v>31</v>
       </c>
       <c r="AI10" s="34" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="AJ10" s="34" t="s">
-        <v>45</v>
+        <v>421</v>
       </c>
       <c r="AK10" s="34" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="AL10" s="34" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="AM10" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="AN10" s="34" t="s">
         <v>375</v>
       </c>
     </row>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED4FA472-0BC3-4D11-AC49-9346135E270F}"/>
+  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DC66E1-0097-4FCA-A8E5-FB4628F2689D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-12630" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="425">
   <si>
     <t>Col 1</t>
   </si>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>2154150250</t>
-  </si>
-  <si>
-    <t>AMK12A-102Z5-Z</t>
   </si>
   <si>
     <t>AMS11A-102Z5-Z</t>
@@ -2662,8 +2659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G230"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A106" sqref="A106"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2682,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>1</v>
@@ -2705,7 +2702,7 @@
         <v>2088701244</v>
       </c>
       <c r="B2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2719,7 +2716,7 @@
         <v>2088701390</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2733,7 +2730,7 @@
         <v>2088701610</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2747,7 +2744,7 @@
         <v>2088701746</v>
       </c>
       <c r="B5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2758,7 +2755,7 @@
         <v>2088702198</v>
       </c>
       <c r="B6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2772,7 +2769,7 @@
         <v>2088702199</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -2786,7 +2783,7 @@
         <v>2088702200</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2800,7 +2797,7 @@
         <v>2088702201</v>
       </c>
       <c r="B9" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2817,7 +2814,7 @@
         <v>2088702202</v>
       </c>
       <c r="B10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2831,7 +2828,7 @@
         <v>2088702203</v>
       </c>
       <c r="B11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2845,7 +2842,7 @@
         <v>2088702204</v>
       </c>
       <c r="B12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2859,7 +2856,7 @@
         <v>2088702205</v>
       </c>
       <c r="B13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2873,7 +2870,7 @@
         <v>2088702206</v>
       </c>
       <c r="B14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -2887,7 +2884,7 @@
         <v>2088702207</v>
       </c>
       <c r="B15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2901,7 +2898,7 @@
         <v>2088702221</v>
       </c>
       <c r="B16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2915,13 +2912,13 @@
         <v>2088702318</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2929,7 +2926,7 @@
         <v>2088707042</v>
       </c>
       <c r="B18" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -2943,7 +2940,7 @@
         <v>2098700024</v>
       </c>
       <c r="B19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2957,13 +2954,13 @@
         <v>2098700025</v>
       </c>
       <c r="B20" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -2971,7 +2968,7 @@
         <v>2098700026</v>
       </c>
       <c r="B21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2985,7 +2982,7 @@
         <v>2098700033</v>
       </c>
       <c r="B22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -2999,7 +2996,7 @@
         <v>2098700046</v>
       </c>
       <c r="B23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3013,7 +3010,7 @@
         <v>2098700056</v>
       </c>
       <c r="B24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -3027,7 +3024,7 @@
         <v>2098700058</v>
       </c>
       <c r="B25" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -3041,7 +3038,7 @@
         <v>2098700076</v>
       </c>
       <c r="B26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -3055,7 +3052,7 @@
         <v>2098700083</v>
       </c>
       <c r="B27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -3069,7 +3066,7 @@
         <v>2098700108</v>
       </c>
       <c r="B28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -3083,7 +3080,7 @@
         <v>2098700143</v>
       </c>
       <c r="B29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -3097,7 +3094,7 @@
         <v>2098700154</v>
       </c>
       <c r="B30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -3111,7 +3108,7 @@
         <v>2098700177</v>
       </c>
       <c r="B31" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -3125,7 +3122,7 @@
         <v>2098700189</v>
       </c>
       <c r="B32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -3139,7 +3136,7 @@
         <v>2098700245</v>
       </c>
       <c r="B33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -3153,7 +3150,7 @@
         <v>2098700246</v>
       </c>
       <c r="B34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -3167,7 +3164,7 @@
         <v>2098700256</v>
       </c>
       <c r="B35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C35" t="s">
         <v>125</v>
@@ -3181,7 +3178,7 @@
         <v>2098700289</v>
       </c>
       <c r="B36" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
@@ -3195,7 +3192,7 @@
         <v>2098700290</v>
       </c>
       <c r="B37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
@@ -3209,7 +3206,7 @@
         <v>2098700293</v>
       </c>
       <c r="B38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -3223,7 +3220,7 @@
         <v>2098700296</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -3240,7 +3237,7 @@
         <v>2098700301</v>
       </c>
       <c r="B40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -3254,7 +3251,7 @@
         <v>2098700302</v>
       </c>
       <c r="B41" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -3268,7 +3265,7 @@
         <v>2098700304</v>
       </c>
       <c r="B42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -3282,7 +3279,7 @@
         <v>2098700305</v>
       </c>
       <c r="B43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -3296,7 +3293,7 @@
         <v>2098700306</v>
       </c>
       <c r="B44" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -3310,7 +3307,7 @@
         <v>2098700307</v>
       </c>
       <c r="B45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
@@ -3324,7 +3321,7 @@
         <v>2098700309</v>
       </c>
       <c r="B46" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -3338,7 +3335,7 @@
         <v>2098700315</v>
       </c>
       <c r="B47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -3352,7 +3349,7 @@
         <v>2098700316</v>
       </c>
       <c r="B48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -3366,7 +3363,7 @@
         <v>2098700320</v>
       </c>
       <c r="B49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -3380,7 +3377,7 @@
         <v>2098700322</v>
       </c>
       <c r="B50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -3394,7 +3391,7 @@
         <v>2098700353</v>
       </c>
       <c r="B51" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -3408,7 +3405,7 @@
         <v>2098700355</v>
       </c>
       <c r="B52" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -3422,7 +3419,7 @@
         <v>2098700356</v>
       </c>
       <c r="B53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -3436,7 +3433,7 @@
         <v>2098700357</v>
       </c>
       <c r="B54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -3450,7 +3447,7 @@
         <v>2098700358</v>
       </c>
       <c r="B55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
@@ -3464,7 +3461,7 @@
         <v>2098700366</v>
       </c>
       <c r="B56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3478,7 +3475,7 @@
         <v>2098700371</v>
       </c>
       <c r="B57" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -3492,7 +3489,7 @@
         <v>2098700372</v>
       </c>
       <c r="B58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C58" t="s">
         <v>52</v>
@@ -3506,7 +3503,7 @@
         <v>2098700373</v>
       </c>
       <c r="B59" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -3520,7 +3517,7 @@
         <v>2098700374</v>
       </c>
       <c r="B60" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C60" t="s">
         <v>52</v>
@@ -3534,7 +3531,7 @@
         <v>2098700375</v>
       </c>
       <c r="B61" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" t="s">
         <v>32</v>
@@ -3548,7 +3545,7 @@
         <v>2098700376</v>
       </c>
       <c r="B62" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -3562,7 +3559,7 @@
         <v>2098700378</v>
       </c>
       <c r="B63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C63" t="s">
         <v>71</v>
@@ -3576,10 +3573,10 @@
         <v>2098700379</v>
       </c>
       <c r="B64" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
@@ -3590,10 +3587,10 @@
         <v>2098700380</v>
       </c>
       <c r="B65" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
@@ -3604,7 +3601,7 @@
         <v>2098700404</v>
       </c>
       <c r="B66" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -3618,7 +3615,7 @@
         <v>2098700405</v>
       </c>
       <c r="B67" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -3632,7 +3629,7 @@
         <v>2098700429</v>
       </c>
       <c r="B68" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C68" t="s">
         <v>48</v>
@@ -3646,13 +3643,13 @@
         <v>2098700432</v>
       </c>
       <c r="B69" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -3660,7 +3657,7 @@
         <v>2098700433</v>
       </c>
       <c r="B70" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
@@ -3674,13 +3671,13 @@
         <v>2098700434</v>
       </c>
       <c r="B71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -3688,13 +3685,13 @@
         <v>2098700436</v>
       </c>
       <c r="B72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -3702,7 +3699,7 @@
         <v>2098700437</v>
       </c>
       <c r="B73" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C73" t="s">
         <v>53</v>
@@ -3711,7 +3708,7 @@
         <v>101</v>
       </c>
       <c r="E73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -3719,7 +3716,7 @@
         <v>2098701682</v>
       </c>
       <c r="B74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C74" t="s">
         <v>71</v>
@@ -3733,7 +3730,7 @@
         <v>2098706005</v>
       </c>
       <c r="B75" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -3747,7 +3744,7 @@
         <v>2098706008</v>
       </c>
       <c r="B76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -3761,7 +3758,7 @@
         <v>2098706009</v>
       </c>
       <c r="B77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -3775,7 +3772,7 @@
         <v>2098706010</v>
       </c>
       <c r="B78" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -3789,7 +3786,7 @@
         <v>2098706011</v>
       </c>
       <c r="B79" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -3803,7 +3800,7 @@
         <v>2098706013</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
@@ -3817,7 +3814,7 @@
         <v>2098706018</v>
       </c>
       <c r="B81" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -3831,7 +3828,7 @@
         <v>2098706021</v>
       </c>
       <c r="B82" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3845,7 +3842,7 @@
         <v>2098706023</v>
       </c>
       <c r="B83" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C83" t="s">
         <v>52</v>
@@ -3859,7 +3856,7 @@
         <v>2098706024</v>
       </c>
       <c r="B84" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C84" t="s">
         <v>52</v>
@@ -3873,7 +3870,7 @@
         <v>2098706025</v>
       </c>
       <c r="B85" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
@@ -3887,7 +3884,7 @@
         <v>2098706026</v>
       </c>
       <c r="B86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C86" t="s">
         <v>49</v>
@@ -3901,7 +3898,7 @@
         <v>2098706028</v>
       </c>
       <c r="B87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -3915,7 +3912,7 @@
         <v>2098706031</v>
       </c>
       <c r="B88" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
@@ -3929,7 +3926,7 @@
         <v>2098706032</v>
       </c>
       <c r="B89" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C89" t="s">
         <v>49</v>
@@ -3943,7 +3940,7 @@
         <v>2098706040</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
@@ -3957,7 +3954,7 @@
         <v>2098706041</v>
       </c>
       <c r="B91" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -3971,7 +3968,7 @@
         <v>2098706044</v>
       </c>
       <c r="B92" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
@@ -3985,7 +3982,7 @@
         <v>2098706072</v>
       </c>
       <c r="B93" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C93" t="s">
         <v>46</v>
@@ -3999,7 +3996,7 @@
         <v>2098706075</v>
       </c>
       <c r="B94" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
@@ -4013,7 +4010,7 @@
         <v>2098706076</v>
       </c>
       <c r="B95" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C95" t="s">
         <v>46</v>
@@ -4027,7 +4024,7 @@
         <v>2098706083</v>
       </c>
       <c r="B96" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -4041,7 +4038,7 @@
         <v>2098706084</v>
       </c>
       <c r="B97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C97" t="s">
         <v>52</v>
@@ -4055,7 +4052,7 @@
         <v>2099700009</v>
       </c>
       <c r="B98" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -4069,7 +4066,7 @@
         <v>2099700010</v>
       </c>
       <c r="B99" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -4083,7 +4080,7 @@
         <v>2099700025</v>
       </c>
       <c r="B100" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
@@ -4100,7 +4097,7 @@
         <v>2099700030</v>
       </c>
       <c r="B101" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -4120,7 +4117,7 @@
         <v>2099700041</v>
       </c>
       <c r="B102" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -4134,7 +4131,7 @@
         <v>2099700048</v>
       </c>
       <c r="B103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C103" t="s">
         <v>45</v>
@@ -4148,7 +4145,7 @@
         <v>2099700049</v>
       </c>
       <c r="B104" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -4162,7 +4159,7 @@
         <v>2099700056</v>
       </c>
       <c r="B105" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C105" t="s">
         <v>46</v>
@@ -4176,13 +4173,13 @@
         <v>2099700057</v>
       </c>
       <c r="B106" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C106" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D106" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
@@ -4193,10 +4190,10 @@
         <v>2099700058</v>
       </c>
       <c r="B107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C107" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -4208,7 +4205,7 @@
         <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4216,13 +4213,13 @@
         <v>2099700059</v>
       </c>
       <c r="B108" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C108" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D108" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -4239,7 +4236,7 @@
         <v>2099706005</v>
       </c>
       <c r="B109" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C109" t="s">
         <v>45</v>
@@ -4253,13 +4250,13 @@
         <v>2154140069</v>
       </c>
       <c r="B110" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C110" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D110" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4267,10 +4264,10 @@
         <v>2154140162</v>
       </c>
       <c r="B111" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C111" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -4281,13 +4278,13 @@
         <v>2154140207</v>
       </c>
       <c r="B112" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -4295,7 +4292,7 @@
         <v>2154140222</v>
       </c>
       <c r="B113" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C113" t="s">
         <v>105</v>
@@ -4309,7 +4306,7 @@
         <v>2154140224</v>
       </c>
       <c r="B114" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C114" t="s">
         <v>106</v>
@@ -4323,7 +4320,7 @@
         <v>2154140225</v>
       </c>
       <c r="B115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C115" t="s">
         <v>105</v>
@@ -4337,7 +4334,7 @@
         <v>2154140229</v>
       </c>
       <c r="B116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C116" t="s">
         <v>106</v>
@@ -4351,7 +4348,7 @@
         <v>2154140243</v>
       </c>
       <c r="B117" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -4365,7 +4362,7 @@
         <v>2154140283</v>
       </c>
       <c r="B118" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
@@ -4379,7 +4376,7 @@
         <v>2154140284</v>
       </c>
       <c r="B119" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
@@ -4393,13 +4390,13 @@
         <v>2154140285</v>
       </c>
       <c r="B120" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C120" t="s">
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4407,7 +4404,7 @@
         <v>2154140287</v>
       </c>
       <c r="B121" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -4421,7 +4418,7 @@
         <v>2154140289</v>
       </c>
       <c r="B122" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C122" t="s">
         <v>31</v>
@@ -4435,7 +4432,7 @@
         <v>2154140290</v>
       </c>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C123" t="s">
         <v>31</v>
@@ -4449,13 +4446,13 @@
         <v>2154140291</v>
       </c>
       <c r="B124" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C124" t="s">
         <v>118</v>
       </c>
       <c r="D124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4463,10 +4460,10 @@
         <v>2154140292</v>
       </c>
       <c r="B125" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C125" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -4477,7 +4474,7 @@
         <v>2154140293</v>
       </c>
       <c r="B126" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
@@ -4491,7 +4488,7 @@
         <v>2154140294</v>
       </c>
       <c r="B127" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C127" t="s">
         <v>112</v>
@@ -4505,7 +4502,7 @@
         <v>2154140295</v>
       </c>
       <c r="B128" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C128" t="s">
         <v>112</v>
@@ -4519,7 +4516,7 @@
         <v>2154140318</v>
       </c>
       <c r="B129" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C129" t="s">
         <v>114</v>
@@ -4533,7 +4530,7 @@
         <v>2154140319</v>
       </c>
       <c r="B130" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -4547,7 +4544,7 @@
         <v>2154140335</v>
       </c>
       <c r="B131" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
@@ -4561,7 +4558,7 @@
         <v>2154140336</v>
       </c>
       <c r="B132" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C132" t="s">
         <v>31</v>
@@ -4575,13 +4572,13 @@
         <v>2154140345</v>
       </c>
       <c r="B133" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C133" t="s">
         <v>118</v>
       </c>
       <c r="D133" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -4589,7 +4586,7 @@
         <v>2154140349</v>
       </c>
       <c r="B134" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C134" t="s">
         <v>117</v>
@@ -4603,13 +4600,13 @@
         <v>2154140596</v>
       </c>
       <c r="B135" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -4617,7 +4614,7 @@
         <v>2154150035</v>
       </c>
       <c r="B136" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C136" t="s">
         <v>31</v>
@@ -4631,7 +4628,7 @@
         <v>2154150089</v>
       </c>
       <c r="B137" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C137" t="s">
         <v>122</v>
@@ -4645,7 +4642,7 @@
         <v>2154150163</v>
       </c>
       <c r="B138" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C138" t="s">
         <v>124</v>
@@ -4659,7 +4656,7 @@
         <v>2154150172</v>
       </c>
       <c r="B139" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C139" t="s">
         <v>123</v>
@@ -4673,7 +4670,7 @@
         <v>2154150197</v>
       </c>
       <c r="B140" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C140" t="s">
         <v>120</v>
@@ -4687,7 +4684,7 @@
         <v>2154150214</v>
       </c>
       <c r="B141" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C141" t="s">
         <v>31</v>
@@ -4701,7 +4698,7 @@
         <v>2154150215</v>
       </c>
       <c r="B142" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C142" t="s">
         <v>129</v>
@@ -4715,7 +4712,7 @@
         <v>2154150247</v>
       </c>
       <c r="B143" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C143" t="s">
         <v>130</v>
@@ -4729,13 +4726,13 @@
         <v>2154150250</v>
       </c>
       <c r="B144" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C144" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D144" t="s">
-        <v>134</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -4743,13 +4740,13 @@
         <v>2154150301</v>
       </c>
       <c r="B145" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C145" t="s">
         <v>123</v>
       </c>
       <c r="D145" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -4757,13 +4754,13 @@
         <v>2154150337</v>
       </c>
       <c r="B146" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C146" t="s">
         <v>126</v>
       </c>
       <c r="D146" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -4771,13 +4768,13 @@
         <v>2154150341</v>
       </c>
       <c r="B147" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D147" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -4785,7 +4782,7 @@
         <v>2154150342</v>
       </c>
       <c r="B148" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C148" t="s">
         <v>123</v>
@@ -4799,7 +4796,7 @@
         <v>2154150343</v>
       </c>
       <c r="B149" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C149" t="s">
         <v>123</v>
@@ -4813,7 +4810,7 @@
         <v>2154150347</v>
       </c>
       <c r="B150" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C150" t="s">
         <v>123</v>
@@ -4827,13 +4824,13 @@
         <v>2154150348</v>
       </c>
       <c r="B151" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C151" t="s">
         <v>126</v>
       </c>
       <c r="D151" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -4841,7 +4838,7 @@
         <v>2154150349</v>
       </c>
       <c r="B152" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C152" t="s">
         <v>123</v>
@@ -4855,7 +4852,7 @@
         <v>2154150350</v>
       </c>
       <c r="B153" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C153" t="s">
         <v>129</v>
@@ -4872,7 +4869,7 @@
         <v>2154150351</v>
       </c>
       <c r="B154" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C154" t="s">
         <v>123</v>
@@ -4886,16 +4883,16 @@
         <v>2154150357</v>
       </c>
       <c r="B155" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C155" t="s">
         <v>122</v>
       </c>
       <c r="D155" t="s">
+        <v>367</v>
+      </c>
+      <c r="E155" t="s">
         <v>368</v>
-      </c>
-      <c r="E155" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -4903,13 +4900,13 @@
         <v>2154150358</v>
       </c>
       <c r="B156" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C156" t="s">
         <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -4917,16 +4914,16 @@
         <v>2154150366</v>
       </c>
       <c r="B157" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C157" t="s">
         <v>122</v>
       </c>
       <c r="D157" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E157" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -4934,13 +4931,13 @@
         <v>2154150370</v>
       </c>
       <c r="B158" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C158" t="s">
         <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -4948,7 +4945,7 @@
         <v>2154150380</v>
       </c>
       <c r="B159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C159" t="s">
         <v>124</v>
@@ -4962,13 +4959,13 @@
         <v>2154150391</v>
       </c>
       <c r="B160" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C160" t="s">
         <v>122</v>
       </c>
       <c r="D160" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -4976,10 +4973,10 @@
         <v>2154150420</v>
       </c>
       <c r="B161" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C161" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D161" t="s">
         <v>126</v>
@@ -4990,13 +4987,13 @@
         <v>2154150447</v>
       </c>
       <c r="B162" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C162" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -5004,10 +5001,10 @@
         <v>2154150448</v>
       </c>
       <c r="B163" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C163" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D163" t="s">
         <v>123</v>
@@ -5018,16 +5015,16 @@
         <v>2154150455</v>
       </c>
       <c r="B164" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C164" t="s">
         <v>122</v>
       </c>
       <c r="D164" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E164" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -5035,7 +5032,7 @@
         <v>2154150461</v>
       </c>
       <c r="B165" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C165" t="s">
         <v>124</v>
@@ -5049,10 +5046,10 @@
         <v>2154150497</v>
       </c>
       <c r="B166" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C166" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D166" t="s">
         <v>126</v>
@@ -5063,7 +5060,7 @@
         <v>2154150501</v>
       </c>
       <c r="B167" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C167" t="s">
         <v>120</v>
@@ -5077,7 +5074,7 @@
         <v>2154150509</v>
       </c>
       <c r="B168" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C168" t="s">
         <v>123</v>
@@ -5091,13 +5088,13 @@
         <v>2154150525</v>
       </c>
       <c r="B169" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C169" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D169" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E169" t="s">
         <v>126</v>
@@ -5108,13 +5105,13 @@
         <v>2154150526</v>
       </c>
       <c r="B170" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C170" t="s">
         <v>129</v>
       </c>
       <c r="D170" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -5122,7 +5119,7 @@
         <v>2154150534</v>
       </c>
       <c r="B171" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C171" t="s">
         <v>123</v>
@@ -5139,13 +5136,13 @@
         <v>2154150554</v>
       </c>
       <c r="B172" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C172" t="s">
         <v>130</v>
       </c>
       <c r="D172" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -5153,13 +5150,13 @@
         <v>2154150557</v>
       </c>
       <c r="B173" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C173" t="s">
         <v>122</v>
       </c>
       <c r="D173" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -5167,7 +5164,7 @@
         <v>2154150560</v>
       </c>
       <c r="B174" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C174" t="s">
         <v>123</v>
@@ -5176,10 +5173,10 @@
         <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F174" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5187,10 +5184,10 @@
         <v>2154150563</v>
       </c>
       <c r="B175" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C175" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D175" t="s">
         <v>31</v>
@@ -5201,7 +5198,7 @@
         <v>2154150581</v>
       </c>
       <c r="B176" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C176" t="s">
         <v>123</v>
@@ -5215,7 +5212,7 @@
         <v>2154150582</v>
       </c>
       <c r="B177" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C177" t="s">
         <v>123</v>
@@ -5229,7 +5226,7 @@
         <v>2154150588</v>
       </c>
       <c r="B178" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C178" t="s">
         <v>31</v>
@@ -5243,16 +5240,16 @@
         <v>2154150591</v>
       </c>
       <c r="B179" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C179" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D179" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E179" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -5260,7 +5257,7 @@
         <v>2154150597</v>
       </c>
       <c r="B180" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C180" t="s">
         <v>126</v>
@@ -5269,7 +5266,7 @@
         <v>126</v>
       </c>
       <c r="E180" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -5277,7 +5274,7 @@
         <v>2154150603</v>
       </c>
       <c r="B181" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C181" t="s">
         <v>125</v>
@@ -5291,13 +5288,13 @@
         <v>2154150605</v>
       </c>
       <c r="B182" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C182" t="s">
         <v>105</v>
       </c>
       <c r="D182" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -5305,13 +5302,13 @@
         <v>2154150622</v>
       </c>
       <c r="B183" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C183" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D183" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -5319,13 +5316,13 @@
         <v>2154150627</v>
       </c>
       <c r="B184" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C184" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D184" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -5333,7 +5330,7 @@
         <v>2154150633</v>
       </c>
       <c r="B185" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C185" t="s">
         <v>123</v>
@@ -5347,7 +5344,7 @@
         <v>2154150646</v>
       </c>
       <c r="B186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C186" t="s">
         <v>126</v>
@@ -5359,7 +5356,7 @@
         <v>123</v>
       </c>
       <c r="F186" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -5367,19 +5364,19 @@
         <v>2154150648</v>
       </c>
       <c r="B187" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C187" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D187" t="s">
+        <v>374</v>
+      </c>
+      <c r="E187" t="s">
         <v>375</v>
       </c>
-      <c r="E187" t="s">
-        <v>376</v>
-      </c>
       <c r="F187" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -5387,7 +5384,7 @@
         <v>2154150653</v>
       </c>
       <c r="B188" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C188" t="s">
         <v>125</v>
@@ -5401,7 +5398,7 @@
         <v>2154150669</v>
       </c>
       <c r="B189" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C189" t="s">
         <v>123</v>
@@ -5415,7 +5412,7 @@
         <v>2154150672</v>
       </c>
       <c r="B190" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C190" t="s">
         <v>123</v>
@@ -5429,16 +5426,16 @@
         <v>2154150677</v>
       </c>
       <c r="B191" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C191" t="s">
         <v>122</v>
       </c>
       <c r="D191" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E191" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -5446,7 +5443,7 @@
         <v>2154150706</v>
       </c>
       <c r="B192" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C192" t="s">
         <v>112</v>
@@ -5460,7 +5457,7 @@
         <v>2154150707</v>
       </c>
       <c r="B193" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C193" t="s">
         <v>112</v>
@@ -5474,7 +5471,7 @@
         <v>2154150715</v>
       </c>
       <c r="B194" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C194" t="s">
         <v>31</v>
@@ -5488,13 +5485,13 @@
         <v>2154150719</v>
       </c>
       <c r="B195" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C195" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D195" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -5502,7 +5499,7 @@
         <v>2154150731</v>
       </c>
       <c r="B196" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C196" t="s">
         <v>129</v>
@@ -5516,19 +5513,19 @@
         <v>2154150765</v>
       </c>
       <c r="B197" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C197" t="s">
         <v>129</v>
       </c>
       <c r="D197" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E197" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F197" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -5536,19 +5533,19 @@
         <v>2154150767</v>
       </c>
       <c r="B198" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C198" t="s">
         <v>129</v>
       </c>
       <c r="D198" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E198" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F198" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -5556,7 +5553,7 @@
         <v>2154150769</v>
       </c>
       <c r="B199" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C199" t="s">
         <v>126</v>
@@ -5565,7 +5562,7 @@
         <v>123</v>
       </c>
       <c r="E199" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -5573,13 +5570,13 @@
         <v>2154150788</v>
       </c>
       <c r="B200" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C200" t="s">
         <v>129</v>
       </c>
       <c r="D200" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -5587,7 +5584,7 @@
         <v>2154150813</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C201" t="s">
         <v>126</v>
@@ -5599,7 +5596,7 @@
         <v>123</v>
       </c>
       <c r="F201" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -5607,7 +5604,7 @@
         <v>2154150814</v>
       </c>
       <c r="B202" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C202" t="s">
         <v>126</v>
@@ -5616,7 +5613,7 @@
         <v>123</v>
       </c>
       <c r="E202" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -5624,16 +5621,16 @@
         <v>2154150822</v>
       </c>
       <c r="B203" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C203" t="s">
         <v>129</v>
       </c>
       <c r="D203" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E203" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -5641,13 +5638,13 @@
         <v>2154150839</v>
       </c>
       <c r="B204" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C204" t="s">
         <v>126</v>
       </c>
       <c r="D204" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -5655,10 +5652,10 @@
         <v>2154150840</v>
       </c>
       <c r="B205" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C205" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D205" t="s">
         <v>127</v>
@@ -5669,10 +5666,10 @@
         <v>2154150841</v>
       </c>
       <c r="B206" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C206" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D206" t="s">
         <v>125</v>
@@ -5683,10 +5680,10 @@
         <v>2154150876</v>
       </c>
       <c r="B207" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C207" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D207" t="s">
         <v>127</v>
@@ -5697,13 +5694,13 @@
         <v>2154150893</v>
       </c>
       <c r="B208" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C208" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D208" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
@@ -5711,13 +5708,13 @@
         <v>2154150918</v>
       </c>
       <c r="B209" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C209" t="s">
         <v>126</v>
       </c>
       <c r="D209" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -5725,13 +5722,13 @@
         <v>2154150921</v>
       </c>
       <c r="B210" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C210" t="s">
         <v>122</v>
       </c>
       <c r="D210" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
@@ -5739,13 +5736,13 @@
         <v>2154150922</v>
       </c>
       <c r="B211" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C211" t="s">
         <v>129</v>
       </c>
       <c r="D211" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
@@ -5753,10 +5750,10 @@
         <v>2154150943</v>
       </c>
       <c r="B212" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C212" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D212" t="s">
         <v>126</v>
@@ -5767,7 +5764,7 @@
         <v>2154155136</v>
       </c>
       <c r="B213" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C213" t="s">
         <v>123</v>
@@ -5781,13 +5778,13 @@
         <v>2154155149</v>
       </c>
       <c r="B214" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C214" t="s">
         <v>123</v>
       </c>
       <c r="D214" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -5795,16 +5792,16 @@
         <v>2154155150</v>
       </c>
       <c r="B215" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C215" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D215" t="s">
         <v>123</v>
       </c>
       <c r="E215" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -5812,13 +5809,13 @@
         <v>2154160029</v>
       </c>
       <c r="B216" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C216" t="s">
+        <v>151</v>
+      </c>
+      <c r="D216" t="s">
         <v>152</v>
-      </c>
-      <c r="D216" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -5826,13 +5823,13 @@
         <v>2154160030</v>
       </c>
       <c r="B217" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C217" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D217" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -5840,13 +5837,13 @@
         <v>2154160031</v>
       </c>
       <c r="B218" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C218" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D218" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -5854,10 +5851,10 @@
         <v>2154160032</v>
       </c>
       <c r="B219" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C219" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D219" t="s">
         <v>31</v>
@@ -5868,10 +5865,10 @@
         <v>2154160033</v>
       </c>
       <c r="B220" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C220" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D220" t="s">
         <v>31</v>
@@ -5882,13 +5879,13 @@
         <v>2154160034</v>
       </c>
       <c r="B221" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C221" t="s">
+        <v>159</v>
+      </c>
+      <c r="D221" t="s">
         <v>160</v>
-      </c>
-      <c r="D221" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
@@ -5896,13 +5893,13 @@
         <v>2154160035</v>
       </c>
       <c r="B222" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C222" t="s">
+        <v>151</v>
+      </c>
+      <c r="D222" t="s">
         <v>152</v>
-      </c>
-      <c r="D222" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
@@ -5910,10 +5907,10 @@
         <v>2154160036</v>
       </c>
       <c r="B223" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C223" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D223" t="s">
         <v>31</v>
@@ -5924,10 +5921,10 @@
         <v>2154160037</v>
       </c>
       <c r="B224" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C224" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D224" t="s">
         <v>31</v>
@@ -5938,13 +5935,13 @@
         <v>2154170049</v>
       </c>
       <c r="B225" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C225" t="s">
         <v>123</v>
       </c>
       <c r="D225" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -5952,7 +5949,7 @@
         <v>2154170050</v>
       </c>
       <c r="B226" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C226" t="s">
         <v>123</v>
@@ -5961,13 +5958,13 @@
         <v>126</v>
       </c>
       <c r="E226" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F226" t="s">
+        <v>165</v>
+      </c>
+      <c r="G226" t="s">
         <v>166</v>
-      </c>
-      <c r="G226" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -5975,13 +5972,13 @@
         <v>2154170052</v>
       </c>
       <c r="B227" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C227" t="s">
         <v>123</v>
       </c>
       <c r="D227" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -6004,7 +6001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="AF10" sqref="AF10"/>
     </sheetView>
   </sheetViews>
@@ -6107,303 +6104,303 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BK1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BT1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="CV1" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="CW1" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
         <v>264</v>
-      </c>
-      <c r="B2" t="s">
-        <v>265</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>48</v>
@@ -6418,16 +6415,16 @@
         <v>32</v>
       </c>
       <c r="I2" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>269</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>270</v>
       </c>
       <c r="M2" s="36" t="s">
         <v>74</v>
@@ -6436,16 +6433,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="R2" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="S2" s="36" t="s">
         <v>49</v>
@@ -6460,34 +6457,34 @@
         <v>14</v>
       </c>
       <c r="W2" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="X2" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>278</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>279</v>
       </c>
       <c r="AB2" s="36" t="s">
         <v>52</v>
       </c>
       <c r="AC2" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AD2" s="36" t="s">
         <v>16</v>
       </c>
       <c r="AE2" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF2" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="AF2" s="36" t="s">
-        <v>274</v>
       </c>
       <c r="AG2" s="36" t="s">
         <v>49</v>
@@ -6502,25 +6499,25 @@
         <v>14</v>
       </c>
       <c r="AK2" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL2" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AM2" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AN2" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="AN2" s="36" t="s">
+      <c r="AO2" s="36" t="s">
         <v>278</v>
-      </c>
-      <c r="AO2" s="36" t="s">
-        <v>279</v>
       </c>
       <c r="AP2" s="36" t="s">
         <v>52</v>
       </c>
       <c r="AQ2" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AR2" s="36" t="s">
         <v>16</v>
@@ -6538,34 +6535,34 @@
         <v>58</v>
       </c>
       <c r="AW2" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX2" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="AY2" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="AX2" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="AY2" s="36" t="s">
+      <c r="AZ2" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="AZ2" s="36" t="s">
+      <c r="BA2" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="BA2" s="36" t="s">
+      <c r="BB2" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="BB2" s="36" t="s">
+      <c r="BC2" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="BC2" s="36" t="s">
+      <c r="BD2" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="BD2" s="36" t="s">
+      <c r="BE2" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="BE2" s="36" t="s">
+      <c r="BF2" s="36" t="s">
         <v>288</v>
-      </c>
-      <c r="BF2" s="36" t="s">
-        <v>289</v>
       </c>
       <c r="BG2" s="36" t="s">
         <v>8</v>
@@ -6580,34 +6577,34 @@
         <v>64</v>
       </c>
       <c r="BK2" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="BL2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="BM2" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="BL2" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="BM2" s="36" t="s">
+      <c r="BN2" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="BN2" s="36" t="s">
+      <c r="BO2" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="BO2" s="36" t="s">
+      <c r="BP2" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="BP2" s="36" t="s">
+      <c r="BQ2" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="BQ2" s="36" t="s">
+      <c r="BR2" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="BR2" s="36" t="s">
+      <c r="BS2" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="BS2" s="36" t="s">
+      <c r="BT2" s="36" t="s">
         <v>297</v>
-      </c>
-      <c r="BT2" s="36" t="s">
-        <v>298</v>
       </c>
       <c r="BU2" s="36" t="s">
         <v>8</v>
@@ -6622,87 +6619,87 @@
         <v>64</v>
       </c>
       <c r="BY2" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="BZ2" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="CA2" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="BZ2" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="CA2" s="36" t="s">
+      <c r="CB2" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="CB2" s="36" t="s">
+      <c r="CC2" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="CC2" s="36" t="s">
+      <c r="CD2" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="CD2" s="36" t="s">
+      <c r="CE2" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="CE2" s="36" t="s">
+      <c r="CF2" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="CF2" s="36" t="s">
+      <c r="CG2" s="36" t="s">
         <v>296</v>
       </c>
-      <c r="CG2" s="36" t="s">
+      <c r="CH2" s="36" t="s">
         <v>297</v>
-      </c>
-      <c r="CH2" s="36" t="s">
-        <v>298</v>
       </c>
       <c r="CI2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="CJ2" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="CK2" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="CK2" s="36" t="s">
+      <c r="CL2" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="CL2" s="36" t="s">
+      <c r="CM2" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="CM2" s="36" t="s">
+      <c r="CN2" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="CN2" s="36" t="s">
+      <c r="CO2" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="CO2" s="36" t="s">
+      <c r="CP2" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="CP2" s="36" t="s">
+      <c r="CQ2" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="CQ2" s="36" t="s">
+      <c r="CR2" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="CR2" s="36" t="s">
+      <c r="CS2" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="CS2" s="36" t="s">
+      <c r="CT2" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="CT2" s="36" t="s">
+      <c r="CU2" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="CU2" s="36" t="s">
+      <c r="CV2" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="CV2" s="36" t="s">
-        <v>311</v>
-      </c>
       <c r="CW2" s="36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s">
         <v>312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>313</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>52</v>
@@ -6728,10 +6725,10 @@
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4" t="s">
         <v>314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>315</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>46</v>
@@ -6769,28 +6766,28 @@
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" t="s">
         <v>316</v>
       </c>
-      <c r="B5" t="s">
-        <v>317</v>
-      </c>
       <c r="C5" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>49</v>
@@ -6805,22 +6802,22 @@
         <v>122</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N5" s="36" t="s">
         <v>101</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="36" t="s">
         <v>43</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S5" s="36" t="s">
         <v>43</v>
@@ -6829,7 +6826,7 @@
         <v>125</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V5" s="36" t="s">
         <v>32</v>
@@ -6841,7 +6838,7 @@
         <v>14</v>
       </c>
       <c r="Y5" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Z5" s="36" t="s">
         <v>57</v>
@@ -6867,10 +6864,10 @@
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" t="s">
         <v>318</v>
-      </c>
-      <c r="B6" t="s">
-        <v>319</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>64</v>
@@ -6939,22 +6936,22 @@
         <v>12</v>
       </c>
       <c r="Y6" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" s="37" t="s">
         <v>359</v>
-      </c>
-      <c r="Z6" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA6" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD6" s="37" t="s">
-        <v>360</v>
       </c>
       <c r="AE6" s="36" t="s">
         <v>125</v>
@@ -6962,10 +6959,10 @@
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B7" t="s">
         <v>320</v>
-      </c>
-      <c r="B7" t="s">
-        <v>321</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>32</v>
@@ -6983,7 +6980,7 @@
         <v>105</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>112</v>
@@ -6998,7 +6995,7 @@
         <v>120</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N7" s="37" t="s">
         <v>14</v>
@@ -7019,7 +7016,7 @@
         <v>15</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="U7" s="37" t="s">
         <v>23</v>
@@ -7031,18 +7028,18 @@
         <v>20</v>
       </c>
       <c r="X7" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y7" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" t="s">
         <v>322</v>
-      </c>
-      <c r="B8" t="s">
-        <v>323</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>36</v>
@@ -7084,33 +7081,33 @@
         <v>126</v>
       </c>
       <c r="P8" s="37" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q8" s="37" t="s">
         <v>370</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>371</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>101</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T8" s="37" t="s">
         <v>123</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" t="s">
         <v>324</v>
-      </c>
-      <c r="B9" t="s">
-        <v>325</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>52</v>
@@ -7122,10 +7119,10 @@
         <v>52</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>10</v>
@@ -7134,7 +7131,7 @@
         <v>126</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K9" s="36" t="s">
         <v>123</v>
@@ -7143,75 +7140,75 @@
         <v>103</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" t="s">
         <v>326</v>
-      </c>
-      <c r="B10" t="s">
-        <v>327</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>124</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>122</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P10" s="34" t="s">
         <v>120</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S10" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="T10" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="T10" s="34" t="s">
-        <v>416</v>
-      </c>
       <c r="U10" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="V10" s="34" t="s">
         <v>129</v>
@@ -7220,10 +7217,10 @@
         <v>120</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Z10" s="34" t="s">
         <v>123</v>
@@ -7241,13 +7238,13 @@
         <v>126</v>
       </c>
       <c r="AE10" s="34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AF10" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG10" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AH10" s="34" t="s">
         <v>31</v>
@@ -7256,16 +7253,16 @@
         <v>45</v>
       </c>
       <c r="AJ10" s="34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AK10" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL10" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM10" s="34" t="s">
         <v>374</v>
-      </c>
-      <c r="AL10" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="AM10" s="34" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7311,105 +7308,105 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>333</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>334</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>6</v>
@@ -7418,7 +7415,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>26</v>
@@ -7433,13 +7430,13 @@
         <v>33</v>
       </c>
       <c r="K2" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>336</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>337</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>338</v>
       </c>
       <c r="N2" s="36">
         <v>2098700076</v>
@@ -7504,7 +7501,7 @@
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>60</v>
@@ -7543,10 +7540,10 @@
         <v>113</v>
       </c>
       <c r="N3" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>147</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>148</v>
       </c>
       <c r="P3" s="36">
         <v>2154140336</v>
@@ -7554,7 +7551,7 @@
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" s="36">
         <v>2003020640</v>
@@ -7613,10 +7610,10 @@
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>42</v>
@@ -7625,40 +7622,40 @@
         <v>88</v>
       </c>
       <c r="E5" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="N5" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="M5" s="36" t="s">
-        <v>341</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>163</v>
-      </c>
       <c r="O5" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="36" t="s">
         <v>93</v>
@@ -7702,10 +7699,10 @@
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>93</v>
@@ -7842,10 +7839,10 @@
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>107</v>
@@ -7872,22 +7869,22 @@
         <v>132</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L7" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="M7" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="N7" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="36" t="s">
-        <v>149</v>
-      </c>
       <c r="O7" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="P7" s="36" t="s">
         <v>142</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>143</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>115</v>
@@ -7925,7 +7922,7 @@
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>34</v>
@@ -7949,13 +7946,13 @@
         <v>128</v>
       </c>
       <c r="I8" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>146</v>
-      </c>
       <c r="K8" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L8" s="36">
         <v>2154150788</v>
@@ -7972,7 +7969,7 @@
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -7990,13 +7987,13 @@
         <v>2099700059</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J9" s="36">
         <v>2154170049</v>
@@ -8004,7 +8001,7 @@
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -8027,106 +8024,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" t="s">
         <v>344</v>
-      </c>
-      <c r="B1" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B5" t="s">
         <v>349</v>
-      </c>
-      <c r="B5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="s">
         <v>352</v>
-      </c>
-      <c r="B7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -8156,65 +8153,65 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>52</v>
@@ -8243,7 +8240,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>105</v>
@@ -8258,7 +8255,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>14</v>
@@ -8267,12 +8264,12 @@
         <v>52</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>7</v>
@@ -8296,12 +8293,12 @@
         <v>10</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -8322,15 +8319,15 @@
         <v>53</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>112</v>
@@ -8359,7 +8356,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>31</v>
@@ -8380,15 +8377,15 @@
         <v>35</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
@@ -8409,10 +8406,10 @@
         <v>71</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -8430,7 +8427,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>122</v>
@@ -8464,7 +8461,7 @@
         <v>126</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -8474,7 +8471,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>7</v>
@@ -8486,7 +8483,7 @@
         <v>123</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>125</v>
@@ -8505,7 +8502,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>126</v>
@@ -8514,7 +8511,7 @@
         <v>52</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -8531,13 +8528,13 @@
         <v>14</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -8545,7 +8542,7 @@
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>58</v>
@@ -8554,11 +8551,11 @@
         <v>21</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -8579,7 +8576,7 @@
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -8593,14 +8590,14 @@
         <v>54</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -8608,7 +8605,7 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>14</v>
@@ -8617,11 +8614,11 @@
         <v>22</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -8642,7 +8639,7 @@
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="18" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -8650,20 +8647,20 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -8671,20 +8668,20 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -8703,7 +8700,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
       <c r="I22" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -8711,7 +8708,7 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>12</v>
@@ -8730,13 +8727,13 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -8752,15 +8749,15 @@
         <v>101</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -8768,16 +8765,16 @@
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -8785,10 +8782,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -8817,7 +8814,7 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -8847,7 +8844,7 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -8862,14 +8859,14 @@
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -8884,7 +8881,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="18" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -8897,7 +8894,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -8936,7 +8933,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -8949,7 +8946,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="18" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -8962,7 +8959,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -8975,7 +8972,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -9008,60 +9005,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -9075,7 +9072,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
@@ -9095,7 +9092,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
         <v>105</v>
@@ -9104,7 +9101,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -9119,7 +9116,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9133,7 +9130,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
@@ -9148,7 +9145,7 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -9162,7 +9159,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -9174,10 +9171,10 @@
         <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -9203,7 +9200,7 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I7" t="s">
         <v>124</v>
@@ -9220,13 +9217,13 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
@@ -9235,12 +9232,12 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -9264,12 +9261,12 @@
         <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -9287,7 +9284,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I10" t="s">
         <v>122</v>
@@ -9295,7 +9292,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -9316,12 +9313,12 @@
         <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -9353,22 +9350,22 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -9388,18 +9385,18 @@
         <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -9411,18 +9408,18 @@
         <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -9431,18 +9428,18 @@
         <v>13</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -9451,10 +9448,10 @@
         <v>29</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I17" t="s">
         <v>120</v>
@@ -9462,10 +9459,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -9477,7 +9474,7 @@
         <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -9497,7 +9494,7 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -9511,13 +9508,13 @@
         <v>52</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -9525,7 +9522,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
@@ -9537,7 +9534,7 @@
         <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -9554,15 +9551,15 @@
         <v>17</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -9571,7 +9568,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -9579,13 +9576,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I24" t="s">
         <v>120</v>
@@ -9593,32 +9590,32 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I25" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -9640,7 +9637,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -9662,7 +9659,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D31" t="s">
         <v>118</v>
@@ -9673,13 +9670,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D32" t="s">
         <v>117</v>
       </c>
       <c r="I32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -9687,7 +9684,7 @@
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -9695,7 +9692,7 @@
         <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -9716,39 +9713,39 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I40" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -9758,7 +9755,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -9788,52 +9785,52 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
@@ -9858,52 +9855,52 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
@@ -9928,52 +9925,52 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
@@ -9983,72 +9980,72 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="436" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65DC66E1-0097-4FCA-A8E5-FB4628F2689D}"/>
+  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71CF667-5190-4B08-9BF9-D35CBEA6B1FE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="425">
   <si>
     <t>Col 1</t>
   </si>
@@ -1410,7 +1410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1642,11 +1642,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1717,11 +1728,29 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2195,25 +2224,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:G227" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:H227" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G227">
     <sortCondition ref="A115:A227"/>
   </sortState>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{CF499674-C182-4560-8B41-0E78F331A415}" name="Col 12" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{45F9BB40-479B-43A5-863C-7DF090960010}" name="Col 2" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{35AC3272-E32E-4533-B684-783CFFC3D97D}" name="Col 3" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{009711B2-C3BC-4C66-A5C8-5E23732ACEC7}" name="Col 4" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{DBF11C8B-3BA2-4B93-8B9D-B2B98230B63B}" name="Col 5" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{CC41153B-24E7-4D38-B346-9455226D8193}" name="Col 6" dataDxfId="14"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{CF499674-C182-4560-8B41-0E78F331A415}" name="Col 12" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{45F9BB40-479B-43A5-863C-7DF090960010}" name="Col 2" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{35AC3272-E32E-4533-B684-783CFFC3D97D}" name="Col 3" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{009711B2-C3BC-4C66-A5C8-5E23732ACEC7}" name="Col 4" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{DBF11C8B-3BA2-4B93-8B9D-B2B98230B63B}" name="Col 5" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{CC41153B-24E7-4D38-B346-9455226D8193}" name="Col 6" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{5BD831E8-A1B8-48E7-A7CD-262D4CCFAEA7}" name="Col 7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CW10" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CW10" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
   <autoFilter ref="A1:CW10" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}"/>
   <tableColumns count="101">
     <tableColumn id="1" xr3:uid="{515ED9AD-2115-402D-A669-A7974119647C}" name="Col 1"/>
@@ -2323,18 +2353,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}" name="Tabla3" displayName="Tabla3" ref="A1:I101" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}" name="Tabla3" displayName="Tabla3" ref="A1:I101" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:I101" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5E4BDA70-F076-450B-A73E-034DF187DDD0}" name="FA1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{728A5178-5E49-485C-811A-814C878280BD}" name="FA2" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{6512D9A4-ABA5-4A7F-B552-9FA02CBFBA15}" name="FA3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{E3480F72-1A04-4419-A55B-8A371BCB83BB}" name="FA4" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{C5057181-6E4D-42CD-A672-89666A3A590F}" name="FA5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{9E111813-83ED-4BC3-A5C2-2B23EDCBE045}" name="FA6" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{E3B443D2-6ABB-4DA9-85A3-23615366D11A}" name="FA7" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{9AD5DAC3-1F8A-44BE-8C81-D4E0724B6EED}" name="FA8" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{81F25ED4-3EA1-4016-930B-258B361297C7}" name="FA9" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{5E4BDA70-F076-450B-A73E-034DF187DDD0}" name="FA1" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{728A5178-5E49-485C-811A-814C878280BD}" name="FA2" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{6512D9A4-ABA5-4A7F-B552-9FA02CBFBA15}" name="FA3" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E3480F72-1A04-4419-A55B-8A371BCB83BB}" name="FA4" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{C5057181-6E4D-42CD-A672-89666A3A590F}" name="FA5" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9E111813-83ED-4BC3-A5C2-2B23EDCBE045}" name="FA6" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E3B443D2-6ABB-4DA9-85A3-23615366D11A}" name="FA7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{9AD5DAC3-1F8A-44BE-8C81-D4E0724B6EED}" name="FA8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{81F25ED4-3EA1-4016-930B-258B361297C7}" name="FA9" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2657,10 +2687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="D145" sqref="D145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2672,9 +2702,10 @@
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -2696,8 +2727,11 @@
       <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2088701244</v>
       </c>
@@ -2710,8 +2744,9 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2088701390</v>
       </c>
@@ -2724,8 +2759,9 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2088701610</v>
       </c>
@@ -2738,8 +2774,9 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2088701746</v>
       </c>
@@ -2749,8 +2786,9 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2088702198</v>
       </c>
@@ -2763,8 +2801,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2088702199</v>
       </c>
@@ -2777,8 +2816,9 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2088702200</v>
       </c>
@@ -2791,8 +2831,9 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2088702201</v>
       </c>
@@ -2808,8 +2849,9 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2088702202</v>
       </c>
@@ -2822,8 +2864,9 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2088702203</v>
       </c>
@@ -2836,8 +2879,9 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2088702204</v>
       </c>
@@ -2850,8 +2894,9 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2088702205</v>
       </c>
@@ -2864,8 +2909,9 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2088702206</v>
       </c>
@@ -2878,8 +2924,9 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2088702207</v>
       </c>
@@ -2892,8 +2939,20 @@
       <c r="D15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2088702221</v>
       </c>
@@ -2906,8 +2965,9 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2088702318</v>
       </c>
@@ -2920,8 +2980,9 @@
       <c r="D17" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2088707042</v>
       </c>
@@ -2934,8 +2995,9 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H18" s="38"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2098700024</v>
       </c>
@@ -2948,8 +3010,9 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H19" s="38"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2098700025</v>
       </c>
@@ -2962,8 +3025,9 @@
       <c r="D20" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H20" s="38"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2098700026</v>
       </c>
@@ -2976,8 +3040,9 @@
       <c r="D21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2098700033</v>
       </c>
@@ -2990,8 +3055,9 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H22" s="38"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2098700046</v>
       </c>
@@ -3004,8 +3070,9 @@
       <c r="D23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2098700056</v>
       </c>
@@ -3018,8 +3085,9 @@
       <c r="D24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2098700058</v>
       </c>
@@ -3032,8 +3100,9 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2098700076</v>
       </c>
@@ -3046,8 +3115,9 @@
       <c r="D26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H26" s="38"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2098700083</v>
       </c>
@@ -3060,8 +3130,9 @@
       <c r="D27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H27" s="38"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2098700108</v>
       </c>
@@ -3074,8 +3145,9 @@
       <c r="D28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H28" s="38"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2098700143</v>
       </c>
@@ -3088,8 +3160,9 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H29" s="38"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2098700154</v>
       </c>
@@ -3102,8 +3175,9 @@
       <c r="D30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2098700177</v>
       </c>
@@ -3116,8 +3190,9 @@
       <c r="D31" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2098700189</v>
       </c>
@@ -3130,8 +3205,9 @@
       <c r="D32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H32" s="38"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2098700245</v>
       </c>
@@ -3144,8 +3220,9 @@
       <c r="D33" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H33" s="38"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2098700246</v>
       </c>
@@ -3158,8 +3235,9 @@
       <c r="D34" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2098700256</v>
       </c>
@@ -3172,8 +3250,9 @@
       <c r="D35" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2098700289</v>
       </c>
@@ -3186,8 +3265,9 @@
       <c r="D36" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2098700290</v>
       </c>
@@ -3200,8 +3280,9 @@
       <c r="D37" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2098700293</v>
       </c>
@@ -3214,8 +3295,9 @@
       <c r="D38" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2098700296</v>
       </c>
@@ -3231,8 +3313,9 @@
       <c r="E39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2098700301</v>
       </c>
@@ -3245,8 +3328,9 @@
       <c r="D40" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2098700302</v>
       </c>
@@ -3259,8 +3343,9 @@
       <c r="D41" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2098700304</v>
       </c>
@@ -3273,8 +3358,9 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2098700305</v>
       </c>
@@ -3287,8 +3373,9 @@
       <c r="D43" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2098700306</v>
       </c>
@@ -3301,8 +3388,9 @@
       <c r="D44" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2098700307</v>
       </c>
@@ -3315,8 +3403,9 @@
       <c r="D45" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2098700309</v>
       </c>
@@ -3329,8 +3418,9 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2098700315</v>
       </c>
@@ -3343,8 +3433,9 @@
       <c r="D47" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2098700316</v>
       </c>
@@ -3357,8 +3448,9 @@
       <c r="D48" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2098700320</v>
       </c>
@@ -3371,8 +3463,9 @@
       <c r="D49" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2098700322</v>
       </c>
@@ -3385,8 +3478,9 @@
       <c r="D50" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H50" s="38"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2098700353</v>
       </c>
@@ -3399,8 +3493,9 @@
       <c r="D51" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2098700355</v>
       </c>
@@ -3413,8 +3508,9 @@
       <c r="D52" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2098700356</v>
       </c>
@@ -3427,8 +3523,9 @@
       <c r="D53" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2098700357</v>
       </c>
@@ -3441,8 +3538,9 @@
       <c r="D54" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2098700358</v>
       </c>
@@ -3455,8 +3553,9 @@
       <c r="D55" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H55" s="38"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2098700366</v>
       </c>
@@ -3469,8 +3568,9 @@
       <c r="D56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H56" s="38"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2098700371</v>
       </c>
@@ -3483,8 +3583,9 @@
       <c r="D57" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H57" s="38"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2098700372</v>
       </c>
@@ -3497,8 +3598,9 @@
       <c r="D58" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H58" s="38"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2098700373</v>
       </c>
@@ -3511,8 +3613,9 @@
       <c r="D59" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H59" s="38"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2098700374</v>
       </c>
@@ -3525,8 +3628,9 @@
       <c r="D60" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2098700375</v>
       </c>
@@ -3539,8 +3643,9 @@
       <c r="D61" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2098700376</v>
       </c>
@@ -3553,8 +3658,9 @@
       <c r="D62" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2098700378</v>
       </c>
@@ -3567,8 +3673,9 @@
       <c r="D63" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>2098700379</v>
       </c>
@@ -3581,8 +3688,9 @@
       <c r="D64" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H64" s="38"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>2098700380</v>
       </c>
@@ -3595,8 +3703,9 @@
       <c r="D65" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H65" s="38"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>2098700404</v>
       </c>
@@ -3609,8 +3718,9 @@
       <c r="D66" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H66" s="38"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>2098700405</v>
       </c>
@@ -3623,8 +3733,9 @@
       <c r="D67" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2098700429</v>
       </c>
@@ -3637,8 +3748,9 @@
       <c r="D68" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H68" s="38"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>2098700432</v>
       </c>
@@ -3651,8 +3763,9 @@
       <c r="D69" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H69" s="38"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>2098700433</v>
       </c>
@@ -3665,8 +3778,9 @@
       <c r="D70" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H70" s="38"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>2098700434</v>
       </c>
@@ -3679,8 +3793,9 @@
       <c r="D71" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H71" s="38"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>2098700436</v>
       </c>
@@ -3693,8 +3808,9 @@
       <c r="D72" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H72" s="38"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>2098700437</v>
       </c>
@@ -3710,8 +3826,9 @@
       <c r="E73" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H73" s="38"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2098701682</v>
       </c>
@@ -3724,8 +3841,9 @@
       <c r="D74" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H74" s="38"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2098706005</v>
       </c>
@@ -3738,8 +3856,9 @@
       <c r="D75" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H75" s="38"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2098706008</v>
       </c>
@@ -3752,8 +3871,9 @@
       <c r="D76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H76" s="38"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2098706009</v>
       </c>
@@ -3766,8 +3886,9 @@
       <c r="D77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H77" s="38"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2098706010</v>
       </c>
@@ -3780,8 +3901,9 @@
       <c r="D78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H78" s="38"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2098706011</v>
       </c>
@@ -3794,8 +3916,9 @@
       <c r="D79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H79" s="38"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2098706013</v>
       </c>
@@ -3808,8 +3931,9 @@
       <c r="D80" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H80" s="38"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2098706018</v>
       </c>
@@ -3822,8 +3946,9 @@
       <c r="D81" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H81" s="38"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2098706021</v>
       </c>
@@ -3836,8 +3961,9 @@
       <c r="D82" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H82" s="38"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2098706023</v>
       </c>
@@ -3850,8 +3976,9 @@
       <c r="D83" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H83" s="38"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2098706024</v>
       </c>
@@ -3864,8 +3991,9 @@
       <c r="D84" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H84" s="38"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2098706025</v>
       </c>
@@ -3878,8 +4006,9 @@
       <c r="D85" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H85" s="38"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2098706026</v>
       </c>
@@ -3892,8 +4021,9 @@
       <c r="D86" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H86" s="38"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2098706028</v>
       </c>
@@ -3906,8 +4036,9 @@
       <c r="D87" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H87" s="38"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2098706031</v>
       </c>
@@ -3920,8 +4051,9 @@
       <c r="D88" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H88" s="38"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2098706032</v>
       </c>
@@ -3934,8 +4066,9 @@
       <c r="D89" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H89" s="38"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2098706040</v>
       </c>
@@ -3948,8 +4081,9 @@
       <c r="D90" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H90" s="38"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2098706041</v>
       </c>
@@ -3962,8 +4096,9 @@
       <c r="D91" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H91" s="38"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2098706044</v>
       </c>
@@ -3976,8 +4111,9 @@
       <c r="D92" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H92" s="38"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>2098706072</v>
       </c>
@@ -3990,8 +4126,9 @@
       <c r="D93" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H93" s="38"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>2098706075</v>
       </c>
@@ -4004,8 +4141,9 @@
       <c r="D94" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H94" s="38"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>2098706076</v>
       </c>
@@ -4018,8 +4156,9 @@
       <c r="D95" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H95" s="38"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2098706083</v>
       </c>
@@ -4032,8 +4171,9 @@
       <c r="D96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96" s="38"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2098706084</v>
       </c>
@@ -4046,8 +4186,9 @@
       <c r="D97" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97" s="38"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>2099700009</v>
       </c>
@@ -4060,8 +4201,9 @@
       <c r="D98" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98" s="38"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>2099700010</v>
       </c>
@@ -4074,8 +4216,9 @@
       <c r="D99" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99" s="38"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2099700025</v>
       </c>
@@ -4091,8 +4234,9 @@
       <c r="E100" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100" s="38"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2099700030</v>
       </c>
@@ -4111,8 +4255,9 @@
       <c r="F101" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H101" s="38"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>2099700041</v>
       </c>
@@ -4125,8 +4270,9 @@
       <c r="D102" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H102" s="38"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2099700048</v>
       </c>
@@ -4139,8 +4285,9 @@
       <c r="D103" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103" s="38"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>2099700049</v>
       </c>
@@ -4153,8 +4300,9 @@
       <c r="D104" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104" s="38"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>2099700056</v>
       </c>
@@ -4167,8 +4315,9 @@
       <c r="D105" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105" s="38"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>2099700057</v>
       </c>
@@ -4184,8 +4333,9 @@
       <c r="E106" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106" s="38"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>2099700058</v>
       </c>
@@ -4207,8 +4357,9 @@
       <c r="G107" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107" s="38"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>2099700059</v>
       </c>
@@ -4230,8 +4381,9 @@
       <c r="G108" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108" s="38"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>2099706005</v>
       </c>
@@ -4244,8 +4396,9 @@
       <c r="D109" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109" s="38"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>2154140069</v>
       </c>
@@ -4258,8 +4411,9 @@
       <c r="D110" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110" s="38"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>2154140162</v>
       </c>
@@ -4272,8 +4426,9 @@
       <c r="D111" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H111" s="38"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>2154140207</v>
       </c>
@@ -4286,8 +4441,9 @@
       <c r="D112" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H112" s="38"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2154140222</v>
       </c>
@@ -4300,8 +4456,9 @@
       <c r="D113" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H113" s="38"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2154140224</v>
       </c>
@@ -4314,8 +4471,9 @@
       <c r="D114" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H114" s="38"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2154140225</v>
       </c>
@@ -4328,8 +4486,9 @@
       <c r="D115" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H115" s="38"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2154140229</v>
       </c>
@@ -4342,8 +4501,9 @@
       <c r="D116" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H116" s="38"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2154140243</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="D117" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H117" s="38"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2154140283</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="D118" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H118" s="38"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2154140284</v>
       </c>
@@ -4384,8 +4546,9 @@
       <c r="D119" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H119" s="38"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>2154140285</v>
       </c>
@@ -4398,8 +4561,9 @@
       <c r="D120" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H120" s="38"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2154140287</v>
       </c>
@@ -4412,8 +4576,9 @@
       <c r="D121" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H121" s="38"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2154140289</v>
       </c>
@@ -4426,8 +4591,9 @@
       <c r="D122" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H122" s="38"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2154140290</v>
       </c>
@@ -4440,8 +4606,9 @@
       <c r="D123" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H123" s="38"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>2154140291</v>
       </c>
@@ -4454,8 +4621,9 @@
       <c r="D124" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H124" s="38"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>2154140292</v>
       </c>
@@ -4468,8 +4636,9 @@
       <c r="D125" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H125" s="38"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2154140293</v>
       </c>
@@ -4482,8 +4651,9 @@
       <c r="D126" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H126" s="38"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2154140294</v>
       </c>
@@ -4496,8 +4666,9 @@
       <c r="D127" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H127" s="38"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2154140295</v>
       </c>
@@ -4510,8 +4681,9 @@
       <c r="D128" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H128" s="38"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2154140318</v>
       </c>
@@ -4524,8 +4696,9 @@
       <c r="D129" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H129" s="38"/>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2154140319</v>
       </c>
@@ -4538,8 +4711,9 @@
       <c r="D130" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H130" s="38"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>2154140335</v>
       </c>
@@ -4552,8 +4726,9 @@
       <c r="D131" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H131" s="38"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2154140336</v>
       </c>
@@ -4566,8 +4741,9 @@
       <c r="D132" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H132" s="38"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>2154140345</v>
       </c>
@@ -4580,8 +4756,9 @@
       <c r="D133" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H133" s="38"/>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2154140349</v>
       </c>
@@ -4594,8 +4771,9 @@
       <c r="D134" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H134" s="38"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>2154140596</v>
       </c>
@@ -4608,8 +4786,9 @@
       <c r="D135" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H135" s="38"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2154150035</v>
       </c>
@@ -4622,8 +4801,9 @@
       <c r="D136" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H136" s="38"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2154150089</v>
       </c>
@@ -4636,8 +4816,9 @@
       <c r="D137" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H137" s="38"/>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2154150163</v>
       </c>
@@ -4650,8 +4831,9 @@
       <c r="D138" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H138" s="38"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2154150172</v>
       </c>
@@ -4664,8 +4846,9 @@
       <c r="D139" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H139" s="38"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2154150197</v>
       </c>
@@ -4678,8 +4861,9 @@
       <c r="D140" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H140" s="38"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2154150214</v>
       </c>
@@ -4692,8 +4876,9 @@
       <c r="D141" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H141" s="38"/>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2154150215</v>
       </c>
@@ -4706,8 +4891,9 @@
       <c r="D142" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H142" s="38"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2154150247</v>
       </c>
@@ -4720,8 +4906,9 @@
       <c r="D143" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="H143" s="38"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2154150250</v>
       </c>
@@ -4734,8 +4921,9 @@
       <c r="D144" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H144" s="38"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>2154150301</v>
       </c>
@@ -4748,8 +4936,9 @@
       <c r="D145" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H145" s="38"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2154150337</v>
       </c>
@@ -4762,8 +4951,9 @@
       <c r="D146" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H146" s="38"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2154150341</v>
       </c>
@@ -4776,8 +4966,9 @@
       <c r="D147" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H147" s="38"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2154150342</v>
       </c>
@@ -4790,8 +4981,9 @@
       <c r="D148" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H148" s="38"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>2154150343</v>
       </c>
@@ -4804,8 +4996,9 @@
       <c r="D149" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H149" s="38"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>2154150347</v>
       </c>
@@ -4818,8 +5011,9 @@
       <c r="D150" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H150" s="38"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2154150348</v>
       </c>
@@ -4832,8 +5026,9 @@
       <c r="D151" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H151" s="38"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>2154150349</v>
       </c>
@@ -4846,8 +5041,9 @@
       <c r="D152" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H152" s="38"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>2154150350</v>
       </c>
@@ -4863,8 +5059,9 @@
       <c r="E153" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H153" s="38"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>2154150351</v>
       </c>
@@ -4877,8 +5074,9 @@
       <c r="D154" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H154" s="38"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>2154150357</v>
       </c>
@@ -4894,8 +5092,9 @@
       <c r="E155" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H155" s="38"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>2154150358</v>
       </c>
@@ -4908,8 +5107,9 @@
       <c r="D156" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H156" s="38"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>2154150366</v>
       </c>
@@ -4925,8 +5125,9 @@
       <c r="E157" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H157" s="38"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>2154150370</v>
       </c>
@@ -4939,8 +5140,9 @@
       <c r="D158" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H158" s="38"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2154150380</v>
       </c>
@@ -4953,8 +5155,9 @@
       <c r="D159" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H159" s="38"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2154150391</v>
       </c>
@@ -4967,8 +5170,9 @@
       <c r="D160" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H160" s="38"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2154150420</v>
       </c>
@@ -4981,8 +5185,9 @@
       <c r="D161" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H161" s="38"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2154150447</v>
       </c>
@@ -4995,8 +5200,9 @@
       <c r="D162" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H162" s="38"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>2154150448</v>
       </c>
@@ -5009,8 +5215,9 @@
       <c r="D163" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H163" s="38"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>2154150455</v>
       </c>
@@ -5026,8 +5233,9 @@
       <c r="E164" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H164" s="38"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2154150461</v>
       </c>
@@ -5040,8 +5248,9 @@
       <c r="D165" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H165" s="38"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>2154150497</v>
       </c>
@@ -5054,8 +5263,9 @@
       <c r="D166" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H166" s="38"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>2154150501</v>
       </c>
@@ -5068,8 +5278,9 @@
       <c r="D167" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H167" s="38"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>2154150509</v>
       </c>
@@ -5082,8 +5293,9 @@
       <c r="D168" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H168" s="38"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>2154150525</v>
       </c>
@@ -5099,8 +5311,9 @@
       <c r="E169" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H169" s="38"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>2154150526</v>
       </c>
@@ -5113,8 +5326,9 @@
       <c r="D170" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H170" s="38"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>2154150534</v>
       </c>
@@ -5130,8 +5344,9 @@
       <c r="E171" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H171" s="38"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2154150554</v>
       </c>
@@ -5144,8 +5359,9 @@
       <c r="D172" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H172" s="38"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>2154150557</v>
       </c>
@@ -5158,8 +5374,9 @@
       <c r="D173" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H173" s="38"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>2154150560</v>
       </c>
@@ -5178,8 +5395,9 @@
       <c r="F174" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H174" s="38"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2154150563</v>
       </c>
@@ -5192,8 +5410,9 @@
       <c r="D175" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H175" s="38"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>2154150581</v>
       </c>
@@ -5206,8 +5425,9 @@
       <c r="D176" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H176" s="38"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2154150582</v>
       </c>
@@ -5220,8 +5440,9 @@
       <c r="D177" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H177" s="38"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2154150588</v>
       </c>
@@ -5234,8 +5455,9 @@
       <c r="D178" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H178" s="38"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>2154150591</v>
       </c>
@@ -5251,8 +5473,9 @@
       <c r="E179" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H179" s="38"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>2154150597</v>
       </c>
@@ -5268,8 +5491,9 @@
       <c r="E180" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H180" s="38"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2154150603</v>
       </c>
@@ -5282,8 +5506,9 @@
       <c r="D181" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H181" s="38"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2154150605</v>
       </c>
@@ -5296,8 +5521,9 @@
       <c r="D182" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H182" s="38"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>2154150622</v>
       </c>
@@ -5310,8 +5536,9 @@
       <c r="D183" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H183" s="38"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>2154150627</v>
       </c>
@@ -5324,8 +5551,9 @@
       <c r="D184" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H184" s="38"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2154150633</v>
       </c>
@@ -5338,8 +5566,9 @@
       <c r="D185" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H185" s="38"/>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>2154150646</v>
       </c>
@@ -5358,8 +5587,9 @@
       <c r="F186" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H186" s="38"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>2154150648</v>
       </c>
@@ -5378,8 +5608,9 @@
       <c r="F187" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H187" s="38"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>2154150653</v>
       </c>
@@ -5392,8 +5623,9 @@
       <c r="D188" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H188" s="38"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2154150669</v>
       </c>
@@ -5406,8 +5638,9 @@
       <c r="D189" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H189" s="38"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2154150672</v>
       </c>
@@ -5420,8 +5653,9 @@
       <c r="D190" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H190" s="38"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>2154150677</v>
       </c>
@@ -5437,8 +5671,9 @@
       <c r="E191" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H191" s="38"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2154150706</v>
       </c>
@@ -5451,8 +5686,9 @@
       <c r="D192" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H192" s="38"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2154150707</v>
       </c>
@@ -5465,8 +5701,9 @@
       <c r="D193" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H193" s="38"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2154150715</v>
       </c>
@@ -5479,8 +5716,9 @@
       <c r="D194" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H194" s="38"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>2154150719</v>
       </c>
@@ -5493,8 +5731,9 @@
       <c r="D195" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H195" s="38"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>2154150731</v>
       </c>
@@ -5507,8 +5746,9 @@
       <c r="D196" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H196" s="38"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>2154150765</v>
       </c>
@@ -5527,8 +5767,9 @@
       <c r="F197" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H197" s="38"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>2154150767</v>
       </c>
@@ -5547,8 +5788,9 @@
       <c r="F198" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H198" s="38"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>2154150769</v>
       </c>
@@ -5564,8 +5806,9 @@
       <c r="E199" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H199" s="38"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
         <v>2154150788</v>
       </c>
@@ -5578,8 +5821,9 @@
       <c r="D200" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H200" s="38"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>2154150813</v>
       </c>
@@ -5598,8 +5842,9 @@
       <c r="F201" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H201" s="38"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>2154150814</v>
       </c>
@@ -5615,8 +5860,9 @@
       <c r="E202" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H202" s="38"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>2154150822</v>
       </c>
@@ -5632,8 +5878,9 @@
       <c r="E203" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H203" s="38"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>2154150839</v>
       </c>
@@ -5646,8 +5893,9 @@
       <c r="D204" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H204" s="38"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>2154150840</v>
       </c>
@@ -5660,8 +5908,9 @@
       <c r="D205" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H205" s="38"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>2154150841</v>
       </c>
@@ -5674,8 +5923,9 @@
       <c r="D206" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H206" s="38"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>2154150876</v>
       </c>
@@ -5688,8 +5938,9 @@
       <c r="D207" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H207" s="38"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
         <v>2154150893</v>
       </c>
@@ -5702,8 +5953,9 @@
       <c r="D208" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H208" s="38"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>2154150918</v>
       </c>
@@ -5716,8 +5968,9 @@
       <c r="D209" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H209" s="38"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>2154150921</v>
       </c>
@@ -5730,8 +5983,9 @@
       <c r="D210" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H210" s="38"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>2154150922</v>
       </c>
@@ -5744,8 +5998,9 @@
       <c r="D211" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H211" s="38"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2154150943</v>
       </c>
@@ -5758,8 +6013,9 @@
       <c r="D212" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H212" s="38"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2154155136</v>
       </c>
@@ -5772,8 +6028,9 @@
       <c r="D213" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H213" s="38"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>2154155149</v>
       </c>
@@ -5786,8 +6043,9 @@
       <c r="D214" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H214" s="38"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>2154155150</v>
       </c>
@@ -5803,8 +6061,9 @@
       <c r="E215" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H215" s="38"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2154160029</v>
       </c>
@@ -5817,8 +6076,9 @@
       <c r="D216" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H216" s="38"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2154160030</v>
       </c>
@@ -5831,8 +6091,9 @@
       <c r="D217" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H217" s="38"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2154160031</v>
       </c>
@@ -5845,8 +6106,9 @@
       <c r="D218" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H218" s="38"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2154160032</v>
       </c>
@@ -5859,8 +6121,9 @@
       <c r="D219" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H219" s="38"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2154160033</v>
       </c>
@@ -5873,8 +6136,9 @@
       <c r="D220" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H220" s="38"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2154160034</v>
       </c>
@@ -5887,8 +6151,9 @@
       <c r="D221" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H221" s="38"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2154160035</v>
       </c>
@@ -5901,8 +6166,9 @@
       <c r="D222" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H222" s="38"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>2154160036</v>
       </c>
@@ -5915,8 +6181,9 @@
       <c r="D223" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="H223" s="38"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2154160037</v>
       </c>
@@ -5929,8 +6196,9 @@
       <c r="D224" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H224" s="38"/>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2154170049</v>
       </c>
@@ -5943,8 +6211,9 @@
       <c r="D225" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H225" s="38"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2154170050</v>
       </c>
@@ -5966,8 +6235,9 @@
       <c r="G226" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H226" s="38"/>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2154170052</v>
       </c>
@@ -5980,8 +6250,9 @@
       <c r="D227" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H227" s="38"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
     </row>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A71CF667-5190-4B08-9BF9-D35CBEA6B1FE}"/>
+  <xr:revisionPtr revIDLastSave="443" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CAFF53-F166-4B56-836D-034C763AB2D8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="425">
   <si>
     <t>Col 1</t>
   </si>
@@ -1657,7 +1657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1728,7 +1728,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1737,20 +1736,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2165,6 +2150,20 @@
         <name val="Aptos Narrow"/>
         <family val="2"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+      </font>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
@@ -2236,14 +2235,14 @@
     <tableColumn id="4" xr3:uid="{009711B2-C3BC-4C66-A5C8-5E23732ACEC7}" name="Col 4" dataDxfId="17"/>
     <tableColumn id="5" xr3:uid="{DBF11C8B-3BA2-4B93-8B9D-B2B98230B63B}" name="Col 5" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{CC41153B-24E7-4D38-B346-9455226D8193}" name="Col 6" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{5BD831E8-A1B8-48E7-A7CD-262D4CCFAEA7}" name="Col 7" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{5BD831E8-A1B8-48E7-A7CD-262D4CCFAEA7}" name="Col 7" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CW10" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}" name="Tabla2" displayName="Tabla2" ref="A1:CW10" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:CW10" xr:uid="{2551586D-350A-4849-A83B-B0EC7C8A022F}"/>
   <tableColumns count="101">
     <tableColumn id="1" xr3:uid="{515ED9AD-2115-402D-A669-A7974119647C}" name="Col 1"/>
@@ -2353,18 +2352,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}" name="Tabla3" displayName="Tabla3" ref="A1:I101" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}" name="Tabla3" displayName="Tabla3" ref="A1:I101" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I101" xr:uid="{98029534-FC1A-4188-9735-CF68321B5AC3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{5E4BDA70-F076-450B-A73E-034DF187DDD0}" name="FA1" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{728A5178-5E49-485C-811A-814C878280BD}" name="FA2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{6512D9A4-ABA5-4A7F-B552-9FA02CBFBA15}" name="FA3" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{E3480F72-1A04-4419-A55B-8A371BCB83BB}" name="FA4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{C5057181-6E4D-42CD-A672-89666A3A590F}" name="FA5" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{9E111813-83ED-4BC3-A5C2-2B23EDCBE045}" name="FA6" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{E3B443D2-6ABB-4DA9-85A3-23615366D11A}" name="FA7" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{9AD5DAC3-1F8A-44BE-8C81-D4E0724B6EED}" name="FA8" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{81F25ED4-3EA1-4016-930B-258B361297C7}" name="FA9" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5E4BDA70-F076-450B-A73E-034DF187DDD0}" name="FA1" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{728A5178-5E49-485C-811A-814C878280BD}" name="FA2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{6512D9A4-ABA5-4A7F-B552-9FA02CBFBA15}" name="FA3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{E3480F72-1A04-4419-A55B-8A371BCB83BB}" name="FA4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C5057181-6E4D-42CD-A672-89666A3A590F}" name="FA5" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{9E111813-83ED-4BC3-A5C2-2B23EDCBE045}" name="FA6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{E3B443D2-6ABB-4DA9-85A3-23615366D11A}" name="FA7" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{9AD5DAC3-1F8A-44BE-8C81-D4E0724B6EED}" name="FA8" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{81F25ED4-3EA1-4016-930B-258B361297C7}" name="FA9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2689,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2727,7 +2726,7 @@
       <c r="G1" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2744,7 +2743,6 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -2759,7 +2757,6 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="38"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -2774,7 +2771,6 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
@@ -2786,7 +2782,6 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
@@ -2801,7 +2796,6 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
@@ -2816,7 +2810,6 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8">
@@ -2831,7 +2824,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="38"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -2849,7 +2841,6 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="38"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
@@ -2864,7 +2855,6 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11">
@@ -2879,7 +2869,6 @@
       <c r="D11" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="38"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
@@ -2894,7 +2883,6 @@
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="38"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -2909,7 +2897,6 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -2924,7 +2911,6 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
@@ -2948,7 +2934,7 @@
       <c r="G15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="38" t="s">
+      <c r="H15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2965,9 +2951,8 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2088702318</v>
       </c>
@@ -2980,9 +2965,8 @@
       <c r="D17" t="s">
         <v>376</v>
       </c>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2088707042</v>
       </c>
@@ -2995,9 +2979,8 @@
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2098700024</v>
       </c>
@@ -3010,9 +2993,8 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>2098700025</v>
       </c>
@@ -3025,9 +3007,8 @@
       <c r="D20" t="s">
         <v>358</v>
       </c>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2098700026</v>
       </c>
@@ -3040,9 +3021,8 @@
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2098700033</v>
       </c>
@@ -3055,9 +3035,8 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2098700046</v>
       </c>
@@ -3070,9 +3049,8 @@
       <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2098700056</v>
       </c>
@@ -3085,9 +3063,8 @@
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2098700058</v>
       </c>
@@ -3100,9 +3077,8 @@
       <c r="D25" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2098700076</v>
       </c>
@@ -3115,9 +3091,8 @@
       <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2098700083</v>
       </c>
@@ -3130,9 +3105,8 @@
       <c r="D27" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>2098700108</v>
       </c>
@@ -3145,9 +3119,8 @@
       <c r="D28" t="s">
         <v>52</v>
       </c>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2098700143</v>
       </c>
@@ -3160,9 +3133,8 @@
       <c r="D29" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2098700154</v>
       </c>
@@ -3175,9 +3147,8 @@
       <c r="D30" t="s">
         <v>35</v>
       </c>
-      <c r="H30" s="38"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2098700177</v>
       </c>
@@ -3190,9 +3161,8 @@
       <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="38"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2098700189</v>
       </c>
@@ -3205,9 +3175,8 @@
       <c r="D32" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2098700245</v>
       </c>
@@ -3220,9 +3189,8 @@
       <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <v>2098700246</v>
       </c>
@@ -3235,9 +3203,8 @@
       <c r="D34" t="s">
         <v>45</v>
       </c>
-      <c r="H34" s="38"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <v>2098700256</v>
       </c>
@@ -3250,9 +3217,8 @@
       <c r="D35" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="38"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2098700289</v>
       </c>
@@ -3265,9 +3231,8 @@
       <c r="D36" t="s">
         <v>49</v>
       </c>
-      <c r="H36" s="38"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2098700290</v>
       </c>
@@ -3280,9 +3245,8 @@
       <c r="D37" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2098700293</v>
       </c>
@@ -3295,9 +3259,8 @@
       <c r="D38" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2098700296</v>
       </c>
@@ -3313,9 +3276,8 @@
       <c r="E39" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="38"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2098700301</v>
       </c>
@@ -3328,9 +3290,8 @@
       <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="H40" s="38"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2098700302</v>
       </c>
@@ -3343,9 +3304,8 @@
       <c r="D41" t="s">
         <v>58</v>
       </c>
-      <c r="H41" s="38"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2098700304</v>
       </c>
@@ -3358,9 +3318,8 @@
       <c r="D42" t="s">
         <v>14</v>
       </c>
-      <c r="H42" s="38"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2098700305</v>
       </c>
@@ -3373,9 +3332,8 @@
       <c r="D43" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="38"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>2098700306</v>
       </c>
@@ -3388,9 +3346,8 @@
       <c r="D44" t="s">
         <v>58</v>
       </c>
-      <c r="H44" s="38"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>2098700307</v>
       </c>
@@ -3403,9 +3360,8 @@
       <c r="D45" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="38"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>2098700309</v>
       </c>
@@ -3418,9 +3374,8 @@
       <c r="D46" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="38"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2098700315</v>
       </c>
@@ -3433,9 +3388,8 @@
       <c r="D47" t="s">
         <v>49</v>
       </c>
-      <c r="H47" s="38"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>2098700316</v>
       </c>
@@ -3448,9 +3402,8 @@
       <c r="D48" t="s">
         <v>35</v>
       </c>
-      <c r="H48" s="38"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>2098700320</v>
       </c>
@@ -3463,9 +3416,8 @@
       <c r="D49" t="s">
         <v>58</v>
       </c>
-      <c r="H49" s="38"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>2098700322</v>
       </c>
@@ -3478,9 +3430,8 @@
       <c r="D50" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="38"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>2098700353</v>
       </c>
@@ -3493,9 +3444,8 @@
       <c r="D51" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="38"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>2098700355</v>
       </c>
@@ -3508,9 +3458,8 @@
       <c r="D52" t="s">
         <v>71</v>
       </c>
-      <c r="H52" s="38"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>2098700356</v>
       </c>
@@ -3523,9 +3472,8 @@
       <c r="D53" t="s">
         <v>71</v>
       </c>
-      <c r="H53" s="38"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>2098700357</v>
       </c>
@@ -3538,9 +3486,8 @@
       <c r="D54" t="s">
         <v>74</v>
       </c>
-      <c r="H54" s="38"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>2098700358</v>
       </c>
@@ -3553,9 +3500,8 @@
       <c r="D55" t="s">
         <v>49</v>
       </c>
-      <c r="H55" s="38"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2098700366</v>
       </c>
@@ -3568,9 +3514,8 @@
       <c r="D56" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="38"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>2098700371</v>
       </c>
@@ -3583,9 +3528,8 @@
       <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="H57" s="38"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>2098700372</v>
       </c>
@@ -3598,9 +3542,8 @@
       <c r="D58" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="38"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>2098700373</v>
       </c>
@@ -3613,9 +3556,8 @@
       <c r="D59" t="s">
         <v>52</v>
       </c>
-      <c r="H59" s="38"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>2098700374</v>
       </c>
@@ -3628,9 +3570,8 @@
       <c r="D60" t="s">
         <v>43</v>
       </c>
-      <c r="H60" s="38"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>2098700375</v>
       </c>
@@ -3643,9 +3584,8 @@
       <c r="D61" t="s">
         <v>31</v>
       </c>
-      <c r="H61" s="38"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>2098700376</v>
       </c>
@@ -3658,9 +3598,8 @@
       <c r="D62" t="s">
         <v>31</v>
       </c>
-      <c r="H62" s="38"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>2098700378</v>
       </c>
@@ -3673,9 +3612,8 @@
       <c r="D63" t="s">
         <v>35</v>
       </c>
-      <c r="H63" s="38"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>2098700379</v>
       </c>
@@ -3688,9 +3626,8 @@
       <c r="D64" t="s">
         <v>82</v>
       </c>
-      <c r="H64" s="38"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>2098700380</v>
       </c>
@@ -3703,9 +3640,8 @@
       <c r="D65" t="s">
         <v>82</v>
       </c>
-      <c r="H65" s="38"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>2098700404</v>
       </c>
@@ -3718,9 +3654,8 @@
       <c r="D66" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="38"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>2098700405</v>
       </c>
@@ -3733,9 +3668,8 @@
       <c r="D67" t="s">
         <v>10</v>
       </c>
-      <c r="H67" s="38"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>2098700429</v>
       </c>
@@ -3748,9 +3682,8 @@
       <c r="D68" t="s">
         <v>82</v>
       </c>
-      <c r="H68" s="38"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>2098700432</v>
       </c>
@@ -3763,9 +3696,8 @@
       <c r="D69" t="s">
         <v>359</v>
       </c>
-      <c r="H69" s="38"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>2098700433</v>
       </c>
@@ -3778,9 +3710,8 @@
       <c r="D70" t="s">
         <v>125</v>
       </c>
-      <c r="H70" s="38"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>2098700434</v>
       </c>
@@ -3793,9 +3724,8 @@
       <c r="D71" t="s">
         <v>359</v>
       </c>
-      <c r="H71" s="38"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>2098700436</v>
       </c>
@@ -3808,9 +3738,8 @@
       <c r="D72" t="s">
         <v>359</v>
       </c>
-      <c r="H72" s="38"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>2098700437</v>
       </c>
@@ -3826,9 +3755,8 @@
       <c r="E73" t="s">
         <v>360</v>
       </c>
-      <c r="H73" s="38"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>2098701682</v>
       </c>
@@ -3841,9 +3769,8 @@
       <c r="D74" t="s">
         <v>35</v>
       </c>
-      <c r="H74" s="38"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>2098706005</v>
       </c>
@@ -3856,9 +3783,8 @@
       <c r="D75" t="s">
         <v>52</v>
       </c>
-      <c r="H75" s="38"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>2098706008</v>
       </c>
@@ -3871,9 +3797,8 @@
       <c r="D76" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="38"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>2098706009</v>
       </c>
@@ -3886,9 +3811,8 @@
       <c r="D77" t="s">
         <v>8</v>
       </c>
-      <c r="H77" s="38"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>2098706010</v>
       </c>
@@ -3901,9 +3825,8 @@
       <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="H78" s="38"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>2098706011</v>
       </c>
@@ -3916,9 +3839,8 @@
       <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="H79" s="38"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>2098706013</v>
       </c>
@@ -3931,9 +3853,8 @@
       <c r="D80" t="s">
         <v>57</v>
       </c>
-      <c r="H80" s="38"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>2098706018</v>
       </c>
@@ -3946,9 +3867,8 @@
       <c r="D81" t="s">
         <v>57</v>
       </c>
-      <c r="H81" s="38"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2098706021</v>
       </c>
@@ -3961,9 +3881,8 @@
       <c r="D82" t="s">
         <v>52</v>
       </c>
-      <c r="H82" s="38"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>2098706023</v>
       </c>
@@ -3976,9 +3895,8 @@
       <c r="D83" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="38"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>2098706024</v>
       </c>
@@ -3991,9 +3909,8 @@
       <c r="D84" t="s">
         <v>54</v>
       </c>
-      <c r="H84" s="38"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>2098706025</v>
       </c>
@@ -4006,9 +3923,8 @@
       <c r="D85" t="s">
         <v>14</v>
       </c>
-      <c r="H85" s="38"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>2098706026</v>
       </c>
@@ -4021,9 +3937,8 @@
       <c r="D86" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="38"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2098706028</v>
       </c>
@@ -4036,9 +3951,8 @@
       <c r="D87" t="s">
         <v>52</v>
       </c>
-      <c r="H87" s="38"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>2098706031</v>
       </c>
@@ -4051,9 +3965,8 @@
       <c r="D88" t="s">
         <v>52</v>
       </c>
-      <c r="H88" s="38"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>2098706032</v>
       </c>
@@ -4066,9 +3979,8 @@
       <c r="D89" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="38"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>2098706040</v>
       </c>
@@ -4081,9 +3993,8 @@
       <c r="D90" t="s">
         <v>14</v>
       </c>
-      <c r="H90" s="38"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>2098706041</v>
       </c>
@@ -4096,9 +4007,8 @@
       <c r="D91" t="s">
         <v>57</v>
       </c>
-      <c r="H91" s="38"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>2098706044</v>
       </c>
@@ -4111,9 +4021,8 @@
       <c r="D92" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="38"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="5">
         <v>2098706072</v>
       </c>
@@ -4126,9 +4035,8 @@
       <c r="D93" t="s">
         <v>52</v>
       </c>
-      <c r="H93" s="38"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="5">
         <v>2098706075</v>
       </c>
@@ -4141,9 +4049,8 @@
       <c r="D94" t="s">
         <v>52</v>
       </c>
-      <c r="H94" s="38"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="5">
         <v>2098706076</v>
       </c>
@@ -4156,9 +4063,8 @@
       <c r="D95" t="s">
         <v>52</v>
       </c>
-      <c r="H95" s="38"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>2098706083</v>
       </c>
@@ -4171,9 +4077,8 @@
       <c r="D96" t="s">
         <v>8</v>
       </c>
-      <c r="H96" s="38"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2098706084</v>
       </c>
@@ -4186,9 +4091,8 @@
       <c r="D97" t="s">
         <v>101</v>
       </c>
-      <c r="H97" s="38"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="5">
         <v>2099700009</v>
       </c>
@@ -4201,9 +4105,8 @@
       <c r="D98" t="s">
         <v>38</v>
       </c>
-      <c r="H98" s="38"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>2099700010</v>
       </c>
@@ -4216,9 +4119,8 @@
       <c r="D99" t="s">
         <v>38</v>
       </c>
-      <c r="H99" s="38"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>2099700025</v>
       </c>
@@ -4234,9 +4136,8 @@
       <c r="E100" t="s">
         <v>14</v>
       </c>
-      <c r="H100" s="38"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2099700030</v>
       </c>
@@ -4255,9 +4156,8 @@
       <c r="F101" t="s">
         <v>52</v>
       </c>
-      <c r="H101" s="38"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="5">
         <v>2099700041</v>
       </c>
@@ -4270,9 +4170,8 @@
       <c r="D102" t="s">
         <v>38</v>
       </c>
-      <c r="H102" s="38"/>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>2099700048</v>
       </c>
@@ -4285,9 +4184,8 @@
       <c r="D103" t="s">
         <v>46</v>
       </c>
-      <c r="H103" s="38"/>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="5">
         <v>2099700049</v>
       </c>
@@ -4300,9 +4198,8 @@
       <c r="D104" t="s">
         <v>45</v>
       </c>
-      <c r="H104" s="38"/>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>2099700056</v>
       </c>
@@ -4315,9 +4212,8 @@
       <c r="D105" t="s">
         <v>45</v>
       </c>
-      <c r="H105" s="38"/>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>2099700057</v>
       </c>
@@ -4333,9 +4229,8 @@
       <c r="E106" t="s">
         <v>10</v>
       </c>
-      <c r="H106" s="38"/>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>2099700058</v>
       </c>
@@ -4357,9 +4252,8 @@
       <c r="G107" t="s">
         <v>359</v>
       </c>
-      <c r="H107" s="38"/>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>2099700059</v>
       </c>
@@ -4381,9 +4275,8 @@
       <c r="G108" t="s">
         <v>52</v>
       </c>
-      <c r="H108" s="38"/>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>2099706005</v>
       </c>
@@ -4396,9 +4289,8 @@
       <c r="D109" t="s">
         <v>29</v>
       </c>
-      <c r="H109" s="38"/>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>2154140069</v>
       </c>
@@ -4411,9 +4303,8 @@
       <c r="D110" t="s">
         <v>299</v>
       </c>
-      <c r="H110" s="38"/>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>2154140162</v>
       </c>
@@ -4426,9 +4317,8 @@
       <c r="D111" t="s">
         <v>31</v>
       </c>
-      <c r="H111" s="38"/>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>2154140207</v>
       </c>
@@ -4441,9 +4331,8 @@
       <c r="D112" t="s">
         <v>364</v>
       </c>
-      <c r="H112" s="38"/>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>2154140222</v>
       </c>
@@ -4456,9 +4345,8 @@
       <c r="D113" t="s">
         <v>31</v>
       </c>
-      <c r="H113" s="38"/>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>2154140224</v>
       </c>
@@ -4471,9 +4359,8 @@
       <c r="D114" t="s">
         <v>31</v>
       </c>
-      <c r="H114" s="38"/>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>2154140225</v>
       </c>
@@ -4486,9 +4373,8 @@
       <c r="D115" t="s">
         <v>31</v>
       </c>
-      <c r="H115" s="38"/>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>2154140229</v>
       </c>
@@ -4501,9 +4387,8 @@
       <c r="D116" t="s">
         <v>31</v>
       </c>
-      <c r="H116" s="38"/>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>2154140243</v>
       </c>
@@ -4516,9 +4401,8 @@
       <c r="D117" t="s">
         <v>105</v>
       </c>
-      <c r="H117" s="38"/>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>2154140283</v>
       </c>
@@ -4531,9 +4415,8 @@
       <c r="D118" t="s">
         <v>106</v>
       </c>
-      <c r="H118" s="38"/>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2154140284</v>
       </c>
@@ -4546,9 +4429,8 @@
       <c r="D119" t="s">
         <v>105</v>
       </c>
-      <c r="H119" s="38"/>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="5">
         <v>2154140285</v>
       </c>
@@ -4561,9 +4443,8 @@
       <c r="D120" t="s">
         <v>365</v>
       </c>
-      <c r="H120" s="38"/>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>2154140287</v>
       </c>
@@ -4576,9 +4457,8 @@
       <c r="D121" t="s">
         <v>105</v>
       </c>
-      <c r="H121" s="38"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>2154140289</v>
       </c>
@@ -4591,9 +4471,8 @@
       <c r="D122" t="s">
         <v>105</v>
       </c>
-      <c r="H122" s="38"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>2154140290</v>
       </c>
@@ -4606,9 +4485,8 @@
       <c r="D123" t="s">
         <v>105</v>
       </c>
-      <c r="H123" s="38"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="5">
         <v>2154140291</v>
       </c>
@@ -4621,9 +4499,8 @@
       <c r="D124" t="s">
         <v>365</v>
       </c>
-      <c r="H124" s="38"/>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
         <v>2154140292</v>
       </c>
@@ -4636,9 +4513,8 @@
       <c r="D125" t="s">
         <v>31</v>
       </c>
-      <c r="H125" s="38"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>2154140293</v>
       </c>
@@ -4651,9 +4527,8 @@
       <c r="D126" t="s">
         <v>106</v>
       </c>
-      <c r="H126" s="38"/>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>2154140294</v>
       </c>
@@ -4666,9 +4541,8 @@
       <c r="D127" t="s">
         <v>105</v>
       </c>
-      <c r="H127" s="38"/>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>2154140295</v>
       </c>
@@ -4681,9 +4555,8 @@
       <c r="D128" t="s">
         <v>105</v>
       </c>
-      <c r="H128" s="38"/>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>2154140318</v>
       </c>
@@ -4696,9 +4569,8 @@
       <c r="D129" t="s">
         <v>31</v>
       </c>
-      <c r="H129" s="38"/>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>2154140319</v>
       </c>
@@ -4711,9 +4583,8 @@
       <c r="D130" t="s">
         <v>114</v>
       </c>
-      <c r="H130" s="38"/>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="5">
         <v>2154140335</v>
       </c>
@@ -4726,9 +4597,8 @@
       <c r="D131" t="s">
         <v>106</v>
       </c>
-      <c r="H131" s="38"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>2154140336</v>
       </c>
@@ -4741,9 +4611,8 @@
       <c r="D132" t="s">
         <v>105</v>
       </c>
-      <c r="H132" s="38"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="5">
         <v>2154140345</v>
       </c>
@@ -4756,9 +4625,8 @@
       <c r="D133" t="s">
         <v>365</v>
       </c>
-      <c r="H133" s="38"/>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>2154140349</v>
       </c>
@@ -4771,9 +4639,8 @@
       <c r="D134" t="s">
         <v>118</v>
       </c>
-      <c r="H134" s="38"/>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="5">
         <v>2154140596</v>
       </c>
@@ -4786,9 +4653,8 @@
       <c r="D135" t="s">
         <v>366</v>
       </c>
-      <c r="H135" s="38"/>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>2154150035</v>
       </c>
@@ -4801,9 +4667,8 @@
       <c r="D136" t="s">
         <v>120</v>
       </c>
-      <c r="H136" s="38"/>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>2154150089</v>
       </c>
@@ -4816,9 +4681,8 @@
       <c r="D137" t="s">
         <v>123</v>
       </c>
-      <c r="H137" s="38"/>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>2154150163</v>
       </c>
@@ -4831,9 +4695,8 @@
       <c r="D138" t="s">
         <v>125</v>
       </c>
-      <c r="H138" s="38"/>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>2154150172</v>
       </c>
@@ -4846,9 +4709,8 @@
       <c r="D139" t="s">
         <v>120</v>
       </c>
-      <c r="H139" s="38"/>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>2154150197</v>
       </c>
@@ -4861,9 +4723,8 @@
       <c r="D140" t="s">
         <v>126</v>
       </c>
-      <c r="H140" s="38"/>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>2154150214</v>
       </c>
@@ -4876,9 +4737,8 @@
       <c r="D141" t="s">
         <v>127</v>
       </c>
-      <c r="H141" s="38"/>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>2154150215</v>
       </c>
@@ -4891,9 +4751,8 @@
       <c r="D142" t="s">
         <v>126</v>
       </c>
-      <c r="H142" s="38"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>2154150247</v>
       </c>
@@ -4906,9 +4765,8 @@
       <c r="D143" t="s">
         <v>131</v>
       </c>
-      <c r="H143" s="38"/>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>2154150250</v>
       </c>
@@ -4921,9 +4779,8 @@
       <c r="D144" t="s">
         <v>375</v>
       </c>
-      <c r="H144" s="38"/>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="5">
         <v>2154150301</v>
       </c>
@@ -4936,9 +4793,8 @@
       <c r="D145" t="s">
         <v>135</v>
       </c>
-      <c r="H145" s="38"/>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>2154150337</v>
       </c>
@@ -4951,9 +4807,8 @@
       <c r="D146" t="s">
         <v>135</v>
       </c>
-      <c r="H146" s="38"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>2154150341</v>
       </c>
@@ -4966,9 +4821,8 @@
       <c r="D147" t="s">
         <v>136</v>
       </c>
-      <c r="H147" s="38"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>2154150342</v>
       </c>
@@ -4981,9 +4835,8 @@
       <c r="D148" t="s">
         <v>129</v>
       </c>
-      <c r="H148" s="38"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="5">
         <v>2154150343</v>
       </c>
@@ -4996,9 +4849,8 @@
       <c r="D149" t="s">
         <v>123</v>
       </c>
-      <c r="H149" s="38"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
         <v>2154150347</v>
       </c>
@@ -5011,9 +4863,8 @@
       <c r="D150" t="s">
         <v>123</v>
       </c>
-      <c r="H150" s="38"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>2154150348</v>
       </c>
@@ -5026,9 +4877,8 @@
       <c r="D151" t="s">
         <v>135</v>
       </c>
-      <c r="H151" s="38"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="5">
         <v>2154150349</v>
       </c>
@@ -5041,9 +4891,8 @@
       <c r="D152" t="s">
         <v>123</v>
       </c>
-      <c r="H152" s="38"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
         <v>2154150350</v>
       </c>
@@ -5059,9 +4908,8 @@
       <c r="E153" t="s">
         <v>126</v>
       </c>
-      <c r="H153" s="38"/>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
         <v>2154150351</v>
       </c>
@@ -5074,9 +4922,8 @@
       <c r="D154" t="s">
         <v>123</v>
       </c>
-      <c r="H154" s="38"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
         <v>2154150357</v>
       </c>
@@ -5092,9 +4939,8 @@
       <c r="E155" t="s">
         <v>368</v>
       </c>
-      <c r="H155" s="38"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
         <v>2154150358</v>
       </c>
@@ -5107,9 +4953,8 @@
       <c r="D156" t="s">
         <v>364</v>
       </c>
-      <c r="H156" s="38"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
         <v>2154150366</v>
       </c>
@@ -5125,9 +4970,8 @@
       <c r="E157" t="s">
         <v>367</v>
       </c>
-      <c r="H157" s="38"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
         <v>2154150370</v>
       </c>
@@ -5140,9 +4984,8 @@
       <c r="D158" t="s">
         <v>368</v>
       </c>
-      <c r="H158" s="38"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>2154150380</v>
       </c>
@@ -5155,9 +4998,8 @@
       <c r="D159" t="s">
         <v>125</v>
       </c>
-      <c r="H159" s="38"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>2154150391</v>
       </c>
@@ -5170,9 +5012,8 @@
       <c r="D160" t="s">
         <v>137</v>
       </c>
-      <c r="H160" s="38"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>2154150420</v>
       </c>
@@ -5185,9 +5026,8 @@
       <c r="D161" t="s">
         <v>126</v>
       </c>
-      <c r="H161" s="38"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>2154150447</v>
       </c>
@@ -5200,9 +5040,8 @@
       <c r="D162" t="s">
         <v>135</v>
       </c>
-      <c r="H162" s="38"/>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="5">
         <v>2154150448</v>
       </c>
@@ -5215,9 +5054,8 @@
       <c r="D163" t="s">
         <v>123</v>
       </c>
-      <c r="H163" s="38"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
         <v>2154150455</v>
       </c>
@@ -5233,9 +5071,8 @@
       <c r="E164" t="s">
         <v>154</v>
       </c>
-      <c r="H164" s="38"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2154150461</v>
       </c>
@@ -5248,9 +5085,8 @@
       <c r="D165" t="s">
         <v>125</v>
       </c>
-      <c r="H165" s="38"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="5">
         <v>2154150497</v>
       </c>
@@ -5263,9 +5099,8 @@
       <c r="D166" t="s">
         <v>126</v>
       </c>
-      <c r="H166" s="38"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
         <v>2154150501</v>
       </c>
@@ -5278,9 +5113,8 @@
       <c r="D167" t="s">
         <v>126</v>
       </c>
-      <c r="H167" s="38"/>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
         <v>2154150509</v>
       </c>
@@ -5293,9 +5127,8 @@
       <c r="D168" t="s">
         <v>120</v>
       </c>
-      <c r="H168" s="38"/>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
         <v>2154150525</v>
       </c>
@@ -5311,9 +5144,8 @@
       <c r="E169" t="s">
         <v>126</v>
       </c>
-      <c r="H169" s="38"/>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
         <v>2154150526</v>
       </c>
@@ -5326,9 +5158,8 @@
       <c r="D170" t="s">
         <v>370</v>
       </c>
-      <c r="H170" s="38"/>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
         <v>2154150534</v>
       </c>
@@ -5344,9 +5175,8 @@
       <c r="E171" t="s">
         <v>129</v>
       </c>
-      <c r="H171" s="38"/>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>2154150554</v>
       </c>
@@ -5359,9 +5189,8 @@
       <c r="D172" t="s">
         <v>133</v>
       </c>
-      <c r="H172" s="38"/>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="5">
         <v>2154150557</v>
       </c>
@@ -5374,9 +5203,8 @@
       <c r="D173" t="s">
         <v>154</v>
       </c>
-      <c r="H173" s="38"/>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
         <v>2154150560</v>
       </c>
@@ -5395,9 +5223,8 @@
       <c r="F174" t="s">
         <v>364</v>
       </c>
-      <c r="H174" s="38"/>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>2154150563</v>
       </c>
@@ -5410,9 +5237,8 @@
       <c r="D175" t="s">
         <v>31</v>
       </c>
-      <c r="H175" s="38"/>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="5">
         <v>2154150581</v>
       </c>
@@ -5425,9 +5251,8 @@
       <c r="D176" t="s">
         <v>126</v>
       </c>
-      <c r="H176" s="38"/>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>2154150582</v>
       </c>
@@ -5440,9 +5265,8 @@
       <c r="D177" t="s">
         <v>126</v>
       </c>
-      <c r="H177" s="38"/>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>2154150588</v>
       </c>
@@ -5455,9 +5279,8 @@
       <c r="D178" t="s">
         <v>127</v>
       </c>
-      <c r="H178" s="38"/>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="5">
         <v>2154150591</v>
       </c>
@@ -5473,9 +5296,8 @@
       <c r="E179" t="s">
         <v>143</v>
       </c>
-      <c r="H179" s="38"/>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
         <v>2154150597</v>
       </c>
@@ -5491,9 +5313,8 @@
       <c r="E180" t="s">
         <v>331</v>
       </c>
-      <c r="H180" s="38"/>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>2154150603</v>
       </c>
@@ -5506,9 +5327,8 @@
       <c r="D181" t="s">
         <v>124</v>
       </c>
-      <c r="H181" s="38"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>2154150605</v>
       </c>
@@ -5521,9 +5341,8 @@
       <c r="D182" t="s">
         <v>143</v>
       </c>
-      <c r="H182" s="38"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="5">
         <v>2154150622</v>
       </c>
@@ -5536,9 +5355,8 @@
       <c r="D183" t="s">
         <v>372</v>
       </c>
-      <c r="H183" s="38"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
         <v>2154150627</v>
       </c>
@@ -5551,9 +5369,8 @@
       <c r="D184" t="s">
         <v>373</v>
       </c>
-      <c r="H184" s="38"/>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>2154150633</v>
       </c>
@@ -5566,9 +5383,8 @@
       <c r="D185" t="s">
         <v>126</v>
       </c>
-      <c r="H185" s="38"/>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="5">
         <v>2154150646</v>
       </c>
@@ -5587,9 +5403,8 @@
       <c r="F186" t="s">
         <v>331</v>
       </c>
-      <c r="H186" s="38"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
         <v>2154150648</v>
       </c>
@@ -5608,9 +5423,8 @@
       <c r="F187" t="s">
         <v>375</v>
       </c>
-      <c r="H187" s="38"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
         <v>2154150653</v>
       </c>
@@ -5623,9 +5437,8 @@
       <c r="D188" t="s">
         <v>124</v>
       </c>
-      <c r="H188" s="38"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>2154150669</v>
       </c>
@@ -5638,9 +5451,8 @@
       <c r="D189" t="s">
         <v>126</v>
       </c>
-      <c r="H189" s="38"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2154150672</v>
       </c>
@@ -5653,9 +5465,8 @@
       <c r="D190" t="s">
         <v>126</v>
       </c>
-      <c r="H190" s="38"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
         <v>2154150677</v>
       </c>
@@ -5671,9 +5482,8 @@
       <c r="E191" t="s">
         <v>376</v>
       </c>
-      <c r="H191" s="38"/>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>2154150706</v>
       </c>
@@ -5686,9 +5496,8 @@
       <c r="D192" t="s">
         <v>105</v>
       </c>
-      <c r="H192" s="38"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>2154150707</v>
       </c>
@@ -5701,9 +5510,8 @@
       <c r="D193" t="s">
         <v>105</v>
       </c>
-      <c r="H193" s="38"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>2154150715</v>
       </c>
@@ -5716,9 +5524,8 @@
       <c r="D194" t="s">
         <v>105</v>
       </c>
-      <c r="H194" s="38"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
         <v>2154150719</v>
       </c>
@@ -5731,9 +5538,8 @@
       <c r="D195" t="s">
         <v>135</v>
       </c>
-      <c r="H195" s="38"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
         <v>2154150731</v>
       </c>
@@ -5746,9 +5552,8 @@
       <c r="D196" t="s">
         <v>126</v>
       </c>
-      <c r="H196" s="38"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
         <v>2154150765</v>
       </c>
@@ -5767,9 +5572,8 @@
       <c r="F197" t="s">
         <v>154</v>
       </c>
-      <c r="H197" s="38"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
         <v>2154150767</v>
       </c>
@@ -5788,9 +5592,8 @@
       <c r="F198" t="s">
         <v>143</v>
       </c>
-      <c r="H198" s="38"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
         <v>2154150769</v>
       </c>
@@ -5806,9 +5609,8 @@
       <c r="E199" t="s">
         <v>135</v>
       </c>
-      <c r="H199" s="38"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
         <v>2154150788</v>
       </c>
@@ -5821,9 +5623,8 @@
       <c r="D200" t="s">
         <v>370</v>
       </c>
-      <c r="H200" s="38"/>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
         <v>2154150813</v>
       </c>
@@ -5842,9 +5643,8 @@
       <c r="F201" t="s">
         <v>331</v>
       </c>
-      <c r="H201" s="38"/>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
         <v>2154150814</v>
       </c>
@@ -5860,9 +5660,8 @@
       <c r="E202" t="s">
         <v>135</v>
       </c>
-      <c r="H202" s="38"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
         <v>2154150822</v>
       </c>
@@ -5878,9 +5677,8 @@
       <c r="E203" t="s">
         <v>154</v>
       </c>
-      <c r="H203" s="38"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
         <v>2154150839</v>
       </c>
@@ -5893,9 +5691,8 @@
       <c r="D204" t="s">
         <v>331</v>
       </c>
-      <c r="H204" s="38"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
         <v>2154150840</v>
       </c>
@@ -5908,9 +5705,8 @@
       <c r="D205" t="s">
         <v>127</v>
       </c>
-      <c r="H205" s="38"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
         <v>2154150841</v>
       </c>
@@ -5923,9 +5719,8 @@
       <c r="D206" t="s">
         <v>125</v>
       </c>
-      <c r="H206" s="38"/>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
         <v>2154150876</v>
       </c>
@@ -5938,9 +5733,8 @@
       <c r="D207" t="s">
         <v>127</v>
       </c>
-      <c r="H207" s="38"/>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
         <v>2154150893</v>
       </c>
@@ -5953,9 +5747,8 @@
       <c r="D208" t="s">
         <v>138</v>
       </c>
-      <c r="H208" s="38"/>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
         <v>2154150918</v>
       </c>
@@ -5968,9 +5761,8 @@
       <c r="D209" t="s">
         <v>361</v>
       </c>
-      <c r="H209" s="38"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
         <v>2154150921</v>
       </c>
@@ -5983,9 +5775,8 @@
       <c r="D210" t="s">
         <v>379</v>
       </c>
-      <c r="H210" s="38"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
         <v>2154150922</v>
       </c>
@@ -5998,9 +5789,8 @@
       <c r="D211" t="s">
         <v>378</v>
       </c>
-      <c r="H211" s="38"/>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>2154150943</v>
       </c>
@@ -6013,9 +5803,8 @@
       <c r="D212" t="s">
         <v>126</v>
       </c>
-      <c r="H212" s="38"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>2154155136</v>
       </c>
@@ -6028,9 +5817,8 @@
       <c r="D213" t="s">
         <v>126</v>
       </c>
-      <c r="H213" s="38"/>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
         <v>2154155149</v>
       </c>
@@ -6043,9 +5831,8 @@
       <c r="D214" t="s">
         <v>369</v>
       </c>
-      <c r="H214" s="38"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
         <v>2154155150</v>
       </c>
@@ -6061,9 +5848,8 @@
       <c r="E215" t="s">
         <v>331</v>
       </c>
-      <c r="H215" s="38"/>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>2154160029</v>
       </c>
@@ -6076,9 +5862,8 @@
       <c r="D216" t="s">
         <v>152</v>
       </c>
-      <c r="H216" s="38"/>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>2154160030</v>
       </c>
@@ -6091,9 +5876,8 @@
       <c r="D217" t="s">
         <v>154</v>
       </c>
-      <c r="H217" s="38"/>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>2154160031</v>
       </c>
@@ -6106,9 +5890,8 @@
       <c r="D218" t="s">
         <v>154</v>
       </c>
-      <c r="H218" s="38"/>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>2154160032</v>
       </c>
@@ -6121,9 +5904,8 @@
       <c r="D219" t="s">
         <v>31</v>
       </c>
-      <c r="H219" s="38"/>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>2154160033</v>
       </c>
@@ -6136,9 +5918,8 @@
       <c r="D220" t="s">
         <v>31</v>
       </c>
-      <c r="H220" s="38"/>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>2154160034</v>
       </c>
@@ -6151,9 +5932,8 @@
       <c r="D221" t="s">
         <v>160</v>
       </c>
-      <c r="H221" s="38"/>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>2154160035</v>
       </c>
@@ -6166,9 +5946,8 @@
       <c r="D222" t="s">
         <v>152</v>
       </c>
-      <c r="H222" s="38"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
         <v>2154160036</v>
       </c>
@@ -6181,9 +5960,8 @@
       <c r="D223" t="s">
         <v>31</v>
       </c>
-      <c r="H223" s="38"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>2154160037</v>
       </c>
@@ -6196,9 +5974,8 @@
       <c r="D224" t="s">
         <v>31</v>
       </c>
-      <c r="H224" s="38"/>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>2154170049</v>
       </c>
@@ -6211,9 +5988,8 @@
       <c r="D225" t="s">
         <v>163</v>
       </c>
-      <c r="H225" s="38"/>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>2154170050</v>
       </c>
@@ -6235,9 +6011,8 @@
       <c r="G226" t="s">
         <v>166</v>
       </c>
-      <c r="H226" s="38"/>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>2154170052</v>
       </c>
@@ -6250,9 +6025,8 @@
       <c r="D227" t="s">
         <v>168</v>
       </c>
-      <c r="H227" s="38"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
     </row>
@@ -7549,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7843,39 +7617,36 @@
         <v>61</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="36" t="s">
         <v>93</v>
       </c>
+      <c r="Q4" s="36">
+        <v>2098700305</v>
+      </c>
       <c r="R4" s="36">
-        <v>2098700305</v>
-      </c>
-      <c r="S4" s="36">
         <v>2098706018</v>
       </c>
     </row>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CAFF53-F166-4B56-836D-034C763AB2D8}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3343E5D4-9164-4C8D-B38D-B8F97DE7C58B}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -7321,19 +7321,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AT10"/>
+  <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:R4"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AU6" sqref="AU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="46" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="47" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>263</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>2098700429</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>311</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>2154140336</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>313</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>2098706018</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>315</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>2154150497</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>317</v>
       </c>
@@ -7878,8 +7878,11 @@
       <c r="AT6" s="36">
         <v>2154140596</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+      <c r="AU6" s="36">
+        <v>2098700434</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>319</v>
       </c>
@@ -7962,7 +7965,7 @@
         <v>2088707042</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>321</v>
       </c>
@@ -8009,7 +8012,7 @@
         <v>2098700437</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>323</v>
       </c>
@@ -8041,7 +8044,7 @@
         <v>2154170049</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>325</v>
       </c>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="447" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3343E5D4-9164-4C8D-B38D-B8F97DE7C58B}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC4FE44-C8AA-443D-9831-05F10D90EB3C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -439,9 +439,6 @@
     <t>2154150250</t>
   </si>
   <si>
-    <t>AMS11A-102Z5-Z</t>
-  </si>
-  <si>
     <t>2154150337</t>
   </si>
   <si>
@@ -1313,6 +1310,9 @@
   </si>
   <si>
     <t>59Z178-000-F</t>
+  </si>
+  <si>
+    <t>AMS18A-102Z5</t>
   </si>
 </sst>
 </file>
@@ -2688,8 +2688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C1" s="35" t="s">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2735,7 +2735,7 @@
         <v>2088701244</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2749,7 +2749,7 @@
         <v>2088701390</v>
       </c>
       <c r="B3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -2763,7 +2763,7 @@
         <v>2088701610</v>
       </c>
       <c r="B4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -2777,7 +2777,7 @@
         <v>2088701746</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -2788,7 +2788,7 @@
         <v>2088702198</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -2802,7 +2802,7 @@
         <v>2088702199</v>
       </c>
       <c r="B7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -2816,7 +2816,7 @@
         <v>2088702200</v>
       </c>
       <c r="B8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -2830,7 +2830,7 @@
         <v>2088702201</v>
       </c>
       <c r="B9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2847,7 +2847,7 @@
         <v>2088702202</v>
       </c>
       <c r="B10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -2861,7 +2861,7 @@
         <v>2088702203</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -2875,7 +2875,7 @@
         <v>2088702204</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -2889,7 +2889,7 @@
         <v>2088702205</v>
       </c>
       <c r="B13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -2903,7 +2903,7 @@
         <v>2088702206</v>
       </c>
       <c r="B14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -2917,7 +2917,7 @@
         <v>2088702207</v>
       </c>
       <c r="B15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -2943,7 +2943,7 @@
         <v>2088702221</v>
       </c>
       <c r="B16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -2957,13 +2957,13 @@
         <v>2088702318</v>
       </c>
       <c r="B17" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -2971,7 +2971,7 @@
         <v>2088707042</v>
       </c>
       <c r="B18" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -2985,7 +2985,7 @@
         <v>2098700024</v>
       </c>
       <c r="B19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C19" t="s">
         <v>25</v>
@@ -2999,13 +2999,13 @@
         <v>2098700025</v>
       </c>
       <c r="B20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -3013,7 +3013,7 @@
         <v>2098700026</v>
       </c>
       <c r="B21" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -3027,7 +3027,7 @@
         <v>2098700033</v>
       </c>
       <c r="B22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -3041,7 +3041,7 @@
         <v>2098700046</v>
       </c>
       <c r="B23" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" t="s">
         <v>25</v>
@@ -3055,7 +3055,7 @@
         <v>2098700056</v>
       </c>
       <c r="B24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -3069,7 +3069,7 @@
         <v>2098700058</v>
       </c>
       <c r="B25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -3083,7 +3083,7 @@
         <v>2098700076</v>
       </c>
       <c r="B26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
@@ -3097,7 +3097,7 @@
         <v>2098700083</v>
       </c>
       <c r="B27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C27" t="s">
         <v>35</v>
@@ -3111,7 +3111,7 @@
         <v>2098700108</v>
       </c>
       <c r="B28" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C28" t="s">
         <v>7</v>
@@ -3125,7 +3125,7 @@
         <v>2098700143</v>
       </c>
       <c r="B29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C29" t="s">
         <v>38</v>
@@ -3139,7 +3139,7 @@
         <v>2098700154</v>
       </c>
       <c r="B30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
@@ -3153,7 +3153,7 @@
         <v>2098700177</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -3167,7 +3167,7 @@
         <v>2098700189</v>
       </c>
       <c r="B32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C32" t="s">
         <v>43</v>
@@ -3181,7 +3181,7 @@
         <v>2098700245</v>
       </c>
       <c r="B33" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C33" t="s">
         <v>45</v>
@@ -3195,7 +3195,7 @@
         <v>2098700246</v>
       </c>
       <c r="B34" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C34" t="s">
         <v>46</v>
@@ -3209,7 +3209,7 @@
         <v>2098700256</v>
       </c>
       <c r="B35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C35" t="s">
         <v>125</v>
@@ -3223,7 +3223,7 @@
         <v>2098700289</v>
       </c>
       <c r="B36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
@@ -3237,7 +3237,7 @@
         <v>2098700290</v>
       </c>
       <c r="B37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C37" t="s">
         <v>49</v>
@@ -3251,7 +3251,7 @@
         <v>2098700293</v>
       </c>
       <c r="B38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -3265,7 +3265,7 @@
         <v>2098700296</v>
       </c>
       <c r="B39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C39" t="s">
         <v>53</v>
@@ -3282,7 +3282,7 @@
         <v>2098700301</v>
       </c>
       <c r="B40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
@@ -3296,7 +3296,7 @@
         <v>2098700302</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
@@ -3310,7 +3310,7 @@
         <v>2098700304</v>
       </c>
       <c r="B42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -3324,7 +3324,7 @@
         <v>2098700305</v>
       </c>
       <c r="B43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C43" t="s">
         <v>10</v>
@@ -3338,7 +3338,7 @@
         <v>2098700306</v>
       </c>
       <c r="B44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -3352,7 +3352,7 @@
         <v>2098700307</v>
       </c>
       <c r="B45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C45" t="s">
         <v>43</v>
@@ -3366,7 +3366,7 @@
         <v>2098700309</v>
       </c>
       <c r="B46" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -3380,7 +3380,7 @@
         <v>2098700315</v>
       </c>
       <c r="B47" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -3394,7 +3394,7 @@
         <v>2098700316</v>
       </c>
       <c r="B48" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
@@ -3408,7 +3408,7 @@
         <v>2098700320</v>
       </c>
       <c r="B49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C49" t="s">
         <v>57</v>
@@ -3422,7 +3422,7 @@
         <v>2098700322</v>
       </c>
       <c r="B50" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -3436,7 +3436,7 @@
         <v>2098700353</v>
       </c>
       <c r="B51" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -3450,7 +3450,7 @@
         <v>2098700355</v>
       </c>
       <c r="B52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C52" t="s">
         <v>35</v>
@@ -3464,7 +3464,7 @@
         <v>2098700356</v>
       </c>
       <c r="B53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C53" t="s">
         <v>35</v>
@@ -3478,7 +3478,7 @@
         <v>2098700357</v>
       </c>
       <c r="B54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -3492,7 +3492,7 @@
         <v>2098700358</v>
       </c>
       <c r="B55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
@@ -3506,7 +3506,7 @@
         <v>2098700366</v>
       </c>
       <c r="B56" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C56" t="s">
         <v>43</v>
@@ -3520,7 +3520,7 @@
         <v>2098700371</v>
       </c>
       <c r="B57" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C57" t="s">
         <v>46</v>
@@ -3534,7 +3534,7 @@
         <v>2098700372</v>
       </c>
       <c r="B58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C58" t="s">
         <v>52</v>
@@ -3548,7 +3548,7 @@
         <v>2098700373</v>
       </c>
       <c r="B59" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C59" t="s">
         <v>46</v>
@@ -3562,7 +3562,7 @@
         <v>2098700374</v>
       </c>
       <c r="B60" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C60" t="s">
         <v>52</v>
@@ -3576,7 +3576,7 @@
         <v>2098700375</v>
       </c>
       <c r="B61" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C61" t="s">
         <v>32</v>
@@ -3590,7 +3590,7 @@
         <v>2098700376</v>
       </c>
       <c r="B62" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C62" t="s">
         <v>32</v>
@@ -3604,7 +3604,7 @@
         <v>2098700378</v>
       </c>
       <c r="B63" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C63" t="s">
         <v>71</v>
@@ -3618,10 +3618,10 @@
         <v>2098700379</v>
       </c>
       <c r="B64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D64" t="s">
         <v>82</v>
@@ -3632,10 +3632,10 @@
         <v>2098700380</v>
       </c>
       <c r="B65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
         <v>82</v>
@@ -3646,7 +3646,7 @@
         <v>2098700404</v>
       </c>
       <c r="B66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
@@ -3660,7 +3660,7 @@
         <v>2098700405</v>
       </c>
       <c r="B67" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C67" t="s">
         <v>8</v>
@@ -3674,7 +3674,7 @@
         <v>2098700429</v>
       </c>
       <c r="B68" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C68" t="s">
         <v>48</v>
@@ -3688,13 +3688,13 @@
         <v>2098700432</v>
       </c>
       <c r="B69" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
       </c>
       <c r="D69" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -3702,7 +3702,7 @@
         <v>2098700433</v>
       </c>
       <c r="B70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C70" t="s">
         <v>38</v>
@@ -3716,13 +3716,13 @@
         <v>2098700434</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
       </c>
       <c r="D71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -3730,13 +3730,13 @@
         <v>2098700436</v>
       </c>
       <c r="B72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -3744,7 +3744,7 @@
         <v>2098700437</v>
       </c>
       <c r="B73" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C73" t="s">
         <v>53</v>
@@ -3753,7 +3753,7 @@
         <v>101</v>
       </c>
       <c r="E73" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -3761,7 +3761,7 @@
         <v>2098701682</v>
       </c>
       <c r="B74" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C74" t="s">
         <v>71</v>
@@ -3775,7 +3775,7 @@
         <v>2098706005</v>
       </c>
       <c r="B75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C75" t="s">
         <v>7</v>
@@ -3789,7 +3789,7 @@
         <v>2098706008</v>
       </c>
       <c r="B76" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
@@ -3803,7 +3803,7 @@
         <v>2098706009</v>
       </c>
       <c r="B77" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
@@ -3817,7 +3817,7 @@
         <v>2098706010</v>
       </c>
       <c r="B78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -3831,7 +3831,7 @@
         <v>2098706011</v>
       </c>
       <c r="B79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
@@ -3845,7 +3845,7 @@
         <v>2098706013</v>
       </c>
       <c r="B80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C80" t="s">
         <v>57</v>
@@ -3859,7 +3859,7 @@
         <v>2098706018</v>
       </c>
       <c r="B81" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
@@ -3873,7 +3873,7 @@
         <v>2098706021</v>
       </c>
       <c r="B82" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C82" t="s">
         <v>10</v>
@@ -3887,7 +3887,7 @@
         <v>2098706023</v>
       </c>
       <c r="B83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C83" t="s">
         <v>52</v>
@@ -3901,7 +3901,7 @@
         <v>2098706024</v>
       </c>
       <c r="B84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C84" t="s">
         <v>52</v>
@@ -3915,7 +3915,7 @@
         <v>2098706025</v>
       </c>
       <c r="B85" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
@@ -3929,7 +3929,7 @@
         <v>2098706026</v>
       </c>
       <c r="B86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C86" t="s">
         <v>49</v>
@@ -3943,7 +3943,7 @@
         <v>2098706028</v>
       </c>
       <c r="B87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C87" t="s">
         <v>7</v>
@@ -3957,7 +3957,7 @@
         <v>2098706031</v>
       </c>
       <c r="B88" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
@@ -3971,7 +3971,7 @@
         <v>2098706032</v>
       </c>
       <c r="B89" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C89" t="s">
         <v>49</v>
@@ -3985,7 +3985,7 @@
         <v>2098706040</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C90" t="s">
         <v>38</v>
@@ -3999,7 +3999,7 @@
         <v>2098706041</v>
       </c>
       <c r="B91" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
@@ -4013,7 +4013,7 @@
         <v>2098706044</v>
       </c>
       <c r="B92" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C92" t="s">
         <v>38</v>
@@ -4027,7 +4027,7 @@
         <v>2098706072</v>
       </c>
       <c r="B93" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C93" t="s">
         <v>46</v>
@@ -4041,7 +4041,7 @@
         <v>2098706075</v>
       </c>
       <c r="B94" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C94" t="s">
         <v>43</v>
@@ -4055,7 +4055,7 @@
         <v>2098706076</v>
       </c>
       <c r="B95" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C95" t="s">
         <v>46</v>
@@ -4069,7 +4069,7 @@
         <v>2098706083</v>
       </c>
       <c r="B96" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
@@ -4083,7 +4083,7 @@
         <v>2098706084</v>
       </c>
       <c r="B97" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C97" t="s">
         <v>52</v>
@@ -4097,7 +4097,7 @@
         <v>2099700009</v>
       </c>
       <c r="B98" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C98" t="s">
         <v>12</v>
@@ -4111,7 +4111,7 @@
         <v>2099700010</v>
       </c>
       <c r="B99" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C99" t="s">
         <v>12</v>
@@ -4125,7 +4125,7 @@
         <v>2099700025</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C100" t="s">
         <v>102</v>
@@ -4142,7 +4142,7 @@
         <v>2099700030</v>
       </c>
       <c r="B101" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C101" t="s">
         <v>103</v>
@@ -4162,7 +4162,7 @@
         <v>2099700041</v>
       </c>
       <c r="B102" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C102" t="s">
         <v>12</v>
@@ -4176,7 +4176,7 @@
         <v>2099700048</v>
       </c>
       <c r="B103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C103" t="s">
         <v>45</v>
@@ -4190,7 +4190,7 @@
         <v>2099700049</v>
       </c>
       <c r="B104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C104" t="s">
         <v>46</v>
@@ -4204,7 +4204,7 @@
         <v>2099700056</v>
       </c>
       <c r="B105" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C105" t="s">
         <v>46</v>
@@ -4218,13 +4218,13 @@
         <v>2099700057</v>
       </c>
       <c r="B106" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D106" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E106" t="s">
         <v>10</v>
@@ -4235,10 +4235,10 @@
         <v>2099700058</v>
       </c>
       <c r="B107" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C107" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
@@ -4250,7 +4250,7 @@
         <v>52</v>
       </c>
       <c r="G107" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4258,13 +4258,13 @@
         <v>2099700059</v>
       </c>
       <c r="B108" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C108" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E108" t="s">
         <v>10</v>
@@ -4281,7 +4281,7 @@
         <v>2099706005</v>
       </c>
       <c r="B109" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C109" t="s">
         <v>45</v>
@@ -4295,13 +4295,13 @@
         <v>2154140069</v>
       </c>
       <c r="B110" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C110" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D110" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4309,10 +4309,10 @@
         <v>2154140162</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -4323,13 +4323,13 @@
         <v>2154140207</v>
       </c>
       <c r="B112" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
@@ -4337,7 +4337,7 @@
         <v>2154140222</v>
       </c>
       <c r="B113" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C113" t="s">
         <v>105</v>
@@ -4351,7 +4351,7 @@
         <v>2154140224</v>
       </c>
       <c r="B114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C114" t="s">
         <v>106</v>
@@ -4365,7 +4365,7 @@
         <v>2154140225</v>
       </c>
       <c r="B115" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C115" t="s">
         <v>105</v>
@@ -4379,7 +4379,7 @@
         <v>2154140229</v>
       </c>
       <c r="B116" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C116" t="s">
         <v>106</v>
@@ -4393,7 +4393,7 @@
         <v>2154140243</v>
       </c>
       <c r="B117" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C117" t="s">
         <v>31</v>
@@ -4407,7 +4407,7 @@
         <v>2154140283</v>
       </c>
       <c r="B118" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C118" t="s">
         <v>31</v>
@@ -4421,7 +4421,7 @@
         <v>2154140284</v>
       </c>
       <c r="B119" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C119" t="s">
         <v>31</v>
@@ -4435,13 +4435,13 @@
         <v>2154140285</v>
       </c>
       <c r="B120" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C120" t="s">
         <v>118</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
@@ -4449,7 +4449,7 @@
         <v>2154140287</v>
       </c>
       <c r="B121" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C121" t="s">
         <v>31</v>
@@ -4463,7 +4463,7 @@
         <v>2154140289</v>
       </c>
       <c r="B122" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C122" t="s">
         <v>31</v>
@@ -4477,7 +4477,7 @@
         <v>2154140290</v>
       </c>
       <c r="B123" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C123" t="s">
         <v>31</v>
@@ -4491,13 +4491,13 @@
         <v>2154140291</v>
       </c>
       <c r="B124" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C124" t="s">
         <v>118</v>
       </c>
       <c r="D124" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
@@ -4505,10 +4505,10 @@
         <v>2154140292</v>
       </c>
       <c r="B125" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C125" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -4519,7 +4519,7 @@
         <v>2154140293</v>
       </c>
       <c r="B126" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C126" t="s">
         <v>31</v>
@@ -4533,7 +4533,7 @@
         <v>2154140294</v>
       </c>
       <c r="B127" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C127" t="s">
         <v>112</v>
@@ -4547,7 +4547,7 @@
         <v>2154140295</v>
       </c>
       <c r="B128" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C128" t="s">
         <v>112</v>
@@ -4561,7 +4561,7 @@
         <v>2154140318</v>
       </c>
       <c r="B129" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C129" t="s">
         <v>114</v>
@@ -4575,7 +4575,7 @@
         <v>2154140319</v>
       </c>
       <c r="B130" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -4589,7 +4589,7 @@
         <v>2154140335</v>
       </c>
       <c r="B131" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C131" t="s">
         <v>31</v>
@@ -4603,7 +4603,7 @@
         <v>2154140336</v>
       </c>
       <c r="B132" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C132" t="s">
         <v>31</v>
@@ -4617,13 +4617,13 @@
         <v>2154140345</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C133" t="s">
         <v>118</v>
       </c>
       <c r="D133" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
@@ -4631,7 +4631,7 @@
         <v>2154140349</v>
       </c>
       <c r="B134" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C134" t="s">
         <v>117</v>
@@ -4645,13 +4645,13 @@
         <v>2154140596</v>
       </c>
       <c r="B135" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C135" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D135" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
@@ -4659,7 +4659,7 @@
         <v>2154150035</v>
       </c>
       <c r="B136" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C136" t="s">
         <v>31</v>
@@ -4673,7 +4673,7 @@
         <v>2154150089</v>
       </c>
       <c r="B137" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
         <v>122</v>
@@ -4687,7 +4687,7 @@
         <v>2154150163</v>
       </c>
       <c r="B138" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C138" t="s">
         <v>124</v>
@@ -4701,7 +4701,7 @@
         <v>2154150172</v>
       </c>
       <c r="B139" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C139" t="s">
         <v>123</v>
@@ -4715,7 +4715,7 @@
         <v>2154150197</v>
       </c>
       <c r="B140" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C140" t="s">
         <v>120</v>
@@ -4729,7 +4729,7 @@
         <v>2154150214</v>
       </c>
       <c r="B141" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C141" t="s">
         <v>31</v>
@@ -4743,7 +4743,7 @@
         <v>2154150215</v>
       </c>
       <c r="B142" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C142" t="s">
         <v>129</v>
@@ -4757,7 +4757,7 @@
         <v>2154150247</v>
       </c>
       <c r="B143" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C143" t="s">
         <v>130</v>
@@ -4771,13 +4771,13 @@
         <v>2154150250</v>
       </c>
       <c r="B144" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C144" t="s">
         <v>130</v>
       </c>
       <c r="D144" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -4785,13 +4785,13 @@
         <v>2154150301</v>
       </c>
       <c r="B145" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C145" t="s">
         <v>123</v>
       </c>
       <c r="D145" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -4799,13 +4799,13 @@
         <v>2154150337</v>
       </c>
       <c r="B146" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C146" t="s">
         <v>126</v>
       </c>
       <c r="D146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -4813,13 +4813,13 @@
         <v>2154150341</v>
       </c>
       <c r="B147" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -4827,7 +4827,7 @@
         <v>2154150342</v>
       </c>
       <c r="B148" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C148" t="s">
         <v>123</v>
@@ -4841,7 +4841,7 @@
         <v>2154150343</v>
       </c>
       <c r="B149" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C149" t="s">
         <v>123</v>
@@ -4855,7 +4855,7 @@
         <v>2154150347</v>
       </c>
       <c r="B150" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C150" t="s">
         <v>123</v>
@@ -4869,13 +4869,13 @@
         <v>2154150348</v>
       </c>
       <c r="B151" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C151" t="s">
         <v>126</v>
       </c>
       <c r="D151" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
@@ -4883,7 +4883,7 @@
         <v>2154150349</v>
       </c>
       <c r="B152" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C152" t="s">
         <v>123</v>
@@ -4897,7 +4897,7 @@
         <v>2154150350</v>
       </c>
       <c r="B153" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C153" t="s">
         <v>129</v>
@@ -4914,7 +4914,7 @@
         <v>2154150351</v>
       </c>
       <c r="B154" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C154" t="s">
         <v>123</v>
@@ -4928,16 +4928,16 @@
         <v>2154150357</v>
       </c>
       <c r="B155" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C155" t="s">
         <v>122</v>
       </c>
       <c r="D155" t="s">
+        <v>366</v>
+      </c>
+      <c r="E155" t="s">
         <v>367</v>
-      </c>
-      <c r="E155" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -4945,13 +4945,13 @@
         <v>2154150358</v>
       </c>
       <c r="B156" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C156" t="s">
         <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -4959,16 +4959,16 @@
         <v>2154150366</v>
       </c>
       <c r="B157" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C157" t="s">
         <v>122</v>
       </c>
       <c r="D157" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E157" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -4976,13 +4976,13 @@
         <v>2154150370</v>
       </c>
       <c r="B158" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C158" t="s">
         <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
@@ -4990,7 +4990,7 @@
         <v>2154150380</v>
       </c>
       <c r="B159" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C159" t="s">
         <v>124</v>
@@ -5004,13 +5004,13 @@
         <v>2154150391</v>
       </c>
       <c r="B160" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C160" t="s">
         <v>122</v>
       </c>
       <c r="D160" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
@@ -5018,10 +5018,10 @@
         <v>2154150420</v>
       </c>
       <c r="B161" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C161" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D161" t="s">
         <v>126</v>
@@ -5032,13 +5032,13 @@
         <v>2154150447</v>
       </c>
       <c r="B162" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C162" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
@@ -5046,10 +5046,10 @@
         <v>2154150448</v>
       </c>
       <c r="B163" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C163" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D163" t="s">
         <v>123</v>
@@ -5060,16 +5060,16 @@
         <v>2154150455</v>
       </c>
       <c r="B164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C164" t="s">
         <v>122</v>
       </c>
       <c r="D164" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E164" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
@@ -5077,7 +5077,7 @@
         <v>2154150461</v>
       </c>
       <c r="B165" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C165" t="s">
         <v>124</v>
@@ -5091,10 +5091,10 @@
         <v>2154150497</v>
       </c>
       <c r="B166" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C166" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D166" t="s">
         <v>126</v>
@@ -5105,7 +5105,7 @@
         <v>2154150501</v>
       </c>
       <c r="B167" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C167" t="s">
         <v>120</v>
@@ -5119,7 +5119,7 @@
         <v>2154150509</v>
       </c>
       <c r="B168" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C168" t="s">
         <v>123</v>
@@ -5133,13 +5133,13 @@
         <v>2154150525</v>
       </c>
       <c r="B169" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C169" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D169" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E169" t="s">
         <v>126</v>
@@ -5150,13 +5150,13 @@
         <v>2154150526</v>
       </c>
       <c r="B170" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C170" t="s">
         <v>129</v>
       </c>
       <c r="D170" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
@@ -5164,7 +5164,7 @@
         <v>2154150534</v>
       </c>
       <c r="B171" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C171" t="s">
         <v>123</v>
@@ -5181,13 +5181,13 @@
         <v>2154150554</v>
       </c>
       <c r="B172" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C172" t="s">
         <v>130</v>
       </c>
       <c r="D172" t="s">
-        <v>133</v>
+        <v>374</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
@@ -5195,13 +5195,13 @@
         <v>2154150557</v>
       </c>
       <c r="B173" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C173" t="s">
         <v>122</v>
       </c>
       <c r="D173" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
@@ -5209,7 +5209,7 @@
         <v>2154150560</v>
       </c>
       <c r="B174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C174" t="s">
         <v>123</v>
@@ -5218,10 +5218,10 @@
         <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F174" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
@@ -5229,10 +5229,10 @@
         <v>2154150563</v>
       </c>
       <c r="B175" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C175" t="s">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="D175" t="s">
         <v>31</v>
@@ -5243,7 +5243,7 @@
         <v>2154150581</v>
       </c>
       <c r="B176" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C176" t="s">
         <v>123</v>
@@ -5257,7 +5257,7 @@
         <v>2154150582</v>
       </c>
       <c r="B177" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C177" t="s">
         <v>123</v>
@@ -5271,7 +5271,7 @@
         <v>2154150588</v>
       </c>
       <c r="B178" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C178" t="s">
         <v>31</v>
@@ -5285,16 +5285,16 @@
         <v>2154150591</v>
       </c>
       <c r="B179" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C179" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D179" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E179" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
@@ -5302,7 +5302,7 @@
         <v>2154150597</v>
       </c>
       <c r="B180" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C180" t="s">
         <v>126</v>
@@ -5311,7 +5311,7 @@
         <v>126</v>
       </c>
       <c r="E180" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
@@ -5319,7 +5319,7 @@
         <v>2154150603</v>
       </c>
       <c r="B181" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C181" t="s">
         <v>125</v>
@@ -5333,13 +5333,13 @@
         <v>2154150605</v>
       </c>
       <c r="B182" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C182" t="s">
         <v>105</v>
       </c>
       <c r="D182" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
@@ -5347,13 +5347,13 @@
         <v>2154150622</v>
       </c>
       <c r="B183" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C183" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D183" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
@@ -5361,13 +5361,13 @@
         <v>2154150627</v>
       </c>
       <c r="B184" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C184" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D184" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
@@ -5375,7 +5375,7 @@
         <v>2154150633</v>
       </c>
       <c r="B185" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C185" t="s">
         <v>123</v>
@@ -5389,7 +5389,7 @@
         <v>2154150646</v>
       </c>
       <c r="B186" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C186" t="s">
         <v>126</v>
@@ -5401,7 +5401,7 @@
         <v>123</v>
       </c>
       <c r="F186" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
@@ -5409,19 +5409,19 @@
         <v>2154150648</v>
       </c>
       <c r="B187" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C187" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D187" t="s">
+        <v>373</v>
+      </c>
+      <c r="E187" t="s">
         <v>374</v>
       </c>
-      <c r="E187" t="s">
-        <v>375</v>
-      </c>
       <c r="F187" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
@@ -5429,7 +5429,7 @@
         <v>2154150653</v>
       </c>
       <c r="B188" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C188" t="s">
         <v>125</v>
@@ -5443,7 +5443,7 @@
         <v>2154150669</v>
       </c>
       <c r="B189" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C189" t="s">
         <v>123</v>
@@ -5457,7 +5457,7 @@
         <v>2154150672</v>
       </c>
       <c r="B190" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C190" t="s">
         <v>123</v>
@@ -5471,16 +5471,16 @@
         <v>2154150677</v>
       </c>
       <c r="B191" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C191" t="s">
         <v>122</v>
       </c>
       <c r="D191" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E191" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -5488,7 +5488,7 @@
         <v>2154150706</v>
       </c>
       <c r="B192" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C192" t="s">
         <v>112</v>
@@ -5502,7 +5502,7 @@
         <v>2154150707</v>
       </c>
       <c r="B193" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C193" t="s">
         <v>112</v>
@@ -5516,7 +5516,7 @@
         <v>2154150715</v>
       </c>
       <c r="B194" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C194" t="s">
         <v>31</v>
@@ -5530,13 +5530,13 @@
         <v>2154150719</v>
       </c>
       <c r="B195" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C195" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D195" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
@@ -5544,7 +5544,7 @@
         <v>2154150731</v>
       </c>
       <c r="B196" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C196" t="s">
         <v>129</v>
@@ -5558,19 +5558,19 @@
         <v>2154150765</v>
       </c>
       <c r="B197" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C197" t="s">
         <v>129</v>
       </c>
       <c r="D197" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E197" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F197" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
@@ -5578,19 +5578,19 @@
         <v>2154150767</v>
       </c>
       <c r="B198" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C198" t="s">
         <v>129</v>
       </c>
       <c r="D198" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E198" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F198" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
@@ -5598,7 +5598,7 @@
         <v>2154150769</v>
       </c>
       <c r="B199" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C199" t="s">
         <v>126</v>
@@ -5607,7 +5607,7 @@
         <v>123</v>
       </c>
       <c r="E199" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
@@ -5615,13 +5615,13 @@
         <v>2154150788</v>
       </c>
       <c r="B200" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C200" t="s">
         <v>129</v>
       </c>
       <c r="D200" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
@@ -5629,7 +5629,7 @@
         <v>2154150813</v>
       </c>
       <c r="B201" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C201" t="s">
         <v>126</v>
@@ -5641,7 +5641,7 @@
         <v>123</v>
       </c>
       <c r="F201" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
@@ -5649,7 +5649,7 @@
         <v>2154150814</v>
       </c>
       <c r="B202" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C202" t="s">
         <v>126</v>
@@ -5658,7 +5658,7 @@
         <v>123</v>
       </c>
       <c r="E202" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
@@ -5666,16 +5666,16 @@
         <v>2154150822</v>
       </c>
       <c r="B203" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C203" t="s">
         <v>129</v>
       </c>
       <c r="D203" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E203" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
@@ -5683,13 +5683,13 @@
         <v>2154150839</v>
       </c>
       <c r="B204" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C204" t="s">
         <v>126</v>
       </c>
       <c r="D204" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
@@ -5697,10 +5697,10 @@
         <v>2154150840</v>
       </c>
       <c r="B205" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C205" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D205" t="s">
         <v>127</v>
@@ -5711,10 +5711,10 @@
         <v>2154150841</v>
       </c>
       <c r="B206" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C206" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D206" t="s">
         <v>125</v>
@@ -5725,10 +5725,10 @@
         <v>2154150876</v>
       </c>
       <c r="B207" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C207" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D207" t="s">
         <v>127</v>
@@ -5739,13 +5739,13 @@
         <v>2154150893</v>
       </c>
       <c r="B208" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C208" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D208" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
@@ -5753,13 +5753,13 @@
         <v>2154150918</v>
       </c>
       <c r="B209" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C209" t="s">
         <v>126</v>
       </c>
       <c r="D209" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -5767,13 +5767,13 @@
         <v>2154150921</v>
       </c>
       <c r="B210" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C210" t="s">
         <v>122</v>
       </c>
       <c r="D210" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
@@ -5781,13 +5781,13 @@
         <v>2154150922</v>
       </c>
       <c r="B211" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C211" t="s">
         <v>129</v>
       </c>
       <c r="D211" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
@@ -5795,10 +5795,10 @@
         <v>2154150943</v>
       </c>
       <c r="B212" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C212" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D212" t="s">
         <v>126</v>
@@ -5809,7 +5809,7 @@
         <v>2154155136</v>
       </c>
       <c r="B213" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C213" t="s">
         <v>123</v>
@@ -5823,13 +5823,13 @@
         <v>2154155149</v>
       </c>
       <c r="B214" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C214" t="s">
         <v>123</v>
       </c>
       <c r="D214" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -5837,16 +5837,16 @@
         <v>2154155150</v>
       </c>
       <c r="B215" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C215" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D215" t="s">
         <v>123</v>
       </c>
       <c r="E215" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
@@ -5854,13 +5854,13 @@
         <v>2154160029</v>
       </c>
       <c r="B216" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C216" t="s">
+        <v>150</v>
+      </c>
+      <c r="D216" t="s">
         <v>151</v>
-      </c>
-      <c r="D216" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -5868,13 +5868,13 @@
         <v>2154160030</v>
       </c>
       <c r="B217" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C217" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D217" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -5882,13 +5882,13 @@
         <v>2154160031</v>
       </c>
       <c r="B218" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C218" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D218" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -5896,10 +5896,10 @@
         <v>2154160032</v>
       </c>
       <c r="B219" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C219" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D219" t="s">
         <v>31</v>
@@ -5910,10 +5910,10 @@
         <v>2154160033</v>
       </c>
       <c r="B220" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C220" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D220" t="s">
         <v>31</v>
@@ -5924,13 +5924,13 @@
         <v>2154160034</v>
       </c>
       <c r="B221" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C221" t="s">
+        <v>158</v>
+      </c>
+      <c r="D221" t="s">
         <v>159</v>
-      </c>
-      <c r="D221" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
@@ -5938,13 +5938,13 @@
         <v>2154160035</v>
       </c>
       <c r="B222" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C222" t="s">
+        <v>150</v>
+      </c>
+      <c r="D222" t="s">
         <v>151</v>
-      </c>
-      <c r="D222" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
@@ -5952,10 +5952,10 @@
         <v>2154160036</v>
       </c>
       <c r="B223" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C223" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D223" t="s">
         <v>31</v>
@@ -5966,10 +5966,10 @@
         <v>2154160037</v>
       </c>
       <c r="B224" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C224" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D224" t="s">
         <v>31</v>
@@ -5980,13 +5980,13 @@
         <v>2154170049</v>
       </c>
       <c r="B225" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C225" t="s">
         <v>123</v>
       </c>
       <c r="D225" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -5994,7 +5994,7 @@
         <v>2154170050</v>
       </c>
       <c r="B226" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C226" t="s">
         <v>123</v>
@@ -6003,13 +6003,13 @@
         <v>126</v>
       </c>
       <c r="E226" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F226" t="s">
+        <v>164</v>
+      </c>
+      <c r="G226" t="s">
         <v>165</v>
-      </c>
-      <c r="G226" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -6017,13 +6017,13 @@
         <v>2154170052</v>
       </c>
       <c r="B227" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C227" t="s">
         <v>123</v>
       </c>
       <c r="D227" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -6149,303 +6149,303 @@
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AF1" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="AT1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="BE1" s="6" t="s">
+      <c r="BF1" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="BF1" s="6" t="s">
+      <c r="BG1" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="BG1" s="6" t="s">
+      <c r="BH1" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BI1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="BI1" s="6" t="s">
+      <c r="BJ1" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BK1" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="BK1" s="6" t="s">
+      <c r="BL1" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="BL1" s="6" t="s">
+      <c r="BM1" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BN1" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BO1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="BO1" s="6" t="s">
+      <c r="BP1" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="BP1" s="6" t="s">
+      <c r="BQ1" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="BQ1" s="6" t="s">
+      <c r="BR1" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="BS1" s="6" t="s">
+      <c r="BT1" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="BT1" s="6" t="s">
+      <c r="BU1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="BU1" s="6" t="s">
+      <c r="BV1" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="BV1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="BW1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="BX1" s="6" t="s">
+      <c r="BY1" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="BY1" s="6" t="s">
+      <c r="BZ1" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="BZ1" s="6" t="s">
+      <c r="CA1" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CB1" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="CB1" s="6" t="s">
+      <c r="CC1" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="CC1" s="6" t="s">
+      <c r="CD1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="CD1" s="6" t="s">
+      <c r="CE1" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="CE1" s="6" t="s">
+      <c r="CF1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CF1" s="6" t="s">
+      <c r="CG1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CH1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="CH1" s="6" t="s">
+      <c r="CI1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="CI1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="CJ1" s="6" t="s">
+      <c r="CK1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CL1" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="CL1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="CM1" s="6" t="s">
+      <c r="CN1" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="CN1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="CO1" s="6" t="s">
+      <c r="CP1" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="CP1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="CR1" s="6" t="s">
+      <c r="CS1" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="CS1" s="6" t="s">
+      <c r="CT1" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="CT1" s="6" t="s">
+      <c r="CU1" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="CU1" s="6" t="s">
+      <c r="CV1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="CV1" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="CW1" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
         <v>263</v>
-      </c>
-      <c r="B2" t="s">
-        <v>264</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" s="36" t="s">
         <v>48</v>
@@ -6460,16 +6460,16 @@
         <v>32</v>
       </c>
       <c r="I2" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>266</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="K2" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="L2" s="36" t="s">
         <v>268</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>269</v>
       </c>
       <c r="M2" s="36" t="s">
         <v>74</v>
@@ -6478,16 +6478,16 @@
         <v>10</v>
       </c>
       <c r="O2" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="P2" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="P2" s="36" t="s">
+      <c r="Q2" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="Q2" s="36" t="s">
+      <c r="R2" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>273</v>
       </c>
       <c r="S2" s="36" t="s">
         <v>49</v>
@@ -6502,34 +6502,34 @@
         <v>14</v>
       </c>
       <c r="W2" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="X2" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="Y2" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="Y2" s="36" t="s">
+      <c r="Z2" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="Z2" s="36" t="s">
+      <c r="AA2" s="36" t="s">
         <v>277</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>278</v>
       </c>
       <c r="AB2" s="36" t="s">
         <v>52</v>
       </c>
       <c r="AC2" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AD2" s="36" t="s">
         <v>16</v>
       </c>
       <c r="AE2" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF2" s="36" t="s">
         <v>272</v>
-      </c>
-      <c r="AF2" s="36" t="s">
-        <v>273</v>
       </c>
       <c r="AG2" s="36" t="s">
         <v>49</v>
@@ -6544,25 +6544,25 @@
         <v>14</v>
       </c>
       <c r="AK2" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="AL2" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AM2" s="36" t="s">
         <v>275</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AN2" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="AN2" s="36" t="s">
+      <c r="AO2" s="36" t="s">
         <v>277</v>
-      </c>
-      <c r="AO2" s="36" t="s">
-        <v>278</v>
       </c>
       <c r="AP2" s="36" t="s">
         <v>52</v>
       </c>
       <c r="AQ2" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR2" s="36" t="s">
         <v>16</v>
@@ -6580,34 +6580,34 @@
         <v>58</v>
       </c>
       <c r="AW2" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX2" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AY2" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="AX2" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="AY2" s="36" t="s">
+      <c r="AZ2" s="36" t="s">
         <v>281</v>
       </c>
-      <c r="AZ2" s="36" t="s">
+      <c r="BA2" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="BA2" s="36" t="s">
+      <c r="BB2" s="36" t="s">
         <v>283</v>
       </c>
-      <c r="BB2" s="36" t="s">
+      <c r="BC2" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="BC2" s="36" t="s">
+      <c r="BD2" s="36" t="s">
         <v>285</v>
       </c>
-      <c r="BD2" s="36" t="s">
+      <c r="BE2" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="BE2" s="36" t="s">
+      <c r="BF2" s="36" t="s">
         <v>287</v>
-      </c>
-      <c r="BF2" s="36" t="s">
-        <v>288</v>
       </c>
       <c r="BG2" s="36" t="s">
         <v>8</v>
@@ -6622,34 +6622,34 @@
         <v>64</v>
       </c>
       <c r="BK2" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="BL2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="BM2" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="BL2" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="BM2" s="36" t="s">
+      <c r="BN2" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="BN2" s="36" t="s">
+      <c r="BO2" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="BO2" s="36" t="s">
+      <c r="BP2" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="BP2" s="36" t="s">
+      <c r="BQ2" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="BQ2" s="36" t="s">
+      <c r="BR2" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="BR2" s="36" t="s">
+      <c r="BS2" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="BS2" s="36" t="s">
+      <c r="BT2" s="36" t="s">
         <v>296</v>
-      </c>
-      <c r="BT2" s="36" t="s">
-        <v>297</v>
       </c>
       <c r="BU2" s="36" t="s">
         <v>8</v>
@@ -6664,87 +6664,87 @@
         <v>64</v>
       </c>
       <c r="BY2" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="BZ2" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="CA2" s="36" t="s">
         <v>289</v>
       </c>
-      <c r="BZ2" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="CA2" s="36" t="s">
+      <c r="CB2" s="36" t="s">
         <v>290</v>
       </c>
-      <c r="CB2" s="36" t="s">
+      <c r="CC2" s="36" t="s">
         <v>291</v>
       </c>
-      <c r="CC2" s="36" t="s">
+      <c r="CD2" s="36" t="s">
         <v>292</v>
       </c>
-      <c r="CD2" s="36" t="s">
+      <c r="CE2" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="CE2" s="36" t="s">
+      <c r="CF2" s="36" t="s">
         <v>294</v>
       </c>
-      <c r="CF2" s="36" t="s">
+      <c r="CG2" s="36" t="s">
         <v>295</v>
       </c>
-      <c r="CG2" s="36" t="s">
+      <c r="CH2" s="36" t="s">
         <v>296</v>
-      </c>
-      <c r="CH2" s="36" t="s">
-        <v>297</v>
       </c>
       <c r="CI2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="CJ2" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="CK2" s="36" t="s">
         <v>298</v>
       </c>
-      <c r="CK2" s="36" t="s">
+      <c r="CL2" s="36" t="s">
         <v>299</v>
       </c>
-      <c r="CL2" s="36" t="s">
+      <c r="CM2" s="36" t="s">
         <v>300</v>
       </c>
-      <c r="CM2" s="36" t="s">
+      <c r="CN2" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="CN2" s="36" t="s">
+      <c r="CO2" s="36" t="s">
         <v>302</v>
       </c>
-      <c r="CO2" s="36" t="s">
+      <c r="CP2" s="36" t="s">
         <v>303</v>
       </c>
-      <c r="CP2" s="36" t="s">
+      <c r="CQ2" s="36" t="s">
         <v>304</v>
       </c>
-      <c r="CQ2" s="36" t="s">
+      <c r="CR2" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="CR2" s="36" t="s">
+      <c r="CS2" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="CS2" s="36" t="s">
+      <c r="CT2" s="36" t="s">
         <v>307</v>
       </c>
-      <c r="CT2" s="36" t="s">
+      <c r="CU2" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="CU2" s="36" t="s">
+      <c r="CV2" s="36" t="s">
         <v>309</v>
       </c>
-      <c r="CV2" s="36" t="s">
-        <v>310</v>
-      </c>
       <c r="CW2" s="36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" t="s">
         <v>311</v>
-      </c>
-      <c r="B3" t="s">
-        <v>312</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>52</v>
@@ -6770,10 +6770,10 @@
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" t="s">
         <v>313</v>
-      </c>
-      <c r="B4" t="s">
-        <v>314</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>46</v>
@@ -6811,28 +6811,28 @@
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B5" t="s">
         <v>315</v>
       </c>
-      <c r="B5" t="s">
-        <v>316</v>
-      </c>
       <c r="C5" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I5" s="36" t="s">
         <v>49</v>
@@ -6847,22 +6847,22 @@
         <v>122</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N5" s="36" t="s">
         <v>101</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="36" t="s">
         <v>43</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S5" s="36" t="s">
         <v>43</v>
@@ -6871,7 +6871,7 @@
         <v>125</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="V5" s="36" t="s">
         <v>32</v>
@@ -6883,7 +6883,7 @@
         <v>14</v>
       </c>
       <c r="Y5" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z5" s="36" t="s">
         <v>57</v>
@@ -6909,10 +6909,10 @@
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" t="s">
         <v>317</v>
-      </c>
-      <c r="B6" t="s">
-        <v>318</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>64</v>
@@ -6981,22 +6981,22 @@
         <v>12</v>
       </c>
       <c r="Y6" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB6" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC6" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD6" s="37" t="s">
         <v>358</v>
-      </c>
-      <c r="Z6" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA6" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="AB6" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="AD6" s="37" t="s">
-        <v>359</v>
       </c>
       <c r="AE6" s="36" t="s">
         <v>125</v>
@@ -7004,10 +7004,10 @@
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" t="s">
         <v>319</v>
-      </c>
-      <c r="B7" t="s">
-        <v>320</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>32</v>
@@ -7025,7 +7025,7 @@
         <v>105</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I7" s="36" t="s">
         <v>112</v>
@@ -7040,7 +7040,7 @@
         <v>120</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N7" s="37" t="s">
         <v>14</v>
@@ -7061,7 +7061,7 @@
         <v>15</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="U7" s="37" t="s">
         <v>23</v>
@@ -7073,18 +7073,18 @@
         <v>20</v>
       </c>
       <c r="X7" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Y7" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" t="s">
         <v>321</v>
-      </c>
-      <c r="B8" t="s">
-        <v>322</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>36</v>
@@ -7126,33 +7126,33 @@
         <v>126</v>
       </c>
       <c r="P8" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q8" s="37" t="s">
         <v>369</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>370</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>101</v>
       </c>
       <c r="S8" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="T8" s="37" t="s">
         <v>123</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="V8" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" t="s">
         <v>323</v>
-      </c>
-      <c r="B9" t="s">
-        <v>324</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>52</v>
@@ -7164,10 +7164,10 @@
         <v>52</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>10</v>
@@ -7176,7 +7176,7 @@
         <v>126</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K9" s="36" t="s">
         <v>123</v>
@@ -7185,75 +7185,75 @@
         <v>103</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" t="s">
         <v>325</v>
-      </c>
-      <c r="B10" t="s">
-        <v>326</v>
       </c>
       <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>124</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J10" s="34" t="s">
         <v>122</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L10" s="34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N10" s="34" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P10" s="34" t="s">
         <v>120</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R10" s="34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S10" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="T10" s="34" t="s">
         <v>414</v>
       </c>
-      <c r="T10" s="34" t="s">
-        <v>415</v>
-      </c>
       <c r="U10" s="34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="V10" s="34" t="s">
         <v>129</v>
@@ -7262,10 +7262,10 @@
         <v>120</v>
       </c>
       <c r="X10" s="34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Y10" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Z10" s="34" t="s">
         <v>123</v>
@@ -7283,13 +7283,13 @@
         <v>126</v>
       </c>
       <c r="AE10" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF10" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG10" s="34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AH10" s="34" t="s">
         <v>31</v>
@@ -7298,16 +7298,16 @@
         <v>45</v>
       </c>
       <c r="AJ10" s="34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AK10" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL10" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="AM10" s="34" t="s">
         <v>373</v>
-      </c>
-      <c r="AL10" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="AM10" s="34" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7323,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AU6" sqref="AU6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7353,105 +7353,105 @@
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B2" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>332</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>333</v>
       </c>
       <c r="D2" s="36" t="s">
         <v>6</v>
@@ -7460,7 +7460,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>26</v>
@@ -7475,13 +7475,13 @@
         <v>33</v>
       </c>
       <c r="K2" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L2" s="36" t="s">
         <v>335</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="M2" s="36" t="s">
         <v>336</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>337</v>
       </c>
       <c r="N2" s="36">
         <v>2098700076</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>60</v>
@@ -7585,10 +7585,10 @@
         <v>113</v>
       </c>
       <c r="N3" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>146</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>147</v>
       </c>
       <c r="P3" s="36">
         <v>2154140336</v>
@@ -7596,7 +7596,7 @@
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" s="36">
         <v>2003020640</v>
@@ -7652,10 +7652,10 @@
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>42</v>
@@ -7664,40 +7664,40 @@
         <v>88</v>
       </c>
       <c r="E5" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>339</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="I5" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="K5" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="L5" s="36" t="s">
+      <c r="N5" s="36" t="s">
         <v>161</v>
       </c>
-      <c r="M5" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="N5" s="36" t="s">
-        <v>162</v>
-      </c>
       <c r="O5" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q5" s="36" t="s">
         <v>93</v>
@@ -7741,10 +7741,10 @@
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>93</v>
@@ -7884,10 +7884,10 @@
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>107</v>
@@ -7914,22 +7914,22 @@
         <v>132</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="M7" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="N7" s="36" t="s">
         <v>147</v>
       </c>
-      <c r="N7" s="36" t="s">
-        <v>148</v>
-      </c>
       <c r="O7" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="36" t="s">
         <v>141</v>
-      </c>
-      <c r="P7" s="36" t="s">
-        <v>142</v>
       </c>
       <c r="Q7" s="36" t="s">
         <v>115</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B8" s="36" t="s">
         <v>34</v>
@@ -7991,13 +7991,13 @@
         <v>128</v>
       </c>
       <c r="I8" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="J8" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>145</v>
-      </c>
       <c r="K8" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L8" s="36">
         <v>2154150788</v>
@@ -8014,7 +8014,7 @@
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -8032,13 +8032,13 @@
         <v>2099700059</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J9" s="36">
         <v>2154170049</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -8069,106 +8069,106 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B1" t="s">
         <v>343</v>
-      </c>
-      <c r="B1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B5" t="s">
         <v>348</v>
-      </c>
-      <c r="B5" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" t="s">
         <v>351</v>
-      </c>
-      <c r="B7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -8198,65 +8198,65 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>399</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>52</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>105</v>
@@ -8300,7 +8300,7 @@
         <v>48</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G4" s="17" t="s">
         <v>14</v>
@@ -8309,12 +8309,12 @@
         <v>52</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>7</v>
@@ -8338,12 +8338,12 @@
         <v>10</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>10</v>
@@ -8364,15 +8364,15 @@
         <v>53</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>112</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>31</v>
@@ -8422,15 +8422,15 @@
         <v>35</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
@@ -8451,10 +8451,10 @@
         <v>71</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -8472,7 +8472,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>122</v>
@@ -8506,7 +8506,7 @@
         <v>126</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -8516,7 +8516,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>7</v>
@@ -8528,7 +8528,7 @@
         <v>123</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>125</v>
@@ -8547,7 +8547,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" s="17" t="s">
         <v>126</v>
@@ -8556,7 +8556,7 @@
         <v>52</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -8573,13 +8573,13 @@
         <v>14</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -8587,7 +8587,7 @@
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
       <c r="D15" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>58</v>
@@ -8596,11 +8596,11 @@
         <v>21</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H15" s="20"/>
       <c r="I15" s="18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -8635,14 +8635,14 @@
         <v>54</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -8650,7 +8650,7 @@
       <c r="B18" s="20"/>
       <c r="C18" s="20"/>
       <c r="D18" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>14</v>
@@ -8659,11 +8659,11 @@
         <v>22</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="H19" s="20"/>
       <c r="I19" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -8692,20 +8692,20 @@
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
       <c r="D20" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -8713,20 +8713,20 @@
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
       <c r="D21" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>23</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -8745,7 +8745,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
       <c r="I22" s="23" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -8753,7 +8753,7 @@
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
       <c r="D23" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>12</v>
@@ -8772,13 +8772,13 @@
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
       <c r="D24" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -8794,15 +8794,15 @@
         <v>101</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F25" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G25" s="26"/>
       <c r="H25" s="26"/>
       <c r="I25" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -8810,16 +8810,16 @@
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
       <c r="D26" s="24" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
       <c r="I26" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -8827,10 +8827,10 @@
       <c r="B27" s="26"/>
       <c r="C27" s="26"/>
       <c r="D27" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -8859,7 +8859,7 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -8889,7 +8889,7 @@
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
       <c r="D31" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="20"/>
@@ -8904,14 +8904,14 @@
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
       <c r="D32" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -8926,7 +8926,7 @@
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
       <c r="I33" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -8939,7 +8939,7 @@
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
       <c r="I34" s="30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -8978,7 +8978,7 @@
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
       <c r="I37" s="18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -8991,7 +8991,7 @@
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
       <c r="I38" s="18" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -9004,7 +9004,7 @@
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
       <c r="I39" s="18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9017,7 +9017,7 @@
       <c r="G40" s="32"/>
       <c r="H40" s="32"/>
       <c r="I40" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -9050,60 +9050,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -9117,7 +9117,7 @@
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
         <v>64</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>105</v>
@@ -9146,7 +9146,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
         <v>58</v>
@@ -9161,7 +9161,7 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -9175,7 +9175,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
@@ -9190,7 +9190,7 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -9204,7 +9204,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -9216,10 +9216,10 @@
         <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -9245,7 +9245,7 @@
         <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
         <v>124</v>
@@ -9262,13 +9262,13 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E8" t="s">
         <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
@@ -9277,12 +9277,12 @@
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -9306,12 +9306,12 @@
         <v>126</v>
       </c>
       <c r="I9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -9329,7 +9329,7 @@
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
         <v>122</v>
@@ -9337,7 +9337,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
@@ -9358,12 +9358,12 @@
         <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -9395,22 +9395,22 @@
         <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
         <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -9430,18 +9430,18 @@
         <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -9453,18 +9453,18 @@
         <v>126</v>
       </c>
       <c r="H15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
         <v>48</v>
@@ -9473,18 +9473,18 @@
         <v>13</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
@@ -9493,10 +9493,10 @@
         <v>29</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I17" t="s">
         <v>120</v>
@@ -9504,10 +9504,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
@@ -9519,7 +9519,7 @@
         <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -9539,7 +9539,7 @@
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -9553,13 +9553,13 @@
         <v>52</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -9567,7 +9567,7 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
         <v>82</v>
@@ -9579,7 +9579,7 @@
         <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -9596,15 +9596,15 @@
         <v>17</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
@@ -9613,7 +9613,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I23" t="s">
         <v>129</v>
@@ -9621,13 +9621,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I24" t="s">
         <v>120</v>
@@ -9635,32 +9635,32 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D27" t="s">
         <v>31</v>
@@ -9682,7 +9682,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D31" t="s">
         <v>118</v>
@@ -9715,13 +9715,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D32" t="s">
         <v>117</v>
       </c>
       <c r="I32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -9729,7 +9729,7 @@
         <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -9737,7 +9737,7 @@
         <v>54</v>
       </c>
       <c r="I34" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -9758,39 +9758,39 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I40" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -9800,7 +9800,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.35">
@@ -9830,52 +9830,52 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
@@ -9900,52 +9900,52 @@
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
@@ -9970,52 +9970,52 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
@@ -10025,72 +10025,72 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC4FE44-C8AA-443D-9831-05F10D90EB3C}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D954DC-A1FB-4F36-A9A0-1088D7133399}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="426">
   <si>
     <t>Col 1</t>
   </si>
@@ -1313,6 +1313,9 @@
   </si>
   <si>
     <t>AMS18A-102Z5</t>
+  </si>
+  <si>
+    <t>AMS12A-1M4Z5</t>
   </si>
 </sst>
 </file>
@@ -2688,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2963,7 +2966,7 @@
         <v>288</v>
       </c>
       <c r="D17" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -5477,10 +5480,10 @@
         <v>122</v>
       </c>
       <c r="D191" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>130</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
@@ -6046,8 +6049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6767,6 +6770,9 @@
       <c r="I3" s="36" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="36" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -6779,33 +6785,30 @@
         <v>46</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="36" t="s">
         <v>57</v>
       </c>
     </row>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="454" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20D954DC-A1FB-4F36-A9A0-1088D7133399}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D09F68B-B007-40D2-97A9-415AEC65D981}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="426">
   <si>
     <t>Col 1</t>
   </si>
@@ -2691,7 +2691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+    <sheetView topLeftCell="A180" workbookViewId="0">
       <selection activeCell="F191" sqref="F191"/>
     </sheetView>
   </sheetViews>
@@ -7326,8 +7326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7595,6 +7595,9 @@
       </c>
       <c r="P3" s="36">
         <v>2154140336</v>
+      </c>
+      <c r="Q3" s="36" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D09F68B-B007-40D2-97A9-415AEC65D981}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{258C47C6-FAC7-4874-844D-3C822AFE9E6E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-10350" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1803" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="426">
   <si>
     <t>Col 1</t>
   </si>
@@ -1660,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1734,6 +1734,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2226,9 +2227,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:H227" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G227">
-    <sortCondition ref="A115:A227"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:H228" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G228">
+    <sortCondition ref="A116:A228"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="21"/>
@@ -2689,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H230"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4081,7 +4082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2098706084</v>
       </c>
@@ -4095,23 +4096,27 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="5">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>2098706085</v>
+      </c>
+      <c r="B98" t="s">
+        <v>379</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" t="s">
+        <v>412</v>
+      </c>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="5">
         <v>2099700009</v>
-      </c>
-      <c r="B98" t="s">
-        <v>379</v>
-      </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="5">
-        <v>2099700010</v>
       </c>
       <c r="B99" t="s">
         <v>379</v>
@@ -4123,32 +4128,29 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="5">
+        <v>2099700010</v>
+      </c>
+      <c r="B100" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>2099700025</v>
       </c>
-      <c r="B100" t="s">
-        <v>379</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>379</v>
+      </c>
+      <c r="C101" t="s">
         <v>102</v>
-      </c>
-      <c r="D100" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>2099700030</v>
-      </c>
-      <c r="B101" t="s">
-        <v>379</v>
-      </c>
-      <c r="C101" t="s">
-        <v>103</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
@@ -4156,55 +4158,58 @@
       <c r="E101" t="s">
         <v>14</v>
       </c>
-      <c r="F101" t="s">
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2099700030</v>
+      </c>
+      <c r="B102" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" t="s">
+        <v>103</v>
+      </c>
+      <c r="D102" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="5">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="5">
         <v>2099700041</v>
       </c>
-      <c r="B102" t="s">
-        <v>379</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" t="s">
         <v>12</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>2099700048</v>
       </c>
-      <c r="B103" t="s">
-        <v>379</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>379</v>
+      </c>
+      <c r="C104" t="s">
         <v>45</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="5">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="5">
         <v>2099700049</v>
-      </c>
-      <c r="B104" t="s">
-        <v>379</v>
-      </c>
-      <c r="C104" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="5">
-        <v>2099700056</v>
       </c>
       <c r="B105" t="s">
         <v>379</v>
@@ -4216,26 +4221,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
+        <v>2099700056</v>
+      </c>
+      <c r="B106" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" t="s">
+        <v>46</v>
+      </c>
+      <c r="D106" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="5">
         <v>2099700057</v>
-      </c>
-      <c r="B106" t="s">
-        <v>379</v>
-      </c>
-      <c r="C106" t="s">
-        <v>360</v>
-      </c>
-      <c r="D106" t="s">
-        <v>358</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="5">
-        <v>2099700058</v>
       </c>
       <c r="B107" t="s">
         <v>379</v>
@@ -4244,21 +4246,15 @@
         <v>360</v>
       </c>
       <c r="D107" t="s">
+        <v>358</v>
+      </c>
+      <c r="E107" t="s">
         <v>10</v>
       </c>
-      <c r="E107" t="s">
-        <v>52</v>
-      </c>
-      <c r="F107" t="s">
-        <v>52</v>
-      </c>
-      <c r="G107" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
-        <v>2099700059</v>
+        <v>2099700058</v>
       </c>
       <c r="B108" t="s">
         <v>379</v>
@@ -4267,97 +4263,106 @@
         <v>360</v>
       </c>
       <c r="D108" t="s">
-        <v>358</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F108" t="s">
         <v>52</v>
       </c>
       <c r="G108" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="5">
+        <v>2099700059</v>
+      </c>
+      <c r="B109" t="s">
+        <v>379</v>
+      </c>
+      <c r="C109" t="s">
+        <v>360</v>
+      </c>
+      <c r="D109" t="s">
+        <v>358</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="5">
+      <c r="G109" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="5">
         <v>2099706005</v>
       </c>
-      <c r="B109" t="s">
-        <v>379</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>379</v>
+      </c>
+      <c r="C110" t="s">
         <v>45</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="5">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="5">
         <v>2154140069</v>
       </c>
-      <c r="B110" t="s">
-        <v>379</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>379</v>
+      </c>
+      <c r="C111" t="s">
         <v>361</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="5">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="5">
         <v>2154140162</v>
       </c>
-      <c r="B111" t="s">
-        <v>379</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>379</v>
+      </c>
+      <c r="C112" t="s">
         <v>362</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="5">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="5">
         <v>2154140207</v>
       </c>
-      <c r="B112" t="s">
-        <v>379</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>379</v>
+      </c>
+      <c r="C113" t="s">
         <v>7</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>2154140222</v>
-      </c>
-      <c r="B113" t="s">
-        <v>379</v>
-      </c>
-      <c r="C113" t="s">
-        <v>105</v>
-      </c>
-      <c r="D113" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114">
-        <v>2154140224</v>
+        <v>2154140222</v>
       </c>
       <c r="B114" t="s">
         <v>379</v>
       </c>
       <c r="C114" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
@@ -4365,13 +4370,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115">
-        <v>2154140225</v>
+        <v>2154140224</v>
       </c>
       <c r="B115" t="s">
         <v>379</v>
       </c>
       <c r="C115" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -4379,13 +4384,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>2154140229</v>
+        <v>2154140225</v>
       </c>
       <c r="B116" t="s">
         <v>379</v>
       </c>
       <c r="C116" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -4393,21 +4398,21 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>2154140243</v>
+        <v>2154140229</v>
       </c>
       <c r="B117" t="s">
         <v>379</v>
       </c>
       <c r="C117" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" t="s">
         <v>31</v>
-      </c>
-      <c r="D117" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>2154140283</v>
+        <v>2154140243</v>
       </c>
       <c r="B118" t="s">
         <v>379</v>
@@ -4416,12 +4421,12 @@
         <v>31</v>
       </c>
       <c r="D118" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>2154140284</v>
+        <v>2154140283</v>
       </c>
       <c r="B119" t="s">
         <v>379</v>
@@ -4430,40 +4435,40 @@
         <v>31</v>
       </c>
       <c r="D119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2154140284</v>
+      </c>
+      <c r="B120" t="s">
+        <v>379</v>
+      </c>
+      <c r="C120" t="s">
+        <v>31</v>
+      </c>
+      <c r="D120" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="5">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="5">
         <v>2154140285</v>
       </c>
-      <c r="B120" t="s">
-        <v>379</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" t="s">
         <v>118</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>2154140287</v>
-      </c>
-      <c r="B121" t="s">
-        <v>379</v>
-      </c>
-      <c r="C121" t="s">
-        <v>31</v>
-      </c>
-      <c r="D121" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>2154140289</v>
+        <v>2154140287</v>
       </c>
       <c r="B122" t="s">
         <v>379</v>
@@ -4477,7 +4482,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123">
-        <v>2154140290</v>
+        <v>2154140289</v>
       </c>
       <c r="B123" t="s">
         <v>379</v>
@@ -4490,64 +4495,64 @@
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="5">
-        <v>2154140291</v>
+      <c r="A124">
+        <v>2154140290</v>
       </c>
       <c r="B124" t="s">
         <v>379</v>
       </c>
       <c r="C124" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="D124" t="s">
-        <v>364</v>
+        <v>105</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="5">
+        <v>2154140291</v>
+      </c>
+      <c r="B125" t="s">
+        <v>379</v>
+      </c>
+      <c r="C125" t="s">
+        <v>118</v>
+      </c>
+      <c r="D125" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="5">
         <v>2154140292</v>
       </c>
-      <c r="B125" t="s">
-        <v>379</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>379</v>
+      </c>
+      <c r="C126" t="s">
         <v>362</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>2154140293</v>
-      </c>
-      <c r="B126" t="s">
-        <v>379</v>
-      </c>
-      <c r="C126" t="s">
-        <v>31</v>
-      </c>
-      <c r="D126" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127">
-        <v>2154140294</v>
+        <v>2154140293</v>
       </c>
       <c r="B127" t="s">
         <v>379</v>
       </c>
       <c r="C127" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128">
-        <v>2154140295</v>
+        <v>2154140294</v>
       </c>
       <c r="B128" t="s">
         <v>379</v>
@@ -4561,35 +4566,35 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>2154140318</v>
+        <v>2154140295</v>
       </c>
       <c r="B129" t="s">
         <v>379</v>
       </c>
       <c r="C129" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D129" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
+        <v>2154140318</v>
+      </c>
+      <c r="B130" t="s">
+        <v>379</v>
+      </c>
+      <c r="C130" t="s">
+        <v>114</v>
+      </c>
+      <c r="D130" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>2154140319</v>
-      </c>
-      <c r="B130" t="s">
-        <v>379</v>
-      </c>
-      <c r="C130" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A131" s="5">
-        <v>2154140335</v>
       </c>
       <c r="B131" t="s">
         <v>379</v>
@@ -4598,12 +4603,12 @@
         <v>31</v>
       </c>
       <c r="D131" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>2154140336</v>
+      <c r="A132" s="5">
+        <v>2154140335</v>
       </c>
       <c r="B132" t="s">
         <v>379</v>
@@ -4612,166 +4617,166 @@
         <v>31</v>
       </c>
       <c r="D132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>2154140336</v>
+      </c>
+      <c r="B133" t="s">
+        <v>379</v>
+      </c>
+      <c r="C133" t="s">
+        <v>31</v>
+      </c>
+      <c r="D133" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A133" s="5">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="5">
         <v>2154140345</v>
       </c>
-      <c r="B133" t="s">
-        <v>379</v>
-      </c>
-      <c r="C133" t="s">
+      <c r="B134" t="s">
+        <v>379</v>
+      </c>
+      <c r="C134" t="s">
         <v>118</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D134" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135">
         <v>2154140349</v>
       </c>
-      <c r="B134" t="s">
-        <v>379</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="B135" t="s">
+        <v>379</v>
+      </c>
+      <c r="C135" t="s">
         <v>117</v>
       </c>
-      <c r="D134" t="s">
+      <c r="D135" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A135" s="5">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="5">
         <v>2154140596</v>
       </c>
-      <c r="B135" t="s">
-        <v>379</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" t="s">
+        <v>379</v>
+      </c>
+      <c r="C136" t="s">
         <v>365</v>
       </c>
-      <c r="D135" t="s">
+      <c r="D136" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>2154150035</v>
-      </c>
-      <c r="B136" t="s">
-        <v>379</v>
-      </c>
-      <c r="C136" t="s">
-        <v>31</v>
-      </c>
-      <c r="D136" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>2154150089</v>
+        <v>2154150035</v>
       </c>
       <c r="B137" t="s">
         <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="D137" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138">
-        <v>2154150163</v>
+        <v>2154150089</v>
       </c>
       <c r="B138" t="s">
         <v>379</v>
       </c>
       <c r="C138" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D138" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>2154150172</v>
+        <v>2154150163</v>
       </c>
       <c r="B139" t="s">
         <v>379</v>
       </c>
       <c r="C139" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D139" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>2154150197</v>
+        <v>2154150172</v>
       </c>
       <c r="B140" t="s">
         <v>379</v>
       </c>
       <c r="C140" t="s">
+        <v>123</v>
+      </c>
+      <c r="D140" t="s">
         <v>120</v>
-      </c>
-      <c r="D140" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>2154150214</v>
+        <v>2154150197</v>
       </c>
       <c r="B141" t="s">
         <v>379</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="D141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>2154150215</v>
+        <v>2154150214</v>
       </c>
       <c r="B142" t="s">
         <v>379</v>
       </c>
       <c r="C142" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D142" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>2154150247</v>
+        <v>2154150215</v>
       </c>
       <c r="B143" t="s">
         <v>379</v>
       </c>
       <c r="C143" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D143" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>2154150250</v>
+        <v>2154150247</v>
       </c>
       <c r="B144" t="s">
         <v>379</v>
@@ -4780,32 +4785,32 @@
         <v>130</v>
       </c>
       <c r="D144" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>2154150250</v>
+      </c>
+      <c r="B145" t="s">
+        <v>379</v>
+      </c>
+      <c r="C145" t="s">
+        <v>130</v>
+      </c>
+      <c r="D145" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" s="5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="5">
         <v>2154150301</v>
       </c>
-      <c r="B145" t="s">
-        <v>379</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="B146" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" t="s">
         <v>123</v>
-      </c>
-      <c r="D145" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146">
-        <v>2154150337</v>
-      </c>
-      <c r="B146" t="s">
-        <v>379</v>
-      </c>
-      <c r="C146" t="s">
-        <v>126</v>
       </c>
       <c r="D146" t="s">
         <v>134</v>
@@ -4813,35 +4818,35 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>2154150341</v>
+        <v>2154150337</v>
       </c>
       <c r="B147" t="s">
         <v>379</v>
       </c>
       <c r="C147" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D147" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
+        <v>2154150341</v>
+      </c>
+      <c r="B148" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" t="s">
+        <v>135</v>
+      </c>
+      <c r="D148" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>2154150342</v>
-      </c>
-      <c r="B148" t="s">
-        <v>379</v>
-      </c>
-      <c r="C148" t="s">
-        <v>123</v>
-      </c>
-      <c r="D148" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="5">
-        <v>2154150343</v>
       </c>
       <c r="B149" t="s">
         <v>379</v>
@@ -4850,12 +4855,12 @@
         <v>123</v>
       </c>
       <c r="D149" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="5">
-        <v>2154150347</v>
+        <v>2154150343</v>
       </c>
       <c r="B150" t="s">
         <v>379</v>
@@ -4868,84 +4873,81 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151">
+      <c r="A151" s="5">
+        <v>2154150347</v>
+      </c>
+      <c r="B151" t="s">
+        <v>379</v>
+      </c>
+      <c r="C151" t="s">
+        <v>123</v>
+      </c>
+      <c r="D151" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>2154150348</v>
       </c>
-      <c r="B151" t="s">
-        <v>379</v>
-      </c>
-      <c r="C151" t="s">
+      <c r="B152" t="s">
+        <v>379</v>
+      </c>
+      <c r="C152" t="s">
         <v>126</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D152" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="5">
-        <v>2154150349</v>
-      </c>
-      <c r="B152" t="s">
-        <v>379</v>
-      </c>
-      <c r="C152" t="s">
-        <v>123</v>
-      </c>
-      <c r="D152" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
-        <v>2154150350</v>
+        <v>2154150349</v>
       </c>
       <c r="B153" t="s">
         <v>379</v>
       </c>
       <c r="C153" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D153" t="s">
         <v>123</v>
       </c>
-      <c r="E153" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="5">
-        <v>2154150351</v>
+        <v>2154150350</v>
       </c>
       <c r="B154" t="s">
         <v>379</v>
       </c>
       <c r="C154" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D154" t="s">
         <v>123</v>
       </c>
+      <c r="E154" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
-        <v>2154150357</v>
+        <v>2154150351</v>
       </c>
       <c r="B155" t="s">
         <v>379</v>
       </c>
       <c r="C155" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D155" t="s">
-        <v>366</v>
-      </c>
-      <c r="E155" t="s">
-        <v>367</v>
+        <v>123</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
-        <v>2154150358</v>
+        <v>2154150357</v>
       </c>
       <c r="B156" t="s">
         <v>379</v>
@@ -4954,12 +4956,15 @@
         <v>122</v>
       </c>
       <c r="D156" t="s">
-        <v>363</v>
+        <v>366</v>
+      </c>
+      <c r="E156" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
-        <v>2154150366</v>
+        <v>2154150358</v>
       </c>
       <c r="B157" t="s">
         <v>379</v>
@@ -4970,13 +4975,10 @@
       <c r="D157" t="s">
         <v>363</v>
       </c>
-      <c r="E157" t="s">
-        <v>366</v>
-      </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
-        <v>2154150370</v>
+        <v>2154150366</v>
       </c>
       <c r="B158" t="s">
         <v>379</v>
@@ -4985,54 +4987,57 @@
         <v>122</v>
       </c>
       <c r="D158" t="s">
+        <v>363</v>
+      </c>
+      <c r="E158" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="5">
+        <v>2154150370</v>
+      </c>
+      <c r="B159" t="s">
+        <v>379</v>
+      </c>
+      <c r="C159" t="s">
+        <v>122</v>
+      </c>
+      <c r="D159" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159">
-        <v>2154150380</v>
-      </c>
-      <c r="B159" t="s">
-        <v>379</v>
-      </c>
-      <c r="C159" t="s">
-        <v>124</v>
-      </c>
-      <c r="D159" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
-        <v>2154150391</v>
+        <v>2154150380</v>
       </c>
       <c r="B160" t="s">
         <v>379</v>
       </c>
       <c r="C160" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D160" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161">
-        <v>2154150420</v>
+        <v>2154150391</v>
       </c>
       <c r="B161" t="s">
         <v>379</v>
       </c>
       <c r="C161" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="D161" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162">
-        <v>2154150447</v>
+        <v>2154150420</v>
       </c>
       <c r="B162" t="s">
         <v>379</v>
@@ -5041,77 +5046,77 @@
         <v>137</v>
       </c>
       <c r="D162" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2154150447</v>
+      </c>
+      <c r="B163" t="s">
+        <v>379</v>
+      </c>
+      <c r="C163" t="s">
+        <v>137</v>
+      </c>
+      <c r="D163" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="5">
-        <v>2154150448</v>
-      </c>
-      <c r="B163" t="s">
-        <v>379</v>
-      </c>
-      <c r="C163" t="s">
-        <v>368</v>
-      </c>
-      <c r="D163" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="5">
+        <v>2154150448</v>
+      </c>
+      <c r="B164" t="s">
+        <v>379</v>
+      </c>
+      <c r="C164" t="s">
+        <v>368</v>
+      </c>
+      <c r="D164" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="5">
         <v>2154150455</v>
       </c>
-      <c r="B164" t="s">
-        <v>379</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B165" t="s">
+        <v>379</v>
+      </c>
+      <c r="C165" t="s">
         <v>122</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D165" t="s">
         <v>329</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E165" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>2154150461</v>
       </c>
-      <c r="B165" t="s">
-        <v>379</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B166" t="s">
+        <v>379</v>
+      </c>
+      <c r="C166" t="s">
         <v>124</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D166" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="5">
-        <v>2154150497</v>
-      </c>
-      <c r="B166" t="s">
-        <v>379</v>
-      </c>
-      <c r="C166" t="s">
-        <v>137</v>
-      </c>
-      <c r="D166" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="5">
-        <v>2154150501</v>
+        <v>2154150497</v>
       </c>
       <c r="B167" t="s">
         <v>379</v>
       </c>
       <c r="C167" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="D167" t="s">
         <v>126</v>
@@ -5119,148 +5124,148 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="5">
-        <v>2154150509</v>
+        <v>2154150501</v>
       </c>
       <c r="B168" t="s">
         <v>379</v>
       </c>
       <c r="C168" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D168" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="5">
-        <v>2154150525</v>
+        <v>2154150509</v>
       </c>
       <c r="B169" t="s">
         <v>379</v>
       </c>
       <c r="C169" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="D169" t="s">
-        <v>164</v>
-      </c>
-      <c r="E169" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="5">
-        <v>2154150526</v>
+        <v>2154150525</v>
       </c>
       <c r="B170" t="s">
         <v>379</v>
       </c>
       <c r="C170" t="s">
-        <v>129</v>
+        <v>329</v>
       </c>
       <c r="D170" t="s">
-        <v>369</v>
+        <v>164</v>
+      </c>
+      <c r="E170" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="5">
+        <v>2154150526</v>
+      </c>
+      <c r="B171" t="s">
+        <v>379</v>
+      </c>
+      <c r="C171" t="s">
+        <v>129</v>
+      </c>
+      <c r="D171" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
         <v>2154150534</v>
       </c>
-      <c r="B171" t="s">
-        <v>379</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B172" t="s">
+        <v>379</v>
+      </c>
+      <c r="C172" t="s">
         <v>123</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D172" t="s">
         <v>31</v>
       </c>
-      <c r="E171" t="s">
+      <c r="E172" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>2154150554</v>
       </c>
-      <c r="B172" t="s">
-        <v>379</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B173" t="s">
+        <v>379</v>
+      </c>
+      <c r="C173" t="s">
         <v>130</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D173" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="5">
-        <v>2154150557</v>
-      </c>
-      <c r="B173" t="s">
-        <v>379</v>
-      </c>
-      <c r="C173" t="s">
-        <v>122</v>
-      </c>
-      <c r="D173" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="5">
+        <v>2154150557</v>
+      </c>
+      <c r="B174" t="s">
+        <v>379</v>
+      </c>
+      <c r="C174" t="s">
+        <v>122</v>
+      </c>
+      <c r="D174" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A175" s="5">
         <v>2154150560</v>
       </c>
-      <c r="B174" t="s">
-        <v>379</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
+        <v>379</v>
+      </c>
+      <c r="C175" t="s">
         <v>123</v>
-      </c>
-      <c r="D174" t="s">
-        <v>31</v>
-      </c>
-      <c r="E174" t="s">
-        <v>370</v>
-      </c>
-      <c r="F174" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175">
-        <v>2154150563</v>
-      </c>
-      <c r="B175" t="s">
-        <v>379</v>
-      </c>
-      <c r="C175" t="s">
-        <v>424</v>
       </c>
       <c r="D175" t="s">
         <v>31</v>
       </c>
+      <c r="E175" t="s">
+        <v>370</v>
+      </c>
+      <c r="F175" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="5">
+      <c r="A176">
+        <v>2154150563</v>
+      </c>
+      <c r="B176" t="s">
+        <v>379</v>
+      </c>
+      <c r="C176" t="s">
+        <v>424</v>
+      </c>
+      <c r="D176" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A177" s="5">
         <v>2154150581</v>
       </c>
-      <c r="B176" t="s">
-        <v>379</v>
-      </c>
-      <c r="C176" t="s">
-        <v>123</v>
-      </c>
-      <c r="D176" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177">
-        <v>2154150582</v>
-      </c>
       <c r="B177" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C177" t="s">
         <v>123</v>
@@ -5271,193 +5276,193 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
+        <v>2154150582</v>
+      </c>
+      <c r="B178" t="s">
+        <v>381</v>
+      </c>
+      <c r="C178" t="s">
+        <v>123</v>
+      </c>
+      <c r="D178" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>2154150588</v>
       </c>
-      <c r="B178" t="s">
-        <v>379</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B179" t="s">
+        <v>379</v>
+      </c>
+      <c r="C179" t="s">
         <v>31</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="5">
-        <v>2154150591</v>
-      </c>
-      <c r="B179" t="s">
-        <v>379</v>
-      </c>
-      <c r="C179" t="s">
-        <v>370</v>
-      </c>
-      <c r="D179" t="s">
-        <v>363</v>
-      </c>
-      <c r="E179" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="5">
+        <v>2154150591</v>
+      </c>
+      <c r="B180" t="s">
+        <v>379</v>
+      </c>
+      <c r="C180" t="s">
+        <v>370</v>
+      </c>
+      <c r="D180" t="s">
+        <v>363</v>
+      </c>
+      <c r="E180" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181" s="5">
         <v>2154150597</v>
       </c>
-      <c r="B180" t="s">
-        <v>379</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B181" t="s">
+        <v>379</v>
+      </c>
+      <c r="C181" t="s">
         <v>126</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>126</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E181" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181">
-        <v>2154150603</v>
-      </c>
-      <c r="B181" t="s">
-        <v>379</v>
-      </c>
-      <c r="C181" t="s">
-        <v>125</v>
-      </c>
-      <c r="D181" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182">
+        <v>2154150603</v>
+      </c>
+      <c r="B182" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" t="s">
+        <v>125</v>
+      </c>
+      <c r="D182" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>2154150605</v>
       </c>
-      <c r="B182" t="s">
-        <v>379</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B183" t="s">
+        <v>379</v>
+      </c>
+      <c r="C183" t="s">
         <v>105</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="5">
-        <v>2154150622</v>
-      </c>
-      <c r="B183" t="s">
-        <v>379</v>
-      </c>
-      <c r="C183" t="s">
-        <v>371</v>
-      </c>
-      <c r="D183" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="5">
+        <v>2154150622</v>
+      </c>
+      <c r="B184" t="s">
+        <v>379</v>
+      </c>
+      <c r="C184" t="s">
+        <v>371</v>
+      </c>
+      <c r="D184" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185" s="5">
         <v>2154150627</v>
       </c>
-      <c r="B184" t="s">
-        <v>379</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B185" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" t="s">
         <v>329</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186">
         <v>2154150633</v>
       </c>
-      <c r="B185" t="s">
-        <v>379</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B186" t="s">
+        <v>379</v>
+      </c>
+      <c r="C186" t="s">
         <v>123</v>
-      </c>
-      <c r="D185" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="5">
-        <v>2154150646</v>
-      </c>
-      <c r="B186" t="s">
-        <v>379</v>
-      </c>
-      <c r="C186" t="s">
-        <v>126</v>
       </c>
       <c r="D186" t="s">
         <v>126</v>
       </c>
-      <c r="E186" t="s">
-        <v>123</v>
-      </c>
-      <c r="F186" t="s">
-        <v>330</v>
-      </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
-        <v>2154150648</v>
+        <v>2154150646</v>
       </c>
       <c r="B187" t="s">
         <v>379</v>
       </c>
       <c r="C187" t="s">
-        <v>328</v>
+        <v>126</v>
       </c>
       <c r="D187" t="s">
-        <v>373</v>
+        <v>126</v>
       </c>
       <c r="E187" t="s">
-        <v>374</v>
+        <v>123</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
+        <v>2154150648</v>
+      </c>
+      <c r="B188" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" t="s">
+        <v>328</v>
+      </c>
+      <c r="D188" t="s">
+        <v>373</v>
+      </c>
+      <c r="E188" t="s">
+        <v>374</v>
+      </c>
+      <c r="F188" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A189" s="5">
         <v>2154150653</v>
       </c>
-      <c r="B188" t="s">
-        <v>379</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" t="s">
         <v>125</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>2154150669</v>
-      </c>
-      <c r="B189" t="s">
-        <v>379</v>
-      </c>
-      <c r="C189" t="s">
-        <v>123</v>
-      </c>
-      <c r="D189" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190">
-        <v>2154150672</v>
+        <v>2154150669</v>
       </c>
       <c r="B190" t="s">
         <v>379</v>
@@ -5470,39 +5475,39 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="5">
+      <c r="A191">
+        <v>2154150672</v>
+      </c>
+      <c r="B191" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191" t="s">
+        <v>123</v>
+      </c>
+      <c r="D191" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192" s="5">
         <v>2154150677</v>
       </c>
-      <c r="B191" t="s">
-        <v>379</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="B192" t="s">
+        <v>379</v>
+      </c>
+      <c r="C192" t="s">
         <v>122</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>425</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E192" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192">
-        <v>2154150706</v>
-      </c>
-      <c r="B192" t="s">
-        <v>379</v>
-      </c>
-      <c r="C192" t="s">
-        <v>112</v>
-      </c>
-      <c r="D192" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>2154150707</v>
+        <v>2154150706</v>
       </c>
       <c r="B193" t="s">
         <v>379</v>
@@ -5516,49 +5521,49 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194">
-        <v>2154150715</v>
+        <v>2154150707</v>
       </c>
       <c r="B194" t="s">
         <v>379</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D194" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="5">
-        <v>2154150719</v>
+      <c r="A195">
+        <v>2154150715</v>
       </c>
       <c r="B195" t="s">
         <v>379</v>
       </c>
       <c r="C195" t="s">
-        <v>365</v>
+        <v>31</v>
       </c>
       <c r="D195" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
-        <v>2154150731</v>
+        <v>2154150719</v>
       </c>
       <c r="B196" t="s">
         <v>379</v>
       </c>
       <c r="C196" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="D196" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
-        <v>2154150765</v>
+        <v>2154150731</v>
       </c>
       <c r="B197" t="s">
         <v>379</v>
@@ -5567,18 +5572,12 @@
         <v>129</v>
       </c>
       <c r="D197" t="s">
-        <v>329</v>
-      </c>
-      <c r="E197" t="s">
-        <v>358</v>
-      </c>
-      <c r="F197" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
-        <v>2154150767</v>
+        <v>2154150765</v>
       </c>
       <c r="B198" t="s">
         <v>379</v>
@@ -5590,66 +5589,66 @@
         <v>329</v>
       </c>
       <c r="E198" t="s">
+        <v>358</v>
+      </c>
+      <c r="F198" t="s">
         <v>153</v>
-      </c>
-      <c r="F198" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
-        <v>2154150769</v>
+        <v>2154150767</v>
       </c>
       <c r="B199" t="s">
         <v>379</v>
       </c>
       <c r="C199" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D199" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="E199" t="s">
-        <v>134</v>
+        <v>153</v>
+      </c>
+      <c r="F199" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
-        <v>2154150788</v>
+        <v>2154150769</v>
       </c>
       <c r="B200" t="s">
         <v>379</v>
       </c>
       <c r="C200" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D200" t="s">
-        <v>369</v>
+        <v>123</v>
+      </c>
+      <c r="E200" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
-        <v>2154150813</v>
+        <v>2154150788</v>
       </c>
       <c r="B201" t="s">
         <v>379</v>
       </c>
       <c r="C201" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D201" t="s">
-        <v>126</v>
-      </c>
-      <c r="E201" t="s">
-        <v>123</v>
-      </c>
-      <c r="F201" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
-        <v>2154150814</v>
+        <v>2154150813</v>
       </c>
       <c r="B202" t="s">
         <v>379</v>
@@ -5658,172 +5657,178 @@
         <v>126</v>
       </c>
       <c r="D202" t="s">
+        <v>126</v>
+      </c>
+      <c r="E202" t="s">
         <v>123</v>
       </c>
-      <c r="E202" t="s">
-        <v>134</v>
+      <c r="F202" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
-        <v>2154150822</v>
+        <v>2154150814</v>
       </c>
       <c r="B203" t="s">
         <v>379</v>
       </c>
       <c r="C203" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D203" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="E203" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
-        <v>2154150839</v>
+        <v>2154150822</v>
       </c>
       <c r="B204" t="s">
         <v>379</v>
       </c>
       <c r="C204" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D204" t="s">
-        <v>330</v>
+        <v>329</v>
+      </c>
+      <c r="E204" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
-        <v>2154150840</v>
+        <v>2154150839</v>
       </c>
       <c r="B205" t="s">
         <v>379</v>
       </c>
       <c r="C205" t="s">
-        <v>365</v>
+        <v>126</v>
       </c>
       <c r="D205" t="s">
-        <v>127</v>
+        <v>330</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
-        <v>2154150841</v>
+        <v>2154150840</v>
       </c>
       <c r="B206" t="s">
         <v>379</v>
       </c>
       <c r="C206" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="D206" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
-        <v>2154150876</v>
+        <v>2154150841</v>
       </c>
       <c r="B207" t="s">
         <v>379</v>
       </c>
       <c r="C207" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="D207" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
-        <v>2154150893</v>
+        <v>2154150876</v>
       </c>
       <c r="B208" t="s">
         <v>379</v>
       </c>
       <c r="C208" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D208" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
-        <v>2154150918</v>
+        <v>2154150893</v>
       </c>
       <c r="B209" t="s">
         <v>379</v>
       </c>
       <c r="C209" t="s">
-        <v>126</v>
+        <v>377</v>
       </c>
       <c r="D209" t="s">
-        <v>360</v>
+        <v>137</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
-        <v>2154150921</v>
+        <v>2154150918</v>
       </c>
       <c r="B210" t="s">
         <v>379</v>
       </c>
       <c r="C210" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D210" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
+        <v>2154150921</v>
+      </c>
+      <c r="B211" t="s">
+        <v>379</v>
+      </c>
+      <c r="C211" t="s">
+        <v>122</v>
+      </c>
+      <c r="D211" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" s="5">
         <v>2154150922</v>
       </c>
-      <c r="B211" t="s">
-        <v>379</v>
-      </c>
-      <c r="C211" t="s">
+      <c r="B212" t="s">
+        <v>379</v>
+      </c>
+      <c r="C212" t="s">
         <v>129</v>
       </c>
-      <c r="D211" t="s">
+      <c r="D212" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A212">
-        <v>2154150943</v>
-      </c>
-      <c r="B212" t="s">
-        <v>379</v>
-      </c>
-      <c r="C212" t="s">
-        <v>137</v>
-      </c>
-      <c r="D212" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213">
-        <v>2154155136</v>
+        <v>2154150943</v>
       </c>
       <c r="B213" t="s">
         <v>379</v>
       </c>
       <c r="C213" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D213" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A214" s="5">
-        <v>2154155149</v>
+      <c r="A214">
+        <v>2154155136</v>
       </c>
       <c r="B214" t="s">
         <v>379</v>
@@ -5832,43 +5837,43 @@
         <v>123</v>
       </c>
       <c r="D214" t="s">
-        <v>368</v>
+        <v>126</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
+        <v>2154155149</v>
+      </c>
+      <c r="B215" t="s">
+        <v>379</v>
+      </c>
+      <c r="C215" t="s">
+        <v>123</v>
+      </c>
+      <c r="D215" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" s="5">
         <v>2154155150</v>
       </c>
-      <c r="B215" t="s">
-        <v>379</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="B216" t="s">
+        <v>379</v>
+      </c>
+      <c r="C216" t="s">
         <v>368</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D216" t="s">
         <v>123</v>
       </c>
-      <c r="E215" t="s">
+      <c r="E216" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A216">
-        <v>2154160029</v>
-      </c>
-      <c r="B216" t="s">
-        <v>379</v>
-      </c>
-      <c r="C216" t="s">
-        <v>150</v>
-      </c>
-      <c r="D216" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217">
-        <v>2154160030</v>
+        <v>2154160029</v>
       </c>
       <c r="B217" t="s">
         <v>379</v>
@@ -5877,12 +5882,12 @@
         <v>150</v>
       </c>
       <c r="D217" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218">
-        <v>2154160031</v>
+        <v>2154160030</v>
       </c>
       <c r="B218" t="s">
         <v>379</v>
@@ -5896,21 +5901,21 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>2154160032</v>
+        <v>2154160031</v>
       </c>
       <c r="B219" t="s">
         <v>379</v>
       </c>
       <c r="C219" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D219" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>2154160033</v>
+        <v>2154160032</v>
       </c>
       <c r="B220" t="s">
         <v>379</v>
@@ -5924,49 +5929,49 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>2154160034</v>
+        <v>2154160033</v>
       </c>
       <c r="B221" t="s">
         <v>379</v>
       </c>
       <c r="C221" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D221" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222">
+        <v>2154160034</v>
+      </c>
+      <c r="B222" t="s">
+        <v>379</v>
+      </c>
+      <c r="C222" t="s">
+        <v>158</v>
+      </c>
+      <c r="D222" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223">
         <v>2154160035</v>
       </c>
-      <c r="B222" t="s">
-        <v>379</v>
-      </c>
-      <c r="C222" t="s">
+      <c r="B223" t="s">
+        <v>379</v>
+      </c>
+      <c r="C223" t="s">
         <v>150</v>
       </c>
-      <c r="D222" t="s">
+      <c r="D223" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A223" s="5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="5">
         <v>2154160036</v>
-      </c>
-      <c r="B223" t="s">
-        <v>379</v>
-      </c>
-      <c r="C223" t="s">
-        <v>156</v>
-      </c>
-      <c r="D223" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A224">
-        <v>2154160037</v>
       </c>
       <c r="B224" t="s">
         <v>379</v>
@@ -5980,21 +5985,21 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>2154170049</v>
+        <v>2154160037</v>
       </c>
       <c r="B225" t="s">
         <v>379</v>
       </c>
       <c r="C225" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D225" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226">
-        <v>2154170050</v>
+        <v>2154170049</v>
       </c>
       <c r="B226" t="s">
         <v>379</v>
@@ -6003,21 +6008,12 @@
         <v>123</v>
       </c>
       <c r="D226" t="s">
-        <v>126</v>
-      </c>
-      <c r="E226" t="s">
         <v>162</v>
-      </c>
-      <c r="F226" t="s">
-        <v>164</v>
-      </c>
-      <c r="G226" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>2154170052</v>
+        <v>2154170050</v>
       </c>
       <c r="B227" t="s">
         <v>379</v>
@@ -6026,16 +6022,39 @@
         <v>123</v>
       </c>
       <c r="D227" t="s">
+        <v>126</v>
+      </c>
+      <c r="E227" t="s">
+        <v>162</v>
+      </c>
+      <c r="F227" t="s">
+        <v>164</v>
+      </c>
+      <c r="G227" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>2154170052</v>
+      </c>
+      <c r="B228" t="s">
+        <v>379</v>
+      </c>
+      <c r="C228" t="s">
+        <v>123</v>
+      </c>
+      <c r="D228" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" s="5"/>
-      <c r="B230" s="5"/>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" s="5"/>
+      <c r="B231" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G227">
-    <sortCondition ref="A2:A227"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G228">
+    <sortCondition ref="A2:A228"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6049,8 +6068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7326,7 +7345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{258C47C6-FAC7-4874-844D-3C822AFE9E6E}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D1E292-510A-4DCD-AC14-8D4CB8AFE09B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10350" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-10350" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1660,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1734,7 +1734,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4082,7 +4081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>2098706084</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>2098706085</v>
       </c>
@@ -4109,12 +4108,8 @@
       <c r="D98" t="s">
         <v>412</v>
       </c>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
         <v>2099700009</v>
       </c>
@@ -4128,7 +4123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
         <v>2099700010</v>
       </c>
@@ -4142,7 +4137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>2099700025</v>
       </c>
@@ -4159,7 +4154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>2099700030</v>
       </c>
@@ -4179,7 +4174,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="5">
         <v>2099700041</v>
       </c>
@@ -4193,7 +4188,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>2099700048</v>
       </c>
@@ -4207,7 +4202,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
         <v>2099700049</v>
       </c>
@@ -4221,7 +4216,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="5">
         <v>2099700056</v>
       </c>
@@ -4235,7 +4230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
         <v>2099700057</v>
       </c>
@@ -4252,7 +4247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
         <v>2099700058</v>
       </c>
@@ -4275,7 +4270,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
         <v>2099700059</v>
       </c>
@@ -4298,7 +4293,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
         <v>2099706005</v>
       </c>
@@ -4312,7 +4307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
         <v>2154140069</v>
       </c>
@@ -4326,7 +4321,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
         <v>2154140162</v>
       </c>
@@ -6068,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7345,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AU10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8035,6 +8030,9 @@
       </c>
       <c r="O8" s="36">
         <v>2098700437</v>
+      </c>
+      <c r="P8" s="36">
+        <v>2098706085</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{02D1E292-510A-4DCD-AC14-8D4CB8AFE09B}"/>
+  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EA8FD04-BE16-4A6E-B7D4-1C6B3FE26A1E}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-10350" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -7338,19 +7338,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AU10"/>
+  <dimension ref="A1:AV10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="47" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -7561,7 +7561,7 @@
         <v>2098700429</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>310</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>312</v>
       </c>
@@ -7670,7 +7670,7 @@
         <v>2098706018</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>314</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>2154150497</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>316</v>
       </c>
@@ -7901,8 +7901,11 @@
       <c r="AU6" s="36">
         <v>2098700434</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+      <c r="AV6" s="36">
+        <v>2098700436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>318</v>
       </c>
@@ -7985,7 +7988,7 @@
         <v>2088707042</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>320</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>2098706085</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>322</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>2154170049</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>324</v>
       </c>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="467" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EA8FD04-BE16-4A6E-B7D4-1C6B3FE26A1E}"/>
+  <xr:revisionPtr revIDLastSave="471" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3348E0-19BD-4F0D-83BC-929743D827F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6063,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6923,6 +6923,9 @@
       <c r="AF5" s="36" t="s">
         <v>117</v>
       </c>
+      <c r="AG5" s="37" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -7066,33 +7069,30 @@
         <v>21</v>
       </c>
       <c r="P7" s="37" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="37" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="S7" s="37" t="s">
-        <v>15</v>
+        <v>365</v>
       </c>
       <c r="T7" s="37" t="s">
-        <v>365</v>
+        <v>23</v>
       </c>
       <c r="U7" s="37" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="V7" s="37" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="W7" s="37" t="s">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="X7" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="Y7" s="37" t="s">
         <v>288</v>
       </c>
     </row>
@@ -7340,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7612,6 +7612,9 @@
       </c>
       <c r="Q3" s="36" t="s">
         <v>9</v>
+      </c>
+      <c r="R3" s="36">
+        <v>2154150715</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="471" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E3348E0-19BD-4F0D-83BC-929743D827F8}"/>
+  <xr:revisionPtr revIDLastSave="473" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5947C388-80AC-4528-BAD0-0BF259FBCF10}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6063,7 +6063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -7340,8 +7340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7760,6 +7760,9 @@
       </c>
       <c r="AC5" s="36">
         <v>2154150497</v>
+      </c>
+      <c r="AD5" s="36">
+        <v>2088702198</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="473" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5947C388-80AC-4528-BAD0-0BF259FBCF10}"/>
+  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95BAB891-576C-4F95-83B0-44E1FC3B2490}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="426">
   <si>
     <t>Col 1</t>
   </si>
@@ -6063,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6784,9 +6784,6 @@
       <c r="I3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="36" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -6824,6 +6821,12 @@
       </c>
       <c r="L4" s="36" t="s">
         <v>57</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="36" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.35">
@@ -7340,8 +7343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7616,6 +7619,9 @@
       <c r="R3" s="36">
         <v>2154150715</v>
       </c>
+      <c r="S3">
+        <v>2088701610</v>
+      </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -7671,6 +7677,9 @@
       </c>
       <c r="R4" s="36">
         <v>2098706018</v>
+      </c>
+      <c r="S4" s="36">
+        <v>2098706011</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="479" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95BAB891-576C-4F95-83B0-44E1FC3B2490}"/>
+  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8A61B0-49CD-405A-835D-13882F7DEC65}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="426">
   <si>
     <t>Col 1</t>
   </si>
@@ -6063,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7343,8 +7343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7613,14 +7613,11 @@
       <c r="P3" s="36">
         <v>2154140336</v>
       </c>
-      <c r="Q3" s="36" t="s">
-        <v>9</v>
+      <c r="Q3">
+        <v>2088701610</v>
       </c>
       <c r="R3" s="36">
         <v>2154150715</v>
-      </c>
-      <c r="S3">
-        <v>2088701610</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
@@ -9073,7 +9070,7 @@
   </sheetPr>
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="482" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8A61B0-49CD-405A-835D-13882F7DEC65}"/>
+  <xr:revisionPtr revIDLastSave="484" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC7B5D3-CA4C-4A0E-9B9D-C637E0EB7D9F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2691,8 +2691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4238,7 +4238,7 @@
         <v>379</v>
       </c>
       <c r="C107" t="s">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="D107" t="s">
         <v>358</v>
@@ -4255,7 +4255,7 @@
         <v>379</v>
       </c>
       <c r="C108" t="s">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
@@ -4278,7 +4278,7 @@
         <v>379</v>
       </c>
       <c r="C109" t="s">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="D109" t="s">
         <v>358</v>
@@ -6063,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7343,7 +7343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -8218,8 +8218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA531276-FCFB-48E9-A31C-F81A22563EEA}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I40"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="484" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC7B5D3-CA4C-4A0E-9B9D-C637E0EB7D9F}"/>
+  <xr:revisionPtr revIDLastSave="486" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CD1B46-A11B-48EE-ACF5-4724DE9A3DE7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="426">
   <si>
     <t>Col 1</t>
   </si>
@@ -2691,7 +2691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+    <sheetView topLeftCell="A98" workbookViewId="0">
       <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
@@ -6063,8 +6063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7210,6 +7210,9 @@
       <c r="N9" s="36" t="s">
         <v>164</v>
       </c>
+      <c r="O9" s="36" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" t="s">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="486" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5CD1B46-A11B-48EE-ACF5-4724DE9A3DE7}"/>
+  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC627681-B50E-475B-B0BB-6C616520E32A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Hoja oficial de busca" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="426">
   <si>
     <t>Col 1</t>
   </si>
@@ -2226,9 +2227,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:H228" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G228">
-    <sortCondition ref="A116:A228"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CECFD1AD-A5A3-4ACE-B164-6FDF2FE2E95A}" name="Tabla1" displayName="Tabla1" ref="A1:H230" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G230">
+    <sortCondition ref="A118:A230"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{529D4B34-4DA7-4DEA-82D6-FD2BD15A630D}" name="Col 1" dataDxfId="21"/>
@@ -2689,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4111,168 +4112,156 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="5">
-        <v>2099700009</v>
+        <v>2098706087</v>
       </c>
       <c r="B99" t="s">
         <v>379</v>
       </c>
       <c r="C99" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="D99" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="5">
+        <v>2098706089</v>
+      </c>
+      <c r="B100" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="5">
+        <v>2099700009</v>
+      </c>
+      <c r="B101" t="s">
+        <v>379</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="5">
         <v>2099700010</v>
       </c>
-      <c r="B100" t="s">
-        <v>379</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B102" t="s">
+        <v>379</v>
+      </c>
+      <c r="C102" t="s">
         <v>12</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D102" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>2099700025</v>
       </c>
-      <c r="B101" t="s">
-        <v>379</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B103" t="s">
+        <v>379</v>
+      </c>
+      <c r="C103" t="s">
         <v>102</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D103" t="s">
         <v>10</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E103" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>2099700030</v>
-      </c>
-      <c r="B102" t="s">
-        <v>379</v>
-      </c>
-      <c r="C102" t="s">
-        <v>103</v>
-      </c>
-      <c r="D102" t="s">
-        <v>10</v>
-      </c>
-      <c r="E102" t="s">
-        <v>14</v>
-      </c>
-      <c r="F102" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="5">
-        <v>2099700041</v>
-      </c>
-      <c r="B103" t="s">
-        <v>379</v>
-      </c>
-      <c r="C103" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
-        <v>2099700048</v>
+        <v>2099700030</v>
       </c>
       <c r="B104" t="s">
         <v>379</v>
       </c>
       <c r="C104" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>46</v>
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="5">
-        <v>2099700049</v>
+        <v>2099700041</v>
       </c>
       <c r="B105" t="s">
         <v>379</v>
       </c>
       <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2099700048</v>
+      </c>
+      <c r="B106" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" t="s">
         <v>46</v>
-      </c>
-      <c r="D105" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="5">
-        <v>2099700056</v>
-      </c>
-      <c r="B106" t="s">
-        <v>379</v>
-      </c>
-      <c r="C106" t="s">
-        <v>46</v>
-      </c>
-      <c r="D106" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="5">
-        <v>2099700057</v>
+        <v>2099700049</v>
       </c>
       <c r="B107" t="s">
         <v>379</v>
       </c>
       <c r="C107" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D107" t="s">
-        <v>358</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="5">
-        <v>2099700058</v>
+        <v>2099700056</v>
       </c>
       <c r="B108" t="s">
         <v>379</v>
       </c>
       <c r="C108" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
-      </c>
-      <c r="E108" t="s">
-        <v>52</v>
-      </c>
-      <c r="F108" t="s">
-        <v>52</v>
-      </c>
-      <c r="G108" t="s">
-        <v>358</v>
+        <v>45</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="5">
-        <v>2099700059</v>
+        <v>2099700057</v>
       </c>
       <c r="B109" t="s">
         <v>379</v>
@@ -4286,100 +4275,112 @@
       <c r="E109" t="s">
         <v>10</v>
       </c>
-      <c r="F109" t="s">
-        <v>52</v>
-      </c>
-      <c r="G109" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="5">
-        <v>2099706005</v>
+        <v>2099700058</v>
       </c>
       <c r="B110" t="s">
         <v>379</v>
       </c>
       <c r="C110" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110" t="s">
+        <v>52</v>
+      </c>
+      <c r="G110" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="5">
-        <v>2154140069</v>
+        <v>2099700059</v>
       </c>
       <c r="B111" t="s">
         <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>361</v>
+        <v>103</v>
       </c>
       <c r="D111" t="s">
-        <v>298</v>
+        <v>358</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>52</v>
+      </c>
+      <c r="G111" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="5">
-        <v>2154140162</v>
+        <v>2099706005</v>
       </c>
       <c r="B112" t="s">
         <v>379</v>
       </c>
       <c r="C112" t="s">
-        <v>362</v>
+        <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="5">
-        <v>2154140207</v>
+        <v>2154140069</v>
       </c>
       <c r="B113" t="s">
         <v>379</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>361</v>
       </c>
       <c r="D113" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>2154140222</v>
+      <c r="A114" s="5">
+        <v>2154140162</v>
       </c>
       <c r="B114" t="s">
         <v>379</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>362</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>2154140224</v>
+      <c r="A115" s="5">
+        <v>2154140207</v>
       </c>
       <c r="B115" t="s">
         <v>379</v>
       </c>
       <c r="C115" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116">
-        <v>2154140225</v>
+        <v>2154140222</v>
       </c>
       <c r="B116" t="s">
         <v>379</v>
@@ -4393,7 +4394,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117">
-        <v>2154140229</v>
+        <v>2154140224</v>
       </c>
       <c r="B117" t="s">
         <v>379</v>
@@ -4407,35 +4408,35 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118">
-        <v>2154140243</v>
+        <v>2154140225</v>
       </c>
       <c r="B118" t="s">
         <v>379</v>
       </c>
       <c r="C118" t="s">
+        <v>105</v>
+      </c>
+      <c r="D118" t="s">
         <v>31</v>
-      </c>
-      <c r="D118" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119">
-        <v>2154140283</v>
+        <v>2154140229</v>
       </c>
       <c r="B119" t="s">
         <v>379</v>
       </c>
       <c r="C119" t="s">
+        <v>106</v>
+      </c>
+      <c r="D119" t="s">
         <v>31</v>
-      </c>
-      <c r="D119" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120">
-        <v>2154140284</v>
+        <v>2154140243</v>
       </c>
       <c r="B120" t="s">
         <v>379</v>
@@ -4448,22 +4449,22 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="5">
-        <v>2154140285</v>
+      <c r="A121">
+        <v>2154140283</v>
       </c>
       <c r="B121" t="s">
         <v>379</v>
       </c>
       <c r="C121" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>364</v>
+        <v>106</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122">
-        <v>2154140287</v>
+        <v>2154140284</v>
       </c>
       <c r="B122" t="s">
         <v>379</v>
@@ -4476,22 +4477,22 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>2154140289</v>
+      <c r="A123" s="5">
+        <v>2154140285</v>
       </c>
       <c r="B123" t="s">
         <v>379</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="D123" t="s">
-        <v>105</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124">
-        <v>2154140290</v>
+        <v>2154140287</v>
       </c>
       <c r="B124" t="s">
         <v>379</v>
@@ -4504,120 +4505,120 @@
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A125" s="5">
+      <c r="A125">
+        <v>2154140289</v>
+      </c>
+      <c r="B125" t="s">
+        <v>379</v>
+      </c>
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2154140290</v>
+      </c>
+      <c r="B126" t="s">
+        <v>379</v>
+      </c>
+      <c r="C126" t="s">
+        <v>31</v>
+      </c>
+      <c r="D126" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="5">
         <v>2154140291</v>
       </c>
-      <c r="B125" t="s">
-        <v>379</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B127" t="s">
+        <v>379</v>
+      </c>
+      <c r="C127" t="s">
         <v>118</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D127" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A126" s="5">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="5">
         <v>2154140292</v>
       </c>
-      <c r="B126" t="s">
-        <v>379</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B128" t="s">
+        <v>379</v>
+      </c>
+      <c r="C128" t="s">
         <v>362</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D128" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>2154140293</v>
-      </c>
-      <c r="B127" t="s">
-        <v>379</v>
-      </c>
-      <c r="C127" t="s">
-        <v>31</v>
-      </c>
-      <c r="D127" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>2154140294</v>
-      </c>
-      <c r="B128" t="s">
-        <v>379</v>
-      </c>
-      <c r="C128" t="s">
-        <v>112</v>
-      </c>
-      <c r="D128" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129">
-        <v>2154140295</v>
+        <v>2154140293</v>
       </c>
       <c r="B129" t="s">
         <v>379</v>
       </c>
       <c r="C129" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="D129" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130">
-        <v>2154140318</v>
+        <v>2154140294</v>
       </c>
       <c r="B130" t="s">
         <v>379</v>
       </c>
       <c r="C130" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D130" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131">
-        <v>2154140319</v>
+        <v>2154140295</v>
       </c>
       <c r="B131" t="s">
         <v>379</v>
       </c>
       <c r="C131" t="s">
+        <v>112</v>
+      </c>
+      <c r="D131" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>2154140318</v>
+      </c>
+      <c r="B132" t="s">
+        <v>379</v>
+      </c>
+      <c r="C132" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" t="s">
         <v>31</v>
-      </c>
-      <c r="D131" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="5">
-        <v>2154140335</v>
-      </c>
-      <c r="B132" t="s">
-        <v>379</v>
-      </c>
-      <c r="C132" t="s">
-        <v>31</v>
-      </c>
-      <c r="D132" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133">
-        <v>2154140336</v>
+        <v>2154140319</v>
       </c>
       <c r="B133" t="s">
         <v>379</v>
@@ -4626,144 +4627,144 @@
         <v>31</v>
       </c>
       <c r="D133" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="5">
-        <v>2154140345</v>
+        <v>2154140335</v>
       </c>
       <c r="B134" t="s">
         <v>379</v>
       </c>
       <c r="C134" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="D134" t="s">
-        <v>364</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135">
-        <v>2154140349</v>
+        <v>2154140336</v>
       </c>
       <c r="B135" t="s">
         <v>379</v>
       </c>
       <c r="C135" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="D135" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="5">
-        <v>2154140596</v>
+        <v>2154140345</v>
       </c>
       <c r="B136" t="s">
         <v>379</v>
       </c>
       <c r="C136" t="s">
-        <v>365</v>
+        <v>118</v>
       </c>
       <c r="D136" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137">
-        <v>2154150035</v>
+        <v>2154140349</v>
       </c>
       <c r="B137" t="s">
         <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>117</v>
       </c>
       <c r="D137" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>2154150089</v>
+      <c r="A138" s="5">
+        <v>2154140596</v>
       </c>
       <c r="B138" t="s">
         <v>379</v>
       </c>
       <c r="C138" t="s">
-        <v>122</v>
+        <v>365</v>
       </c>
       <c r="D138" t="s">
-        <v>123</v>
+        <v>365</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139">
-        <v>2154150163</v>
+        <v>2154150035</v>
       </c>
       <c r="B139" t="s">
         <v>379</v>
       </c>
       <c r="C139" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="D139" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140">
-        <v>2154150172</v>
+        <v>2154150089</v>
       </c>
       <c r="B140" t="s">
         <v>379</v>
       </c>
       <c r="C140" t="s">
+        <v>122</v>
+      </c>
+      <c r="D140" t="s">
         <v>123</v>
-      </c>
-      <c r="D140" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141">
-        <v>2154150197</v>
+        <v>2154150163</v>
       </c>
       <c r="B141" t="s">
         <v>379</v>
       </c>
       <c r="C141" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D141" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142">
-        <v>2154150214</v>
+        <v>2154150172</v>
       </c>
       <c r="B142" t="s">
         <v>379</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="D142" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143">
-        <v>2154150215</v>
+        <v>2154150197</v>
       </c>
       <c r="B143" t="s">
         <v>379</v>
       </c>
       <c r="C143" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D143" t="s">
         <v>126</v>
@@ -4771,105 +4772,105 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144">
-        <v>2154150247</v>
+        <v>2154150214</v>
       </c>
       <c r="B144" t="s">
         <v>379</v>
       </c>
       <c r="C144" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="D144" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
-        <v>2154150250</v>
+        <v>2154150215</v>
       </c>
       <c r="B145" t="s">
         <v>379</v>
       </c>
       <c r="C145" t="s">
+        <v>129</v>
+      </c>
+      <c r="D145" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>2154150247</v>
+      </c>
+      <c r="B146" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" t="s">
         <v>130</v>
       </c>
-      <c r="D145" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="5">
-        <v>2154150301</v>
-      </c>
-      <c r="B146" t="s">
-        <v>379</v>
-      </c>
-      <c r="C146" t="s">
-        <v>123</v>
-      </c>
       <c r="D146" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
-        <v>2154150337</v>
+        <v>2154150250</v>
       </c>
       <c r="B147" t="s">
         <v>379</v>
       </c>
       <c r="C147" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D147" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="5">
+        <v>2154150301</v>
+      </c>
+      <c r="B148" t="s">
+        <v>379</v>
+      </c>
+      <c r="C148" t="s">
+        <v>123</v>
+      </c>
+      <c r="D148" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148">
-        <v>2154150341</v>
-      </c>
-      <c r="B148" t="s">
-        <v>379</v>
-      </c>
-      <c r="C148" t="s">
-        <v>135</v>
-      </c>
-      <c r="D148" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
+        <v>2154150337</v>
+      </c>
+      <c r="B149" t="s">
+        <v>379</v>
+      </c>
+      <c r="C149" t="s">
+        <v>126</v>
+      </c>
+      <c r="D149" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>2154150341</v>
+      </c>
+      <c r="B150" t="s">
+        <v>379</v>
+      </c>
+      <c r="C150" t="s">
+        <v>135</v>
+      </c>
+      <c r="D150" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>2154150342</v>
-      </c>
-      <c r="B149" t="s">
-        <v>379</v>
-      </c>
-      <c r="C149" t="s">
-        <v>123</v>
-      </c>
-      <c r="D149" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" s="5">
-        <v>2154150343</v>
-      </c>
-      <c r="B150" t="s">
-        <v>379</v>
-      </c>
-      <c r="C150" t="s">
-        <v>123</v>
-      </c>
-      <c r="D150" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" s="5">
-        <v>2154150347</v>
       </c>
       <c r="B151" t="s">
         <v>379</v>
@@ -4878,26 +4879,26 @@
         <v>123</v>
       </c>
       <c r="D151" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="5">
+        <v>2154150343</v>
+      </c>
+      <c r="B152" t="s">
+        <v>379</v>
+      </c>
+      <c r="C152" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152">
-        <v>2154150348</v>
-      </c>
-      <c r="B152" t="s">
-        <v>379</v>
-      </c>
-      <c r="C152" t="s">
-        <v>126</v>
-      </c>
       <c r="D152" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="5">
-        <v>2154150349</v>
+        <v>2154150347</v>
       </c>
       <c r="B153" t="s">
         <v>379</v>
@@ -4910,25 +4911,22 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="5">
-        <v>2154150350</v>
+      <c r="A154">
+        <v>2154150348</v>
       </c>
       <c r="B154" t="s">
         <v>379</v>
       </c>
       <c r="C154" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D154" t="s">
-        <v>123</v>
-      </c>
-      <c r="E154" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="5">
-        <v>2154150351</v>
+        <v>2154150349</v>
       </c>
       <c r="B155" t="s">
         <v>379</v>
@@ -4942,38 +4940,38 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="5">
-        <v>2154150357</v>
+        <v>2154150350</v>
       </c>
       <c r="B156" t="s">
         <v>379</v>
       </c>
       <c r="C156" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D156" t="s">
-        <v>366</v>
+        <v>123</v>
       </c>
       <c r="E156" t="s">
-        <v>367</v>
+        <v>126</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="5">
-        <v>2154150358</v>
+        <v>2154150351</v>
       </c>
       <c r="B157" t="s">
         <v>379</v>
       </c>
       <c r="C157" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D157" t="s">
-        <v>363</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="5">
-        <v>2154150366</v>
+        <v>2154150357</v>
       </c>
       <c r="B158" t="s">
         <v>379</v>
@@ -4982,15 +4980,15 @@
         <v>122</v>
       </c>
       <c r="D158" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E158" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="5">
-        <v>2154150370</v>
+        <v>2154150358</v>
       </c>
       <c r="B159" t="s">
         <v>379</v>
@@ -4999,26 +4997,29 @@
         <v>122</v>
       </c>
       <c r="D159" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160">
-        <v>2154150380</v>
+      <c r="A160" s="5">
+        <v>2154150366</v>
       </c>
       <c r="B160" t="s">
         <v>379</v>
       </c>
       <c r="C160" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D160" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161">
-        <v>2154150391</v>
+        <v>363</v>
+      </c>
+      <c r="E160" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="5">
+        <v>2154150370</v>
       </c>
       <c r="B161" t="s">
         <v>379</v>
@@ -5027,237 +5028,231 @@
         <v>122</v>
       </c>
       <c r="D161" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>2154150380</v>
+      </c>
+      <c r="B162" t="s">
+        <v>379</v>
+      </c>
+      <c r="C162" t="s">
+        <v>124</v>
+      </c>
+      <c r="D162" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>2154150391</v>
+      </c>
+      <c r="B163" t="s">
+        <v>379</v>
+      </c>
+      <c r="C163" t="s">
+        <v>122</v>
+      </c>
+      <c r="D163" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164">
         <v>2154150420</v>
       </c>
-      <c r="B162" t="s">
-        <v>379</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B164" t="s">
+        <v>379</v>
+      </c>
+      <c r="C164" t="s">
         <v>137</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D164" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>2154150447</v>
       </c>
-      <c r="B163" t="s">
-        <v>379</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B165" t="s">
+        <v>379</v>
+      </c>
+      <c r="C165" t="s">
         <v>137</v>
       </c>
-      <c r="D163" t="s">
+      <c r="D165" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="5">
         <v>2154150448</v>
       </c>
-      <c r="B164" t="s">
-        <v>379</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B166" t="s">
+        <v>379</v>
+      </c>
+      <c r="C166" t="s">
         <v>368</v>
       </c>
-      <c r="D164" t="s">
+      <c r="D166" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="5">
         <v>2154150455</v>
       </c>
-      <c r="B165" t="s">
-        <v>379</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B167" t="s">
+        <v>379</v>
+      </c>
+      <c r="C167" t="s">
         <v>122</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D167" t="s">
         <v>329</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E167" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>2154150461</v>
       </c>
-      <c r="B166" t="s">
-        <v>379</v>
-      </c>
-      <c r="C166" t="s">
+      <c r="B168" t="s">
+        <v>379</v>
+      </c>
+      <c r="C168" t="s">
         <v>124</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D168" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="5">
         <v>2154150497</v>
       </c>
-      <c r="B167" t="s">
-        <v>379</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="B169" t="s">
+        <v>379</v>
+      </c>
+      <c r="C169" t="s">
         <v>137</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D169" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="5">
         <v>2154150501</v>
       </c>
-      <c r="B168" t="s">
-        <v>379</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="B170" t="s">
+        <v>379</v>
+      </c>
+      <c r="C170" t="s">
         <v>120</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D170" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="5">
         <v>2154150509</v>
       </c>
-      <c r="B169" t="s">
-        <v>379</v>
-      </c>
-      <c r="C169" t="s">
+      <c r="B171" t="s">
+        <v>379</v>
+      </c>
+      <c r="C171" t="s">
         <v>123</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D171" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="5">
         <v>2154150525</v>
       </c>
-      <c r="B170" t="s">
-        <v>379</v>
-      </c>
-      <c r="C170" t="s">
+      <c r="B172" t="s">
+        <v>379</v>
+      </c>
+      <c r="C172" t="s">
         <v>329</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D172" t="s">
         <v>164</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E172" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="5">
         <v>2154150526</v>
       </c>
-      <c r="B171" t="s">
-        <v>379</v>
-      </c>
-      <c r="C171" t="s">
+      <c r="B173" t="s">
+        <v>379</v>
+      </c>
+      <c r="C173" t="s">
         <v>129</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D173" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="5">
         <v>2154150534</v>
       </c>
-      <c r="B172" t="s">
-        <v>379</v>
-      </c>
-      <c r="C172" t="s">
+      <c r="B174" t="s">
+        <v>379</v>
+      </c>
+      <c r="C174" t="s">
         <v>123</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D174" t="s">
         <v>31</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E174" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>2154150554</v>
       </c>
-      <c r="B173" t="s">
-        <v>379</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B175" t="s">
+        <v>379</v>
+      </c>
+      <c r="C175" t="s">
         <v>130</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D175" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="5">
         <v>2154150557</v>
       </c>
-      <c r="B174" t="s">
-        <v>379</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B176" t="s">
+        <v>379</v>
+      </c>
+      <c r="C176" t="s">
         <v>122</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D176" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="5">
-        <v>2154150560</v>
-      </c>
-      <c r="B175" t="s">
-        <v>379</v>
-      </c>
-      <c r="C175" t="s">
-        <v>123</v>
-      </c>
-      <c r="D175" t="s">
-        <v>31</v>
-      </c>
-      <c r="E175" t="s">
-        <v>370</v>
-      </c>
-      <c r="F175" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176">
-        <v>2154150563</v>
-      </c>
-      <c r="B176" t="s">
-        <v>379</v>
-      </c>
-      <c r="C176" t="s">
-        <v>424</v>
-      </c>
-      <c r="D176" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="5">
-        <v>2154150581</v>
+        <v>2154150560</v>
       </c>
       <c r="B177" t="s">
         <v>379</v>
@@ -5266,333 +5261,333 @@
         <v>123</v>
       </c>
       <c r="D177" t="s">
-        <v>126</v>
+        <v>31</v>
+      </c>
+      <c r="E177" t="s">
+        <v>370</v>
+      </c>
+      <c r="F177" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178">
+        <v>2154150563</v>
+      </c>
+      <c r="B178" t="s">
+        <v>379</v>
+      </c>
+      <c r="C178" t="s">
+        <v>424</v>
+      </c>
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A179" s="5">
+        <v>2154150581</v>
+      </c>
+      <c r="B179" t="s">
+        <v>379</v>
+      </c>
+      <c r="C179" t="s">
+        <v>123</v>
+      </c>
+      <c r="D179" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A180">
         <v>2154150582</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B180" t="s">
         <v>381</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C180" t="s">
         <v>123</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D180" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>2154150588</v>
       </c>
-      <c r="B179" t="s">
-        <v>379</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B181" t="s">
+        <v>379</v>
+      </c>
+      <c r="C181" t="s">
         <v>31</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D181" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="5">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A182" s="5">
         <v>2154150591</v>
       </c>
-      <c r="B180" t="s">
-        <v>379</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B182" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" t="s">
         <v>370</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D182" t="s">
         <v>363</v>
       </c>
-      <c r="E180" t="s">
+      <c r="E182" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="5">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A183" s="5">
         <v>2154150597</v>
       </c>
-      <c r="B181" t="s">
-        <v>379</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B183" t="s">
+        <v>379</v>
+      </c>
+      <c r="C183" t="s">
         <v>126</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D183" t="s">
         <v>126</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E183" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A184">
         <v>2154150603</v>
       </c>
-      <c r="B182" t="s">
-        <v>379</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B184" t="s">
+        <v>379</v>
+      </c>
+      <c r="C184" t="s">
         <v>125</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D184" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>2154150605</v>
       </c>
-      <c r="B183" t="s">
-        <v>379</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B185" t="s">
+        <v>379</v>
+      </c>
+      <c r="C185" t="s">
         <v>105</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D185" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="5">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A186" s="5">
         <v>2154150622</v>
       </c>
-      <c r="B184" t="s">
-        <v>379</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B186" t="s">
+        <v>379</v>
+      </c>
+      <c r="C186" t="s">
         <v>371</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D186" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="5">
-        <v>2154150627</v>
-      </c>
-      <c r="B185" t="s">
-        <v>379</v>
-      </c>
-      <c r="C185" t="s">
-        <v>329</v>
-      </c>
-      <c r="D185" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>2154150633</v>
-      </c>
-      <c r="B186" t="s">
-        <v>379</v>
-      </c>
-      <c r="C186" t="s">
-        <v>123</v>
-      </c>
-      <c r="D186" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="5">
-        <v>2154150646</v>
+        <v>2154150627</v>
       </c>
       <c r="B187" t="s">
         <v>379</v>
       </c>
       <c r="C187" t="s">
+        <v>329</v>
+      </c>
+      <c r="D187" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>2154150633</v>
+      </c>
+      <c r="B188" t="s">
+        <v>379</v>
+      </c>
+      <c r="C188" t="s">
+        <v>123</v>
+      </c>
+      <c r="D188" t="s">
         <v>126</v>
-      </c>
-      <c r="D187" t="s">
-        <v>126</v>
-      </c>
-      <c r="E187" t="s">
-        <v>123</v>
-      </c>
-      <c r="F187" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="5">
-        <v>2154150648</v>
-      </c>
-      <c r="B188" t="s">
-        <v>379</v>
-      </c>
-      <c r="C188" t="s">
-        <v>328</v>
-      </c>
-      <c r="D188" t="s">
-        <v>373</v>
-      </c>
-      <c r="E188" t="s">
-        <v>374</v>
-      </c>
-      <c r="F188" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
+        <v>2154150646</v>
+      </c>
+      <c r="B189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C189" t="s">
+        <v>126</v>
+      </c>
+      <c r="D189" t="s">
+        <v>126</v>
+      </c>
+      <c r="E189" t="s">
+        <v>123</v>
+      </c>
+      <c r="F189" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A190" s="5">
+        <v>2154150648</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+      <c r="C190" t="s">
+        <v>328</v>
+      </c>
+      <c r="D190" t="s">
+        <v>373</v>
+      </c>
+      <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A191" s="5">
         <v>2154150653</v>
       </c>
-      <c r="B189" t="s">
-        <v>379</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="B191" t="s">
+        <v>379</v>
+      </c>
+      <c r="C191" t="s">
         <v>125</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D191" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A192">
         <v>2154150669</v>
       </c>
-      <c r="B190" t="s">
-        <v>379</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="B192" t="s">
+        <v>379</v>
+      </c>
+      <c r="C192" t="s">
         <v>123</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D192" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>2154150672</v>
-      </c>
-      <c r="B191" t="s">
-        <v>379</v>
-      </c>
-      <c r="C191" t="s">
-        <v>123</v>
-      </c>
-      <c r="D191" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="5">
-        <v>2154150677</v>
-      </c>
-      <c r="B192" t="s">
-        <v>379</v>
-      </c>
-      <c r="C192" t="s">
-        <v>122</v>
-      </c>
-      <c r="D192" t="s">
-        <v>425</v>
-      </c>
-      <c r="E192" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193">
-        <v>2154150706</v>
+        <v>2154150672</v>
       </c>
       <c r="B193" t="s">
         <v>379</v>
       </c>
       <c r="C193" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D193" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194">
-        <v>2154150707</v>
+      <c r="A194" s="5">
+        <v>2154150677</v>
       </c>
       <c r="B194" t="s">
         <v>379</v>
       </c>
       <c r="C194" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D194" t="s">
-        <v>105</v>
+        <v>425</v>
+      </c>
+      <c r="E194" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195">
-        <v>2154150715</v>
+        <v>2154150706</v>
       </c>
       <c r="B195" t="s">
         <v>379</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D195" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="5">
-        <v>2154150719</v>
+      <c r="A196">
+        <v>2154150707</v>
       </c>
       <c r="B196" t="s">
         <v>379</v>
       </c>
       <c r="C196" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="D196" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="5">
-        <v>2154150731</v>
+      <c r="A197">
+        <v>2154150715</v>
       </c>
       <c r="B197" t="s">
         <v>379</v>
       </c>
       <c r="C197" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="D197" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
-        <v>2154150765</v>
+        <v>2154150719</v>
       </c>
       <c r="B198" t="s">
         <v>379</v>
       </c>
       <c r="C198" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="D198" t="s">
-        <v>329</v>
-      </c>
-      <c r="E198" t="s">
-        <v>358</v>
-      </c>
-      <c r="F198" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
-        <v>2154150767</v>
+        <v>2154150731</v>
       </c>
       <c r="B199" t="s">
         <v>379</v>
@@ -5601,35 +5596,32 @@
         <v>129</v>
       </c>
       <c r="D199" t="s">
-        <v>329</v>
-      </c>
-      <c r="E199" t="s">
-        <v>153</v>
-      </c>
-      <c r="F199" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
-        <v>2154150769</v>
+        <v>2154150765</v>
       </c>
       <c r="B200" t="s">
         <v>379</v>
       </c>
       <c r="C200" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D200" t="s">
-        <v>123</v>
+        <v>329</v>
       </c>
       <c r="E200" t="s">
-        <v>134</v>
+        <v>358</v>
+      </c>
+      <c r="F200" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
-        <v>2154150788</v>
+        <v>2154150767</v>
       </c>
       <c r="B201" t="s">
         <v>379</v>
@@ -5638,12 +5630,18 @@
         <v>129</v>
       </c>
       <c r="D201" t="s">
-        <v>369</v>
+        <v>329</v>
+      </c>
+      <c r="E201" t="s">
+        <v>153</v>
+      </c>
+      <c r="F201" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
-        <v>2154150813</v>
+        <v>2154150769</v>
       </c>
       <c r="B202" t="s">
         <v>379</v>
@@ -5652,52 +5650,49 @@
         <v>126</v>
       </c>
       <c r="D202" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E202" t="s">
-        <v>123</v>
-      </c>
-      <c r="F202" t="s">
-        <v>330</v>
+        <v>134</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
-        <v>2154150814</v>
+        <v>2154150788</v>
       </c>
       <c r="B203" t="s">
         <v>379</v>
       </c>
       <c r="C203" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D203" t="s">
-        <v>123</v>
-      </c>
-      <c r="E203" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
-        <v>2154150822</v>
+        <v>2154150813</v>
       </c>
       <c r="B204" t="s">
         <v>379</v>
       </c>
       <c r="C204" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D204" t="s">
-        <v>329</v>
+        <v>126</v>
       </c>
       <c r="E204" t="s">
-        <v>153</v>
+        <v>123</v>
+      </c>
+      <c r="F204" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
-        <v>2154150839</v>
+        <v>2154150814</v>
       </c>
       <c r="B205" t="s">
         <v>379</v>
@@ -5706,40 +5701,46 @@
         <v>126</v>
       </c>
       <c r="D205" t="s">
-        <v>330</v>
+        <v>123</v>
+      </c>
+      <c r="E205" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
-        <v>2154150840</v>
+        <v>2154150822</v>
       </c>
       <c r="B206" t="s">
         <v>379</v>
       </c>
       <c r="C206" t="s">
-        <v>365</v>
+        <v>129</v>
       </c>
       <c r="D206" t="s">
-        <v>127</v>
+        <v>329</v>
+      </c>
+      <c r="E206" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
-        <v>2154150841</v>
+        <v>2154150839</v>
       </c>
       <c r="B207" t="s">
         <v>379</v>
       </c>
       <c r="C207" t="s">
-        <v>376</v>
+        <v>126</v>
       </c>
       <c r="D207" t="s">
-        <v>125</v>
+        <v>330</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
-        <v>2154150876</v>
+        <v>2154150840</v>
       </c>
       <c r="B208" t="s">
         <v>379</v>
@@ -5753,150 +5754,150 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
-        <v>2154150893</v>
+        <v>2154150841</v>
       </c>
       <c r="B209" t="s">
         <v>379</v>
       </c>
       <c r="C209" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D209" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
-        <v>2154150918</v>
+        <v>2154150876</v>
       </c>
       <c r="B210" t="s">
         <v>379</v>
       </c>
       <c r="C210" t="s">
-        <v>126</v>
+        <v>365</v>
       </c>
       <c r="D210" t="s">
-        <v>360</v>
+        <v>127</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
-        <v>2154150921</v>
+        <v>2154150893</v>
       </c>
       <c r="B211" t="s">
         <v>379</v>
       </c>
       <c r="C211" t="s">
-        <v>122</v>
+        <v>377</v>
       </c>
       <c r="D211" t="s">
-        <v>378</v>
+        <v>137</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
+        <v>2154150918</v>
+      </c>
+      <c r="B212" t="s">
+        <v>379</v>
+      </c>
+      <c r="C212" t="s">
+        <v>126</v>
+      </c>
+      <c r="D212" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" s="5">
+        <v>2154150921</v>
+      </c>
+      <c r="B213" t="s">
+        <v>379</v>
+      </c>
+      <c r="C213" t="s">
+        <v>122</v>
+      </c>
+      <c r="D213" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" s="5">
         <v>2154150922</v>
       </c>
-      <c r="B212" t="s">
-        <v>379</v>
-      </c>
-      <c r="C212" t="s">
+      <c r="B214" t="s">
+        <v>379</v>
+      </c>
+      <c r="C214" t="s">
         <v>129</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D214" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A213">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215">
         <v>2154150943</v>
       </c>
-      <c r="B213" t="s">
-        <v>379</v>
-      </c>
-      <c r="C213" t="s">
+      <c r="B215" t="s">
+        <v>379</v>
+      </c>
+      <c r="C215" t="s">
         <v>137</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D215" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A214">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216">
         <v>2154155136</v>
       </c>
-      <c r="B214" t="s">
-        <v>379</v>
-      </c>
-      <c r="C214" t="s">
+      <c r="B216" t="s">
+        <v>379</v>
+      </c>
+      <c r="C216" t="s">
         <v>123</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D216" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A215" s="5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" s="5">
         <v>2154155149</v>
       </c>
-      <c r="B215" t="s">
-        <v>379</v>
-      </c>
-      <c r="C215" t="s">
+      <c r="B217" t="s">
+        <v>379</v>
+      </c>
+      <c r="C217" t="s">
         <v>123</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D217" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A216" s="5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" s="5">
         <v>2154155150</v>
       </c>
-      <c r="B216" t="s">
-        <v>379</v>
-      </c>
-      <c r="C216" t="s">
+      <c r="B218" t="s">
+        <v>379</v>
+      </c>
+      <c r="C218" t="s">
         <v>368</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D218" t="s">
         <v>123</v>
       </c>
-      <c r="E216" t="s">
+      <c r="E218" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <v>2154160029</v>
-      </c>
-      <c r="B217" t="s">
-        <v>379</v>
-      </c>
-      <c r="C217" t="s">
-        <v>150</v>
-      </c>
-      <c r="D217" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>2154160030</v>
-      </c>
-      <c r="B218" t="s">
-        <v>379</v>
-      </c>
-      <c r="C218" t="s">
-        <v>150</v>
-      </c>
-      <c r="D218" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219">
-        <v>2154160031</v>
+        <v>2154160029</v>
       </c>
       <c r="B219" t="s">
         <v>379</v>
@@ -5905,133 +5906,124 @@
         <v>150</v>
       </c>
       <c r="D219" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220">
-        <v>2154160032</v>
+        <v>2154160030</v>
       </c>
       <c r="B220" t="s">
         <v>379</v>
       </c>
       <c r="C220" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D220" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221">
-        <v>2154160033</v>
+        <v>2154160031</v>
       </c>
       <c r="B221" t="s">
         <v>379</v>
       </c>
       <c r="C221" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D221" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222">
-        <v>2154160034</v>
+        <v>2154160032</v>
       </c>
       <c r="B222" t="s">
         <v>379</v>
       </c>
       <c r="C222" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D222" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223">
-        <v>2154160035</v>
+        <v>2154160033</v>
       </c>
       <c r="B223" t="s">
         <v>379</v>
       </c>
       <c r="C223" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D223" t="s">
-        <v>151</v>
+        <v>31</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A224" s="5">
-        <v>2154160036</v>
+      <c r="A224">
+        <v>2154160034</v>
       </c>
       <c r="B224" t="s">
         <v>379</v>
       </c>
       <c r="C224" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D224" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225">
-        <v>2154160037</v>
+        <v>2154160035</v>
       </c>
       <c r="B225" t="s">
         <v>379</v>
       </c>
       <c r="C225" t="s">
+        <v>150</v>
+      </c>
+      <c r="D225" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" s="5">
+        <v>2154160036</v>
+      </c>
+      <c r="B226" t="s">
+        <v>379</v>
+      </c>
+      <c r="C226" t="s">
         <v>156</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D226" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226">
-        <v>2154170049</v>
-      </c>
-      <c r="B226" t="s">
-        <v>379</v>
-      </c>
-      <c r="C226" t="s">
-        <v>123</v>
-      </c>
-      <c r="D226" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227">
-        <v>2154170050</v>
+        <v>2154160037</v>
       </c>
       <c r="B227" t="s">
         <v>379</v>
       </c>
       <c r="C227" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="D227" t="s">
-        <v>126</v>
-      </c>
-      <c r="E227" t="s">
-        <v>162</v>
-      </c>
-      <c r="F227" t="s">
-        <v>164</v>
-      </c>
-      <c r="G227" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228">
-        <v>2154170052</v>
+        <v>2154170049</v>
       </c>
       <c r="B228" t="s">
         <v>379</v>
@@ -6040,16 +6032,53 @@
         <v>123</v>
       </c>
       <c r="D228" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>2154170050</v>
+      </c>
+      <c r="B229" t="s">
+        <v>379</v>
+      </c>
+      <c r="C229" t="s">
+        <v>123</v>
+      </c>
+      <c r="D229" t="s">
+        <v>126</v>
+      </c>
+      <c r="E229" t="s">
+        <v>162</v>
+      </c>
+      <c r="F229" t="s">
+        <v>164</v>
+      </c>
+      <c r="G229" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>2154170052</v>
+      </c>
+      <c r="B230" t="s">
+        <v>379</v>
+      </c>
+      <c r="C230" t="s">
+        <v>123</v>
+      </c>
+      <c r="D230" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" s="5"/>
-      <c r="B231" s="5"/>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" s="5"/>
+      <c r="B233" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G228">
-    <sortCondition ref="A2:A228"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G230">
+    <sortCondition ref="A2:A230"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6063,8 +6092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7346,8 +7375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AS6" sqref="AS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC627681-B50E-475B-B0BB-6C616520E32A}"/>
+  <xr:revisionPtr revIDLastSave="515" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59ADB81B-2955-4778-8262-49391A8CB3C1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="Hoja oficial de busca" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="428">
   <si>
     <t>Col 1</t>
   </si>
@@ -1317,6 +1316,12 @@
   </si>
   <si>
     <t>AMS12A-1M4Z5</t>
+  </si>
+  <si>
+    <t>FA0</t>
+  </si>
+  <si>
+    <t>se agrega 0058 y 0059</t>
   </si>
 </sst>
 </file>
@@ -1661,7 +1666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1735,6 +1740,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2692,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100:D100"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4267,7 +4276,7 @@
         <v>379</v>
       </c>
       <c r="C109" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="D109" t="s">
         <v>358</v>
@@ -4284,19 +4293,19 @@
         <v>379</v>
       </c>
       <c r="C110" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="D110" t="s">
+        <v>358</v>
+      </c>
+      <c r="E110" t="s">
         <v>10</v>
-      </c>
-      <c r="E110" t="s">
-        <v>52</v>
       </c>
       <c r="F110" t="s">
         <v>52</v>
       </c>
       <c r="G110" t="s">
-        <v>358</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4307,7 +4316,7 @@
         <v>379</v>
       </c>
       <c r="C111" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="D111" t="s">
         <v>358</v>
@@ -6082,8 +6091,9 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6093,7 +6103,7 @@
   <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7245,122 +7255,60 @@
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>325</v>
       </c>
-      <c r="C10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="G10" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>329</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="N10" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="O10" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q10" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="R10" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="S10" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="T10" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="U10" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="V10" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="W10" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="X10" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="Y10" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="Z10" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA10" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="AB10" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="AC10" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="AD10" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE10" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF10" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="AG10" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="AH10" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI10" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ10" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="AK10" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="AL10" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="AM10" s="34" t="s">
-        <v>373</v>
-      </c>
+      <c r="C10" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -7373,10 +7321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AV10"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS6" sqref="AS6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7497,594 +7445,590 @@
     </row>
     <row r="2" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>335</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>336</v>
-      </c>
-      <c r="N2" s="36">
-        <v>2098700076</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="X2" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y2" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD2" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" s="36">
-        <v>2088702318</v>
-      </c>
-      <c r="AF2" s="36">
-        <v>2088706010</v>
-      </c>
-      <c r="AG2" s="36">
-        <v>2098700429</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="B2" s="36">
+        <v>2099700058</v>
+      </c>
+      <c r="C2" s="36">
+        <v>2099700059</v>
+      </c>
+      <c r="D2" s="36">
+        <v>2098700436</v>
+      </c>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
     </row>
     <row r="3" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="B3" s="36" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>336</v>
+      </c>
+      <c r="N3" s="36">
+        <v>2098700076</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="R3" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="T3" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="U3" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="V3" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="W3" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="Y3" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="Z3" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="I3" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3" s="36">
-        <v>2154140336</v>
-      </c>
-      <c r="Q3">
-        <v>2088701610</v>
-      </c>
-      <c r="R3" s="36">
-        <v>2154150715</v>
+      <c r="AA3" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD3" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" s="36">
+        <v>2088702318</v>
+      </c>
+      <c r="AF3" s="36">
+        <v>2088706010</v>
+      </c>
+      <c r="AG3" s="36">
+        <v>2098700429</v>
       </c>
     </row>
     <row r="4" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B4" s="36">
-        <v>2003020640</v>
+        <v>310</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="L4" s="36" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="N4" s="36" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="O4" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q4" s="36">
-        <v>2098700305</v>
+        <v>146</v>
+      </c>
+      <c r="P4" s="36">
+        <v>2154140336</v>
+      </c>
+      <c r="Q4">
+        <v>2088701610</v>
       </c>
       <c r="R4" s="36">
-        <v>2098706018</v>
-      </c>
-      <c r="S4" s="36">
-        <v>2098706011</v>
+        <v>2154150715</v>
       </c>
     </row>
     <row r="5" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>337</v>
+        <v>312</v>
+      </c>
+      <c r="B5" s="36">
+        <v>2003020640</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>338</v>
+        <v>56</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>339</v>
+        <v>80</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q5" s="36" t="s">
         <v>93</v>
       </c>
+      <c r="Q5" s="36">
+        <v>2098700305</v>
+      </c>
       <c r="R5" s="36">
-        <v>2154160034</v>
-      </c>
-      <c r="S5" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="T5" s="36">
-        <v>2098700256</v>
-      </c>
-      <c r="U5" s="36">
-        <v>2098700304</v>
-      </c>
-      <c r="V5" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="W5" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="X5" s="36">
-        <v>2098700432</v>
-      </c>
-      <c r="Y5" s="36">
-        <v>2098700433</v>
-      </c>
-      <c r="Z5" s="36">
-        <v>2098700434</v>
-      </c>
-      <c r="AA5" s="36">
-        <v>2098700436</v>
-      </c>
-      <c r="AB5" s="36">
-        <v>2154140324</v>
-      </c>
-      <c r="AC5" s="36">
-        <v>2154150497</v>
-      </c>
-      <c r="AD5" s="36">
-        <v>2088702198</v>
+        <v>2098706018</v>
+      </c>
+      <c r="S5" s="36">
+        <v>2098706011</v>
       </c>
     </row>
     <row r="6" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C6" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="N6" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="N6" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="O6" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>59</v>
+      <c r="R6" s="36">
+        <v>2154160034</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="T6" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="U6" s="36" t="s">
-        <v>47</v>
+        <v>116</v>
+      </c>
+      <c r="T6" s="36">
+        <v>2098700256</v>
+      </c>
+      <c r="U6" s="36">
+        <v>2098700304</v>
       </c>
       <c r="V6" s="36" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="W6" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="X6" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y6" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z6" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA6" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="AB6" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC6" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD6" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE6" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF6" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG6" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="AH6" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI6" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ6" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK6" s="36">
-        <v>2098700379</v>
-      </c>
-      <c r="AL6" s="36">
-        <v>2098700380</v>
-      </c>
-      <c r="AM6" s="36">
-        <v>2098706024</v>
-      </c>
-      <c r="AN6" s="36">
-        <v>2098706072</v>
-      </c>
-      <c r="AO6" s="36">
-        <v>2098706075</v>
-      </c>
-      <c r="AP6" s="36">
-        <v>2098706086</v>
-      </c>
-      <c r="AQ6" s="36">
-        <v>2098706087</v>
-      </c>
-      <c r="AR6" s="36">
-        <v>2098706088</v>
-      </c>
-      <c r="AS6" s="36">
-        <v>2098706089</v>
-      </c>
-      <c r="AT6" s="36">
-        <v>2154140596</v>
-      </c>
-      <c r="AU6" s="36">
+      <c r="X6" s="36">
+        <v>2098700432</v>
+      </c>
+      <c r="Y6" s="36">
+        <v>2098700433</v>
+      </c>
+      <c r="Z6" s="36">
         <v>2098700434</v>
       </c>
-      <c r="AV6" s="36">
+      <c r="AA6" s="36">
         <v>2098700436</v>
+      </c>
+      <c r="AB6" s="36">
+        <v>2154140324</v>
+      </c>
+      <c r="AC6" s="36">
+        <v>2154150497</v>
+      </c>
+      <c r="AD6" s="36">
+        <v>2088702198</v>
       </c>
     </row>
     <row r="7" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="N7" s="36" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="O7" s="36" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>115</v>
-      </c>
-      <c r="R7" s="36">
-        <v>2154150840</v>
-      </c>
-      <c r="S7" s="36">
-        <v>2154150876</v>
-      </c>
-      <c r="T7" s="36">
-        <v>2154160037</v>
-      </c>
-      <c r="U7" s="36">
-        <v>2088702198</v>
-      </c>
-      <c r="V7" s="36">
-        <v>2088702199</v>
-      </c>
-      <c r="W7" s="36">
-        <v>2088702200</v>
-      </c>
-      <c r="X7" s="36">
-        <v>2088702207</v>
-      </c>
-      <c r="Y7" s="36">
-        <v>2088702221</v>
-      </c>
-      <c r="Z7" s="36">
-        <v>2088702318</v>
-      </c>
-      <c r="AA7" s="36">
-        <v>2088707042</v>
+        <v>56</v>
+      </c>
+      <c r="R7" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="T7" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="V7" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="W7" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="X7" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z7" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA7" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC7" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE7" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI7" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ7" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK7" s="36">
+        <v>2098700379</v>
+      </c>
+      <c r="AL7" s="36">
+        <v>2098700380</v>
+      </c>
+      <c r="AM7" s="36">
+        <v>2098706024</v>
+      </c>
+      <c r="AN7" s="36">
+        <v>2098706072</v>
+      </c>
+      <c r="AO7" s="36">
+        <v>2098706075</v>
+      </c>
+      <c r="AP7" s="36">
+        <v>2098706086</v>
+      </c>
+      <c r="AQ7" s="36">
+        <v>2098706087</v>
+      </c>
+      <c r="AR7" s="36">
+        <v>2098706088</v>
+      </c>
+      <c r="AS7" s="36">
+        <v>2098706089</v>
+      </c>
+      <c r="AT7" s="36">
+        <v>2154140596</v>
+      </c>
+      <c r="AU7" s="36">
+        <v>2098700434</v>
+      </c>
+      <c r="AV7" s="36">
+        <v>2098700436</v>
       </c>
     </row>
     <row r="8" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>34</v>
+        <v>341</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K8" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="36">
-        <v>2154150788</v>
-      </c>
-      <c r="M8" s="36">
+        <v>138</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="P8" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q8" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="R8" s="36">
+        <v>2154150840</v>
+      </c>
+      <c r="S8" s="36">
+        <v>2154150876</v>
+      </c>
+      <c r="T8" s="36">
         <v>2154160037</v>
       </c>
-      <c r="N8" s="36">
-        <v>2098706085</v>
-      </c>
-      <c r="O8" s="36">
-        <v>2098700437</v>
-      </c>
-      <c r="P8" s="36">
-        <v>2098706085</v>
+      <c r="U8" s="36">
+        <v>2088702198</v>
+      </c>
+      <c r="V8" s="36">
+        <v>2088702199</v>
+      </c>
+      <c r="W8" s="36">
+        <v>2088702200</v>
+      </c>
+      <c r="X8" s="36">
+        <v>2088702207</v>
+      </c>
+      <c r="Y8" s="36">
+        <v>2088702221</v>
+      </c>
+      <c r="Z8" s="36">
+        <v>2088702318</v>
+      </c>
+      <c r="AA8" s="36">
+        <v>2088707042</v>
       </c>
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B9" s="36" t="s">
         <v>34</v>
@@ -8092,30 +8036,80 @@
       <c r="C9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="36">
-        <v>2099700057</v>
-      </c>
-      <c r="E9" s="36">
-        <v>2099700058</v>
-      </c>
-      <c r="F9" s="36">
-        <v>2099700059</v>
+      <c r="D9" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>72</v>
       </c>
       <c r="G9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="I9" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="J9" s="36">
-        <v>2154170049</v>
+      <c r="L9" s="36">
+        <v>2154150788</v>
+      </c>
+      <c r="M9" s="36">
+        <v>2154160037</v>
+      </c>
+      <c r="N9" s="36">
+        <v>2098706085</v>
+      </c>
+      <c r="O9" s="36">
+        <v>2098700437</v>
+      </c>
+      <c r="P9" s="36">
+        <v>2098706085</v>
       </c>
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="36">
+        <v>2099700057</v>
+      </c>
+      <c r="E10" s="36">
+        <v>2099700058</v>
+      </c>
+      <c r="F10" s="36">
+        <v>2099700059</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="36">
+        <v>2154170049</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8126,10 +8120,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8239,6 +8233,14 @@
       </c>
       <c r="B13" s="2" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="515" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59ADB81B-2955-4778-8262-49391A8CB3C1}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E497BD9-4691-433D-8F45-845F69D96B5D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="428">
   <si>
     <t>Col 1</t>
   </si>
@@ -1666,7 +1666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1740,10 +1740,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6102,8 +6101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7241,15 +7240,12 @@
         <v>123</v>
       </c>
       <c r="L9" s="36" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="N9" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="O9" s="36" t="s">
         <v>358</v>
       </c>
     </row>
@@ -7323,7 +7319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -8239,7 +8235,7 @@
       <c r="A14" t="s">
         <v>325</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" t="s">
         <v>427</v>
       </c>
     </row>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E497BD9-4691-433D-8F45-845F69D96B5D}"/>
+  <xr:revisionPtr revIDLastSave="521" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B201F7D-6023-4F0A-A494-7F0C31728AD9}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="429">
   <si>
     <t>Col 1</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>se agrega 0058 y 0059</t>
+  </si>
+  <si>
+    <t>se agrega 0256</t>
   </si>
 </sst>
 </file>
@@ -2700,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6101,8 +6104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7317,19 +7320,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="48" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="49" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7439,7 +7442,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>426</v>
       </c>
@@ -7485,7 +7488,7 @@
       <c r="AI2" s="39"/>
       <c r="AJ2" s="39"/>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -7586,7 +7589,7 @@
         <v>2098700429</v>
       </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>310</v>
       </c>
@@ -7642,7 +7645,7 @@
         <v>2154150715</v>
       </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>312</v>
       </c>
@@ -7701,7 +7704,7 @@
         <v>2098706011</v>
       </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -7793,7 +7796,7 @@
         <v>2088702198</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>316</v>
       </c>
@@ -7938,8 +7941,11 @@
       <c r="AV7" s="36">
         <v>2098700436</v>
       </c>
-    </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="AW7" s="36">
+        <v>2098700256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>318</v>
       </c>
@@ -8022,7 +8028,7 @@
         <v>2088707042</v>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>320</v>
       </c>
@@ -8072,7 +8078,7 @@
         <v>2098706085</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -8104,7 +8110,7 @@
         <v>2154170049</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>324</v>
       </c>
@@ -8116,10 +8122,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8237,6 +8243,14 @@
       </c>
       <c r="B14" t="s">
         <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="521" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B201F7D-6023-4F0A-A494-7F0C31728AD9}"/>
+  <xr:revisionPtr revIDLastSave="533" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975B6AEF-5C1B-41F6-B976-AD206C78E59B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="429">
   <si>
     <t>Col 1</t>
   </si>
@@ -2703,8 +2703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A214" sqref="A214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6105,7 +6105,7 @@
   <dimension ref="A1:CW10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6970,6 +6970,9 @@
       <c r="AG5" s="37" t="s">
         <v>13</v>
       </c>
+      <c r="AH5" s="37" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -7320,19 +7323,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AW11"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AX7" sqref="AX7:AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="49" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="51" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7442,7 +7445,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>426</v>
       </c>
@@ -7488,7 +7491,7 @@
       <c r="AI2" s="39"/>
       <c r="AJ2" s="39"/>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>262</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>2098700429</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>310</v>
       </c>
@@ -7645,7 +7648,7 @@
         <v>2154150715</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>312</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>2098706011</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>314</v>
       </c>
@@ -7795,8 +7798,11 @@
       <c r="AD6" s="36">
         <v>2088702198</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AE6" s="36">
+        <v>2088702199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>316</v>
       </c>
@@ -7944,8 +7950,14 @@
       <c r="AW7" s="36">
         <v>2098700256</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="AX7" s="36">
+        <v>2098700432</v>
+      </c>
+      <c r="AY7" s="36">
+        <v>2098700433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>318</v>
       </c>
@@ -8028,7 +8040,7 @@
         <v>2088707042</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>320</v>
       </c>
@@ -8078,7 +8090,7 @@
         <v>2098706085</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>322</v>
       </c>
@@ -8110,7 +8122,7 @@
         <v>2154170049</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>324</v>
       </c>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{975B6AEF-5C1B-41F6-B976-AD206C78E59B}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB489EE-4277-49FB-AAAD-4389A05AD6FF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6104,8 +6104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6869,6 +6869,9 @@
       <c r="N4" s="36" t="s">
         <v>8</v>
       </c>
+      <c r="O4" s="37" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -6969,9 +6972,6 @@
       </c>
       <c r="AG5" s="37" t="s">
         <v>13</v>
-      </c>
-      <c r="AH5" s="37" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.35">
@@ -7325,8 +7325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AX7" sqref="AX7:AY7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7706,6 +7706,9 @@
       <c r="S5" s="36">
         <v>2098706011</v>
       </c>
+      <c r="T5" s="36">
+        <v>2088702199</v>
+      </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -7797,9 +7800,6 @@
       </c>
       <c r="AD6" s="36">
         <v>2088702198</v>
-      </c>
-      <c r="AE6" s="36">
-        <v>2088702199</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB489EE-4277-49FB-AAAD-4389A05AD6FF}"/>
+  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE6D023C-84C9-4FF3-8E34-9A41F6B2984A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6104,8 +6104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6914,63 +6914,60 @@
         <v>158</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="R5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="36" t="s">
-        <v>134</v>
-      </c>
       <c r="S5" s="36" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="T5" s="36" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="V5" s="36" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="W5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="X5" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y5" s="36" t="s">
-        <v>136</v>
-      </c>
       <c r="Z5" s="36" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="AA5" s="36" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="AB5" s="36" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="AC5" s="36" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="AD5" s="36" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AE5" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF5" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="AG5" s="37" t="s">
+      <c r="AF5" s="37" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7205,9 +7202,6 @@
         <v>123</v>
       </c>
       <c r="U8" s="37" t="s">
-        <v>412</v>
-      </c>
-      <c r="V8" s="37" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7280,8 +7274,12 @@
       <c r="H10" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
+      <c r="I10" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>101</v>
+      </c>
       <c r="K10" s="34"/>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -7325,7 +7323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="541" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE6D023C-84C9-4FF3-8E34-9A41F6B2984A}"/>
+  <xr:revisionPtr revIDLastSave="549" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52A77088-08CB-4DCE-9DEF-C59156AB0458}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1787" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="429">
   <si>
     <t>Col 1</t>
   </si>
@@ -6104,8 +6104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6899,75 +6899,72 @@
         <v>358</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L5" s="36" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="N5" s="36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O5" s="36" t="s">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="P5" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="36" t="s">
-        <v>134</v>
-      </c>
       <c r="R5" s="36" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="T5" s="36" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="U5" s="36" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="V5" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="X5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="X5" s="36" t="s">
-        <v>136</v>
-      </c>
       <c r="Y5" s="36" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="36" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="AA5" s="36" t="s">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="AB5" s="36" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="AC5" s="36" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="AD5" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE5" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="AF5" s="37" t="s">
+      <c r="AE5" s="37" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7323,8 +7320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7456,7 +7453,9 @@
       <c r="D2" s="36">
         <v>2098700436</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="36">
+        <v>2098706085</v>
+      </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
       <c r="H2" s="39"/>
@@ -7788,15 +7787,12 @@
         <v>2098700434</v>
       </c>
       <c r="AA6" s="36">
-        <v>2098700436</v>
+        <v>2154140324</v>
       </c>
       <c r="AB6" s="36">
-        <v>2154140324</v>
+        <v>2154150497</v>
       </c>
       <c r="AC6" s="36">
-        <v>2154150497</v>
-      </c>
-      <c r="AD6" s="36">
         <v>2088702198</v>
       </c>
     </row>
@@ -8017,24 +8013,21 @@
         <v>2154160037</v>
       </c>
       <c r="U8" s="36">
-        <v>2088702198</v>
+        <v>2088702199</v>
       </c>
       <c r="V8" s="36">
-        <v>2088702199</v>
+        <v>2088702200</v>
       </c>
       <c r="W8" s="36">
-        <v>2088702200</v>
+        <v>2088702207</v>
       </c>
       <c r="X8" s="36">
-        <v>2088702207</v>
+        <v>2088702221</v>
       </c>
       <c r="Y8" s="36">
-        <v>2088702221</v>
+        <v>2088702318</v>
       </c>
       <c r="Z8" s="36">
-        <v>2088702318</v>
-      </c>
-      <c r="AA8" s="36">
         <v>2088707042</v>
       </c>
     </row>
@@ -8079,13 +8072,7 @@
         <v>2154160037</v>
       </c>
       <c r="N9" s="36">
-        <v>2098706085</v>
-      </c>
-      <c r="O9" s="36">
         <v>2098700437</v>
-      </c>
-      <c r="P9" s="36">
-        <v>2098706085</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.35">
@@ -8101,22 +8088,16 @@
       <c r="D10" s="36">
         <v>2099700057</v>
       </c>
-      <c r="E10" s="36">
-        <v>2099700058</v>
-      </c>
-      <c r="F10" s="36">
-        <v>2099700059</v>
+      <c r="E10" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="I10" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="J10" s="36">
+      <c r="H10" s="36">
         <v>2154170049</v>
       </c>
     </row>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="549" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52A77088-08CB-4DCE-9DEF-C59156AB0458}"/>
+  <xr:revisionPtr revIDLastSave="577" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74DC6F1F-E1E9-4CA5-9EB5-0E03EB2A142C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="429">
   <si>
     <t>Col 1</t>
   </si>
@@ -1372,7 +1372,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1419,6 +1419,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1669,7 +1675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1746,6 +1752,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6104,8 +6112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7070,70 +7078,64 @@
       <c r="B7" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="G7" s="40" t="s">
         <v>374</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="H7" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="I7" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="J7" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="K7" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="L7" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="N7" s="37" t="s">
+      <c r="M7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="37" t="s">
+      <c r="N7" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="37" t="s">
+      <c r="O7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="37" t="s">
+      <c r="P7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="Q7" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="S7" s="37" t="s">
-        <v>365</v>
-      </c>
-      <c r="T7" s="37" t="s">
+      <c r="R7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="U7" s="37" t="s">
+      <c r="S7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="V7" s="37" t="s">
+      <c r="T7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="W7" s="37" t="s">
+      <c r="U7" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="X7" s="37" t="s">
+      <c r="V7" s="41" t="s">
         <v>288</v>
       </c>
     </row>
@@ -7320,8 +7322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AY11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="577" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74DC6F1F-E1E9-4CA5-9EB5-0E03EB2A142C}"/>
+  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC2E81B-B508-4E12-A8C8-E696270C51E0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -6112,7 +6112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CW10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7322,8 +7322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AY11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7590,6 +7590,9 @@
       <c r="AG3" s="36">
         <v>2098700429</v>
       </c>
+      <c r="AH3" s="36">
+        <v>2088701610</v>
+      </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -7707,6 +7710,9 @@
       </c>
       <c r="T5" s="36">
         <v>2088702199</v>
+      </c>
+      <c r="U5" s="36">
+        <v>2098706010</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.35">

--- a/backend/data/AutomatedLines.xlsx
+++ b/backend/data/AutomatedLines.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kochind-my.sharepoint.com/personal/moises_ramirez1_molex_com/Documents/aplicacionWeb/WebAppLineFinder/backend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DC2E81B-B508-4E12-A8C8-E696270C51E0}"/>
+  <xr:revisionPtr revIDLastSave="582" documentId="13_ncr:1_{9CF0DDEB-C0A7-4BC9-A395-14399483BEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C3C5EC-2F14-4530-8072-BA87447F3FFB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7322,8 +7322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7593,6 +7593,9 @@
       <c r="AH3" s="36">
         <v>2088701610</v>
       </c>
+      <c r="AI3" s="36">
+        <v>2098700189</v>
+      </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
